--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -319,23 +319,11 @@
   <cellXfs count="24">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="3" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="4" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="5" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="6" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="10" xfId="0" applyBorder="1" applyAlignment="1">
@@ -344,8 +332,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -358,9 +344,23 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M55" workbookViewId="0">
-      <selection activeCell="W58" sqref="W58:AF72"/>
+    <sheetView tabSelected="1" topLeftCell="M82" workbookViewId="0">
+      <selection activeCell="Y88" sqref="Y88"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,218 +674,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="2" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="2"/>
-      <c r="D4" s="2"/>
-      <c r="E4" s="2"/>
-      <c r="F4" s="2"/>
-      <c r="G4" s="2"/>
-      <c r="H4" s="2"/>
-      <c r="I4" s="2"/>
-      <c r="J4" s="2"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="2" t="s">
+      <c r="M4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="2"/>
-      <c r="O4" s="2"/>
-      <c r="P4" s="2"/>
-      <c r="Q4" s="2"/>
-      <c r="R4" s="2"/>
-      <c r="S4" s="2"/>
-      <c r="T4" s="2"/>
-      <c r="U4" s="2"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="8" t="s">
+      <c r="X4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="9"/>
-      <c r="Z4" s="9"/>
-      <c r="AA4" s="9"/>
-      <c r="AB4" s="9"/>
-      <c r="AC4" s="9"/>
-      <c r="AD4" s="9"/>
-      <c r="AE4" s="9"/>
-      <c r="AF4" s="10"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="21"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="2" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="2"/>
-      <c r="D5" s="2"/>
-      <c r="E5" s="2"/>
-      <c r="F5" s="2"/>
-      <c r="G5" s="2"/>
-      <c r="H5" s="2"/>
-      <c r="I5" s="2"/>
-      <c r="J5" s="2"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="2" t="s">
+      <c r="M5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="2"/>
-      <c r="O5" s="2"/>
-      <c r="P5" s="2"/>
-      <c r="Q5" s="2"/>
-      <c r="R5" s="2"/>
-      <c r="S5" s="2"/>
-      <c r="T5" s="2"/>
-      <c r="U5" s="2"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="8" t="s">
+      <c r="X5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="9"/>
-      <c r="Z5" s="9"/>
-      <c r="AA5" s="9"/>
-      <c r="AB5" s="9"/>
-      <c r="AC5" s="9"/>
-      <c r="AD5" s="9"/>
-      <c r="AE5" s="9"/>
-      <c r="AF5" s="10"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="21"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="2" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="2"/>
-      <c r="D6" s="2"/>
-      <c r="E6" s="2" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="2"/>
-      <c r="G6" s="2"/>
-      <c r="H6" s="2" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="2"/>
-      <c r="J6" s="2"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="2" t="s">
+      <c r="M6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="2"/>
-      <c r="O6" s="2"/>
-      <c r="P6" s="2" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="2"/>
-      <c r="R6" s="2"/>
-      <c r="S6" s="2" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="2"/>
-      <c r="U6" s="2"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="8" t="s">
+      <c r="X6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="9"/>
-      <c r="Z6" s="10"/>
-      <c r="AA6" s="8" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="9"/>
-      <c r="AC6" s="10"/>
-      <c r="AD6" s="8" t="s">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="9"/>
-      <c r="AF6" s="10"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="21"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -915,7 +915,7 @@
       <c r="J7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L7" s="17"/>
+      <c r="L7" s="11"/>
       <c r="M7" s="1" t="s">
         <v>8</v>
       </c>
@@ -943,7 +943,7 @@
       <c r="U7" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W7" s="17"/>
+      <c r="W7" s="11"/>
       <c r="X7" s="1" t="s">
         <v>8</v>
       </c>
@@ -1801,64 +1801,64 @@
       </c>
     </row>
     <row r="17" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A17" s="3" t="s">
+      <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="B17" s="3">
+      <c r="B17" s="2">
         <v>2</v>
       </c>
-      <c r="C17" s="3">
+      <c r="C17" s="2">
         <v>1083</v>
       </c>
-      <c r="D17" s="3">
+      <c r="D17" s="2">
         <v>70</v>
       </c>
-      <c r="E17" s="3">
+      <c r="E17" s="2">
         <v>4</v>
       </c>
-      <c r="F17" s="3">
+      <c r="F17" s="2">
         <v>1680</v>
       </c>
-      <c r="G17" s="3">
+      <c r="G17" s="2">
         <v>68</v>
       </c>
-      <c r="H17" s="3">
+      <c r="H17" s="2">
         <v>2</v>
       </c>
-      <c r="I17" s="3">
+      <c r="I17" s="2">
         <v>1150</v>
       </c>
-      <c r="J17" s="3">
+      <c r="J17" s="2">
         <v>67</v>
       </c>
-      <c r="L17" s="3" t="s">
+      <c r="L17" s="2" t="s">
         <v>20</v>
       </c>
-      <c r="M17" s="3">
+      <c r="M17" s="2">
         <v>10.95</v>
       </c>
-      <c r="N17" s="3">
+      <c r="N17" s="2">
         <v>4177</v>
       </c>
-      <c r="O17" s="3">
+      <c r="O17" s="2">
         <v>140</v>
       </c>
-      <c r="P17" s="3">
+      <c r="P17" s="2">
         <v>40.049999999999997</v>
       </c>
-      <c r="Q17" s="3">
+      <c r="Q17" s="2">
         <v>10971</v>
       </c>
-      <c r="R17" s="3">
+      <c r="R17" s="2">
         <v>139</v>
       </c>
-      <c r="S17" s="3">
+      <c r="S17" s="2">
         <v>11.02</v>
       </c>
-      <c r="T17" s="3">
+      <c r="T17" s="2">
         <v>4266</v>
       </c>
-      <c r="U17" s="3">
+      <c r="U17" s="2">
         <v>140</v>
       </c>
       <c r="W17" s="1" t="s">
@@ -1893,298 +1893,298 @@
       </c>
     </row>
     <row r="18" spans="1:32" ht="15.75" thickBot="1">
-      <c r="A18" s="4" t="s">
+      <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="B18" s="5">
+      <c r="B18" s="4">
         <f t="shared" ref="B18:J18" si="0">AVERAGE(B8:B17)</f>
         <v>3.8009999999999997</v>
       </c>
-      <c r="C18" s="5">
+      <c r="C18" s="4">
         <f t="shared" si="0"/>
         <v>1014.3</v>
       </c>
-      <c r="D18" s="5">
+      <c r="D18" s="4">
         <f t="shared" si="0"/>
         <v>68.7</v>
       </c>
-      <c r="E18" s="5">
+      <c r="E18" s="4">
         <f t="shared" si="0"/>
         <v>5.4029999999999996</v>
       </c>
-      <c r="F18" s="5">
+      <c r="F18" s="4">
         <f t="shared" si="0"/>
         <v>1540.9</v>
       </c>
-      <c r="G18" s="5">
+      <c r="G18" s="4">
         <f t="shared" si="0"/>
         <v>68.7</v>
       </c>
-      <c r="H18" s="5">
+      <c r="H18" s="4">
         <f t="shared" si="0"/>
         <v>4.0009999999999994</v>
       </c>
-      <c r="I18" s="5">
+      <c r="I18" s="4">
         <f t="shared" si="0"/>
         <v>1053.4000000000001</v>
       </c>
-      <c r="J18" s="6">
+      <c r="J18" s="5">
         <f t="shared" si="0"/>
         <v>68.099999999999994</v>
       </c>
-      <c r="L18" s="4" t="s">
+      <c r="L18" s="3" t="s">
         <v>27</v>
       </c>
-      <c r="M18" s="5">
+      <c r="M18" s="4">
         <f t="shared" ref="M18:U18" si="1">AVERAGE(M8:M17)</f>
         <v>12.205000000000002</v>
       </c>
-      <c r="N18" s="5">
+      <c r="N18" s="4">
         <f t="shared" si="1"/>
         <v>3914.5</v>
       </c>
-      <c r="O18" s="5">
+      <c r="O18" s="4">
         <f t="shared" si="1"/>
         <v>136</v>
       </c>
-      <c r="P18" s="5">
+      <c r="P18" s="4">
         <f t="shared" si="1"/>
         <v>35.075000000000003</v>
       </c>
-      <c r="Q18" s="5">
+      <c r="Q18" s="4">
         <f t="shared" si="1"/>
         <v>9378</v>
       </c>
-      <c r="R18" s="5">
+      <c r="R18" s="4">
         <f t="shared" si="1"/>
         <v>135</v>
       </c>
-      <c r="S18" s="5">
+      <c r="S18" s="4">
         <f t="shared" si="1"/>
         <v>12.215</v>
       </c>
-      <c r="T18" s="5">
+      <c r="T18" s="4">
         <f t="shared" si="1"/>
         <v>4006.4</v>
       </c>
-      <c r="U18" s="6">
+      <c r="U18" s="5">
         <f t="shared" si="1"/>
         <v>135.30000000000001</v>
       </c>
       <c r="W18" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X18" s="18">
+      <c r="X18" s="12">
         <f t="shared" ref="X18:AF18" si="2">AVERAGE(X8:X17)</f>
         <v>52.85</v>
       </c>
-      <c r="Y18" s="18">
+      <c r="Y18" s="12">
         <f t="shared" si="2"/>
         <v>16044</v>
       </c>
-      <c r="Z18" s="18">
+      <c r="Z18" s="12">
         <f t="shared" si="2"/>
         <v>270</v>
       </c>
-      <c r="AA18" s="18">
+      <c r="AA18" s="12">
         <f t="shared" si="2"/>
         <v>126.523</v>
       </c>
-      <c r="AB18" s="18">
+      <c r="AB18" s="12">
         <f t="shared" si="2"/>
         <v>34078.1</v>
       </c>
-      <c r="AC18" s="18">
+      <c r="AC18" s="12">
         <f t="shared" si="2"/>
         <v>269.2</v>
       </c>
-      <c r="AD18" s="18">
+      <c r="AD18" s="12">
         <f t="shared" si="2"/>
         <v>47.024999999999999</v>
       </c>
-      <c r="AE18" s="18">
+      <c r="AE18" s="12">
         <f t="shared" si="2"/>
         <v>16482</v>
       </c>
-      <c r="AF18" s="18">
+      <c r="AF18" s="12">
         <f t="shared" si="2"/>
         <v>270.2</v>
       </c>
     </row>
     <row r="22" spans="1:32">
-      <c r="A22" s="7" t="s">
+      <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="8" t="s">
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="9"/>
-      <c r="D22" s="9"/>
-      <c r="E22" s="9"/>
-      <c r="F22" s="9"/>
-      <c r="G22" s="9"/>
-      <c r="H22" s="9"/>
-      <c r="I22" s="9"/>
-      <c r="J22" s="10"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="8" t="s">
+      <c r="M22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="9"/>
-      <c r="O22" s="9"/>
-      <c r="P22" s="9"/>
-      <c r="Q22" s="9"/>
-      <c r="R22" s="9"/>
-      <c r="S22" s="9"/>
-      <c r="T22" s="9"/>
-      <c r="U22" s="10"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="21"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="8" t="s">
+      <c r="X22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="9"/>
-      <c r="Z22" s="9"/>
-      <c r="AA22" s="9"/>
-      <c r="AB22" s="9"/>
-      <c r="AC22" s="9"/>
-      <c r="AD22" s="9"/>
-      <c r="AE22" s="9"/>
-      <c r="AF22" s="10"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="21"/>
     </row>
     <row r="23" spans="1:32">
-      <c r="A23" s="11" t="s">
+      <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="8" t="s">
+      <c r="B23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="9"/>
-      <c r="D23" s="9"/>
-      <c r="E23" s="9"/>
-      <c r="F23" s="9"/>
-      <c r="G23" s="9"/>
-      <c r="H23" s="9"/>
-      <c r="I23" s="9"/>
-      <c r="J23" s="10"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="8" t="s">
+      <c r="M23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="9"/>
-      <c r="O23" s="9"/>
-      <c r="P23" s="9"/>
-      <c r="Q23" s="9"/>
-      <c r="R23" s="9"/>
-      <c r="S23" s="9"/>
-      <c r="T23" s="9"/>
-      <c r="U23" s="10"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="8" t="s">
+      <c r="X23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="9"/>
-      <c r="Z23" s="9"/>
-      <c r="AA23" s="9"/>
-      <c r="AB23" s="9"/>
-      <c r="AC23" s="9"/>
-      <c r="AD23" s="9"/>
-      <c r="AE23" s="9"/>
-      <c r="AF23" s="10"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32">
-      <c r="A24" s="12" t="s">
+      <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="8" t="s">
+      <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="13"/>
-      <c r="D24" s="14"/>
-      <c r="E24" s="8" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="13"/>
-      <c r="G24" s="14"/>
-      <c r="H24" s="8" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="13"/>
-      <c r="J24" s="14"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="8" t="s">
+      <c r="M24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="9"/>
-      <c r="O24" s="10"/>
-      <c r="P24" s="8" t="s">
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="9"/>
-      <c r="R24" s="10"/>
-      <c r="S24" s="2" t="s">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="2"/>
-      <c r="U24" s="2"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="8" t="s">
+      <c r="X24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="9"/>
-      <c r="Z24" s="10"/>
-      <c r="AA24" s="8" t="s">
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="9"/>
-      <c r="AC24" s="10"/>
-      <c r="AD24" s="8" t="s">
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="9"/>
-      <c r="AF24" s="10"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="21"/>
     </row>
     <row r="25" spans="1:32">
-      <c r="A25" s="15"/>
-      <c r="B25" s="16" t="s">
+      <c r="A25" s="9"/>
+      <c r="B25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="C25" s="16" t="s">
+      <c r="C25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="D25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="E25" s="16" t="s">
+      <c r="D25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="E25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="F25" s="16" t="s">
+      <c r="F25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="G25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="H25" s="16" t="s">
+      <c r="G25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="H25" s="10" t="s">
         <v>8</v>
       </c>
-      <c r="I25" s="16" t="s">
+      <c r="I25" s="10" t="s">
         <v>9</v>
       </c>
-      <c r="J25" s="16" t="s">
-        <v>10</v>
-      </c>
-      <c r="L25" s="17"/>
+      <c r="J25" s="10" t="s">
+        <v>10</v>
+      </c>
+      <c r="L25" s="11"/>
       <c r="M25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2212,7 +2212,7 @@
       <c r="U25" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W25" s="17"/>
+      <c r="W25" s="11"/>
       <c r="X25" s="1" t="s">
         <v>8</v>
       </c>
@@ -2242,40 +2242,40 @@
       </c>
     </row>
     <row r="26" spans="1:32">
-      <c r="A26" s="16" t="s">
+      <c r="A26" s="10" t="s">
         <v>23</v>
       </c>
       <c r="B26" s="1">
         <v>3.5019999999999998</v>
       </c>
-      <c r="C26" s="16">
+      <c r="C26" s="10">
         <v>840</v>
       </c>
-      <c r="D26" s="16">
+      <c r="D26" s="10">
         <v>67</v>
       </c>
       <c r="E26" s="1">
         <v>4.1020000000000003</v>
       </c>
-      <c r="F26" s="16">
+      <c r="F26" s="10">
         <v>977</v>
       </c>
-      <c r="G26" s="16">
+      <c r="G26" s="10">
         <v>67</v>
       </c>
       <c r="H26" s="1">
         <v>3.5009999999999999</v>
       </c>
-      <c r="I26" s="16">
+      <c r="I26" s="10">
         <v>848</v>
       </c>
-      <c r="J26" s="16">
+      <c r="J26" s="10">
         <v>67</v>
       </c>
       <c r="L26" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="M26" s="21">
+      <c r="M26" s="15">
         <v>11.297000000000001</v>
       </c>
       <c r="N26" s="1">
@@ -2284,7 +2284,7 @@
       <c r="O26" s="1">
         <v>132</v>
       </c>
-      <c r="P26" s="19">
+      <c r="P26" s="13">
         <v>15.414999999999999</v>
       </c>
       <c r="Q26" s="1">
@@ -2293,7 +2293,7 @@
       <c r="R26" s="1">
         <v>132</v>
       </c>
-      <c r="S26" s="20">
+      <c r="S26" s="14">
         <v>11.911</v>
       </c>
       <c r="T26" s="1">
@@ -2305,7 +2305,7 @@
       <c r="W26" s="1" t="s">
         <v>27</v>
       </c>
-      <c r="X26" s="21">
+      <c r="X26" s="15">
         <v>46.942999999999998</v>
       </c>
       <c r="Y26" s="1">
@@ -2314,7 +2314,7 @@
       <c r="Z26" s="1">
         <v>263</v>
       </c>
-      <c r="AA26" s="19">
+      <c r="AA26" s="13">
         <v>66.781999999999996</v>
       </c>
       <c r="AB26" s="1">
@@ -2323,7 +2323,7 @@
       <c r="AC26" s="1">
         <v>263</v>
       </c>
-      <c r="AD26" s="20">
+      <c r="AD26" s="14">
         <v>40.095999999999997</v>
       </c>
       <c r="AE26" s="1">
@@ -2334,218 +2334,218 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="2" t="s">
+      <c r="B31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="2"/>
-      <c r="D31" s="2"/>
-      <c r="E31" s="2"/>
-      <c r="F31" s="2"/>
-      <c r="G31" s="2"/>
-      <c r="H31" s="2"/>
-      <c r="I31" s="2"/>
-      <c r="J31" s="2"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="L31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="2" t="s">
+      <c r="M31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="2"/>
-      <c r="O31" s="2"/>
-      <c r="P31" s="2"/>
-      <c r="Q31" s="2"/>
-      <c r="R31" s="2"/>
-      <c r="S31" s="2"/>
-      <c r="T31" s="2"/>
-      <c r="U31" s="2"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
       <c r="W31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="2" t="s">
+      <c r="X31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="2"/>
-      <c r="Z31" s="2"/>
-      <c r="AA31" s="2"/>
-      <c r="AB31" s="2"/>
-      <c r="AC31" s="2"/>
-      <c r="AD31" s="2"/>
-      <c r="AE31" s="2"/>
-      <c r="AF31" s="2"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="2" t="s">
+      <c r="B32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="2"/>
-      <c r="D32" s="2"/>
-      <c r="E32" s="2"/>
-      <c r="F32" s="2"/>
-      <c r="G32" s="2"/>
-      <c r="H32" s="2"/>
-      <c r="I32" s="2"/>
-      <c r="J32" s="2"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="L32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="2" t="s">
+      <c r="M32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="2"/>
-      <c r="O32" s="2"/>
-      <c r="P32" s="2"/>
-      <c r="Q32" s="2"/>
-      <c r="R32" s="2"/>
-      <c r="S32" s="2"/>
-      <c r="T32" s="2"/>
-      <c r="U32" s="2"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
       <c r="W32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="2" t="s">
+      <c r="X32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="2"/>
-      <c r="Z32" s="2"/>
-      <c r="AA32" s="2"/>
-      <c r="AB32" s="2"/>
-      <c r="AC32" s="2"/>
-      <c r="AD32" s="2"/>
-      <c r="AE32" s="2"/>
-      <c r="AF32" s="2"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="2" t="s">
+      <c r="B33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="2"/>
-      <c r="D33" s="2"/>
-      <c r="E33" s="2" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="2"/>
-      <c r="G33" s="2"/>
-      <c r="H33" s="2" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="2"/>
-      <c r="J33" s="2"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="2" t="s">
+      <c r="M33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="2"/>
-      <c r="O33" s="2"/>
-      <c r="P33" s="2" t="s">
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="2"/>
-      <c r="R33" s="2"/>
-      <c r="S33" s="2" t="s">
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="2"/>
-      <c r="U33" s="2"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
       <c r="W33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="2" t="s">
+      <c r="X33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="2"/>
-      <c r="Z33" s="2"/>
-      <c r="AA33" s="2" t="s">
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="2"/>
-      <c r="AC33" s="2"/>
-      <c r="AD33" s="2" t="s">
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="2"/>
-      <c r="AF33" s="2"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
@@ -2575,34 +2575,34 @@
       <c r="J34" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="M34" s="22" t="s">
+      <c r="M34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="N34" s="22" t="s">
+      <c r="N34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="O34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="P34" s="22" t="s">
+      <c r="O34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="P34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="Q34" s="22" t="s">
+      <c r="Q34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="R34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="S34" s="22" t="s">
+      <c r="R34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="S34" s="16" t="s">
         <v>8</v>
       </c>
-      <c r="T34" s="22" t="s">
+      <c r="T34" s="16" t="s">
         <v>9</v>
       </c>
-      <c r="U34" s="22" t="s">
-        <v>10</v>
-      </c>
-      <c r="W34" s="17"/>
+      <c r="U34" s="16" t="s">
+        <v>10</v>
+      </c>
+      <c r="W34" s="11"/>
       <c r="X34" s="1" t="s">
         <v>8</v>
       </c>
@@ -2632,7 +2632,7 @@
       </c>
     </row>
     <row r="35" spans="1:32">
-      <c r="A35" s="21" t="s">
+      <c r="A35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B35" s="1">
@@ -2662,7 +2662,7 @@
       <c r="J35" s="1">
         <v>117</v>
       </c>
-      <c r="L35" s="21" t="s">
+      <c r="L35" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M35" s="1">
@@ -2724,7 +2724,7 @@
       </c>
     </row>
     <row r="36" spans="1:32">
-      <c r="A36" s="21" t="s">
+      <c r="A36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B36" s="1">
@@ -2754,7 +2754,7 @@
       <c r="J36" s="1">
         <v>117</v>
       </c>
-      <c r="L36" s="21" t="s">
+      <c r="L36" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M36" s="1">
@@ -2816,7 +2816,7 @@
       </c>
     </row>
     <row r="37" spans="1:32">
-      <c r="A37" s="21" t="s">
+      <c r="A37" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B37" s="1">
@@ -2846,7 +2846,7 @@
       <c r="J37" s="1">
         <v>117</v>
       </c>
-      <c r="L37" s="21" t="s">
+      <c r="L37" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M37" s="1">
@@ -2908,7 +2908,7 @@
       </c>
     </row>
     <row r="38" spans="1:32">
-      <c r="A38" s="21" t="s">
+      <c r="A38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B38" s="1">
@@ -2938,7 +2938,7 @@
       <c r="J38" s="1">
         <v>119</v>
       </c>
-      <c r="L38" s="21" t="s">
+      <c r="L38" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M38" s="1">
@@ -3000,7 +3000,7 @@
       </c>
     </row>
     <row r="39" spans="1:32">
-      <c r="A39" s="21" t="s">
+      <c r="A39" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B39" s="1">
@@ -3030,7 +3030,7 @@
       <c r="J39" s="1">
         <v>118</v>
       </c>
-      <c r="L39" s="21" t="s">
+      <c r="L39" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M39" s="1">
@@ -3092,7 +3092,7 @@
       </c>
     </row>
     <row r="40" spans="1:32">
-      <c r="A40" s="21" t="s">
+      <c r="A40" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B40" s="1">
@@ -3122,7 +3122,7 @@
       <c r="J40" s="1">
         <v>118</v>
       </c>
-      <c r="L40" s="21" t="s">
+      <c r="L40" s="15" t="s">
         <v>16</v>
       </c>
       <c r="M40" s="1">
@@ -3184,7 +3184,7 @@
       </c>
     </row>
     <row r="41" spans="1:32">
-      <c r="A41" s="21" t="s">
+      <c r="A41" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B41" s="1">
@@ -3214,7 +3214,7 @@
       <c r="J41" s="1">
         <v>119</v>
       </c>
-      <c r="L41" s="21" t="s">
+      <c r="L41" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M41" s="1">
@@ -3276,7 +3276,7 @@
       </c>
     </row>
     <row r="42" spans="1:32">
-      <c r="A42" s="21" t="s">
+      <c r="A42" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B42" s="1">
@@ -3306,7 +3306,7 @@
       <c r="J42" s="1">
         <v>119</v>
       </c>
-      <c r="L42" s="21" t="s">
+      <c r="L42" s="15" t="s">
         <v>18</v>
       </c>
       <c r="M42" s="1">
@@ -3368,7 +3368,7 @@
       </c>
     </row>
     <row r="43" spans="1:32">
-      <c r="A43" s="21" t="s">
+      <c r="A43" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B43" s="1">
@@ -3398,7 +3398,7 @@
       <c r="J43" s="1">
         <v>118</v>
       </c>
-      <c r="L43" s="21" t="s">
+      <c r="L43" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M43" s="1">
@@ -3460,7 +3460,7 @@
       </c>
     </row>
     <row r="44" spans="1:32">
-      <c r="A44" s="21" t="s">
+      <c r="A44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B44" s="1">
@@ -3490,7 +3490,7 @@
       <c r="J44" s="1">
         <v>131</v>
       </c>
-      <c r="L44" s="21" t="s">
+      <c r="L44" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M44" s="1">
@@ -3552,120 +3552,120 @@
       </c>
     </row>
     <row r="45" spans="1:32">
-      <c r="A45" s="21" t="s">
+      <c r="A45" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="B45" s="18">
-        <f>AVERAGE(B35:B44)</f>
+      <c r="B45" s="12">
+        <f t="shared" ref="B45:J45" si="3">AVERAGE(B35:B44)</f>
         <v>2.4990000000000001</v>
       </c>
-      <c r="C45" s="18">
-        <f>AVERAGE(C35:C44)</f>
+      <c r="C45" s="12">
+        <f t="shared" si="3"/>
         <v>1389.3</v>
       </c>
-      <c r="D45" s="18">
-        <f>AVERAGE(D35:D44)</f>
+      <c r="D45" s="12">
+        <f t="shared" si="3"/>
         <v>120</v>
       </c>
-      <c r="E45" s="18">
-        <f>AVERAGE(E35:E44)</f>
+      <c r="E45" s="12">
+        <f t="shared" si="3"/>
         <v>2.9029999999999996</v>
       </c>
-      <c r="F45" s="18">
-        <f>AVERAGE(F35:F44)</f>
+      <c r="F45" s="12">
+        <f t="shared" si="3"/>
         <v>1574</v>
       </c>
-      <c r="G45" s="18">
-        <f>AVERAGE(G35:G44)</f>
+      <c r="G45" s="12">
+        <f t="shared" si="3"/>
         <v>118.7</v>
       </c>
-      <c r="H45" s="18">
-        <f>AVERAGE(H35:H44)</f>
+      <c r="H45" s="12">
+        <f t="shared" si="3"/>
         <v>2.0009999999999999</v>
       </c>
-      <c r="I45" s="18">
-        <f>AVERAGE(I35:I44)</f>
+      <c r="I45" s="12">
+        <f t="shared" si="3"/>
         <v>1326.3</v>
       </c>
-      <c r="J45" s="18">
-        <f>AVERAGE(J35:J44)</f>
+      <c r="J45" s="12">
+        <f t="shared" si="3"/>
         <v>119.3</v>
       </c>
-      <c r="L45" s="21" t="s">
+      <c r="L45" s="15" t="s">
         <v>21</v>
       </c>
-      <c r="M45" s="18">
-        <f>AVERAGE(M35:M44)</f>
+      <c r="M45" s="12">
+        <f t="shared" ref="M45:U45" si="4">AVERAGE(M35:M44)</f>
         <v>7.293000000000001</v>
       </c>
-      <c r="N45" s="18">
-        <f>AVERAGE(N35:N44)</f>
+      <c r="N45" s="12">
+        <f t="shared" si="4"/>
         <v>5701.3</v>
       </c>
-      <c r="O45" s="18">
-        <f>AVERAGE(O35:O44)</f>
+      <c r="O45" s="12">
+        <f t="shared" si="4"/>
         <v>237.8</v>
       </c>
-      <c r="P45" s="18">
-        <f>AVERAGE(P35:P44)</f>
+      <c r="P45" s="12">
+        <f t="shared" si="4"/>
         <v>11.501999999999999</v>
       </c>
-      <c r="Q45" s="18">
-        <f>AVERAGE(Q35:Q44)</f>
+      <c r="Q45" s="12">
+        <f t="shared" si="4"/>
         <v>7044.4</v>
       </c>
-      <c r="R45" s="18">
-        <f>AVERAGE(R35:R44)</f>
+      <c r="R45" s="12">
+        <f t="shared" si="4"/>
         <v>235.7</v>
       </c>
-      <c r="S45" s="18">
-        <f>AVERAGE(S35:S44)</f>
+      <c r="S45" s="12">
+        <f t="shared" si="4"/>
         <v>7.2710000000000008</v>
       </c>
-      <c r="T45" s="18">
-        <f>AVERAGE(T35:T44)</f>
+      <c r="T45" s="12">
+        <f t="shared" si="4"/>
         <v>5760.3</v>
       </c>
-      <c r="U45" s="18">
-        <f>AVERAGE(U35:U44)</f>
+      <c r="U45" s="12">
+        <f t="shared" si="4"/>
         <v>237.9</v>
       </c>
       <c r="W45" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="X45" s="18">
-        <f t="shared" ref="X45:AE45" si="3">AVERAGE(X35:X44)</f>
+      <c r="X45" s="12">
+        <f t="shared" ref="X45:AE45" si="5">AVERAGE(X35:X44)</f>
         <v>57.031999999999996</v>
       </c>
-      <c r="Y45" s="18">
-        <f t="shared" si="3"/>
+      <c r="Y45" s="12">
+        <f t="shared" si="5"/>
         <v>22146.2</v>
       </c>
-      <c r="Z45" s="18">
-        <f t="shared" si="3"/>
+      <c r="Z45" s="12">
+        <f t="shared" si="5"/>
         <v>474.8</v>
       </c>
-      <c r="AA45" s="18">
+      <c r="AA45" s="12">
         <f>AVERAGE(AA36:AA44)</f>
         <v>68.484444444444449</v>
       </c>
-      <c r="AB45" s="18">
-        <f t="shared" si="3"/>
+      <c r="AB45" s="12">
+        <f t="shared" si="5"/>
         <v>29944.9</v>
       </c>
-      <c r="AC45" s="18">
-        <f t="shared" si="3"/>
+      <c r="AC45" s="12">
+        <f t="shared" si="5"/>
         <v>476.7</v>
       </c>
-      <c r="AD45" s="18">
-        <f t="shared" si="3"/>
+      <c r="AD45" s="12">
+        <f t="shared" si="5"/>
         <v>44.622999999999998</v>
       </c>
-      <c r="AE45" s="18">
-        <f t="shared" si="3"/>
+      <c r="AE45" s="12">
+        <f t="shared" si="5"/>
         <v>22083.3</v>
       </c>
-      <c r="AF45" s="18">
+      <c r="AF45" s="12">
         <f>AVERAGE(AF35:AF44)</f>
         <v>474.4</v>
       </c>
@@ -3674,148 +3674,148 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="2" t="s">
+      <c r="B49" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="2"/>
-      <c r="D49" s="2"/>
-      <c r="E49" s="2"/>
-      <c r="F49" s="2"/>
-      <c r="G49" s="2"/>
-      <c r="H49" s="2"/>
-      <c r="I49" s="2"/>
-      <c r="J49" s="2"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
       <c r="L49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="2" t="s">
+      <c r="M49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="2"/>
-      <c r="O49" s="2"/>
-      <c r="P49" s="2"/>
-      <c r="Q49" s="2"/>
-      <c r="R49" s="2"/>
-      <c r="S49" s="2"/>
-      <c r="T49" s="2"/>
-      <c r="U49" s="2"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
       <c r="W49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X49" s="2" t="s">
+      <c r="X49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="2"/>
-      <c r="Z49" s="2"/>
-      <c r="AA49" s="2"/>
-      <c r="AB49" s="2"/>
-      <c r="AC49" s="2"/>
-      <c r="AD49" s="2"/>
-      <c r="AE49" s="2"/>
-      <c r="AF49" s="2"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="2" t="s">
+      <c r="B50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="2"/>
-      <c r="D50" s="2"/>
-      <c r="E50" s="2"/>
-      <c r="F50" s="2"/>
-      <c r="G50" s="2"/>
-      <c r="H50" s="2"/>
-      <c r="I50" s="2"/>
-      <c r="J50" s="2"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
       <c r="L50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="2" t="s">
+      <c r="M50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="2"/>
-      <c r="O50" s="2"/>
-      <c r="P50" s="2"/>
-      <c r="Q50" s="2"/>
-      <c r="R50" s="2"/>
-      <c r="S50" s="2"/>
-      <c r="T50" s="2"/>
-      <c r="U50" s="2"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="2" t="s">
+      <c r="X50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y50" s="2"/>
-      <c r="Z50" s="2"/>
-      <c r="AA50" s="2"/>
-      <c r="AB50" s="2"/>
-      <c r="AC50" s="2"/>
-      <c r="AD50" s="2"/>
-      <c r="AE50" s="2"/>
-      <c r="AF50" s="2"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="2" t="s">
+      <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="2"/>
-      <c r="D51" s="2"/>
-      <c r="E51" s="2" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="2"/>
-      <c r="G51" s="2"/>
-      <c r="H51" s="2" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="2"/>
-      <c r="J51" s="2"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="2" t="s">
+      <c r="M51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="2"/>
-      <c r="O51" s="2"/>
-      <c r="P51" s="2" t="s">
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="2"/>
-      <c r="R51" s="2"/>
-      <c r="S51" s="2" t="s">
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="2"/>
-      <c r="U51" s="2"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
       <c r="W51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="2" t="s">
+      <c r="X51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="2"/>
-      <c r="Z51" s="2"/>
-      <c r="AA51" s="2" t="s">
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB51" s="2"/>
-      <c r="AC51" s="2"/>
-      <c r="AD51" s="2" t="s">
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="2"/>
-      <c r="AF51" s="2"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
     </row>
     <row r="52" spans="1:32">
-      <c r="A52" s="17"/>
+      <c r="A52" s="11"/>
       <c r="B52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3843,7 +3843,7 @@
       <c r="J52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="L52" s="17"/>
+      <c r="L52" s="11"/>
       <c r="M52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3871,7 +3871,7 @@
       <c r="U52" s="1" t="s">
         <v>10</v>
       </c>
-      <c r="W52" s="17"/>
+      <c r="W52" s="11"/>
       <c r="X52" s="1" t="s">
         <v>8</v>
       </c>
@@ -3993,221 +3993,221 @@
       </c>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="2" t="s">
+      <c r="B58" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="2"/>
-      <c r="D58" s="2"/>
-      <c r="E58" s="2"/>
-      <c r="F58" s="2"/>
-      <c r="G58" s="2"/>
-      <c r="H58" s="2"/>
-      <c r="I58" s="2"/>
-      <c r="J58" s="2"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
       <c r="L58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="2" t="s">
+      <c r="M58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="2"/>
-      <c r="O58" s="2"/>
-      <c r="P58" s="2"/>
-      <c r="Q58" s="2"/>
-      <c r="R58" s="2"/>
-      <c r="S58" s="2"/>
-      <c r="T58" s="2"/>
-      <c r="U58" s="2"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
       <c r="W58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X58" s="2" t="s">
+      <c r="X58" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="2"/>
-      <c r="Z58" s="2"/>
-      <c r="AA58" s="2"/>
-      <c r="AB58" s="2"/>
-      <c r="AC58" s="2"/>
-      <c r="AD58" s="2"/>
-      <c r="AE58" s="2"/>
-      <c r="AF58" s="2"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="2" t="s">
+      <c r="B59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="2"/>
-      <c r="D59" s="2"/>
-      <c r="E59" s="2"/>
-      <c r="F59" s="2"/>
-      <c r="G59" s="2"/>
-      <c r="H59" s="2"/>
-      <c r="I59" s="2"/>
-      <c r="J59" s="2"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="2" t="s">
+      <c r="M59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="2"/>
-      <c r="O59" s="2"/>
-      <c r="P59" s="2"/>
-      <c r="Q59" s="2"/>
-      <c r="R59" s="2"/>
-      <c r="S59" s="2"/>
-      <c r="T59" s="2"/>
-      <c r="U59" s="2"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
       <c r="W59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="2" t="s">
+      <c r="X59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="2"/>
-      <c r="Z59" s="2"/>
-      <c r="AA59" s="2"/>
-      <c r="AB59" s="2"/>
-      <c r="AC59" s="2"/>
-      <c r="AD59" s="2"/>
-      <c r="AE59" s="2"/>
-      <c r="AF59" s="2"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="8" t="s">
+      <c r="B60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="9"/>
-      <c r="D60" s="10"/>
-      <c r="E60" s="8" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="9"/>
-      <c r="G60" s="10"/>
-      <c r="H60" s="2" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="2"/>
-      <c r="J60" s="2"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="8" t="s">
+      <c r="M60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="9"/>
-      <c r="O60" s="10"/>
-      <c r="P60" s="8" t="s">
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="9"/>
-      <c r="R60" s="10"/>
-      <c r="S60" s="2" t="s">
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="2"/>
-      <c r="U60" s="2"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
       <c r="W60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="2" t="s">
+      <c r="X60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="2"/>
-      <c r="Z60" s="2"/>
-      <c r="AA60" s="2" t="s">
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB60" s="2"/>
-      <c r="AC60" s="2"/>
-      <c r="AD60" s="2" t="s">
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE60" s="2"/>
-      <c r="AF60" s="2"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
     </row>
     <row r="61" spans="1:32">
-      <c r="A61" s="17"/>
+      <c r="A61" s="11"/>
       <c r="B61" s="1" t="s">
         <v>8</v>
       </c>
@@ -4321,7 +4321,7 @@
       <c r="J62" s="1">
         <v>224</v>
       </c>
-      <c r="L62" s="21" t="s">
+      <c r="L62" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M62" s="1">
@@ -4351,7 +4351,7 @@
       <c r="U62" s="1">
         <v>452</v>
       </c>
-      <c r="W62" s="21" t="s">
+      <c r="W62" s="15" t="s">
         <v>11</v>
       </c>
       <c r="X62" s="1">
@@ -4413,7 +4413,7 @@
       <c r="J63" s="1">
         <v>225</v>
       </c>
-      <c r="L63" s="21" t="s">
+      <c r="L63" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M63" s="1">
@@ -4443,7 +4443,7 @@
       <c r="U63" s="1">
         <v>453</v>
       </c>
-      <c r="W63" s="21" t="s">
+      <c r="W63" s="15" t="s">
         <v>12</v>
       </c>
       <c r="X63" s="1">
@@ -4505,7 +4505,7 @@
       <c r="J64" s="1">
         <v>225</v>
       </c>
-      <c r="L64" s="21" t="s">
+      <c r="L64" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M64" s="1">
@@ -4535,7 +4535,7 @@
       <c r="U64" s="1">
         <v>457</v>
       </c>
-      <c r="W64" s="21" t="s">
+      <c r="W64" s="15" t="s">
         <v>13</v>
       </c>
       <c r="X64" s="1">
@@ -4597,7 +4597,7 @@
       <c r="J65" s="1">
         <v>226</v>
       </c>
-      <c r="L65" s="21" t="s">
+      <c r="L65" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M65" s="1">
@@ -4627,7 +4627,7 @@
       <c r="U65" s="1">
         <v>458</v>
       </c>
-      <c r="W65" s="21" t="s">
+      <c r="W65" s="15" t="s">
         <v>14</v>
       </c>
       <c r="X65" s="1">
@@ -4689,7 +4689,7 @@
       <c r="J66" s="1">
         <v>228</v>
       </c>
-      <c r="L66" s="21" t="s">
+      <c r="L66" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M66" s="1">
@@ -4719,7 +4719,7 @@
       <c r="U66" s="1">
         <v>458</v>
       </c>
-      <c r="W66" s="21" t="s">
+      <c r="W66" s="15" t="s">
         <v>15</v>
       </c>
       <c r="X66" s="1">
@@ -4781,7 +4781,7 @@
       <c r="J67" s="1">
         <v>229</v>
       </c>
-      <c r="L67" s="21" t="s">
+      <c r="L67" s="15" t="s">
         <v>16</v>
       </c>
       <c r="M67" s="1">
@@ -4811,7 +4811,7 @@
       <c r="U67" s="1">
         <v>461</v>
       </c>
-      <c r="W67" s="21" t="s">
+      <c r="W67" s="15" t="s">
         <v>16</v>
       </c>
       <c r="X67" s="1">
@@ -4873,7 +4873,7 @@
       <c r="J68" s="1">
         <v>225</v>
       </c>
-      <c r="L68" s="21" t="s">
+      <c r="L68" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M68" s="1">
@@ -4903,7 +4903,7 @@
       <c r="U68" s="1">
         <v>462</v>
       </c>
-      <c r="W68" s="21" t="s">
+      <c r="W68" s="15" t="s">
         <v>17</v>
       </c>
       <c r="X68" s="1">
@@ -4965,7 +4965,7 @@
       <c r="J69" s="1">
         <v>230</v>
       </c>
-      <c r="L69" s="21" t="s">
+      <c r="L69" s="15" t="s">
         <v>18</v>
       </c>
       <c r="M69" s="1">
@@ -4995,7 +4995,7 @@
       <c r="U69" s="1">
         <v>472</v>
       </c>
-      <c r="W69" s="21" t="s">
+      <c r="W69" s="15" t="s">
         <v>18</v>
       </c>
       <c r="X69" s="1">
@@ -5057,7 +5057,7 @@
       <c r="J70" s="1">
         <v>231</v>
       </c>
-      <c r="L70" s="21" t="s">
+      <c r="L70" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M70" s="1">
@@ -5087,7 +5087,7 @@
       <c r="U70" s="1">
         <v>482</v>
       </c>
-      <c r="W70" s="21" t="s">
+      <c r="W70" s="15" t="s">
         <v>19</v>
       </c>
       <c r="X70" s="1">
@@ -5149,7 +5149,7 @@
       <c r="J71" s="1">
         <v>233</v>
       </c>
-      <c r="L71" s="21" t="s">
+      <c r="L71" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M71" s="1">
@@ -5179,7 +5179,7 @@
       <c r="U71" s="1">
         <v>471</v>
       </c>
-      <c r="W71" s="21" t="s">
+      <c r="W71" s="15" t="s">
         <v>20</v>
       </c>
       <c r="X71" s="1">
@@ -5214,117 +5214,117 @@
       <c r="A72" s="1" t="s">
         <v>21</v>
       </c>
-      <c r="B72" s="18">
-        <f t="shared" ref="B72:J72" si="4">AVERAGE(B62:B71)</f>
+      <c r="B72" s="12">
+        <f t="shared" ref="B72:J72" si="6">AVERAGE(B62:B71)</f>
         <v>1.7</v>
       </c>
-      <c r="C72" s="18">
-        <f t="shared" si="4"/>
+      <c r="C72" s="12">
+        <f t="shared" si="6"/>
         <v>1390.3</v>
       </c>
-      <c r="D72" s="18">
-        <f t="shared" si="4"/>
+      <c r="D72" s="12">
+        <f t="shared" si="6"/>
         <v>228.5</v>
       </c>
-      <c r="E72" s="18">
-        <f t="shared" si="4"/>
+      <c r="E72" s="12">
+        <f t="shared" si="6"/>
         <v>2.4989999999999997</v>
       </c>
-      <c r="F72" s="18">
-        <f t="shared" si="4"/>
+      <c r="F72" s="12">
+        <f t="shared" si="6"/>
         <v>1932.9</v>
       </c>
-      <c r="G72" s="18">
-        <f t="shared" si="4"/>
+      <c r="G72" s="12">
+        <f t="shared" si="6"/>
         <v>228.1</v>
       </c>
-      <c r="H72" s="18">
-        <f t="shared" si="4"/>
+      <c r="H72" s="12">
+        <f t="shared" si="6"/>
         <v>1.9009999999999998</v>
       </c>
-      <c r="I72" s="18">
-        <f t="shared" si="4"/>
+      <c r="I72" s="12">
+        <f t="shared" si="6"/>
         <v>1473.1</v>
       </c>
-      <c r="J72" s="18">
-        <f t="shared" si="4"/>
+      <c r="J72" s="12">
+        <f t="shared" si="6"/>
         <v>227.6</v>
       </c>
-      <c r="L72" s="21" t="s">
+      <c r="L72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M72" s="18">
-        <f t="shared" ref="M72:T72" si="5">AVERAGE(M62:M71)</f>
+      <c r="M72" s="12">
+        <f t="shared" ref="M72:T72" si="7">AVERAGE(M62:M71)</f>
         <v>6.5970000000000013</v>
       </c>
-      <c r="N72" s="18">
-        <f t="shared" si="5"/>
+      <c r="N72" s="12">
+        <f t="shared" si="7"/>
         <v>5522</v>
       </c>
-      <c r="O72" s="18">
-        <f t="shared" si="5"/>
+      <c r="O72" s="12">
+        <f t="shared" si="7"/>
         <v>461.3</v>
       </c>
-      <c r="P72" s="18">
-        <f t="shared" si="5"/>
+      <c r="P72" s="12">
+        <f t="shared" si="7"/>
         <v>9.9830000000000005</v>
       </c>
-      <c r="Q72" s="18">
-        <f t="shared" si="5"/>
+      <c r="Q72" s="12">
+        <f t="shared" si="7"/>
         <v>8163.8</v>
       </c>
-      <c r="R72" s="18">
-        <f t="shared" si="5"/>
+      <c r="R72" s="12">
+        <f t="shared" si="7"/>
         <v>460.5</v>
       </c>
-      <c r="S72" s="18">
-        <f t="shared" si="5"/>
+      <c r="S72" s="12">
+        <f t="shared" si="7"/>
         <v>11.403000000000002</v>
       </c>
-      <c r="T72" s="18">
-        <f t="shared" si="5"/>
+      <c r="T72" s="12">
+        <f t="shared" si="7"/>
         <v>6283.9</v>
       </c>
-      <c r="U72" s="18">
+      <c r="U72" s="12">
         <f>AVERAGE(U62:U71)</f>
         <v>462.6</v>
       </c>
-      <c r="W72" s="21" t="s">
+      <c r="W72" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X72" s="18">
-        <f t="shared" ref="X72:AE72" si="6">AVERAGE(X62:X71)</f>
+      <c r="X72" s="12">
+        <f t="shared" ref="X72:AE72" si="8">AVERAGE(X62:X71)</f>
         <v>35.418999999999997</v>
       </c>
-      <c r="Y72" s="18">
-        <f t="shared" si="6"/>
+      <c r="Y72" s="12">
+        <f t="shared" si="8"/>
         <v>21319.599999999999</v>
       </c>
-      <c r="Z72" s="18">
-        <f t="shared" si="6"/>
+      <c r="Z72" s="12">
+        <f t="shared" si="8"/>
         <v>914.6</v>
       </c>
-      <c r="AA72" s="18">
-        <f t="shared" si="6"/>
+      <c r="AA72" s="12">
+        <f t="shared" si="8"/>
         <v>54.819999999999993</v>
       </c>
-      <c r="AB72" s="18">
-        <f t="shared" si="6"/>
+      <c r="AB72" s="12">
+        <f t="shared" si="8"/>
         <v>34200.1</v>
       </c>
-      <c r="AC72" s="18">
-        <f t="shared" si="6"/>
+      <c r="AC72" s="12">
+        <f t="shared" si="8"/>
         <v>915.6</v>
       </c>
-      <c r="AD72" s="18">
-        <f t="shared" si="6"/>
+      <c r="AD72" s="12">
+        <f t="shared" si="8"/>
         <v>49.433000000000007</v>
       </c>
-      <c r="AE72" s="18">
-        <f t="shared" si="6"/>
+      <c r="AE72" s="12">
+        <f t="shared" si="8"/>
         <v>24708</v>
       </c>
-      <c r="AF72" s="18">
+      <c r="AF72" s="12">
         <f>AVERAGE(AF62:AF71)</f>
         <v>916.5</v>
       </c>
@@ -5333,148 +5333,148 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="2" t="s">
+      <c r="B74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="2"/>
-      <c r="D74" s="2"/>
-      <c r="E74" s="2"/>
-      <c r="F74" s="2"/>
-      <c r="G74" s="2"/>
-      <c r="H74" s="2"/>
-      <c r="I74" s="2"/>
-      <c r="J74" s="2"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
       <c r="L74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="2" t="s">
+      <c r="M74" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="2"/>
-      <c r="O74" s="2"/>
-      <c r="P74" s="2"/>
-      <c r="Q74" s="2"/>
-      <c r="R74" s="2"/>
-      <c r="S74" s="2"/>
-      <c r="T74" s="2"/>
-      <c r="U74" s="2"/>
-      <c r="W74" s="21" t="s">
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
+      <c r="W74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="2" t="s">
+      <c r="X74" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="2"/>
-      <c r="Z74" s="2"/>
-      <c r="AA74" s="2"/>
-      <c r="AB74" s="2"/>
-      <c r="AC74" s="2"/>
-      <c r="AD74" s="2"/>
-      <c r="AE74" s="2"/>
-      <c r="AF74" s="2"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="2" t="s">
+      <c r="B75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="2"/>
-      <c r="D75" s="2"/>
-      <c r="E75" s="2"/>
-      <c r="F75" s="2"/>
-      <c r="G75" s="2"/>
-      <c r="H75" s="2"/>
-      <c r="I75" s="2"/>
-      <c r="J75" s="2"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="2" t="s">
+      <c r="M75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="2"/>
-      <c r="O75" s="2"/>
-      <c r="P75" s="2"/>
-      <c r="Q75" s="2"/>
-      <c r="R75" s="2"/>
-      <c r="S75" s="2"/>
-      <c r="T75" s="2"/>
-      <c r="U75" s="2"/>
-      <c r="W75" s="21" t="s">
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
+      <c r="W75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X75" s="2" t="s">
+      <c r="X75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="2"/>
-      <c r="Z75" s="2"/>
-      <c r="AA75" s="2"/>
-      <c r="AB75" s="2"/>
-      <c r="AC75" s="2"/>
-      <c r="AD75" s="2"/>
-      <c r="AE75" s="2"/>
-      <c r="AF75" s="2"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="8" t="s">
+      <c r="B76" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="9"/>
-      <c r="D76" s="10"/>
-      <c r="E76" s="8" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="9"/>
-      <c r="G76" s="10"/>
-      <c r="H76" s="2" t="s">
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="2"/>
-      <c r="J76" s="2"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="L76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="2" t="s">
+      <c r="M76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="2"/>
-      <c r="O76" s="2"/>
-      <c r="P76" s="2" t="s">
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q76" s="2"/>
-      <c r="R76" s="2"/>
-      <c r="S76" s="2" t="s">
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T76" s="2"/>
-      <c r="U76" s="2"/>
-      <c r="W76" s="21" t="s">
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
+      <c r="W76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="2" t="s">
+      <c r="X76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="2"/>
-      <c r="Z76" s="2"/>
-      <c r="AA76" s="2" t="s">
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB76" s="2"/>
-      <c r="AC76" s="2"/>
-      <c r="AD76" s="2" t="s">
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE76" s="2"/>
-      <c r="AF76" s="2"/>
+      <c r="AE76" s="17"/>
+      <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32">
-      <c r="A77" s="17"/>
+      <c r="A77" s="11"/>
       <c r="B77" s="1" t="s">
         <v>8</v>
       </c>
@@ -5561,7 +5561,7 @@
       <c r="A78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="B78" s="21">
+      <c r="B78" s="15">
         <v>1.595</v>
       </c>
       <c r="C78" s="1">
@@ -5570,7 +5570,7 @@
       <c r="D78" s="1">
         <v>224</v>
       </c>
-      <c r="E78" s="19">
+      <c r="E78" s="13">
         <v>2.1</v>
       </c>
       <c r="F78" s="1">
@@ -5579,7 +5579,7 @@
       <c r="G78" s="1">
         <v>224</v>
       </c>
-      <c r="H78" s="20">
+      <c r="H78" s="14">
         <v>1.7</v>
       </c>
       <c r="I78" s="1">
@@ -5591,7 +5591,7 @@
       <c r="L78" s="1" t="s">
         <v>23</v>
       </c>
-      <c r="M78" s="19">
+      <c r="M78" s="13">
         <v>5.399</v>
       </c>
       <c r="N78" s="1">
@@ -5600,7 +5600,7 @@
       <c r="O78" s="1">
         <v>452</v>
       </c>
-      <c r="P78" s="19">
+      <c r="P78" s="13">
         <v>10.010999999999999</v>
       </c>
       <c r="Q78" s="1">
@@ -5609,7 +5609,7 @@
       <c r="R78" s="1">
         <v>452</v>
       </c>
-      <c r="S78" s="20">
+      <c r="S78" s="14">
         <v>7.4729999999999999</v>
       </c>
       <c r="T78" s="1">
@@ -5618,10 +5618,10 @@
       <c r="U78" s="1">
         <v>452</v>
       </c>
-      <c r="W78" s="21" t="s">
+      <c r="W78" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X78" s="21">
+      <c r="X78" s="15">
         <v>21.84</v>
       </c>
       <c r="Y78" s="1">
@@ -5630,7 +5630,7 @@
       <c r="Z78" s="1">
         <v>901</v>
       </c>
-      <c r="AA78" s="19">
+      <c r="AA78" s="13">
         <v>39.063000000000002</v>
       </c>
       <c r="AB78" s="1">
@@ -5639,7 +5639,7 @@
       <c r="AC78" s="1">
         <v>901</v>
       </c>
-      <c r="AD78" s="20">
+      <c r="AD78" s="14">
         <v>44.892000000000003</v>
       </c>
       <c r="AE78" s="1">
@@ -5650,218 +5650,218 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="23"/>
-      <c r="Z80" s="23"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="23"/>
-      <c r="AD80" s="23"/>
-      <c r="AE80" s="23"/>
-      <c r="AF80" s="23"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="23"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="23"/>
-      <c r="AD81" s="23"/>
-      <c r="AE81" s="23"/>
-      <c r="AF81" s="23"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="18"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
     </row>
     <row r="83" spans="1:32">
-      <c r="A83" s="21" t="s">
+      <c r="A83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="2" t="s">
+      <c r="B83" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="2"/>
-      <c r="D83" s="2"/>
-      <c r="E83" s="2"/>
-      <c r="F83" s="2"/>
-      <c r="G83" s="2"/>
-      <c r="H83" s="2"/>
-      <c r="I83" s="2"/>
-      <c r="J83" s="2"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
       <c r="L83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M83" s="2" t="s">
+      <c r="M83" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="2"/>
-      <c r="O83" s="2"/>
-      <c r="P83" s="2"/>
-      <c r="Q83" s="2"/>
-      <c r="R83" s="2"/>
-      <c r="S83" s="2"/>
-      <c r="T83" s="2"/>
-      <c r="U83" s="2"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
       <c r="W83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X83" s="2" t="s">
+      <c r="X83" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y83" s="2"/>
-      <c r="Z83" s="2"/>
-      <c r="AA83" s="2"/>
-      <c r="AB83" s="2"/>
-      <c r="AC83" s="2"/>
-      <c r="AD83" s="2"/>
-      <c r="AE83" s="2"/>
-      <c r="AF83" s="2"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="17"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="17"/>
+      <c r="AE83" s="17"/>
+      <c r="AF83" s="17"/>
     </row>
     <row r="84" spans="1:32">
-      <c r="A84" s="21" t="s">
+      <c r="A84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="2" t="s">
+      <c r="B84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="2"/>
-      <c r="D84" s="2"/>
-      <c r="E84" s="2"/>
-      <c r="F84" s="2"/>
-      <c r="G84" s="2"/>
-      <c r="H84" s="2"/>
-      <c r="I84" s="2"/>
-      <c r="J84" s="2"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
       <c r="L84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="2" t="s">
+      <c r="M84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N84" s="2"/>
-      <c r="O84" s="2"/>
-      <c r="P84" s="2"/>
-      <c r="Q84" s="2"/>
-      <c r="R84" s="2"/>
-      <c r="S84" s="2"/>
-      <c r="T84" s="2"/>
-      <c r="U84" s="2"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
       <c r="W84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X84" s="2" t="s">
+      <c r="X84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y84" s="2"/>
-      <c r="Z84" s="2"/>
-      <c r="AA84" s="2"/>
-      <c r="AB84" s="2"/>
-      <c r="AC84" s="2"/>
-      <c r="AD84" s="2"/>
-      <c r="AE84" s="2"/>
-      <c r="AF84" s="2"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
     </row>
     <row r="85" spans="1:32">
-      <c r="A85" s="21" t="s">
+      <c r="A85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="2" t="s">
+      <c r="B85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="2"/>
-      <c r="D85" s="2"/>
-      <c r="E85" s="2" t="s">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="2"/>
-      <c r="G85" s="2"/>
-      <c r="H85" s="2" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="2"/>
-      <c r="J85" s="2"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
       <c r="L85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M85" s="2" t="s">
+      <c r="M85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="2"/>
-      <c r="O85" s="2"/>
-      <c r="P85" s="2" t="s">
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="2"/>
-      <c r="R85" s="2"/>
-      <c r="S85" s="2" t="s">
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="2"/>
-      <c r="U85" s="2"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
       <c r="W85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="2" t="s">
+      <c r="X85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="2"/>
-      <c r="Z85" s="2"/>
-      <c r="AA85" s="2" t="s">
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB85" s="2"/>
-      <c r="AC85" s="2"/>
-      <c r="AD85" s="2" t="s">
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="2"/>
-      <c r="AF85" s="2"/>
+      <c r="AE85" s="17"/>
+      <c r="AF85" s="17"/>
     </row>
     <row r="86" spans="1:32">
       <c r="B86" s="1" t="s">
@@ -5947,7 +5947,7 @@
       </c>
     </row>
     <row r="87" spans="1:32">
-      <c r="A87" s="21" t="s">
+      <c r="A87" s="15" t="s">
         <v>11</v>
       </c>
       <c r="B87" s="1">
@@ -5977,7 +5977,7 @@
       <c r="J87" s="1">
         <v>181</v>
       </c>
-      <c r="L87" s="21" t="s">
+      <c r="L87" s="15" t="s">
         <v>11</v>
       </c>
       <c r="M87" s="1">
@@ -6007,11 +6007,11 @@
       <c r="U87" s="1">
         <v>363</v>
       </c>
-      <c r="W87" s="21" t="s">
+      <c r="W87" s="15" t="s">
         <v>11</v>
       </c>
       <c r="X87" s="1">
-        <v>29.75</v>
+        <v>31.75</v>
       </c>
       <c r="Y87" s="1">
         <v>24109</v>
@@ -6039,7 +6039,7 @@
       </c>
     </row>
     <row r="88" spans="1:32">
-      <c r="A88" s="21" t="s">
+      <c r="A88" s="15" t="s">
         <v>12</v>
       </c>
       <c r="B88" s="1">
@@ -6069,7 +6069,7 @@
       <c r="J88" s="1">
         <v>181</v>
       </c>
-      <c r="L88" s="21" t="s">
+      <c r="L88" s="15" t="s">
         <v>12</v>
       </c>
       <c r="M88" s="1">
@@ -6099,11 +6099,11 @@
       <c r="U88" s="1">
         <v>363</v>
       </c>
-      <c r="W88" s="21" t="s">
+      <c r="W88" s="15" t="s">
         <v>12</v>
       </c>
       <c r="X88" s="1">
-        <v>24.93</v>
+        <v>32.93</v>
       </c>
       <c r="Y88" s="1">
         <v>24289</v>
@@ -6131,7 +6131,7 @@
       </c>
     </row>
     <row r="89" spans="1:32">
-      <c r="A89" s="21" t="s">
+      <c r="A89" s="15" t="s">
         <v>13</v>
       </c>
       <c r="B89" s="1">
@@ -6161,7 +6161,7 @@
       <c r="J89" s="1">
         <v>181</v>
       </c>
-      <c r="L89" s="21" t="s">
+      <c r="L89" s="15" t="s">
         <v>13</v>
       </c>
       <c r="M89" s="1">
@@ -6191,11 +6191,11 @@
       <c r="U89" s="1">
         <v>370</v>
       </c>
-      <c r="W89" s="21" t="s">
+      <c r="W89" s="15" t="s">
         <v>13</v>
       </c>
       <c r="X89" s="1">
-        <v>24.94</v>
+        <v>34.94</v>
       </c>
       <c r="Y89" s="1">
         <v>24723</v>
@@ -6223,7 +6223,7 @@
       </c>
     </row>
     <row r="90" spans="1:32">
-      <c r="A90" s="21" t="s">
+      <c r="A90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="B90" s="1">
@@ -6253,7 +6253,7 @@
       <c r="J90" s="1">
         <v>183</v>
       </c>
-      <c r="L90" s="21" t="s">
+      <c r="L90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="M90" s="1">
@@ -6283,11 +6283,11 @@
       <c r="U90" s="1">
         <v>367</v>
       </c>
-      <c r="W90" s="21" t="s">
+      <c r="W90" s="15" t="s">
         <v>14</v>
       </c>
       <c r="X90" s="1">
-        <v>31.05</v>
+        <v>35.049999999999997</v>
       </c>
       <c r="Y90" s="1">
         <v>24695</v>
@@ -6315,7 +6315,7 @@
       </c>
     </row>
     <row r="91" spans="1:32">
-      <c r="A91" s="21" t="s">
+      <c r="A91" s="15" t="s">
         <v>15</v>
       </c>
       <c r="B91" s="1">
@@ -6345,7 +6345,7 @@
       <c r="J91" s="1">
         <v>183</v>
       </c>
-      <c r="L91" s="21" t="s">
+      <c r="L91" s="15" t="s">
         <v>15</v>
       </c>
       <c r="M91" s="1">
@@ -6375,7 +6375,7 @@
       <c r="U91" s="1">
         <v>369</v>
       </c>
-      <c r="W91" s="21" t="s">
+      <c r="W91" s="15" t="s">
         <v>15</v>
       </c>
       <c r="X91" s="1">
@@ -6407,7 +6407,7 @@
       </c>
     </row>
     <row r="92" spans="1:32">
-      <c r="A92" s="21" t="s">
+      <c r="A92" s="15" t="s">
         <v>16</v>
       </c>
       <c r="B92" s="1">
@@ -6437,7 +6437,7 @@
       <c r="J92" s="1">
         <v>184</v>
       </c>
-      <c r="L92" s="21" t="s">
+      <c r="L92" s="15" t="s">
         <v>16</v>
       </c>
       <c r="M92" s="1">
@@ -6467,7 +6467,7 @@
       <c r="U92" s="1">
         <v>370</v>
       </c>
-      <c r="W92" s="21" t="s">
+      <c r="W92" s="15" t="s">
         <v>16</v>
       </c>
       <c r="X92" s="1">
@@ -6499,7 +6499,7 @@
       </c>
     </row>
     <row r="93" spans="1:32">
-      <c r="A93" s="21" t="s">
+      <c r="A93" s="15" t="s">
         <v>17</v>
       </c>
       <c r="B93" s="1">
@@ -6529,7 +6529,7 @@
       <c r="J93" s="1">
         <v>185</v>
       </c>
-      <c r="L93" s="21" t="s">
+      <c r="L93" s="15" t="s">
         <v>17</v>
       </c>
       <c r="M93" s="1">
@@ -6559,11 +6559,11 @@
       <c r="U93" s="1">
         <v>375</v>
       </c>
-      <c r="W93" s="21" t="s">
+      <c r="W93" s="15" t="s">
         <v>17</v>
       </c>
       <c r="X93" s="1">
-        <v>30.96</v>
+        <v>34.96</v>
       </c>
       <c r="Y93" s="1">
         <v>25111</v>
@@ -6591,7 +6591,7 @@
       </c>
     </row>
     <row r="94" spans="1:32">
-      <c r="A94" s="21" t="s">
+      <c r="A94" s="15" t="s">
         <v>18</v>
       </c>
       <c r="B94" s="1">
@@ -6621,7 +6621,7 @@
       <c r="J94" s="1">
         <v>186</v>
       </c>
-      <c r="L94" s="21" t="s">
+      <c r="L94" s="15" t="s">
         <v>18</v>
       </c>
       <c r="M94" s="1">
@@ -6651,11 +6651,11 @@
       <c r="U94" s="1">
         <v>370</v>
       </c>
-      <c r="W94" s="21" t="s">
+      <c r="W94" s="15" t="s">
         <v>18</v>
       </c>
       <c r="X94" s="1">
-        <v>32.99</v>
+        <v>35.99</v>
       </c>
       <c r="Y94" s="1">
         <v>25243</v>
@@ -6683,7 +6683,7 @@
       </c>
     </row>
     <row r="95" spans="1:32">
-      <c r="A95" s="21" t="s">
+      <c r="A95" s="15" t="s">
         <v>19</v>
       </c>
       <c r="B95" s="1">
@@ -6713,7 +6713,7 @@
       <c r="J95" s="1">
         <v>183</v>
       </c>
-      <c r="L95" s="21" t="s">
+      <c r="L95" s="15" t="s">
         <v>19</v>
       </c>
       <c r="M95" s="1">
@@ -6743,7 +6743,7 @@
       <c r="U95" s="1">
         <v>374</v>
       </c>
-      <c r="W95" s="21" t="s">
+      <c r="W95" s="15" t="s">
         <v>19</v>
       </c>
       <c r="X95" s="1">
@@ -6775,7 +6775,7 @@
       </c>
     </row>
     <row r="96" spans="1:32">
-      <c r="A96" s="21" t="s">
+      <c r="A96" s="15" t="s">
         <v>20</v>
       </c>
       <c r="B96" s="1">
@@ -6805,7 +6805,7 @@
       <c r="J96" s="1">
         <v>187</v>
       </c>
-      <c r="L96" s="21" t="s">
+      <c r="L96" s="15" t="s">
         <v>20</v>
       </c>
       <c r="M96" s="1">
@@ -6835,11 +6835,11 @@
       <c r="U96" s="1">
         <v>378</v>
       </c>
-      <c r="W96" s="21" t="s">
+      <c r="W96" s="15" t="s">
         <v>20</v>
       </c>
       <c r="X96" s="1">
-        <v>28.94</v>
+        <v>35.94</v>
       </c>
       <c r="Y96" s="1">
         <v>25292</v>
@@ -6867,267 +6867,267 @@
       </c>
     </row>
     <row r="97" spans="1:32">
-      <c r="A97" s="21" t="s">
+      <c r="A97" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="B97" s="18">
-        <f t="shared" ref="B97:J97" si="7">AVERAGE(B87:B96)</f>
+      <c r="B97" s="12">
+        <f t="shared" ref="B97:J97" si="9">AVERAGE(B87:B96)</f>
         <v>1.8989999999999998</v>
       </c>
-      <c r="C97" s="18">
-        <f t="shared" si="7"/>
+      <c r="C97" s="12">
+        <f t="shared" si="9"/>
         <v>1480.6</v>
       </c>
-      <c r="D97" s="18">
-        <f t="shared" si="7"/>
+      <c r="D97" s="12">
+        <f t="shared" si="9"/>
         <v>184</v>
       </c>
-      <c r="E97" s="18">
-        <f t="shared" si="7"/>
+      <c r="E97" s="12">
+        <f t="shared" si="9"/>
         <v>2.4980000000000002</v>
       </c>
-      <c r="F97" s="18">
-        <f t="shared" si="7"/>
+      <c r="F97" s="12">
+        <f t="shared" si="9"/>
         <v>1686.8</v>
       </c>
-      <c r="G97" s="18">
-        <f t="shared" si="7"/>
+      <c r="G97" s="12">
+        <f t="shared" si="9"/>
         <v>183.1</v>
       </c>
-      <c r="H97" s="18">
-        <f t="shared" si="7"/>
+      <c r="H97" s="12">
+        <f t="shared" si="9"/>
         <v>1.7</v>
       </c>
-      <c r="I97" s="18">
-        <f t="shared" si="7"/>
+      <c r="I97" s="12">
+        <f t="shared" si="9"/>
         <v>1464.2</v>
       </c>
-      <c r="J97" s="18">
-        <f t="shared" si="7"/>
+      <c r="J97" s="12">
+        <f t="shared" si="9"/>
         <v>183.4</v>
       </c>
-      <c r="L97" s="21" t="s">
+      <c r="L97" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="M97" s="18">
-        <f t="shared" ref="M97:T97" si="8">AVERAGE(M87:M96)</f>
+      <c r="M97" s="12">
+        <f t="shared" ref="M97:T97" si="10">AVERAGE(M87:M96)</f>
         <v>8.1969999999999992</v>
       </c>
-      <c r="N97" s="18">
-        <f t="shared" si="8"/>
+      <c r="N97" s="12">
+        <f t="shared" si="10"/>
         <v>6376.1</v>
       </c>
-      <c r="O97" s="18">
-        <f t="shared" si="8"/>
+      <c r="O97" s="12">
+        <f t="shared" si="10"/>
         <v>372.7</v>
       </c>
-      <c r="P97" s="18">
-        <f t="shared" si="8"/>
+      <c r="P97" s="12">
+        <f t="shared" si="10"/>
         <v>10.190999999999999</v>
       </c>
-      <c r="Q97" s="18">
-        <f t="shared" si="8"/>
+      <c r="Q97" s="12">
+        <f t="shared" si="10"/>
         <v>8111.7</v>
       </c>
-      <c r="R97" s="18">
-        <f t="shared" si="8"/>
+      <c r="R97" s="12">
+        <f t="shared" si="10"/>
         <v>369</v>
       </c>
-      <c r="S97" s="18">
-        <f t="shared" si="8"/>
+      <c r="S97" s="12">
+        <f t="shared" si="10"/>
         <v>8.6740000000000013</v>
       </c>
-      <c r="T97" s="18">
-        <f t="shared" si="8"/>
+      <c r="T97" s="12">
+        <f t="shared" si="10"/>
         <v>6337.1</v>
       </c>
-      <c r="U97" s="18">
+      <c r="U97" s="12">
         <f>AVERAGE(U87:U96)</f>
         <v>369.9</v>
       </c>
-      <c r="W97" s="21" t="s">
+      <c r="W97" s="15" t="s">
         <v>27</v>
       </c>
-      <c r="X97" s="18">
-        <f t="shared" ref="X97:AE97" si="9">AVERAGE(X87:X96)</f>
-        <v>30.349</v>
-      </c>
-      <c r="Y97" s="18">
-        <f t="shared" si="9"/>
+      <c r="X97" s="12">
+        <f t="shared" ref="X97:AE97" si="11">AVERAGE(X87:X96)</f>
+        <v>34.149000000000001</v>
+      </c>
+      <c r="Y97" s="12">
+        <f t="shared" si="11"/>
         <v>24830.6</v>
       </c>
-      <c r="Z97" s="18">
-        <f t="shared" si="9"/>
+      <c r="Z97" s="12">
+        <f t="shared" si="11"/>
         <v>739.4</v>
       </c>
-      <c r="AA97" s="18">
-        <f t="shared" si="9"/>
+      <c r="AA97" s="12">
+        <f t="shared" si="11"/>
         <v>47.316000000000003</v>
       </c>
-      <c r="AB97" s="18">
-        <f t="shared" si="9"/>
+      <c r="AB97" s="12">
+        <f t="shared" si="11"/>
         <v>35301</v>
       </c>
-      <c r="AC97" s="18">
-        <f t="shared" si="9"/>
+      <c r="AC97" s="12">
+        <f t="shared" si="11"/>
         <v>744.5</v>
       </c>
-      <c r="AD97" s="18">
-        <f t="shared" si="9"/>
+      <c r="AD97" s="12">
+        <f t="shared" si="11"/>
         <v>33.353000000000002</v>
       </c>
-      <c r="AE97" s="18">
-        <f t="shared" si="9"/>
+      <c r="AE97" s="12">
+        <f t="shared" si="11"/>
         <v>24702.5</v>
       </c>
-      <c r="AF97" s="18">
+      <c r="AF97" s="12">
         <f>AVERAGE(AF87:AF96)</f>
         <v>736.7</v>
       </c>
     </row>
     <row r="99" spans="1:32">
-      <c r="A99" s="21" t="s">
+      <c r="A99" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="2" t="s">
+      <c r="B99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="2"/>
-      <c r="D99" s="2"/>
-      <c r="E99" s="2"/>
-      <c r="F99" s="2"/>
-      <c r="G99" s="2"/>
-      <c r="H99" s="2"/>
-      <c r="I99" s="2"/>
-      <c r="J99" s="2"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
       <c r="L99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M99" s="2" t="s">
+      <c r="M99" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="2"/>
-      <c r="O99" s="2"/>
-      <c r="P99" s="2"/>
-      <c r="Q99" s="2"/>
-      <c r="R99" s="2"/>
-      <c r="S99" s="2"/>
-      <c r="T99" s="2"/>
-      <c r="U99" s="2"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
       <c r="W99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X99" s="2" t="s">
+      <c r="X99" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y99" s="2"/>
-      <c r="Z99" s="2"/>
-      <c r="AA99" s="2"/>
-      <c r="AB99" s="2"/>
-      <c r="AC99" s="2"/>
-      <c r="AD99" s="2"/>
-      <c r="AE99" s="2"/>
-      <c r="AF99" s="2"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
     </row>
     <row r="100" spans="1:32">
-      <c r="A100" s="21" t="s">
+      <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="2" t="s">
+      <c r="B100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="2"/>
-      <c r="D100" s="2"/>
-      <c r="E100" s="2"/>
-      <c r="F100" s="2"/>
-      <c r="G100" s="2"/>
-      <c r="H100" s="2"/>
-      <c r="I100" s="2"/>
-      <c r="J100" s="2"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="2" t="s">
+      <c r="M100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="2"/>
-      <c r="O100" s="2"/>
-      <c r="P100" s="2"/>
-      <c r="Q100" s="2"/>
-      <c r="R100" s="2"/>
-      <c r="S100" s="2"/>
-      <c r="T100" s="2"/>
-      <c r="U100" s="2"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
       <c r="W100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X100" s="2" t="s">
+      <c r="X100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y100" s="2"/>
-      <c r="Z100" s="2"/>
-      <c r="AA100" s="2"/>
-      <c r="AB100" s="2"/>
-      <c r="AC100" s="2"/>
-      <c r="AD100" s="2"/>
-      <c r="AE100" s="2"/>
-      <c r="AF100" s="2"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="17"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="17"/>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
     </row>
     <row r="101" spans="1:32">
-      <c r="A101" s="21" t="s">
+      <c r="A101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="2" t="s">
+      <c r="B101" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="2"/>
-      <c r="D101" s="2"/>
-      <c r="E101" s="2" t="s">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="2"/>
-      <c r="G101" s="2"/>
-      <c r="H101" s="2" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="2"/>
-      <c r="J101" s="2"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="8" t="s">
+      <c r="M101" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="9"/>
-      <c r="O101" s="10"/>
-      <c r="P101" s="8" t="s">
+      <c r="N101" s="20"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="9"/>
-      <c r="R101" s="10"/>
-      <c r="S101" s="2" t="s">
+      <c r="Q101" s="20"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="2"/>
-      <c r="U101" s="2"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
       <c r="W101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="2" t="s">
+      <c r="X101" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y101" s="2"/>
-      <c r="Z101" s="2"/>
-      <c r="AA101" s="2" t="s">
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB101" s="2"/>
-      <c r="AC101" s="2"/>
-      <c r="AD101" s="2" t="s">
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE101" s="2"/>
-      <c r="AF101" s="2"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
     </row>
     <row r="102" spans="1:32">
       <c r="B102" s="1" t="s">
@@ -7213,10 +7213,10 @@
       </c>
     </row>
     <row r="103" spans="1:32">
-      <c r="A103" s="21" t="s">
+      <c r="A103" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="B103" s="21">
+      <c r="B103" s="15">
         <v>1.7</v>
       </c>
       <c r="C103" s="1">
@@ -7225,7 +7225,7 @@
       <c r="D103" s="1">
         <v>181</v>
       </c>
-      <c r="E103" s="19">
+      <c r="E103" s="13">
         <v>1.827</v>
       </c>
       <c r="F103" s="1">
@@ -7234,7 +7234,7 @@
       <c r="G103" s="1">
         <v>181</v>
       </c>
-      <c r="H103" s="20">
+      <c r="H103" s="14">
         <v>1.4950000000000001</v>
       </c>
       <c r="I103" s="1">
@@ -7243,10 +7243,10 @@
       <c r="J103" s="1">
         <v>181</v>
       </c>
-      <c r="L103" s="21" t="s">
+      <c r="L103" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="M103" s="21">
+      <c r="M103" s="15">
         <v>6.0830000000000002</v>
       </c>
       <c r="N103" s="1">
@@ -7255,7 +7255,7 @@
       <c r="O103" s="1">
         <v>363</v>
       </c>
-      <c r="P103" s="19">
+      <c r="P103" s="13">
         <v>10.580500000000001</v>
       </c>
       <c r="Q103" s="1">
@@ -7264,7 +7264,7 @@
       <c r="R103" s="1">
         <v>363</v>
       </c>
-      <c r="S103" s="20">
+      <c r="S103" s="14">
         <v>6.2960000000000003</v>
       </c>
       <c r="T103" s="1">
@@ -7273,11 +7273,11 @@
       <c r="U103" s="1">
         <v>363</v>
       </c>
-      <c r="W103" s="21" t="s">
+      <c r="W103" s="15" t="s">
         <v>23</v>
       </c>
-      <c r="X103" s="21">
-        <v>37.441000000000003</v>
+      <c r="X103" s="15">
+        <v>31.440999999999999</v>
       </c>
       <c r="Y103" s="1">
         <v>24109</v>
@@ -7285,7 +7285,7 @@
       <c r="Z103" s="1">
         <v>716</v>
       </c>
-      <c r="AA103" s="19">
+      <c r="AA103" s="13">
         <v>39.121000000000002</v>
       </c>
       <c r="AB103" s="1">
@@ -7294,7 +7294,7 @@
       <c r="AC103" s="1">
         <v>717</v>
       </c>
-      <c r="AD103" s="20">
+      <c r="AD103" s="14">
         <v>30.881</v>
       </c>
       <c r="AE103" s="1">
@@ -7306,6 +7306,106 @@
     </row>
   </sheetData>
   <mergeCells count="124">
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="X23:AF23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="A28:AF29"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="X31:AF31"/>
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="A55:AF56"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="X49:AF49"/>
+    <mergeCell ref="X50:AF50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="X58:AF58"/>
+    <mergeCell ref="X59:AF59"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
     <mergeCell ref="X101:Z101"/>
     <mergeCell ref="AA101:AC101"/>
     <mergeCell ref="AD101:AF101"/>
@@ -7330,106 +7430,6 @@
     <mergeCell ref="P85:R85"/>
     <mergeCell ref="S85:U85"/>
     <mergeCell ref="M99:U99"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="X58:AF58"/>
-    <mergeCell ref="X59:AF59"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="A55:AF56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="X49:AF49"/>
-    <mergeCell ref="X50:AF50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="X31:AF31"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="A28:AF29"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -344,12 +344,6 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -361,6 +355,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -664,8 +664,8 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M82" workbookViewId="0">
-      <selection activeCell="Y88" sqref="Y88"/>
+    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
+      <selection activeCell="W4" sqref="W4:AF18"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,218 +674,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="23" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="B1" s="23"/>
+      <c r="C1" s="23"/>
+      <c r="D1" s="23"/>
+      <c r="E1" s="23"/>
+      <c r="F1" s="23"/>
+      <c r="G1" s="23"/>
+      <c r="H1" s="23"/>
+      <c r="I1" s="23"/>
+      <c r="J1" s="23"/>
+      <c r="K1" s="23"/>
+      <c r="L1" s="23"/>
+      <c r="M1" s="23"/>
+      <c r="N1" s="23"/>
+      <c r="O1" s="23"/>
+      <c r="P1" s="23"/>
+      <c r="Q1" s="23"/>
+      <c r="R1" s="23"/>
+      <c r="S1" s="23"/>
+      <c r="T1" s="23"/>
+      <c r="U1" s="23"/>
+      <c r="V1" s="23"/>
+      <c r="W1" s="23"/>
+      <c r="X1" s="23"/>
+      <c r="Y1" s="23"/>
+      <c r="Z1" s="23"/>
+      <c r="AA1" s="23"/>
+      <c r="AB1" s="23"/>
+      <c r="AC1" s="23"/>
+      <c r="AD1" s="23"/>
+      <c r="AE1" s="23"/>
+      <c r="AF1" s="23"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="A2" s="23"/>
+      <c r="B2" s="23"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="22"/>
+      <c r="D4" s="22"/>
+      <c r="E4" s="22"/>
+      <c r="F4" s="22"/>
+      <c r="G4" s="22"/>
+      <c r="H4" s="22"/>
+      <c r="I4" s="22"/>
+      <c r="J4" s="22"/>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="N4" s="22"/>
+      <c r="O4" s="22"/>
+      <c r="P4" s="22"/>
+      <c r="Q4" s="22"/>
+      <c r="R4" s="22"/>
+      <c r="S4" s="22"/>
+      <c r="T4" s="22"/>
+      <c r="U4" s="22"/>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="21"/>
+      <c r="Y4" s="18"/>
+      <c r="Z4" s="18"/>
+      <c r="AA4" s="18"/>
+      <c r="AB4" s="18"/>
+      <c r="AC4" s="18"/>
+      <c r="AD4" s="18"/>
+      <c r="AE4" s="18"/>
+      <c r="AF4" s="19"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="22"/>
+      <c r="D5" s="22"/>
+      <c r="E5" s="22"/>
+      <c r="F5" s="22"/>
+      <c r="G5" s="22"/>
+      <c r="H5" s="22"/>
+      <c r="I5" s="22"/>
+      <c r="J5" s="22"/>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="N5" s="22"/>
+      <c r="O5" s="22"/>
+      <c r="P5" s="22"/>
+      <c r="Q5" s="22"/>
+      <c r="R5" s="22"/>
+      <c r="S5" s="22"/>
+      <c r="T5" s="22"/>
+      <c r="U5" s="22"/>
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
+      <c r="Y5" s="18"/>
+      <c r="Z5" s="18"/>
+      <c r="AA5" s="18"/>
+      <c r="AB5" s="18"/>
+      <c r="AC5" s="18"/>
+      <c r="AD5" s="18"/>
+      <c r="AE5" s="18"/>
+      <c r="AF5" s="19"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="22"/>
+      <c r="D6" s="22"/>
+      <c r="E6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="22"/>
+      <c r="G6" s="22"/>
+      <c r="H6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="22"/>
+      <c r="J6" s="22"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17" t="s">
+      <c r="N6" s="22"/>
+      <c r="O6" s="22"/>
+      <c r="P6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="22"/>
+      <c r="R6" s="22"/>
+      <c r="S6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="T6" s="22"/>
+      <c r="U6" s="22"/>
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="19" t="s">
+      <c r="Y6" s="18"/>
+      <c r="Z6" s="19"/>
+      <c r="AA6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="19" t="s">
+      <c r="AB6" s="18"/>
+      <c r="AC6" s="19"/>
+      <c r="AD6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="21"/>
+      <c r="AE6" s="18"/>
+      <c r="AF6" s="19"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -1334,7 +1334,7 @@
         <v>53.02</v>
       </c>
       <c r="AE11" s="1">
-        <v>16700</v>
+        <v>15700</v>
       </c>
       <c r="AF11" s="1">
         <v>272</v>
@@ -1610,7 +1610,7 @@
         <v>42.06</v>
       </c>
       <c r="AE14" s="1">
-        <v>17066</v>
+        <v>16066</v>
       </c>
       <c r="AF14" s="1">
         <v>272</v>
@@ -1702,7 +1702,7 @@
         <v>43.21</v>
       </c>
       <c r="AE15" s="1">
-        <v>17260</v>
+        <v>16260</v>
       </c>
       <c r="AF15" s="1">
         <v>275</v>
@@ -1794,7 +1794,7 @@
         <v>46.05</v>
       </c>
       <c r="AE16" s="1">
-        <v>17249</v>
+        <v>16249</v>
       </c>
       <c r="AF16" s="1">
         <v>273</v>
@@ -1886,7 +1886,7 @@
         <v>45.05</v>
       </c>
       <c r="AE17" s="1">
-        <v>17214</v>
+        <v>16214</v>
       </c>
       <c r="AF17" s="1">
         <v>277</v>
@@ -2004,7 +2004,7 @@
       </c>
       <c r="AE18" s="12">
         <f t="shared" si="2"/>
-        <v>16482</v>
+        <v>15982</v>
       </c>
       <c r="AF18" s="12">
         <f t="shared" si="2"/>
@@ -2015,145 +2015,145 @@
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="C22" s="18"/>
+      <c r="D22" s="18"/>
+      <c r="E22" s="18"/>
+      <c r="F22" s="18"/>
+      <c r="G22" s="18"/>
+      <c r="H22" s="18"/>
+      <c r="I22" s="18"/>
+      <c r="J22" s="19"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
+      <c r="N22" s="18"/>
+      <c r="O22" s="18"/>
+      <c r="P22" s="18"/>
+      <c r="Q22" s="18"/>
+      <c r="R22" s="18"/>
+      <c r="S22" s="18"/>
+      <c r="T22" s="18"/>
+      <c r="U22" s="19"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="19" t="s">
+      <c r="X22" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="21"/>
+      <c r="Y22" s="18"/>
+      <c r="Z22" s="18"/>
+      <c r="AA22" s="18"/>
+      <c r="AB22" s="18"/>
+      <c r="AC22" s="18"/>
+      <c r="AD22" s="18"/>
+      <c r="AE22" s="18"/>
+      <c r="AF22" s="19"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="C23" s="18"/>
+      <c r="D23" s="18"/>
+      <c r="E23" s="18"/>
+      <c r="F23" s="18"/>
+      <c r="G23" s="18"/>
+      <c r="H23" s="18"/>
+      <c r="I23" s="18"/>
+      <c r="J23" s="19"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
+      <c r="N23" s="18"/>
+      <c r="O23" s="18"/>
+      <c r="P23" s="18"/>
+      <c r="Q23" s="18"/>
+      <c r="R23" s="18"/>
+      <c r="S23" s="18"/>
+      <c r="T23" s="18"/>
+      <c r="U23" s="19"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="19" t="s">
+      <c r="X23" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="21"/>
+      <c r="Y23" s="18"/>
+      <c r="Z23" s="18"/>
+      <c r="AA23" s="18"/>
+      <c r="AB23" s="18"/>
+      <c r="AC23" s="18"/>
+      <c r="AD23" s="18"/>
+      <c r="AE23" s="18"/>
+      <c r="AF23" s="19"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="20"/>
+      <c r="D24" s="21"/>
+      <c r="E24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="19" t="s">
+      <c r="F24" s="20"/>
+      <c r="G24" s="21"/>
+      <c r="H24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="20"/>
+      <c r="J24" s="21"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="19" t="s">
+      <c r="N24" s="18"/>
+      <c r="O24" s="19"/>
+      <c r="P24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="17" t="s">
+      <c r="Q24" s="18"/>
+      <c r="R24" s="19"/>
+      <c r="S24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="T24" s="22"/>
+      <c r="U24" s="22"/>
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="19" t="s">
+      <c r="X24" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="19" t="s">
+      <c r="Y24" s="18"/>
+      <c r="Z24" s="19"/>
+      <c r="AA24" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="19" t="s">
+      <c r="AB24" s="18"/>
+      <c r="AC24" s="19"/>
+      <c r="AD24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="21"/>
+      <c r="AE24" s="18"/>
+      <c r="AF24" s="19"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="9"/>
@@ -2334,218 +2334,218 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="23" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
+      <c r="A29" s="23"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="C31" s="22"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
       <c r="L31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="N31" s="22"/>
+      <c r="O31" s="22"/>
+      <c r="P31" s="22"/>
+      <c r="Q31" s="22"/>
+      <c r="R31" s="22"/>
+      <c r="S31" s="22"/>
+      <c r="T31" s="22"/>
+      <c r="U31" s="22"/>
       <c r="W31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+      <c r="Y31" s="22"/>
+      <c r="Z31" s="22"/>
+      <c r="AA31" s="22"/>
+      <c r="AB31" s="22"/>
+      <c r="AC31" s="22"/>
+      <c r="AD31" s="22"/>
+      <c r="AE31" s="22"/>
+      <c r="AF31" s="22"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="C32" s="22"/>
+      <c r="D32" s="22"/>
+      <c r="E32" s="22"/>
+      <c r="F32" s="22"/>
+      <c r="G32" s="22"/>
+      <c r="H32" s="22"/>
+      <c r="I32" s="22"/>
+      <c r="J32" s="22"/>
       <c r="L32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
+      <c r="N32" s="22"/>
+      <c r="O32" s="22"/>
+      <c r="P32" s="22"/>
+      <c r="Q32" s="22"/>
+      <c r="R32" s="22"/>
+      <c r="S32" s="22"/>
+      <c r="T32" s="22"/>
+      <c r="U32" s="22"/>
       <c r="W32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="17" t="s">
+      <c r="X32" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+      <c r="Y32" s="22"/>
+      <c r="Z32" s="22"/>
+      <c r="AA32" s="22"/>
+      <c r="AB32" s="22"/>
+      <c r="AC32" s="22"/>
+      <c r="AD32" s="22"/>
+      <c r="AE32" s="22"/>
+      <c r="AF32" s="22"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="C33" s="22"/>
+      <c r="D33" s="22"/>
+      <c r="E33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
+      <c r="F33" s="22"/>
+      <c r="G33" s="22"/>
+      <c r="H33" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="22"/>
+      <c r="J33" s="22"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17" t="s">
+      <c r="N33" s="22"/>
+      <c r="O33" s="22"/>
+      <c r="P33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17" t="s">
+      <c r="Q33" s="22"/>
+      <c r="R33" s="22"/>
+      <c r="S33" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
+      <c r="T33" s="22"/>
+      <c r="U33" s="22"/>
       <c r="W33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="17" t="s">
+      <c r="X33" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17" t="s">
+      <c r="Y33" s="22"/>
+      <c r="Z33" s="22"/>
+      <c r="AA33" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17" t="s">
+      <c r="AB33" s="22"/>
+      <c r="AC33" s="22"/>
+      <c r="AD33" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
+      <c r="AE33" s="22"/>
+      <c r="AF33" s="22"/>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
@@ -2889,7 +2889,7 @@
         <v>466</v>
       </c>
       <c r="AA37" s="1">
-        <v>63.93</v>
+        <v>73.930000000000007</v>
       </c>
       <c r="AB37" s="1">
         <v>28172</v>
@@ -3073,7 +3073,7 @@
         <v>472</v>
       </c>
       <c r="AA39" s="1">
-        <v>50.89</v>
+        <v>70.89</v>
       </c>
       <c r="AB39" s="1">
         <v>28984</v>
@@ -3165,7 +3165,7 @@
         <v>476</v>
       </c>
       <c r="AA40" s="1">
-        <v>40.92</v>
+        <v>80.92</v>
       </c>
       <c r="AB40" s="1">
         <v>28910</v>
@@ -3349,7 +3349,7 @@
         <v>485</v>
       </c>
       <c r="AA42" s="1">
-        <v>58.04</v>
+        <v>78.040000000000006</v>
       </c>
       <c r="AB42" s="1">
         <v>30025</v>
@@ -3545,7 +3545,7 @@
         <v>47.04</v>
       </c>
       <c r="AE44" s="1">
-        <v>24084</v>
+        <v>22084</v>
       </c>
       <c r="AF44" s="1">
         <v>488</v>
@@ -3647,7 +3647,7 @@
       </c>
       <c r="AA45" s="12">
         <f>AVERAGE(AA36:AA44)</f>
-        <v>68.484444444444449</v>
+        <v>78.484444444444435</v>
       </c>
       <c r="AB45" s="12">
         <f t="shared" si="5"/>
@@ -3663,7 +3663,7 @@
       </c>
       <c r="AE45" s="12">
         <f t="shared" si="5"/>
-        <v>22083.3</v>
+        <v>21883.3</v>
       </c>
       <c r="AF45" s="12">
         <f>AVERAGE(AF35:AF44)</f>
@@ -3674,145 +3674,145 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="C49" s="22"/>
+      <c r="D49" s="22"/>
+      <c r="E49" s="22"/>
+      <c r="F49" s="22"/>
+      <c r="G49" s="22"/>
+      <c r="H49" s="22"/>
+      <c r="I49" s="22"/>
+      <c r="J49" s="22"/>
       <c r="L49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
+      <c r="N49" s="22"/>
+      <c r="O49" s="22"/>
+      <c r="P49" s="22"/>
+      <c r="Q49" s="22"/>
+      <c r="R49" s="22"/>
+      <c r="S49" s="22"/>
+      <c r="T49" s="22"/>
+      <c r="U49" s="22"/>
       <c r="W49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X49" s="17" t="s">
+      <c r="X49" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
+      <c r="Y49" s="22"/>
+      <c r="Z49" s="22"/>
+      <c r="AA49" s="22"/>
+      <c r="AB49" s="22"/>
+      <c r="AC49" s="22"/>
+      <c r="AD49" s="22"/>
+      <c r="AE49" s="22"/>
+      <c r="AF49" s="22"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="C50" s="22"/>
+      <c r="D50" s="22"/>
+      <c r="E50" s="22"/>
+      <c r="F50" s="22"/>
+      <c r="G50" s="22"/>
+      <c r="H50" s="22"/>
+      <c r="I50" s="22"/>
+      <c r="J50" s="22"/>
       <c r="L50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
+      <c r="N50" s="22"/>
+      <c r="O50" s="22"/>
+      <c r="P50" s="22"/>
+      <c r="Q50" s="22"/>
+      <c r="R50" s="22"/>
+      <c r="S50" s="22"/>
+      <c r="T50" s="22"/>
+      <c r="U50" s="22"/>
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="17" t="s">
+      <c r="X50" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
+      <c r="Y50" s="22"/>
+      <c r="Z50" s="22"/>
+      <c r="AA50" s="22"/>
+      <c r="AB50" s="22"/>
+      <c r="AC50" s="22"/>
+      <c r="AD50" s="22"/>
+      <c r="AE50" s="22"/>
+      <c r="AF50" s="22"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="C51" s="22"/>
+      <c r="D51" s="22"/>
+      <c r="E51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17" t="s">
+      <c r="F51" s="22"/>
+      <c r="G51" s="22"/>
+      <c r="H51" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="I51" s="22"/>
+      <c r="J51" s="22"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17" t="s">
+      <c r="N51" s="22"/>
+      <c r="O51" s="22"/>
+      <c r="P51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17" t="s">
+      <c r="Q51" s="22"/>
+      <c r="R51" s="22"/>
+      <c r="S51" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
+      <c r="T51" s="22"/>
+      <c r="U51" s="22"/>
       <c r="W51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="17" t="s">
+      <c r="X51" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17" t="s">
+      <c r="Y51" s="22"/>
+      <c r="Z51" s="22"/>
+      <c r="AA51" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17" t="s">
+      <c r="AB51" s="22"/>
+      <c r="AC51" s="22"/>
+      <c r="AD51" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
+      <c r="AE51" s="22"/>
+      <c r="AF51" s="22"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="11"/>
@@ -3917,7 +3917,7 @@
         <v>1.5960000000000001</v>
       </c>
       <c r="F53" s="1">
-        <v>1218</v>
+        <v>1196</v>
       </c>
       <c r="G53" s="1">
         <v>117</v>
@@ -3993,218 +3993,218 @@
       </c>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="23" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
+      <c r="B55" s="23"/>
+      <c r="C55" s="23"/>
+      <c r="D55" s="23"/>
+      <c r="E55" s="23"/>
+      <c r="F55" s="23"/>
+      <c r="G55" s="23"/>
+      <c r="H55" s="23"/>
+      <c r="I55" s="23"/>
+      <c r="J55" s="23"/>
+      <c r="K55" s="23"/>
+      <c r="L55" s="23"/>
+      <c r="M55" s="23"/>
+      <c r="N55" s="23"/>
+      <c r="O55" s="23"/>
+      <c r="P55" s="23"/>
+      <c r="Q55" s="23"/>
+      <c r="R55" s="23"/>
+      <c r="S55" s="23"/>
+      <c r="T55" s="23"/>
+      <c r="U55" s="23"/>
+      <c r="V55" s="23"/>
+      <c r="W55" s="23"/>
+      <c r="X55" s="23"/>
+      <c r="Y55" s="23"/>
+      <c r="Z55" s="23"/>
+      <c r="AA55" s="23"/>
+      <c r="AB55" s="23"/>
+      <c r="AC55" s="23"/>
+      <c r="AD55" s="23"/>
+      <c r="AE55" s="23"/>
+      <c r="AF55" s="23"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
+      <c r="A56" s="23"/>
+      <c r="B56" s="23"/>
+      <c r="C56" s="23"/>
+      <c r="D56" s="23"/>
+      <c r="E56" s="23"/>
+      <c r="F56" s="23"/>
+      <c r="G56" s="23"/>
+      <c r="H56" s="23"/>
+      <c r="I56" s="23"/>
+      <c r="J56" s="23"/>
+      <c r="K56" s="23"/>
+      <c r="L56" s="23"/>
+      <c r="M56" s="23"/>
+      <c r="N56" s="23"/>
+      <c r="O56" s="23"/>
+      <c r="P56" s="23"/>
+      <c r="Q56" s="23"/>
+      <c r="R56" s="23"/>
+      <c r="S56" s="23"/>
+      <c r="T56" s="23"/>
+      <c r="U56" s="23"/>
+      <c r="V56" s="23"/>
+      <c r="W56" s="23"/>
+      <c r="X56" s="23"/>
+      <c r="Y56" s="23"/>
+      <c r="Z56" s="23"/>
+      <c r="AA56" s="23"/>
+      <c r="AB56" s="23"/>
+      <c r="AC56" s="23"/>
+      <c r="AD56" s="23"/>
+      <c r="AE56" s="23"/>
+      <c r="AF56" s="23"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="C58" s="22"/>
+      <c r="D58" s="22"/>
+      <c r="E58" s="22"/>
+      <c r="F58" s="22"/>
+      <c r="G58" s="22"/>
+      <c r="H58" s="22"/>
+      <c r="I58" s="22"/>
+      <c r="J58" s="22"/>
       <c r="L58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="17" t="s">
+      <c r="M58" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
+      <c r="N58" s="22"/>
+      <c r="O58" s="22"/>
+      <c r="P58" s="22"/>
+      <c r="Q58" s="22"/>
+      <c r="R58" s="22"/>
+      <c r="S58" s="22"/>
+      <c r="T58" s="22"/>
+      <c r="U58" s="22"/>
       <c r="W58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X58" s="17" t="s">
+      <c r="X58" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17"/>
-      <c r="AC58" s="17"/>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="Y58" s="22"/>
+      <c r="Z58" s="22"/>
+      <c r="AA58" s="22"/>
+      <c r="AB58" s="22"/>
+      <c r="AC58" s="22"/>
+      <c r="AD58" s="22"/>
+      <c r="AE58" s="22"/>
+      <c r="AF58" s="22"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="C59" s="22"/>
+      <c r="D59" s="22"/>
+      <c r="E59" s="22"/>
+      <c r="F59" s="22"/>
+      <c r="G59" s="22"/>
+      <c r="H59" s="22"/>
+      <c r="I59" s="22"/>
+      <c r="J59" s="22"/>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="M59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
+      <c r="N59" s="22"/>
+      <c r="O59" s="22"/>
+      <c r="P59" s="22"/>
+      <c r="Q59" s="22"/>
+      <c r="R59" s="22"/>
+      <c r="S59" s="22"/>
+      <c r="T59" s="22"/>
+      <c r="U59" s="22"/>
       <c r="W59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17"/>
-      <c r="AC59" s="17"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
+      <c r="Y59" s="22"/>
+      <c r="Z59" s="22"/>
+      <c r="AA59" s="22"/>
+      <c r="AB59" s="22"/>
+      <c r="AC59" s="22"/>
+      <c r="AD59" s="22"/>
+      <c r="AE59" s="22"/>
+      <c r="AF59" s="22"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="19" t="s">
+      <c r="C60" s="18"/>
+      <c r="D60" s="19"/>
+      <c r="E60" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="17" t="s">
+      <c r="F60" s="18"/>
+      <c r="G60" s="19"/>
+      <c r="H60" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="I60" s="22"/>
+      <c r="J60" s="22"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="20"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="19" t="s">
+      <c r="N60" s="18"/>
+      <c r="O60" s="19"/>
+      <c r="P60" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="17" t="s">
+      <c r="Q60" s="18"/>
+      <c r="R60" s="19"/>
+      <c r="S60" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
+      <c r="T60" s="22"/>
+      <c r="U60" s="22"/>
       <c r="W60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="17" t="s">
+      <c r="X60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17" t="s">
+      <c r="Y60" s="22"/>
+      <c r="Z60" s="22"/>
+      <c r="AA60" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB60" s="17"/>
-      <c r="AC60" s="17"/>
-      <c r="AD60" s="17" t="s">
+      <c r="AB60" s="22"/>
+      <c r="AC60" s="22"/>
+      <c r="AD60" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
+      <c r="AE60" s="22"/>
+      <c r="AF60" s="22"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="11"/>
@@ -5333,145 +5333,145 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="C74" s="22"/>
+      <c r="D74" s="22"/>
+      <c r="E74" s="22"/>
+      <c r="F74" s="22"/>
+      <c r="G74" s="22"/>
+      <c r="H74" s="22"/>
+      <c r="I74" s="22"/>
+      <c r="J74" s="22"/>
       <c r="L74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="17" t="s">
+      <c r="M74" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
+      <c r="N74" s="22"/>
+      <c r="O74" s="22"/>
+      <c r="P74" s="22"/>
+      <c r="Q74" s="22"/>
+      <c r="R74" s="22"/>
+      <c r="S74" s="22"/>
+      <c r="T74" s="22"/>
+      <c r="U74" s="22"/>
       <c r="W74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="17" t="s">
+      <c r="X74" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="17"/>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
+      <c r="Y74" s="22"/>
+      <c r="Z74" s="22"/>
+      <c r="AA74" s="22"/>
+      <c r="AB74" s="22"/>
+      <c r="AC74" s="22"/>
+      <c r="AD74" s="22"/>
+      <c r="AE74" s="22"/>
+      <c r="AF74" s="22"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="C75" s="22"/>
+      <c r="D75" s="22"/>
+      <c r="E75" s="22"/>
+      <c r="F75" s="22"/>
+      <c r="G75" s="22"/>
+      <c r="H75" s="22"/>
+      <c r="I75" s="22"/>
+      <c r="J75" s="22"/>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="17" t="s">
+      <c r="M75" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
+      <c r="N75" s="22"/>
+      <c r="O75" s="22"/>
+      <c r="P75" s="22"/>
+      <c r="Q75" s="22"/>
+      <c r="R75" s="22"/>
+      <c r="S75" s="22"/>
+      <c r="T75" s="22"/>
+      <c r="U75" s="22"/>
       <c r="W75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X75" s="17" t="s">
+      <c r="X75" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
+      <c r="Y75" s="22"/>
+      <c r="Z75" s="22"/>
+      <c r="AA75" s="22"/>
+      <c r="AB75" s="22"/>
+      <c r="AC75" s="22"/>
+      <c r="AD75" s="22"/>
+      <c r="AE75" s="22"/>
+      <c r="AF75" s="22"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="19" t="s">
+      <c r="C76" s="18"/>
+      <c r="D76" s="19"/>
+      <c r="E76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="17" t="s">
+      <c r="F76" s="18"/>
+      <c r="G76" s="19"/>
+      <c r="H76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="I76" s="22"/>
+      <c r="J76" s="22"/>
       <c r="L76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="M76" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17" t="s">
+      <c r="N76" s="22"/>
+      <c r="O76" s="22"/>
+      <c r="P76" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17" t="s">
+      <c r="Q76" s="22"/>
+      <c r="R76" s="22"/>
+      <c r="S76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
+      <c r="T76" s="22"/>
+      <c r="U76" s="22"/>
       <c r="W76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="17" t="s">
+      <c r="X76" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="17" t="s">
+      <c r="Y76" s="22"/>
+      <c r="Z76" s="22"/>
+      <c r="AA76" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB76" s="17"/>
-      <c r="AC76" s="17"/>
-      <c r="AD76" s="17" t="s">
+      <c r="AB76" s="22"/>
+      <c r="AC76" s="22"/>
+      <c r="AD76" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
+      <c r="AE76" s="22"/>
+      <c r="AF76" s="22"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="11"/>
@@ -5650,218 +5650,218 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="23" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
+      <c r="B80" s="23"/>
+      <c r="C80" s="23"/>
+      <c r="D80" s="23"/>
+      <c r="E80" s="23"/>
+      <c r="F80" s="23"/>
+      <c r="G80" s="23"/>
+      <c r="H80" s="23"/>
+      <c r="I80" s="23"/>
+      <c r="J80" s="23"/>
+      <c r="K80" s="23"/>
+      <c r="L80" s="23"/>
+      <c r="M80" s="23"/>
+      <c r="N80" s="23"/>
+      <c r="O80" s="23"/>
+      <c r="P80" s="23"/>
+      <c r="Q80" s="23"/>
+      <c r="R80" s="23"/>
+      <c r="S80" s="23"/>
+      <c r="T80" s="23"/>
+      <c r="U80" s="23"/>
+      <c r="V80" s="23"/>
+      <c r="W80" s="23"/>
+      <c r="X80" s="23"/>
+      <c r="Y80" s="23"/>
+      <c r="Z80" s="23"/>
+      <c r="AA80" s="23"/>
+      <c r="AB80" s="23"/>
+      <c r="AC80" s="23"/>
+      <c r="AD80" s="23"/>
+      <c r="AE80" s="23"/>
+      <c r="AF80" s="23"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
+      <c r="A81" s="23"/>
+      <c r="B81" s="23"/>
+      <c r="C81" s="23"/>
+      <c r="D81" s="23"/>
+      <c r="E81" s="23"/>
+      <c r="F81" s="23"/>
+      <c r="G81" s="23"/>
+      <c r="H81" s="23"/>
+      <c r="I81" s="23"/>
+      <c r="J81" s="23"/>
+      <c r="K81" s="23"/>
+      <c r="L81" s="23"/>
+      <c r="M81" s="23"/>
+      <c r="N81" s="23"/>
+      <c r="O81" s="23"/>
+      <c r="P81" s="23"/>
+      <c r="Q81" s="23"/>
+      <c r="R81" s="23"/>
+      <c r="S81" s="23"/>
+      <c r="T81" s="23"/>
+      <c r="U81" s="23"/>
+      <c r="V81" s="23"/>
+      <c r="W81" s="23"/>
+      <c r="X81" s="23"/>
+      <c r="Y81" s="23"/>
+      <c r="Z81" s="23"/>
+      <c r="AA81" s="23"/>
+      <c r="AB81" s="23"/>
+      <c r="AC81" s="23"/>
+      <c r="AD81" s="23"/>
+      <c r="AE81" s="23"/>
+      <c r="AF81" s="23"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="C83" s="22"/>
+      <c r="D83" s="22"/>
+      <c r="E83" s="22"/>
+      <c r="F83" s="22"/>
+      <c r="G83" s="22"/>
+      <c r="H83" s="22"/>
+      <c r="I83" s="22"/>
+      <c r="J83" s="22"/>
       <c r="L83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M83" s="17" t="s">
+      <c r="M83" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
+      <c r="N83" s="22"/>
+      <c r="O83" s="22"/>
+      <c r="P83" s="22"/>
+      <c r="Q83" s="22"/>
+      <c r="R83" s="22"/>
+      <c r="S83" s="22"/>
+      <c r="T83" s="22"/>
+      <c r="U83" s="22"/>
       <c r="W83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X83" s="17" t="s">
+      <c r="X83" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="17"/>
-      <c r="AB83" s="17"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="17"/>
-      <c r="AE83" s="17"/>
-      <c r="AF83" s="17"/>
+      <c r="Y83" s="22"/>
+      <c r="Z83" s="22"/>
+      <c r="AA83" s="22"/>
+      <c r="AB83" s="22"/>
+      <c r="AC83" s="22"/>
+      <c r="AD83" s="22"/>
+      <c r="AE83" s="22"/>
+      <c r="AF83" s="22"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
+      <c r="C84" s="22"/>
+      <c r="D84" s="22"/>
+      <c r="E84" s="22"/>
+      <c r="F84" s="22"/>
+      <c r="G84" s="22"/>
+      <c r="H84" s="22"/>
+      <c r="I84" s="22"/>
+      <c r="J84" s="22"/>
       <c r="L84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="17" t="s">
+      <c r="M84" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
+      <c r="N84" s="22"/>
+      <c r="O84" s="22"/>
+      <c r="P84" s="22"/>
+      <c r="Q84" s="22"/>
+      <c r="R84" s="22"/>
+      <c r="S84" s="22"/>
+      <c r="T84" s="22"/>
+      <c r="U84" s="22"/>
       <c r="W84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X84" s="17" t="s">
+      <c r="X84" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y84" s="17"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="17"/>
-      <c r="AB84" s="17"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="17"/>
-      <c r="AE84" s="17"/>
-      <c r="AF84" s="17"/>
+      <c r="Y84" s="22"/>
+      <c r="Z84" s="22"/>
+      <c r="AA84" s="22"/>
+      <c r="AB84" s="22"/>
+      <c r="AC84" s="22"/>
+      <c r="AD84" s="22"/>
+      <c r="AE84" s="22"/>
+      <c r="AF84" s="22"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="C85" s="22"/>
+      <c r="D85" s="22"/>
+      <c r="E85" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17" t="s">
+      <c r="F85" s="22"/>
+      <c r="G85" s="22"/>
+      <c r="H85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="I85" s="22"/>
+      <c r="J85" s="22"/>
       <c r="L85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M85" s="17" t="s">
+      <c r="M85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17" t="s">
+      <c r="N85" s="22"/>
+      <c r="O85" s="22"/>
+      <c r="P85" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17" t="s">
+      <c r="Q85" s="22"/>
+      <c r="R85" s="22"/>
+      <c r="S85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
+      <c r="T85" s="22"/>
+      <c r="U85" s="22"/>
       <c r="W85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="17" t="s">
+      <c r="X85" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17" t="s">
+      <c r="Y85" s="22"/>
+      <c r="Z85" s="22"/>
+      <c r="AA85" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17" t="s">
+      <c r="AB85" s="22"/>
+      <c r="AC85" s="22"/>
+      <c r="AD85" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
+      <c r="AE85" s="22"/>
+      <c r="AF85" s="22"/>
     </row>
     <row r="86" spans="1:32">
       <c r="B86" s="1" t="s">
@@ -6989,145 +6989,145 @@
       <c r="A99" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="C99" s="22"/>
+      <c r="D99" s="22"/>
+      <c r="E99" s="22"/>
+      <c r="F99" s="22"/>
+      <c r="G99" s="22"/>
+      <c r="H99" s="22"/>
+      <c r="I99" s="22"/>
+      <c r="J99" s="22"/>
       <c r="L99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M99" s="17" t="s">
+      <c r="M99" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
+      <c r="N99" s="22"/>
+      <c r="O99" s="22"/>
+      <c r="P99" s="22"/>
+      <c r="Q99" s="22"/>
+      <c r="R99" s="22"/>
+      <c r="S99" s="22"/>
+      <c r="T99" s="22"/>
+      <c r="U99" s="22"/>
       <c r="W99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X99" s="17" t="s">
+      <c r="X99" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
+      <c r="Y99" s="22"/>
+      <c r="Z99" s="22"/>
+      <c r="AA99" s="22"/>
+      <c r="AB99" s="22"/>
+      <c r="AC99" s="22"/>
+      <c r="AD99" s="22"/>
+      <c r="AE99" s="22"/>
+      <c r="AF99" s="22"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+      <c r="C100" s="22"/>
+      <c r="D100" s="22"/>
+      <c r="E100" s="22"/>
+      <c r="F100" s="22"/>
+      <c r="G100" s="22"/>
+      <c r="H100" s="22"/>
+      <c r="I100" s="22"/>
+      <c r="J100" s="22"/>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="M100" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
+      <c r="N100" s="22"/>
+      <c r="O100" s="22"/>
+      <c r="P100" s="22"/>
+      <c r="Q100" s="22"/>
+      <c r="R100" s="22"/>
+      <c r="S100" s="22"/>
+      <c r="T100" s="22"/>
+      <c r="U100" s="22"/>
       <c r="W100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X100" s="17" t="s">
+      <c r="X100" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y100" s="17"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="17"/>
-      <c r="AB100" s="17"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="17"/>
-      <c r="AE100" s="17"/>
-      <c r="AF100" s="17"/>
+      <c r="Y100" s="22"/>
+      <c r="Z100" s="22"/>
+      <c r="AA100" s="22"/>
+      <c r="AB100" s="22"/>
+      <c r="AC100" s="22"/>
+      <c r="AD100" s="22"/>
+      <c r="AE100" s="22"/>
+      <c r="AF100" s="22"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
+      <c r="C101" s="22"/>
+      <c r="D101" s="22"/>
+      <c r="E101" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17" t="s">
+      <c r="F101" s="22"/>
+      <c r="G101" s="22"/>
+      <c r="H101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
+      <c r="I101" s="22"/>
+      <c r="J101" s="22"/>
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="19" t="s">
+      <c r="M101" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="20"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="19" t="s">
+      <c r="N101" s="18"/>
+      <c r="O101" s="19"/>
+      <c r="P101" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="17" t="s">
+      <c r="Q101" s="18"/>
+      <c r="R101" s="19"/>
+      <c r="S101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
+      <c r="T101" s="22"/>
+      <c r="U101" s="22"/>
       <c r="W101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="17" t="s">
+      <c r="X101" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17" t="s">
+      <c r="Y101" s="22"/>
+      <c r="Z101" s="22"/>
+      <c r="AA101" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="17" t="s">
+      <c r="AB101" s="22"/>
+      <c r="AC101" s="22"/>
+      <c r="AD101" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE101" s="17"/>
-      <c r="AF101" s="17"/>
+      <c r="AE101" s="22"/>
+      <c r="AF101" s="22"/>
     </row>
     <row r="102" spans="1:32">
       <c r="B102" s="1" t="s">
@@ -7306,52 +7306,60 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="A28:AF29"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="X31:AF31"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="X101:Z101"/>
+    <mergeCell ref="AA101:AC101"/>
+    <mergeCell ref="AD101:AF101"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="A80:AF81"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:U101"/>
+    <mergeCell ref="X83:AF83"/>
+    <mergeCell ref="X84:AF84"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="X99:AF99"/>
+    <mergeCell ref="X100:AF100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="M83:U83"/>
+    <mergeCell ref="M84:U84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="M99:U99"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
     <mergeCell ref="P33:R33"/>
     <mergeCell ref="S33:U33"/>
     <mergeCell ref="A55:AF56"/>
@@ -7376,60 +7384,52 @@
     <mergeCell ref="X58:AF58"/>
     <mergeCell ref="X59:AF59"/>
     <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="X101:Z101"/>
-    <mergeCell ref="AA101:AC101"/>
-    <mergeCell ref="AD101:AF101"/>
-    <mergeCell ref="A1:AF2"/>
-    <mergeCell ref="A80:AF81"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:U101"/>
-    <mergeCell ref="X83:AF83"/>
-    <mergeCell ref="X84:AF84"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="X99:AF99"/>
-    <mergeCell ref="X100:AF100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="M83:U83"/>
-    <mergeCell ref="M84:U84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="M99:U99"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="X23:AF23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="A28:AF29"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="X31:AF31"/>
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="X22:AF22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="556" uniqueCount="33">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="39">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -116,12 +116,30 @@
   <si>
     <t>Mapa 2</t>
   </si>
+  <si>
+    <t>50z50</t>
+  </si>
+  <si>
+    <t>lab</t>
+  </si>
+  <si>
+    <t>long path</t>
+  </si>
+  <si>
+    <t>slepa</t>
+  </si>
+  <si>
+    <t>prosta</t>
+  </si>
+  <si>
+    <t>Map 2</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="3">
+  <fonts count="5">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -140,6 +158,25 @@
     </font>
     <font>
       <sz val="28"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <sz val="11"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="11"/>
       <color theme="1"/>
       <name val="Calibri"/>
       <family val="2"/>
@@ -316,7 +353,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="24">
+  <cellXfs count="28">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -344,6 +381,12 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="11" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -355,12 +398,14 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -662,10 +707,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF121"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="M1" workbookViewId="0">
-      <selection activeCell="W4" sqref="W4:AF18"/>
+    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
+      <selection activeCell="M110" sqref="M110"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -674,218 +719,218 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="23" t="s">
+      <c r="A1" s="18" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="23"/>
-      <c r="C1" s="23"/>
-      <c r="D1" s="23"/>
-      <c r="E1" s="23"/>
-      <c r="F1" s="23"/>
-      <c r="G1" s="23"/>
-      <c r="H1" s="23"/>
-      <c r="I1" s="23"/>
-      <c r="J1" s="23"/>
-      <c r="K1" s="23"/>
-      <c r="L1" s="23"/>
-      <c r="M1" s="23"/>
-      <c r="N1" s="23"/>
-      <c r="O1" s="23"/>
-      <c r="P1" s="23"/>
-      <c r="Q1" s="23"/>
-      <c r="R1" s="23"/>
-      <c r="S1" s="23"/>
-      <c r="T1" s="23"/>
-      <c r="U1" s="23"/>
-      <c r="V1" s="23"/>
-      <c r="W1" s="23"/>
-      <c r="X1" s="23"/>
-      <c r="Y1" s="23"/>
-      <c r="Z1" s="23"/>
-      <c r="AA1" s="23"/>
-      <c r="AB1" s="23"/>
-      <c r="AC1" s="23"/>
-      <c r="AD1" s="23"/>
-      <c r="AE1" s="23"/>
-      <c r="AF1" s="23"/>
+      <c r="B1" s="18"/>
+      <c r="C1" s="18"/>
+      <c r="D1" s="18"/>
+      <c r="E1" s="18"/>
+      <c r="F1" s="18"/>
+      <c r="G1" s="18"/>
+      <c r="H1" s="18"/>
+      <c r="I1" s="18"/>
+      <c r="J1" s="18"/>
+      <c r="K1" s="18"/>
+      <c r="L1" s="18"/>
+      <c r="M1" s="18"/>
+      <c r="N1" s="18"/>
+      <c r="O1" s="18"/>
+      <c r="P1" s="18"/>
+      <c r="Q1" s="18"/>
+      <c r="R1" s="18"/>
+      <c r="S1" s="18"/>
+      <c r="T1" s="18"/>
+      <c r="U1" s="18"/>
+      <c r="V1" s="18"/>
+      <c r="W1" s="18"/>
+      <c r="X1" s="18"/>
+      <c r="Y1" s="18"/>
+      <c r="Z1" s="18"/>
+      <c r="AA1" s="18"/>
+      <c r="AB1" s="18"/>
+      <c r="AC1" s="18"/>
+      <c r="AD1" s="18"/>
+      <c r="AE1" s="18"/>
+      <c r="AF1" s="18"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="23"/>
-      <c r="B2" s="23"/>
-      <c r="C2" s="23"/>
-      <c r="D2" s="23"/>
-      <c r="E2" s="23"/>
-      <c r="F2" s="23"/>
-      <c r="G2" s="23"/>
-      <c r="H2" s="23"/>
-      <c r="I2" s="23"/>
-      <c r="J2" s="23"/>
-      <c r="K2" s="23"/>
-      <c r="L2" s="23"/>
-      <c r="M2" s="23"/>
-      <c r="N2" s="23"/>
-      <c r="O2" s="23"/>
-      <c r="P2" s="23"/>
-      <c r="Q2" s="23"/>
-      <c r="R2" s="23"/>
-      <c r="S2" s="23"/>
-      <c r="T2" s="23"/>
-      <c r="U2" s="23"/>
-      <c r="V2" s="23"/>
-      <c r="W2" s="23"/>
-      <c r="X2" s="23"/>
-      <c r="Y2" s="23"/>
-      <c r="Z2" s="23"/>
-      <c r="AA2" s="23"/>
-      <c r="AB2" s="23"/>
-      <c r="AC2" s="23"/>
-      <c r="AD2" s="23"/>
-      <c r="AE2" s="23"/>
-      <c r="AF2" s="23"/>
+      <c r="A2" s="18"/>
+      <c r="B2" s="18"/>
+      <c r="C2" s="18"/>
+      <c r="D2" s="18"/>
+      <c r="E2" s="18"/>
+      <c r="F2" s="18"/>
+      <c r="G2" s="18"/>
+      <c r="H2" s="18"/>
+      <c r="I2" s="18"/>
+      <c r="J2" s="18"/>
+      <c r="K2" s="18"/>
+      <c r="L2" s="18"/>
+      <c r="M2" s="18"/>
+      <c r="N2" s="18"/>
+      <c r="O2" s="18"/>
+      <c r="P2" s="18"/>
+      <c r="Q2" s="18"/>
+      <c r="R2" s="18"/>
+      <c r="S2" s="18"/>
+      <c r="T2" s="18"/>
+      <c r="U2" s="18"/>
+      <c r="V2" s="18"/>
+      <c r="W2" s="18"/>
+      <c r="X2" s="18"/>
+      <c r="Y2" s="18"/>
+      <c r="Z2" s="18"/>
+      <c r="AA2" s="18"/>
+      <c r="AB2" s="18"/>
+      <c r="AC2" s="18"/>
+      <c r="AD2" s="18"/>
+      <c r="AE2" s="18"/>
+      <c r="AF2" s="18"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="22" t="s">
+      <c r="B4" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="22"/>
-      <c r="D4" s="22"/>
-      <c r="E4" s="22"/>
-      <c r="F4" s="22"/>
-      <c r="G4" s="22"/>
-      <c r="H4" s="22"/>
-      <c r="I4" s="22"/>
-      <c r="J4" s="22"/>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="17"/>
+      <c r="F4" s="17"/>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="17"/>
+      <c r="J4" s="17"/>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="22" t="s">
+      <c r="M4" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="22"/>
-      <c r="O4" s="22"/>
-      <c r="P4" s="22"/>
-      <c r="Q4" s="22"/>
-      <c r="R4" s="22"/>
-      <c r="S4" s="22"/>
-      <c r="T4" s="22"/>
-      <c r="U4" s="22"/>
+      <c r="N4" s="17"/>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+      <c r="Q4" s="17"/>
+      <c r="R4" s="17"/>
+      <c r="S4" s="17"/>
+      <c r="T4" s="17"/>
+      <c r="U4" s="17"/>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="17" t="s">
+      <c r="X4" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="18"/>
-      <c r="Z4" s="18"/>
-      <c r="AA4" s="18"/>
-      <c r="AB4" s="18"/>
-      <c r="AC4" s="18"/>
-      <c r="AD4" s="18"/>
-      <c r="AE4" s="18"/>
-      <c r="AF4" s="19"/>
+      <c r="Y4" s="20"/>
+      <c r="Z4" s="20"/>
+      <c r="AA4" s="20"/>
+      <c r="AB4" s="20"/>
+      <c r="AC4" s="20"/>
+      <c r="AD4" s="20"/>
+      <c r="AE4" s="20"/>
+      <c r="AF4" s="21"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="22" t="s">
+      <c r="B5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="22"/>
-      <c r="D5" s="22"/>
-      <c r="E5" s="22"/>
-      <c r="F5" s="22"/>
-      <c r="G5" s="22"/>
-      <c r="H5" s="22"/>
-      <c r="I5" s="22"/>
-      <c r="J5" s="22"/>
+      <c r="C5" s="17"/>
+      <c r="D5" s="17"/>
+      <c r="E5" s="17"/>
+      <c r="F5" s="17"/>
+      <c r="G5" s="17"/>
+      <c r="H5" s="17"/>
+      <c r="I5" s="17"/>
+      <c r="J5" s="17"/>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="22" t="s">
+      <c r="M5" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="22"/>
-      <c r="O5" s="22"/>
-      <c r="P5" s="22"/>
-      <c r="Q5" s="22"/>
-      <c r="R5" s="22"/>
-      <c r="S5" s="22"/>
-      <c r="T5" s="22"/>
-      <c r="U5" s="22"/>
+      <c r="N5" s="17"/>
+      <c r="O5" s="17"/>
+      <c r="P5" s="17"/>
+      <c r="Q5" s="17"/>
+      <c r="R5" s="17"/>
+      <c r="S5" s="17"/>
+      <c r="T5" s="17"/>
+      <c r="U5" s="17"/>
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="17" t="s">
+      <c r="X5" s="19" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="18"/>
-      <c r="Z5" s="18"/>
-      <c r="AA5" s="18"/>
-      <c r="AB5" s="18"/>
-      <c r="AC5" s="18"/>
-      <c r="AD5" s="18"/>
-      <c r="AE5" s="18"/>
-      <c r="AF5" s="19"/>
+      <c r="Y5" s="20"/>
+      <c r="Z5" s="20"/>
+      <c r="AA5" s="20"/>
+      <c r="AB5" s="20"/>
+      <c r="AC5" s="20"/>
+      <c r="AD5" s="20"/>
+      <c r="AE5" s="20"/>
+      <c r="AF5" s="21"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="22" t="s">
+      <c r="B6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="22"/>
-      <c r="D6" s="22"/>
-      <c r="E6" s="22" t="s">
+      <c r="C6" s="17"/>
+      <c r="D6" s="17"/>
+      <c r="E6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="22"/>
-      <c r="G6" s="22"/>
-      <c r="H6" s="22" t="s">
+      <c r="F6" s="17"/>
+      <c r="G6" s="17"/>
+      <c r="H6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="22"/>
-      <c r="J6" s="22"/>
+      <c r="I6" s="17"/>
+      <c r="J6" s="17"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="22" t="s">
+      <c r="M6" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="22"/>
-      <c r="O6" s="22"/>
-      <c r="P6" s="22" t="s">
+      <c r="N6" s="17"/>
+      <c r="O6" s="17"/>
+      <c r="P6" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="22"/>
-      <c r="R6" s="22"/>
-      <c r="S6" s="22" t="s">
+      <c r="Q6" s="17"/>
+      <c r="R6" s="17"/>
+      <c r="S6" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="22"/>
-      <c r="U6" s="22"/>
+      <c r="T6" s="17"/>
+      <c r="U6" s="17"/>
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="17" t="s">
+      <c r="X6" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="18"/>
-      <c r="Z6" s="19"/>
-      <c r="AA6" s="17" t="s">
+      <c r="Y6" s="20"/>
+      <c r="Z6" s="21"/>
+      <c r="AA6" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="18"/>
-      <c r="AC6" s="19"/>
-      <c r="AD6" s="17" t="s">
+      <c r="AB6" s="20"/>
+      <c r="AC6" s="21"/>
+      <c r="AD6" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="18"/>
-      <c r="AF6" s="19"/>
+      <c r="AE6" s="20"/>
+      <c r="AF6" s="21"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -2015,145 +2060,145 @@
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="17" t="s">
+      <c r="B22" s="19" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="18"/>
-      <c r="D22" s="18"/>
-      <c r="E22" s="18"/>
-      <c r="F22" s="18"/>
-      <c r="G22" s="18"/>
-      <c r="H22" s="18"/>
-      <c r="I22" s="18"/>
-      <c r="J22" s="19"/>
+      <c r="C22" s="20"/>
+      <c r="D22" s="20"/>
+      <c r="E22" s="20"/>
+      <c r="F22" s="20"/>
+      <c r="G22" s="20"/>
+      <c r="H22" s="20"/>
+      <c r="I22" s="20"/>
+      <c r="J22" s="21"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="17" t="s">
+      <c r="M22" s="19" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="18"/>
-      <c r="O22" s="18"/>
-      <c r="P22" s="18"/>
-      <c r="Q22" s="18"/>
-      <c r="R22" s="18"/>
-      <c r="S22" s="18"/>
-      <c r="T22" s="18"/>
-      <c r="U22" s="19"/>
+      <c r="N22" s="20"/>
+      <c r="O22" s="20"/>
+      <c r="P22" s="20"/>
+      <c r="Q22" s="20"/>
+      <c r="R22" s="20"/>
+      <c r="S22" s="20"/>
+      <c r="T22" s="20"/>
+      <c r="U22" s="21"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="17" t="s">
+      <c r="X22" s="19" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="18"/>
-      <c r="Z22" s="18"/>
-      <c r="AA22" s="18"/>
-      <c r="AB22" s="18"/>
-      <c r="AC22" s="18"/>
-      <c r="AD22" s="18"/>
-      <c r="AE22" s="18"/>
-      <c r="AF22" s="19"/>
+      <c r="Y22" s="20"/>
+      <c r="Z22" s="20"/>
+      <c r="AA22" s="20"/>
+      <c r="AB22" s="20"/>
+      <c r="AC22" s="20"/>
+      <c r="AD22" s="20"/>
+      <c r="AE22" s="20"/>
+      <c r="AF22" s="21"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="17" t="s">
+      <c r="B23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="18"/>
-      <c r="D23" s="18"/>
-      <c r="E23" s="18"/>
-      <c r="F23" s="18"/>
-      <c r="G23" s="18"/>
-      <c r="H23" s="18"/>
-      <c r="I23" s="18"/>
-      <c r="J23" s="19"/>
+      <c r="C23" s="20"/>
+      <c r="D23" s="20"/>
+      <c r="E23" s="20"/>
+      <c r="F23" s="20"/>
+      <c r="G23" s="20"/>
+      <c r="H23" s="20"/>
+      <c r="I23" s="20"/>
+      <c r="J23" s="21"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="17" t="s">
+      <c r="M23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="18"/>
-      <c r="O23" s="18"/>
-      <c r="P23" s="18"/>
-      <c r="Q23" s="18"/>
-      <c r="R23" s="18"/>
-      <c r="S23" s="18"/>
-      <c r="T23" s="18"/>
-      <c r="U23" s="19"/>
+      <c r="N23" s="20"/>
+      <c r="O23" s="20"/>
+      <c r="P23" s="20"/>
+      <c r="Q23" s="20"/>
+      <c r="R23" s="20"/>
+      <c r="S23" s="20"/>
+      <c r="T23" s="20"/>
+      <c r="U23" s="21"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="17" t="s">
+      <c r="X23" s="19" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="18"/>
-      <c r="Z23" s="18"/>
-      <c r="AA23" s="18"/>
-      <c r="AB23" s="18"/>
-      <c r="AC23" s="18"/>
-      <c r="AD23" s="18"/>
-      <c r="AE23" s="18"/>
-      <c r="AF23" s="19"/>
+      <c r="Y23" s="20"/>
+      <c r="Z23" s="20"/>
+      <c r="AA23" s="20"/>
+      <c r="AB23" s="20"/>
+      <c r="AC23" s="20"/>
+      <c r="AD23" s="20"/>
+      <c r="AE23" s="20"/>
+      <c r="AF23" s="21"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="17" t="s">
+      <c r="B24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="20"/>
-      <c r="D24" s="21"/>
-      <c r="E24" s="17" t="s">
+      <c r="C24" s="22"/>
+      <c r="D24" s="23"/>
+      <c r="E24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="20"/>
-      <c r="G24" s="21"/>
-      <c r="H24" s="17" t="s">
+      <c r="F24" s="22"/>
+      <c r="G24" s="23"/>
+      <c r="H24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="20"/>
-      <c r="J24" s="21"/>
+      <c r="I24" s="22"/>
+      <c r="J24" s="23"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="17" t="s">
+      <c r="M24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="18"/>
-      <c r="O24" s="19"/>
-      <c r="P24" s="17" t="s">
+      <c r="N24" s="20"/>
+      <c r="O24" s="21"/>
+      <c r="P24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="18"/>
-      <c r="R24" s="19"/>
-      <c r="S24" s="22" t="s">
+      <c r="Q24" s="20"/>
+      <c r="R24" s="21"/>
+      <c r="S24" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="22"/>
-      <c r="U24" s="22"/>
+      <c r="T24" s="17"/>
+      <c r="U24" s="17"/>
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="17" t="s">
+      <c r="X24" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="18"/>
-      <c r="Z24" s="19"/>
-      <c r="AA24" s="17" t="s">
+      <c r="Y24" s="20"/>
+      <c r="Z24" s="21"/>
+      <c r="AA24" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="18"/>
-      <c r="AC24" s="19"/>
-      <c r="AD24" s="17" t="s">
+      <c r="AB24" s="20"/>
+      <c r="AC24" s="21"/>
+      <c r="AD24" s="19" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="18"/>
-      <c r="AF24" s="19"/>
+      <c r="AE24" s="20"/>
+      <c r="AF24" s="21"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="9"/>
@@ -2334,218 +2379,218 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="23" t="s">
+      <c r="A28" s="18" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="23"/>
-      <c r="C28" s="23"/>
-      <c r="D28" s="23"/>
-      <c r="E28" s="23"/>
-      <c r="F28" s="23"/>
-      <c r="G28" s="23"/>
-      <c r="H28" s="23"/>
-      <c r="I28" s="23"/>
-      <c r="J28" s="23"/>
-      <c r="K28" s="23"/>
-      <c r="L28" s="23"/>
-      <c r="M28" s="23"/>
-      <c r="N28" s="23"/>
-      <c r="O28" s="23"/>
-      <c r="P28" s="23"/>
-      <c r="Q28" s="23"/>
-      <c r="R28" s="23"/>
-      <c r="S28" s="23"/>
-      <c r="T28" s="23"/>
-      <c r="U28" s="23"/>
-      <c r="V28" s="23"/>
-      <c r="W28" s="23"/>
-      <c r="X28" s="23"/>
-      <c r="Y28" s="23"/>
-      <c r="Z28" s="23"/>
-      <c r="AA28" s="23"/>
-      <c r="AB28" s="23"/>
-      <c r="AC28" s="23"/>
-      <c r="AD28" s="23"/>
-      <c r="AE28" s="23"/>
-      <c r="AF28" s="23"/>
+      <c r="B28" s="18"/>
+      <c r="C28" s="18"/>
+      <c r="D28" s="18"/>
+      <c r="E28" s="18"/>
+      <c r="F28" s="18"/>
+      <c r="G28" s="18"/>
+      <c r="H28" s="18"/>
+      <c r="I28" s="18"/>
+      <c r="J28" s="18"/>
+      <c r="K28" s="18"/>
+      <c r="L28" s="18"/>
+      <c r="M28" s="18"/>
+      <c r="N28" s="18"/>
+      <c r="O28" s="18"/>
+      <c r="P28" s="18"/>
+      <c r="Q28" s="18"/>
+      <c r="R28" s="18"/>
+      <c r="S28" s="18"/>
+      <c r="T28" s="18"/>
+      <c r="U28" s="18"/>
+      <c r="V28" s="18"/>
+      <c r="W28" s="18"/>
+      <c r="X28" s="18"/>
+      <c r="Y28" s="18"/>
+      <c r="Z28" s="18"/>
+      <c r="AA28" s="18"/>
+      <c r="AB28" s="18"/>
+      <c r="AC28" s="18"/>
+      <c r="AD28" s="18"/>
+      <c r="AE28" s="18"/>
+      <c r="AF28" s="18"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="23"/>
-      <c r="B29" s="23"/>
-      <c r="C29" s="23"/>
-      <c r="D29" s="23"/>
-      <c r="E29" s="23"/>
-      <c r="F29" s="23"/>
-      <c r="G29" s="23"/>
-      <c r="H29" s="23"/>
-      <c r="I29" s="23"/>
-      <c r="J29" s="23"/>
-      <c r="K29" s="23"/>
-      <c r="L29" s="23"/>
-      <c r="M29" s="23"/>
-      <c r="N29" s="23"/>
-      <c r="O29" s="23"/>
-      <c r="P29" s="23"/>
-      <c r="Q29" s="23"/>
-      <c r="R29" s="23"/>
-      <c r="S29" s="23"/>
-      <c r="T29" s="23"/>
-      <c r="U29" s="23"/>
-      <c r="V29" s="23"/>
-      <c r="W29" s="23"/>
-      <c r="X29" s="23"/>
-      <c r="Y29" s="23"/>
-      <c r="Z29" s="23"/>
-      <c r="AA29" s="23"/>
-      <c r="AB29" s="23"/>
-      <c r="AC29" s="23"/>
-      <c r="AD29" s="23"/>
-      <c r="AE29" s="23"/>
-      <c r="AF29" s="23"/>
+      <c r="A29" s="18"/>
+      <c r="B29" s="18"/>
+      <c r="C29" s="18"/>
+      <c r="D29" s="18"/>
+      <c r="E29" s="18"/>
+      <c r="F29" s="18"/>
+      <c r="G29" s="18"/>
+      <c r="H29" s="18"/>
+      <c r="I29" s="18"/>
+      <c r="J29" s="18"/>
+      <c r="K29" s="18"/>
+      <c r="L29" s="18"/>
+      <c r="M29" s="18"/>
+      <c r="N29" s="18"/>
+      <c r="O29" s="18"/>
+      <c r="P29" s="18"/>
+      <c r="Q29" s="18"/>
+      <c r="R29" s="18"/>
+      <c r="S29" s="18"/>
+      <c r="T29" s="18"/>
+      <c r="U29" s="18"/>
+      <c r="V29" s="18"/>
+      <c r="W29" s="18"/>
+      <c r="X29" s="18"/>
+      <c r="Y29" s="18"/>
+      <c r="Z29" s="18"/>
+      <c r="AA29" s="18"/>
+      <c r="AB29" s="18"/>
+      <c r="AC29" s="18"/>
+      <c r="AD29" s="18"/>
+      <c r="AE29" s="18"/>
+      <c r="AF29" s="18"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="22" t="s">
+      <c r="B31" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="22"/>
-      <c r="D31" s="22"/>
-      <c r="E31" s="22"/>
-      <c r="F31" s="22"/>
-      <c r="G31" s="22"/>
-      <c r="H31" s="22"/>
-      <c r="I31" s="22"/>
-      <c r="J31" s="22"/>
+      <c r="C31" s="17"/>
+      <c r="D31" s="17"/>
+      <c r="E31" s="17"/>
+      <c r="F31" s="17"/>
+      <c r="G31" s="17"/>
+      <c r="H31" s="17"/>
+      <c r="I31" s="17"/>
+      <c r="J31" s="17"/>
       <c r="L31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="22" t="s">
+      <c r="M31" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="22"/>
-      <c r="O31" s="22"/>
-      <c r="P31" s="22"/>
-      <c r="Q31" s="22"/>
-      <c r="R31" s="22"/>
-      <c r="S31" s="22"/>
-      <c r="T31" s="22"/>
-      <c r="U31" s="22"/>
+      <c r="N31" s="17"/>
+      <c r="O31" s="17"/>
+      <c r="P31" s="17"/>
+      <c r="Q31" s="17"/>
+      <c r="R31" s="17"/>
+      <c r="S31" s="17"/>
+      <c r="T31" s="17"/>
+      <c r="U31" s="17"/>
       <c r="W31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="22" t="s">
+      <c r="X31" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="22"/>
-      <c r="Z31" s="22"/>
-      <c r="AA31" s="22"/>
-      <c r="AB31" s="22"/>
-      <c r="AC31" s="22"/>
-      <c r="AD31" s="22"/>
-      <c r="AE31" s="22"/>
-      <c r="AF31" s="22"/>
+      <c r="Y31" s="17"/>
+      <c r="Z31" s="17"/>
+      <c r="AA31" s="17"/>
+      <c r="AB31" s="17"/>
+      <c r="AC31" s="17"/>
+      <c r="AD31" s="17"/>
+      <c r="AE31" s="17"/>
+      <c r="AF31" s="17"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="22" t="s">
+      <c r="B32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="22"/>
-      <c r="D32" s="22"/>
-      <c r="E32" s="22"/>
-      <c r="F32" s="22"/>
-      <c r="G32" s="22"/>
-      <c r="H32" s="22"/>
-      <c r="I32" s="22"/>
-      <c r="J32" s="22"/>
+      <c r="C32" s="17"/>
+      <c r="D32" s="17"/>
+      <c r="E32" s="17"/>
+      <c r="F32" s="17"/>
+      <c r="G32" s="17"/>
+      <c r="H32" s="17"/>
+      <c r="I32" s="17"/>
+      <c r="J32" s="17"/>
       <c r="L32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="22" t="s">
+      <c r="M32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="22"/>
-      <c r="O32" s="22"/>
-      <c r="P32" s="22"/>
-      <c r="Q32" s="22"/>
-      <c r="R32" s="22"/>
-      <c r="S32" s="22"/>
-      <c r="T32" s="22"/>
-      <c r="U32" s="22"/>
+      <c r="N32" s="17"/>
+      <c r="O32" s="17"/>
+      <c r="P32" s="17"/>
+      <c r="Q32" s="17"/>
+      <c r="R32" s="17"/>
+      <c r="S32" s="17"/>
+      <c r="T32" s="17"/>
+      <c r="U32" s="17"/>
       <c r="W32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="22" t="s">
+      <c r="X32" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="22"/>
-      <c r="Z32" s="22"/>
-      <c r="AA32" s="22"/>
-      <c r="AB32" s="22"/>
-      <c r="AC32" s="22"/>
-      <c r="AD32" s="22"/>
-      <c r="AE32" s="22"/>
-      <c r="AF32" s="22"/>
+      <c r="Y32" s="17"/>
+      <c r="Z32" s="17"/>
+      <c r="AA32" s="17"/>
+      <c r="AB32" s="17"/>
+      <c r="AC32" s="17"/>
+      <c r="AD32" s="17"/>
+      <c r="AE32" s="17"/>
+      <c r="AF32" s="17"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="22" t="s">
+      <c r="B33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="22"/>
-      <c r="D33" s="22"/>
-      <c r="E33" s="22" t="s">
+      <c r="C33" s="17"/>
+      <c r="D33" s="17"/>
+      <c r="E33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="22"/>
-      <c r="G33" s="22"/>
-      <c r="H33" s="22" t="s">
+      <c r="F33" s="17"/>
+      <c r="G33" s="17"/>
+      <c r="H33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="22"/>
-      <c r="J33" s="22"/>
+      <c r="I33" s="17"/>
+      <c r="J33" s="17"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="22" t="s">
+      <c r="M33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="22"/>
-      <c r="O33" s="22"/>
-      <c r="P33" s="22" t="s">
+      <c r="N33" s="17"/>
+      <c r="O33" s="17"/>
+      <c r="P33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="22"/>
-      <c r="R33" s="22"/>
-      <c r="S33" s="22" t="s">
+      <c r="Q33" s="17"/>
+      <c r="R33" s="17"/>
+      <c r="S33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="22"/>
-      <c r="U33" s="22"/>
+      <c r="T33" s="17"/>
+      <c r="U33" s="17"/>
       <c r="W33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="22" t="s">
+      <c r="X33" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="22"/>
-      <c r="Z33" s="22"/>
-      <c r="AA33" s="22" t="s">
+      <c r="Y33" s="17"/>
+      <c r="Z33" s="17"/>
+      <c r="AA33" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="22"/>
-      <c r="AC33" s="22"/>
-      <c r="AD33" s="22" t="s">
+      <c r="AB33" s="17"/>
+      <c r="AC33" s="17"/>
+      <c r="AD33" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="22"/>
-      <c r="AF33" s="22"/>
+      <c r="AE33" s="17"/>
+      <c r="AF33" s="17"/>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
@@ -3674,145 +3719,145 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="22" t="s">
+      <c r="B49" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="22"/>
-      <c r="D49" s="22"/>
-      <c r="E49" s="22"/>
-      <c r="F49" s="22"/>
-      <c r="G49" s="22"/>
-      <c r="H49" s="22"/>
-      <c r="I49" s="22"/>
-      <c r="J49" s="22"/>
+      <c r="C49" s="17"/>
+      <c r="D49" s="17"/>
+      <c r="E49" s="17"/>
+      <c r="F49" s="17"/>
+      <c r="G49" s="17"/>
+      <c r="H49" s="17"/>
+      <c r="I49" s="17"/>
+      <c r="J49" s="17"/>
       <c r="L49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="22" t="s">
+      <c r="M49" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="22"/>
-      <c r="O49" s="22"/>
-      <c r="P49" s="22"/>
-      <c r="Q49" s="22"/>
-      <c r="R49" s="22"/>
-      <c r="S49" s="22"/>
-      <c r="T49" s="22"/>
-      <c r="U49" s="22"/>
+      <c r="N49" s="17"/>
+      <c r="O49" s="17"/>
+      <c r="P49" s="17"/>
+      <c r="Q49" s="17"/>
+      <c r="R49" s="17"/>
+      <c r="S49" s="17"/>
+      <c r="T49" s="17"/>
+      <c r="U49" s="17"/>
       <c r="W49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X49" s="22" t="s">
+      <c r="X49" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="22"/>
-      <c r="Z49" s="22"/>
-      <c r="AA49" s="22"/>
-      <c r="AB49" s="22"/>
-      <c r="AC49" s="22"/>
-      <c r="AD49" s="22"/>
-      <c r="AE49" s="22"/>
-      <c r="AF49" s="22"/>
+      <c r="Y49" s="17"/>
+      <c r="Z49" s="17"/>
+      <c r="AA49" s="17"/>
+      <c r="AB49" s="17"/>
+      <c r="AC49" s="17"/>
+      <c r="AD49" s="17"/>
+      <c r="AE49" s="17"/>
+      <c r="AF49" s="17"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="22" t="s">
+      <c r="B50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="22"/>
-      <c r="D50" s="22"/>
-      <c r="E50" s="22"/>
-      <c r="F50" s="22"/>
-      <c r="G50" s="22"/>
-      <c r="H50" s="22"/>
-      <c r="I50" s="22"/>
-      <c r="J50" s="22"/>
+      <c r="C50" s="17"/>
+      <c r="D50" s="17"/>
+      <c r="E50" s="17"/>
+      <c r="F50" s="17"/>
+      <c r="G50" s="17"/>
+      <c r="H50" s="17"/>
+      <c r="I50" s="17"/>
+      <c r="J50" s="17"/>
       <c r="L50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="22" t="s">
+      <c r="M50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="22"/>
-      <c r="O50" s="22"/>
-      <c r="P50" s="22"/>
-      <c r="Q50" s="22"/>
-      <c r="R50" s="22"/>
-      <c r="S50" s="22"/>
-      <c r="T50" s="22"/>
-      <c r="U50" s="22"/>
+      <c r="N50" s="17"/>
+      <c r="O50" s="17"/>
+      <c r="P50" s="17"/>
+      <c r="Q50" s="17"/>
+      <c r="R50" s="17"/>
+      <c r="S50" s="17"/>
+      <c r="T50" s="17"/>
+      <c r="U50" s="17"/>
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="22" t="s">
+      <c r="X50" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y50" s="22"/>
-      <c r="Z50" s="22"/>
-      <c r="AA50" s="22"/>
-      <c r="AB50" s="22"/>
-      <c r="AC50" s="22"/>
-      <c r="AD50" s="22"/>
-      <c r="AE50" s="22"/>
-      <c r="AF50" s="22"/>
+      <c r="Y50" s="17"/>
+      <c r="Z50" s="17"/>
+      <c r="AA50" s="17"/>
+      <c r="AB50" s="17"/>
+      <c r="AC50" s="17"/>
+      <c r="AD50" s="17"/>
+      <c r="AE50" s="17"/>
+      <c r="AF50" s="17"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="22" t="s">
+      <c r="B51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="22"/>
-      <c r="D51" s="22"/>
-      <c r="E51" s="22" t="s">
+      <c r="C51" s="17"/>
+      <c r="D51" s="17"/>
+      <c r="E51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="22"/>
-      <c r="G51" s="22"/>
-      <c r="H51" s="22" t="s">
+      <c r="F51" s="17"/>
+      <c r="G51" s="17"/>
+      <c r="H51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="22"/>
-      <c r="J51" s="22"/>
+      <c r="I51" s="17"/>
+      <c r="J51" s="17"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="22" t="s">
+      <c r="M51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="22"/>
-      <c r="O51" s="22"/>
-      <c r="P51" s="22" t="s">
+      <c r="N51" s="17"/>
+      <c r="O51" s="17"/>
+      <c r="P51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="22"/>
-      <c r="R51" s="22"/>
-      <c r="S51" s="22" t="s">
+      <c r="Q51" s="17"/>
+      <c r="R51" s="17"/>
+      <c r="S51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="22"/>
-      <c r="U51" s="22"/>
+      <c r="T51" s="17"/>
+      <c r="U51" s="17"/>
       <c r="W51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="22" t="s">
+      <c r="X51" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="22"/>
-      <c r="Z51" s="22"/>
-      <c r="AA51" s="22" t="s">
+      <c r="Y51" s="17"/>
+      <c r="Z51" s="17"/>
+      <c r="AA51" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB51" s="22"/>
-      <c r="AC51" s="22"/>
-      <c r="AD51" s="22" t="s">
+      <c r="AB51" s="17"/>
+      <c r="AC51" s="17"/>
+      <c r="AD51" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="22"/>
-      <c r="AF51" s="22"/>
+      <c r="AE51" s="17"/>
+      <c r="AF51" s="17"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="11"/>
@@ -3993,218 +4038,218 @@
       </c>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="23" t="s">
+      <c r="A55" s="18" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="23"/>
-      <c r="C55" s="23"/>
-      <c r="D55" s="23"/>
-      <c r="E55" s="23"/>
-      <c r="F55" s="23"/>
-      <c r="G55" s="23"/>
-      <c r="H55" s="23"/>
-      <c r="I55" s="23"/>
-      <c r="J55" s="23"/>
-      <c r="K55" s="23"/>
-      <c r="L55" s="23"/>
-      <c r="M55" s="23"/>
-      <c r="N55" s="23"/>
-      <c r="O55" s="23"/>
-      <c r="P55" s="23"/>
-      <c r="Q55" s="23"/>
-      <c r="R55" s="23"/>
-      <c r="S55" s="23"/>
-      <c r="T55" s="23"/>
-      <c r="U55" s="23"/>
-      <c r="V55" s="23"/>
-      <c r="W55" s="23"/>
-      <c r="X55" s="23"/>
-      <c r="Y55" s="23"/>
-      <c r="Z55" s="23"/>
-      <c r="AA55" s="23"/>
-      <c r="AB55" s="23"/>
-      <c r="AC55" s="23"/>
-      <c r="AD55" s="23"/>
-      <c r="AE55" s="23"/>
-      <c r="AF55" s="23"/>
+      <c r="B55" s="18"/>
+      <c r="C55" s="18"/>
+      <c r="D55" s="18"/>
+      <c r="E55" s="18"/>
+      <c r="F55" s="18"/>
+      <c r="G55" s="18"/>
+      <c r="H55" s="18"/>
+      <c r="I55" s="18"/>
+      <c r="J55" s="18"/>
+      <c r="K55" s="18"/>
+      <c r="L55" s="18"/>
+      <c r="M55" s="18"/>
+      <c r="N55" s="18"/>
+      <c r="O55" s="18"/>
+      <c r="P55" s="18"/>
+      <c r="Q55" s="18"/>
+      <c r="R55" s="18"/>
+      <c r="S55" s="18"/>
+      <c r="T55" s="18"/>
+      <c r="U55" s="18"/>
+      <c r="V55" s="18"/>
+      <c r="W55" s="18"/>
+      <c r="X55" s="18"/>
+      <c r="Y55" s="18"/>
+      <c r="Z55" s="18"/>
+      <c r="AA55" s="18"/>
+      <c r="AB55" s="18"/>
+      <c r="AC55" s="18"/>
+      <c r="AD55" s="18"/>
+      <c r="AE55" s="18"/>
+      <c r="AF55" s="18"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="23"/>
-      <c r="B56" s="23"/>
-      <c r="C56" s="23"/>
-      <c r="D56" s="23"/>
-      <c r="E56" s="23"/>
-      <c r="F56" s="23"/>
-      <c r="G56" s="23"/>
-      <c r="H56" s="23"/>
-      <c r="I56" s="23"/>
-      <c r="J56" s="23"/>
-      <c r="K56" s="23"/>
-      <c r="L56" s="23"/>
-      <c r="M56" s="23"/>
-      <c r="N56" s="23"/>
-      <c r="O56" s="23"/>
-      <c r="P56" s="23"/>
-      <c r="Q56" s="23"/>
-      <c r="R56" s="23"/>
-      <c r="S56" s="23"/>
-      <c r="T56" s="23"/>
-      <c r="U56" s="23"/>
-      <c r="V56" s="23"/>
-      <c r="W56" s="23"/>
-      <c r="X56" s="23"/>
-      <c r="Y56" s="23"/>
-      <c r="Z56" s="23"/>
-      <c r="AA56" s="23"/>
-      <c r="AB56" s="23"/>
-      <c r="AC56" s="23"/>
-      <c r="AD56" s="23"/>
-      <c r="AE56" s="23"/>
-      <c r="AF56" s="23"/>
+      <c r="A56" s="18"/>
+      <c r="B56" s="18"/>
+      <c r="C56" s="18"/>
+      <c r="D56" s="18"/>
+      <c r="E56" s="18"/>
+      <c r="F56" s="18"/>
+      <c r="G56" s="18"/>
+      <c r="H56" s="18"/>
+      <c r="I56" s="18"/>
+      <c r="J56" s="18"/>
+      <c r="K56" s="18"/>
+      <c r="L56" s="18"/>
+      <c r="M56" s="18"/>
+      <c r="N56" s="18"/>
+      <c r="O56" s="18"/>
+      <c r="P56" s="18"/>
+      <c r="Q56" s="18"/>
+      <c r="R56" s="18"/>
+      <c r="S56" s="18"/>
+      <c r="T56" s="18"/>
+      <c r="U56" s="18"/>
+      <c r="V56" s="18"/>
+      <c r="W56" s="18"/>
+      <c r="X56" s="18"/>
+      <c r="Y56" s="18"/>
+      <c r="Z56" s="18"/>
+      <c r="AA56" s="18"/>
+      <c r="AB56" s="18"/>
+      <c r="AC56" s="18"/>
+      <c r="AD56" s="18"/>
+      <c r="AE56" s="18"/>
+      <c r="AF56" s="18"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="22" t="s">
+      <c r="B58" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="22"/>
-      <c r="D58" s="22"/>
-      <c r="E58" s="22"/>
-      <c r="F58" s="22"/>
-      <c r="G58" s="22"/>
-      <c r="H58" s="22"/>
-      <c r="I58" s="22"/>
-      <c r="J58" s="22"/>
+      <c r="C58" s="17"/>
+      <c r="D58" s="17"/>
+      <c r="E58" s="17"/>
+      <c r="F58" s="17"/>
+      <c r="G58" s="17"/>
+      <c r="H58" s="17"/>
+      <c r="I58" s="17"/>
+      <c r="J58" s="17"/>
       <c r="L58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="22" t="s">
+      <c r="M58" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="22"/>
-      <c r="O58" s="22"/>
-      <c r="P58" s="22"/>
-      <c r="Q58" s="22"/>
-      <c r="R58" s="22"/>
-      <c r="S58" s="22"/>
-      <c r="T58" s="22"/>
-      <c r="U58" s="22"/>
+      <c r="N58" s="17"/>
+      <c r="O58" s="17"/>
+      <c r="P58" s="17"/>
+      <c r="Q58" s="17"/>
+      <c r="R58" s="17"/>
+      <c r="S58" s="17"/>
+      <c r="T58" s="17"/>
+      <c r="U58" s="17"/>
       <c r="W58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X58" s="22" t="s">
+      <c r="X58" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="22"/>
-      <c r="Z58" s="22"/>
-      <c r="AA58" s="22"/>
-      <c r="AB58" s="22"/>
-      <c r="AC58" s="22"/>
-      <c r="AD58" s="22"/>
-      <c r="AE58" s="22"/>
-      <c r="AF58" s="22"/>
+      <c r="Y58" s="17"/>
+      <c r="Z58" s="17"/>
+      <c r="AA58" s="17"/>
+      <c r="AB58" s="17"/>
+      <c r="AC58" s="17"/>
+      <c r="AD58" s="17"/>
+      <c r="AE58" s="17"/>
+      <c r="AF58" s="17"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="22" t="s">
+      <c r="B59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="22"/>
-      <c r="D59" s="22"/>
-      <c r="E59" s="22"/>
-      <c r="F59" s="22"/>
-      <c r="G59" s="22"/>
-      <c r="H59" s="22"/>
-      <c r="I59" s="22"/>
-      <c r="J59" s="22"/>
+      <c r="C59" s="17"/>
+      <c r="D59" s="17"/>
+      <c r="E59" s="17"/>
+      <c r="F59" s="17"/>
+      <c r="G59" s="17"/>
+      <c r="H59" s="17"/>
+      <c r="I59" s="17"/>
+      <c r="J59" s="17"/>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="22" t="s">
+      <c r="M59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="22"/>
-      <c r="O59" s="22"/>
-      <c r="P59" s="22"/>
-      <c r="Q59" s="22"/>
-      <c r="R59" s="22"/>
-      <c r="S59" s="22"/>
-      <c r="T59" s="22"/>
-      <c r="U59" s="22"/>
+      <c r="N59" s="17"/>
+      <c r="O59" s="17"/>
+      <c r="P59" s="17"/>
+      <c r="Q59" s="17"/>
+      <c r="R59" s="17"/>
+      <c r="S59" s="17"/>
+      <c r="T59" s="17"/>
+      <c r="U59" s="17"/>
       <c r="W59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="22" t="s">
+      <c r="X59" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="22"/>
-      <c r="Z59" s="22"/>
-      <c r="AA59" s="22"/>
-      <c r="AB59" s="22"/>
-      <c r="AC59" s="22"/>
-      <c r="AD59" s="22"/>
-      <c r="AE59" s="22"/>
-      <c r="AF59" s="22"/>
+      <c r="Y59" s="17"/>
+      <c r="Z59" s="17"/>
+      <c r="AA59" s="17"/>
+      <c r="AB59" s="17"/>
+      <c r="AC59" s="17"/>
+      <c r="AD59" s="17"/>
+      <c r="AE59" s="17"/>
+      <c r="AF59" s="17"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="17" t="s">
+      <c r="B60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="18"/>
-      <c r="D60" s="19"/>
-      <c r="E60" s="17" t="s">
+      <c r="C60" s="20"/>
+      <c r="D60" s="21"/>
+      <c r="E60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="18"/>
-      <c r="G60" s="19"/>
-      <c r="H60" s="22" t="s">
+      <c r="F60" s="20"/>
+      <c r="G60" s="21"/>
+      <c r="H60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="22"/>
-      <c r="J60" s="22"/>
+      <c r="I60" s="17"/>
+      <c r="J60" s="17"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="17" t="s">
+      <c r="M60" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="18"/>
-      <c r="O60" s="19"/>
-      <c r="P60" s="17" t="s">
+      <c r="N60" s="20"/>
+      <c r="O60" s="21"/>
+      <c r="P60" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="18"/>
-      <c r="R60" s="19"/>
-      <c r="S60" s="22" t="s">
+      <c r="Q60" s="20"/>
+      <c r="R60" s="21"/>
+      <c r="S60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="22"/>
-      <c r="U60" s="22"/>
+      <c r="T60" s="17"/>
+      <c r="U60" s="17"/>
       <c r="W60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="22" t="s">
+      <c r="X60" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="22"/>
-      <c r="Z60" s="22"/>
-      <c r="AA60" s="22" t="s">
+      <c r="Y60" s="17"/>
+      <c r="Z60" s="17"/>
+      <c r="AA60" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB60" s="22"/>
-      <c r="AC60" s="22"/>
-      <c r="AD60" s="22" t="s">
+      <c r="AB60" s="17"/>
+      <c r="AC60" s="17"/>
+      <c r="AD60" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE60" s="22"/>
-      <c r="AF60" s="22"/>
+      <c r="AE60" s="17"/>
+      <c r="AF60" s="17"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="11"/>
@@ -5333,145 +5378,145 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="22" t="s">
+      <c r="B74" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="22"/>
-      <c r="D74" s="22"/>
-      <c r="E74" s="22"/>
-      <c r="F74" s="22"/>
-      <c r="G74" s="22"/>
-      <c r="H74" s="22"/>
-      <c r="I74" s="22"/>
-      <c r="J74" s="22"/>
+      <c r="C74" s="17"/>
+      <c r="D74" s="17"/>
+      <c r="E74" s="17"/>
+      <c r="F74" s="17"/>
+      <c r="G74" s="17"/>
+      <c r="H74" s="17"/>
+      <c r="I74" s="17"/>
+      <c r="J74" s="17"/>
       <c r="L74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="22" t="s">
+      <c r="M74" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="22"/>
-      <c r="O74" s="22"/>
-      <c r="P74" s="22"/>
-      <c r="Q74" s="22"/>
-      <c r="R74" s="22"/>
-      <c r="S74" s="22"/>
-      <c r="T74" s="22"/>
-      <c r="U74" s="22"/>
+      <c r="N74" s="17"/>
+      <c r="O74" s="17"/>
+      <c r="P74" s="17"/>
+      <c r="Q74" s="17"/>
+      <c r="R74" s="17"/>
+      <c r="S74" s="17"/>
+      <c r="T74" s="17"/>
+      <c r="U74" s="17"/>
       <c r="W74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="22" t="s">
+      <c r="X74" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="22"/>
-      <c r="Z74" s="22"/>
-      <c r="AA74" s="22"/>
-      <c r="AB74" s="22"/>
-      <c r="AC74" s="22"/>
-      <c r="AD74" s="22"/>
-      <c r="AE74" s="22"/>
-      <c r="AF74" s="22"/>
+      <c r="Y74" s="17"/>
+      <c r="Z74" s="17"/>
+      <c r="AA74" s="17"/>
+      <c r="AB74" s="17"/>
+      <c r="AC74" s="17"/>
+      <c r="AD74" s="17"/>
+      <c r="AE74" s="17"/>
+      <c r="AF74" s="17"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="22" t="s">
+      <c r="B75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="22"/>
-      <c r="D75" s="22"/>
-      <c r="E75" s="22"/>
-      <c r="F75" s="22"/>
-      <c r="G75" s="22"/>
-      <c r="H75" s="22"/>
-      <c r="I75" s="22"/>
-      <c r="J75" s="22"/>
+      <c r="C75" s="17"/>
+      <c r="D75" s="17"/>
+      <c r="E75" s="17"/>
+      <c r="F75" s="17"/>
+      <c r="G75" s="17"/>
+      <c r="H75" s="17"/>
+      <c r="I75" s="17"/>
+      <c r="J75" s="17"/>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="22" t="s">
+      <c r="M75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="22"/>
-      <c r="O75" s="22"/>
-      <c r="P75" s="22"/>
-      <c r="Q75" s="22"/>
-      <c r="R75" s="22"/>
-      <c r="S75" s="22"/>
-      <c r="T75" s="22"/>
-      <c r="U75" s="22"/>
+      <c r="N75" s="17"/>
+      <c r="O75" s="17"/>
+      <c r="P75" s="17"/>
+      <c r="Q75" s="17"/>
+      <c r="R75" s="17"/>
+      <c r="S75" s="17"/>
+      <c r="T75" s="17"/>
+      <c r="U75" s="17"/>
       <c r="W75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X75" s="22" t="s">
+      <c r="X75" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="22"/>
-      <c r="Z75" s="22"/>
-      <c r="AA75" s="22"/>
-      <c r="AB75" s="22"/>
-      <c r="AC75" s="22"/>
-      <c r="AD75" s="22"/>
-      <c r="AE75" s="22"/>
-      <c r="AF75" s="22"/>
+      <c r="Y75" s="17"/>
+      <c r="Z75" s="17"/>
+      <c r="AA75" s="17"/>
+      <c r="AB75" s="17"/>
+      <c r="AC75" s="17"/>
+      <c r="AD75" s="17"/>
+      <c r="AE75" s="17"/>
+      <c r="AF75" s="17"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="17" t="s">
+      <c r="B76" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="18"/>
-      <c r="D76" s="19"/>
-      <c r="E76" s="17" t="s">
+      <c r="C76" s="20"/>
+      <c r="D76" s="21"/>
+      <c r="E76" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="18"/>
-      <c r="G76" s="19"/>
-      <c r="H76" s="22" t="s">
+      <c r="F76" s="20"/>
+      <c r="G76" s="21"/>
+      <c r="H76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="22"/>
-      <c r="J76" s="22"/>
+      <c r="I76" s="17"/>
+      <c r="J76" s="17"/>
       <c r="L76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="22" t="s">
+      <c r="M76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="22"/>
-      <c r="O76" s="22"/>
-      <c r="P76" s="22" t="s">
+      <c r="N76" s="17"/>
+      <c r="O76" s="17"/>
+      <c r="P76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q76" s="22"/>
-      <c r="R76" s="22"/>
-      <c r="S76" s="22" t="s">
+      <c r="Q76" s="17"/>
+      <c r="R76" s="17"/>
+      <c r="S76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T76" s="22"/>
-      <c r="U76" s="22"/>
+      <c r="T76" s="17"/>
+      <c r="U76" s="17"/>
       <c r="W76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="22" t="s">
+      <c r="X76" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="22"/>
-      <c r="Z76" s="22"/>
-      <c r="AA76" s="22" t="s">
+      <c r="Y76" s="17"/>
+      <c r="Z76" s="17"/>
+      <c r="AA76" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB76" s="22"/>
-      <c r="AC76" s="22"/>
-      <c r="AD76" s="22" t="s">
+      <c r="AB76" s="17"/>
+      <c r="AC76" s="17"/>
+      <c r="AD76" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE76" s="22"/>
-      <c r="AF76" s="22"/>
+      <c r="AE76" s="17"/>
+      <c r="AF76" s="17"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="11"/>
@@ -5650,218 +5695,218 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="23" t="s">
+      <c r="A80" s="18" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="23"/>
-      <c r="C80" s="23"/>
-      <c r="D80" s="23"/>
-      <c r="E80" s="23"/>
-      <c r="F80" s="23"/>
-      <c r="G80" s="23"/>
-      <c r="H80" s="23"/>
-      <c r="I80" s="23"/>
-      <c r="J80" s="23"/>
-      <c r="K80" s="23"/>
-      <c r="L80" s="23"/>
-      <c r="M80" s="23"/>
-      <c r="N80" s="23"/>
-      <c r="O80" s="23"/>
-      <c r="P80" s="23"/>
-      <c r="Q80" s="23"/>
-      <c r="R80" s="23"/>
-      <c r="S80" s="23"/>
-      <c r="T80" s="23"/>
-      <c r="U80" s="23"/>
-      <c r="V80" s="23"/>
-      <c r="W80" s="23"/>
-      <c r="X80" s="23"/>
-      <c r="Y80" s="23"/>
-      <c r="Z80" s="23"/>
-      <c r="AA80" s="23"/>
-      <c r="AB80" s="23"/>
-      <c r="AC80" s="23"/>
-      <c r="AD80" s="23"/>
-      <c r="AE80" s="23"/>
-      <c r="AF80" s="23"/>
+      <c r="B80" s="18"/>
+      <c r="C80" s="18"/>
+      <c r="D80" s="18"/>
+      <c r="E80" s="18"/>
+      <c r="F80" s="18"/>
+      <c r="G80" s="18"/>
+      <c r="H80" s="18"/>
+      <c r="I80" s="18"/>
+      <c r="J80" s="18"/>
+      <c r="K80" s="18"/>
+      <c r="L80" s="18"/>
+      <c r="M80" s="18"/>
+      <c r="N80" s="18"/>
+      <c r="O80" s="18"/>
+      <c r="P80" s="18"/>
+      <c r="Q80" s="18"/>
+      <c r="R80" s="18"/>
+      <c r="S80" s="18"/>
+      <c r="T80" s="18"/>
+      <c r="U80" s="18"/>
+      <c r="V80" s="18"/>
+      <c r="W80" s="18"/>
+      <c r="X80" s="18"/>
+      <c r="Y80" s="18"/>
+      <c r="Z80" s="18"/>
+      <c r="AA80" s="18"/>
+      <c r="AB80" s="18"/>
+      <c r="AC80" s="18"/>
+      <c r="AD80" s="18"/>
+      <c r="AE80" s="18"/>
+      <c r="AF80" s="18"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="23"/>
-      <c r="B81" s="23"/>
-      <c r="C81" s="23"/>
-      <c r="D81" s="23"/>
-      <c r="E81" s="23"/>
-      <c r="F81" s="23"/>
-      <c r="G81" s="23"/>
-      <c r="H81" s="23"/>
-      <c r="I81" s="23"/>
-      <c r="J81" s="23"/>
-      <c r="K81" s="23"/>
-      <c r="L81" s="23"/>
-      <c r="M81" s="23"/>
-      <c r="N81" s="23"/>
-      <c r="O81" s="23"/>
-      <c r="P81" s="23"/>
-      <c r="Q81" s="23"/>
-      <c r="R81" s="23"/>
-      <c r="S81" s="23"/>
-      <c r="T81" s="23"/>
-      <c r="U81" s="23"/>
-      <c r="V81" s="23"/>
-      <c r="W81" s="23"/>
-      <c r="X81" s="23"/>
-      <c r="Y81" s="23"/>
-      <c r="Z81" s="23"/>
-      <c r="AA81" s="23"/>
-      <c r="AB81" s="23"/>
-      <c r="AC81" s="23"/>
-      <c r="AD81" s="23"/>
-      <c r="AE81" s="23"/>
-      <c r="AF81" s="23"/>
+      <c r="A81" s="18"/>
+      <c r="B81" s="18"/>
+      <c r="C81" s="18"/>
+      <c r="D81" s="18"/>
+      <c r="E81" s="18"/>
+      <c r="F81" s="18"/>
+      <c r="G81" s="18"/>
+      <c r="H81" s="18"/>
+      <c r="I81" s="18"/>
+      <c r="J81" s="18"/>
+      <c r="K81" s="18"/>
+      <c r="L81" s="18"/>
+      <c r="M81" s="18"/>
+      <c r="N81" s="18"/>
+      <c r="O81" s="18"/>
+      <c r="P81" s="18"/>
+      <c r="Q81" s="18"/>
+      <c r="R81" s="18"/>
+      <c r="S81" s="18"/>
+      <c r="T81" s="18"/>
+      <c r="U81" s="18"/>
+      <c r="V81" s="18"/>
+      <c r="W81" s="18"/>
+      <c r="X81" s="18"/>
+      <c r="Y81" s="18"/>
+      <c r="Z81" s="18"/>
+      <c r="AA81" s="18"/>
+      <c r="AB81" s="18"/>
+      <c r="AC81" s="18"/>
+      <c r="AD81" s="18"/>
+      <c r="AE81" s="18"/>
+      <c r="AF81" s="18"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="22" t="s">
+      <c r="B83" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="22"/>
-      <c r="D83" s="22"/>
-      <c r="E83" s="22"/>
-      <c r="F83" s="22"/>
-      <c r="G83" s="22"/>
-      <c r="H83" s="22"/>
-      <c r="I83" s="22"/>
-      <c r="J83" s="22"/>
+      <c r="C83" s="17"/>
+      <c r="D83" s="17"/>
+      <c r="E83" s="17"/>
+      <c r="F83" s="17"/>
+      <c r="G83" s="17"/>
+      <c r="H83" s="17"/>
+      <c r="I83" s="17"/>
+      <c r="J83" s="17"/>
       <c r="L83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M83" s="22" t="s">
+      <c r="M83" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="22"/>
-      <c r="O83" s="22"/>
-      <c r="P83" s="22"/>
-      <c r="Q83" s="22"/>
-      <c r="R83" s="22"/>
-      <c r="S83" s="22"/>
-      <c r="T83" s="22"/>
-      <c r="U83" s="22"/>
+      <c r="N83" s="17"/>
+      <c r="O83" s="17"/>
+      <c r="P83" s="17"/>
+      <c r="Q83" s="17"/>
+      <c r="R83" s="17"/>
+      <c r="S83" s="17"/>
+      <c r="T83" s="17"/>
+      <c r="U83" s="17"/>
       <c r="W83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X83" s="22" t="s">
+      <c r="X83" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y83" s="22"/>
-      <c r="Z83" s="22"/>
-      <c r="AA83" s="22"/>
-      <c r="AB83" s="22"/>
-      <c r="AC83" s="22"/>
-      <c r="AD83" s="22"/>
-      <c r="AE83" s="22"/>
-      <c r="AF83" s="22"/>
+      <c r="Y83" s="17"/>
+      <c r="Z83" s="17"/>
+      <c r="AA83" s="17"/>
+      <c r="AB83" s="17"/>
+      <c r="AC83" s="17"/>
+      <c r="AD83" s="17"/>
+      <c r="AE83" s="17"/>
+      <c r="AF83" s="17"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="22" t="s">
+      <c r="B84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="22"/>
-      <c r="D84" s="22"/>
-      <c r="E84" s="22"/>
-      <c r="F84" s="22"/>
-      <c r="G84" s="22"/>
-      <c r="H84" s="22"/>
-      <c r="I84" s="22"/>
-      <c r="J84" s="22"/>
+      <c r="C84" s="17"/>
+      <c r="D84" s="17"/>
+      <c r="E84" s="17"/>
+      <c r="F84" s="17"/>
+      <c r="G84" s="17"/>
+      <c r="H84" s="17"/>
+      <c r="I84" s="17"/>
+      <c r="J84" s="17"/>
       <c r="L84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="22" t="s">
+      <c r="M84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="N84" s="22"/>
-      <c r="O84" s="22"/>
-      <c r="P84" s="22"/>
-      <c r="Q84" s="22"/>
-      <c r="R84" s="22"/>
-      <c r="S84" s="22"/>
-      <c r="T84" s="22"/>
-      <c r="U84" s="22"/>
+      <c r="N84" s="17"/>
+      <c r="O84" s="17"/>
+      <c r="P84" s="17"/>
+      <c r="Q84" s="17"/>
+      <c r="R84" s="17"/>
+      <c r="S84" s="17"/>
+      <c r="T84" s="17"/>
+      <c r="U84" s="17"/>
       <c r="W84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X84" s="22" t="s">
+      <c r="X84" s="17" t="s">
         <v>3</v>
       </c>
-      <c r="Y84" s="22"/>
-      <c r="Z84" s="22"/>
-      <c r="AA84" s="22"/>
-      <c r="AB84" s="22"/>
-      <c r="AC84" s="22"/>
-      <c r="AD84" s="22"/>
-      <c r="AE84" s="22"/>
-      <c r="AF84" s="22"/>
+      <c r="Y84" s="17"/>
+      <c r="Z84" s="17"/>
+      <c r="AA84" s="17"/>
+      <c r="AB84" s="17"/>
+      <c r="AC84" s="17"/>
+      <c r="AD84" s="17"/>
+      <c r="AE84" s="17"/>
+      <c r="AF84" s="17"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="22" t="s">
+      <c r="B85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="22"/>
-      <c r="D85" s="22"/>
-      <c r="E85" s="22" t="s">
+      <c r="C85" s="17"/>
+      <c r="D85" s="17"/>
+      <c r="E85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="22"/>
-      <c r="G85" s="22"/>
-      <c r="H85" s="22" t="s">
+      <c r="F85" s="17"/>
+      <c r="G85" s="17"/>
+      <c r="H85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="22"/>
-      <c r="J85" s="22"/>
+      <c r="I85" s="17"/>
+      <c r="J85" s="17"/>
       <c r="L85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M85" s="22" t="s">
+      <c r="M85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="22"/>
-      <c r="O85" s="22"/>
-      <c r="P85" s="22" t="s">
+      <c r="N85" s="17"/>
+      <c r="O85" s="17"/>
+      <c r="P85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="22"/>
-      <c r="R85" s="22"/>
-      <c r="S85" s="22" t="s">
+      <c r="Q85" s="17"/>
+      <c r="R85" s="17"/>
+      <c r="S85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="22"/>
-      <c r="U85" s="22"/>
+      <c r="T85" s="17"/>
+      <c r="U85" s="17"/>
       <c r="W85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="22" t="s">
+      <c r="X85" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="22"/>
-      <c r="Z85" s="22"/>
-      <c r="AA85" s="22" t="s">
+      <c r="Y85" s="17"/>
+      <c r="Z85" s="17"/>
+      <c r="AA85" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB85" s="22"/>
-      <c r="AC85" s="22"/>
-      <c r="AD85" s="22" t="s">
+      <c r="AB85" s="17"/>
+      <c r="AC85" s="17"/>
+      <c r="AD85" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="22"/>
-      <c r="AF85" s="22"/>
+      <c r="AE85" s="17"/>
+      <c r="AF85" s="17"/>
     </row>
     <row r="86" spans="1:32">
       <c r="B86" s="1" t="s">
@@ -6989,145 +7034,145 @@
       <c r="A99" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="22" t="s">
+      <c r="B99" s="17" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="22"/>
-      <c r="D99" s="22"/>
-      <c r="E99" s="22"/>
-      <c r="F99" s="22"/>
-      <c r="G99" s="22"/>
-      <c r="H99" s="22"/>
-      <c r="I99" s="22"/>
-      <c r="J99" s="22"/>
+      <c r="C99" s="17"/>
+      <c r="D99" s="17"/>
+      <c r="E99" s="17"/>
+      <c r="F99" s="17"/>
+      <c r="G99" s="17"/>
+      <c r="H99" s="17"/>
+      <c r="I99" s="17"/>
+      <c r="J99" s="17"/>
       <c r="L99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M99" s="22" t="s">
+      <c r="M99" s="17" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="22"/>
-      <c r="O99" s="22"/>
-      <c r="P99" s="22"/>
-      <c r="Q99" s="22"/>
-      <c r="R99" s="22"/>
-      <c r="S99" s="22"/>
-      <c r="T99" s="22"/>
-      <c r="U99" s="22"/>
+      <c r="N99" s="17"/>
+      <c r="O99" s="17"/>
+      <c r="P99" s="17"/>
+      <c r="Q99" s="17"/>
+      <c r="R99" s="17"/>
+      <c r="S99" s="17"/>
+      <c r="T99" s="17"/>
+      <c r="U99" s="17"/>
       <c r="W99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X99" s="22" t="s">
+      <c r="X99" s="17" t="s">
         <v>28</v>
       </c>
-      <c r="Y99" s="22"/>
-      <c r="Z99" s="22"/>
-      <c r="AA99" s="22"/>
-      <c r="AB99" s="22"/>
-      <c r="AC99" s="22"/>
-      <c r="AD99" s="22"/>
-      <c r="AE99" s="22"/>
-      <c r="AF99" s="22"/>
+      <c r="Y99" s="17"/>
+      <c r="Z99" s="17"/>
+      <c r="AA99" s="17"/>
+      <c r="AB99" s="17"/>
+      <c r="AC99" s="17"/>
+      <c r="AD99" s="17"/>
+      <c r="AE99" s="17"/>
+      <c r="AF99" s="17"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="22" t="s">
+      <c r="B100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="22"/>
-      <c r="D100" s="22"/>
-      <c r="E100" s="22"/>
-      <c r="F100" s="22"/>
-      <c r="G100" s="22"/>
-      <c r="H100" s="22"/>
-      <c r="I100" s="22"/>
-      <c r="J100" s="22"/>
+      <c r="C100" s="17"/>
+      <c r="D100" s="17"/>
+      <c r="E100" s="17"/>
+      <c r="F100" s="17"/>
+      <c r="G100" s="17"/>
+      <c r="H100" s="17"/>
+      <c r="I100" s="17"/>
+      <c r="J100" s="17"/>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="22" t="s">
+      <c r="M100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="22"/>
-      <c r="O100" s="22"/>
-      <c r="P100" s="22"/>
-      <c r="Q100" s="22"/>
-      <c r="R100" s="22"/>
-      <c r="S100" s="22"/>
-      <c r="T100" s="22"/>
-      <c r="U100" s="22"/>
+      <c r="N100" s="17"/>
+      <c r="O100" s="17"/>
+      <c r="P100" s="17"/>
+      <c r="Q100" s="17"/>
+      <c r="R100" s="17"/>
+      <c r="S100" s="17"/>
+      <c r="T100" s="17"/>
+      <c r="U100" s="17"/>
       <c r="W100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X100" s="22" t="s">
+      <c r="X100" s="17" t="s">
         <v>22</v>
       </c>
-      <c r="Y100" s="22"/>
-      <c r="Z100" s="22"/>
-      <c r="AA100" s="22"/>
-      <c r="AB100" s="22"/>
-      <c r="AC100" s="22"/>
-      <c r="AD100" s="22"/>
-      <c r="AE100" s="22"/>
-      <c r="AF100" s="22"/>
+      <c r="Y100" s="17"/>
+      <c r="Z100" s="17"/>
+      <c r="AA100" s="17"/>
+      <c r="AB100" s="17"/>
+      <c r="AC100" s="17"/>
+      <c r="AD100" s="17"/>
+      <c r="AE100" s="17"/>
+      <c r="AF100" s="17"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="22" t="s">
+      <c r="B101" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="22"/>
-      <c r="D101" s="22"/>
-      <c r="E101" s="22" t="s">
+      <c r="C101" s="17"/>
+      <c r="D101" s="17"/>
+      <c r="E101" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="22"/>
-      <c r="G101" s="22"/>
-      <c r="H101" s="22" t="s">
+      <c r="F101" s="17"/>
+      <c r="G101" s="17"/>
+      <c r="H101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="22"/>
-      <c r="J101" s="22"/>
+      <c r="I101" s="17"/>
+      <c r="J101" s="17"/>
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="17" t="s">
+      <c r="M101" s="19" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="18"/>
-      <c r="O101" s="19"/>
-      <c r="P101" s="17" t="s">
+      <c r="N101" s="20"/>
+      <c r="O101" s="21"/>
+      <c r="P101" s="19" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="18"/>
-      <c r="R101" s="19"/>
-      <c r="S101" s="22" t="s">
+      <c r="Q101" s="20"/>
+      <c r="R101" s="21"/>
+      <c r="S101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="22"/>
-      <c r="U101" s="22"/>
+      <c r="T101" s="17"/>
+      <c r="U101" s="17"/>
       <c r="W101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="22" t="s">
+      <c r="X101" s="17" t="s">
         <v>5</v>
       </c>
-      <c r="Y101" s="22"/>
-      <c r="Z101" s="22"/>
-      <c r="AA101" s="22" t="s">
+      <c r="Y101" s="17"/>
+      <c r="Z101" s="17"/>
+      <c r="AA101" s="17" t="s">
         <v>6</v>
       </c>
-      <c r="AB101" s="22"/>
-      <c r="AC101" s="22"/>
-      <c r="AD101" s="22" t="s">
+      <c r="AB101" s="17"/>
+      <c r="AC101" s="17"/>
+      <c r="AD101" s="17" t="s">
         <v>7</v>
       </c>
-      <c r="AE101" s="22"/>
-      <c r="AF101" s="22"/>
+      <c r="AE101" s="17"/>
+      <c r="AF101" s="17"/>
     </row>
     <row r="102" spans="1:32">
       <c r="B102" s="1" t="s">
@@ -7304,8 +7349,621 @@
         <v>716</v>
       </c>
     </row>
+    <row r="108" spans="1:32">
+      <c r="B108" t="s">
+        <v>37</v>
+      </c>
+      <c r="F108" t="s">
+        <v>36</v>
+      </c>
+      <c r="J108" t="s">
+        <v>35</v>
+      </c>
+      <c r="N108" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32">
+      <c r="A109" s="26" t="s">
+        <v>31</v>
+      </c>
+      <c r="B109" s="26"/>
+      <c r="C109" s="26"/>
+      <c r="D109" s="25"/>
+      <c r="E109" s="24" t="s">
+        <v>38</v>
+      </c>
+      <c r="F109" s="24"/>
+      <c r="G109" s="24"/>
+      <c r="H109" s="25"/>
+      <c r="I109" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J109" s="24"/>
+      <c r="K109" s="24"/>
+      <c r="M109" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N109" s="24"/>
+      <c r="O109" s="24"/>
+    </row>
+    <row r="110" spans="1:32">
+      <c r="A110" t="s">
+        <v>26</v>
+      </c>
+      <c r="B110" t="s">
+        <v>28</v>
+      </c>
+      <c r="C110" t="s">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>28</v>
+      </c>
+      <c r="F110" t="s">
+        <v>26</v>
+      </c>
+      <c r="G110" t="s">
+        <v>1</v>
+      </c>
+      <c r="I110" t="s">
+        <v>28</v>
+      </c>
+      <c r="J110" t="s">
+        <v>26</v>
+      </c>
+      <c r="K110" t="s">
+        <v>1</v>
+      </c>
+      <c r="M110" t="s">
+        <v>28</v>
+      </c>
+      <c r="N110" t="s">
+        <v>26</v>
+      </c>
+      <c r="O110" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32">
+      <c r="A111">
+        <v>9.77</v>
+      </c>
+      <c r="B111">
+        <v>23.51</v>
+      </c>
+      <c r="C111">
+        <v>3.34</v>
+      </c>
+      <c r="E111">
+        <v>19.84</v>
+      </c>
+      <c r="F111">
+        <v>8.52</v>
+      </c>
+      <c r="G111">
+        <v>4.72</v>
+      </c>
+      <c r="I111">
+        <v>35.24</v>
+      </c>
+      <c r="J111">
+        <v>3.13</v>
+      </c>
+      <c r="K111">
+        <v>3.26</v>
+      </c>
+      <c r="M111">
+        <v>31.53</v>
+      </c>
+      <c r="N111">
+        <v>7.54</v>
+      </c>
+      <c r="O111">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32">
+      <c r="A112">
+        <v>6.54</v>
+      </c>
+      <c r="B112">
+        <v>26.61</v>
+      </c>
+      <c r="C112">
+        <v>1.42</v>
+      </c>
+      <c r="E112">
+        <v>13.85</v>
+      </c>
+      <c r="F112">
+        <v>4.82</v>
+      </c>
+      <c r="G112">
+        <v>1.47</v>
+      </c>
+      <c r="I112">
+        <v>32.5</v>
+      </c>
+      <c r="J112">
+        <v>0.68</v>
+      </c>
+      <c r="K112">
+        <v>0.5</v>
+      </c>
+      <c r="M112">
+        <v>22.09</v>
+      </c>
+      <c r="N112">
+        <v>7.31</v>
+      </c>
+      <c r="O112">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="113" spans="1:15">
+      <c r="A113">
+        <v>6.57</v>
+      </c>
+      <c r="B113">
+        <v>26.19</v>
+      </c>
+      <c r="C113">
+        <v>1.53</v>
+      </c>
+      <c r="E113">
+        <v>18.98</v>
+      </c>
+      <c r="F113">
+        <v>5.37</v>
+      </c>
+      <c r="G113">
+        <v>1.66</v>
+      </c>
+      <c r="I113">
+        <v>29.67</v>
+      </c>
+      <c r="J113">
+        <v>0.6</v>
+      </c>
+      <c r="K113">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M113">
+        <v>20.38</v>
+      </c>
+      <c r="N113">
+        <v>7.26</v>
+      </c>
+      <c r="O113">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="114" spans="1:15">
+      <c r="A114">
+        <v>6.78</v>
+      </c>
+      <c r="B114">
+        <v>26.48</v>
+      </c>
+      <c r="C114">
+        <v>1.43</v>
+      </c>
+      <c r="E114">
+        <v>13.98</v>
+      </c>
+      <c r="F114">
+        <v>4.82</v>
+      </c>
+      <c r="G114">
+        <v>1.46</v>
+      </c>
+      <c r="I114">
+        <v>29.02</v>
+      </c>
+      <c r="J114">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K114">
+        <v>0.48</v>
+      </c>
+      <c r="M114">
+        <v>22.54</v>
+      </c>
+      <c r="N114">
+        <v>7.3</v>
+      </c>
+      <c r="O114">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="115" spans="1:15">
+      <c r="A115">
+        <v>6.64</v>
+      </c>
+      <c r="B115">
+        <v>23.13</v>
+      </c>
+      <c r="C115">
+        <v>1.41</v>
+      </c>
+      <c r="E115">
+        <v>13.9</v>
+      </c>
+      <c r="F115">
+        <v>4.84</v>
+      </c>
+      <c r="G115">
+        <v>1.46</v>
+      </c>
+      <c r="I115">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="J115">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K115">
+        <v>0.34</v>
+      </c>
+      <c r="M115">
+        <v>20.76</v>
+      </c>
+      <c r="N115">
+        <v>7.7</v>
+      </c>
+      <c r="O115">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="116" spans="1:15">
+      <c r="A116">
+        <v>8.74</v>
+      </c>
+      <c r="B116">
+        <v>25.8</v>
+      </c>
+      <c r="C116">
+        <v>1.41</v>
+      </c>
+      <c r="E116">
+        <v>14.35</v>
+      </c>
+      <c r="F116">
+        <v>5.49</v>
+      </c>
+      <c r="G116">
+        <v>1.67</v>
+      </c>
+      <c r="I116">
+        <v>34.94</v>
+      </c>
+      <c r="J116">
+        <v>0.3</v>
+      </c>
+      <c r="K116">
+        <v>0.46</v>
+      </c>
+      <c r="M116">
+        <v>22.6</v>
+      </c>
+      <c r="N116">
+        <v>7.68</v>
+      </c>
+      <c r="O116">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="117" spans="1:15">
+      <c r="A117">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="B117">
+        <v>26.3</v>
+      </c>
+      <c r="C117">
+        <v>1.41</v>
+      </c>
+      <c r="E117">
+        <v>14.28</v>
+      </c>
+      <c r="F117">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="G117">
+        <v>1.62</v>
+      </c>
+      <c r="I117">
+        <v>35.5</v>
+      </c>
+      <c r="J117">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="K117">
+        <v>0.47</v>
+      </c>
+      <c r="M117">
+        <v>26.99</v>
+      </c>
+      <c r="N117">
+        <v>7.56</v>
+      </c>
+      <c r="O117">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="118" spans="1:15">
+      <c r="A118">
+        <v>5.13</v>
+      </c>
+      <c r="B118">
+        <v>25.84</v>
+      </c>
+      <c r="C118">
+        <v>1.41</v>
+      </c>
+      <c r="E118">
+        <v>13.93</v>
+      </c>
+      <c r="F118">
+        <v>9.74</v>
+      </c>
+      <c r="G118">
+        <v>1.03</v>
+      </c>
+      <c r="I118">
+        <v>39.22</v>
+      </c>
+      <c r="J118">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="K118">
+        <v>0.46</v>
+      </c>
+      <c r="M118">
+        <v>22.34</v>
+      </c>
+      <c r="N118">
+        <v>7.44</v>
+      </c>
+      <c r="O118">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="119" spans="1:15">
+      <c r="A119">
+        <v>6.86</v>
+      </c>
+      <c r="B119">
+        <v>25.94</v>
+      </c>
+      <c r="C119">
+        <v>1.82</v>
+      </c>
+      <c r="E119">
+        <v>14.45</v>
+      </c>
+      <c r="F119">
+        <v>4.82</v>
+      </c>
+      <c r="G119">
+        <v>6.25</v>
+      </c>
+      <c r="I119">
+        <v>29.43</v>
+      </c>
+      <c r="J119">
+        <v>0.59</v>
+      </c>
+      <c r="K119">
+        <v>0.48</v>
+      </c>
+      <c r="M119">
+        <v>26.96</v>
+      </c>
+      <c r="N119">
+        <v>7.61</v>
+      </c>
+      <c r="O119">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="120" spans="1:15">
+      <c r="A120">
+        <v>6.95</v>
+      </c>
+      <c r="B120">
+        <v>25.95</v>
+      </c>
+      <c r="C120">
+        <v>1.05</v>
+      </c>
+      <c r="E120">
+        <v>19.41</v>
+      </c>
+      <c r="F120">
+        <v>3.41</v>
+      </c>
+      <c r="G120">
+        <v>1.59</v>
+      </c>
+      <c r="I120">
+        <v>34.65</v>
+      </c>
+      <c r="J120">
+        <v>0.37</v>
+      </c>
+      <c r="K120">
+        <v>0.35</v>
+      </c>
+      <c r="M120">
+        <v>22.57</v>
+      </c>
+      <c r="N120">
+        <v>7.44</v>
+      </c>
+      <c r="O120">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="121" spans="1:15">
+      <c r="A121" s="27">
+        <f>AVERAGE(A111:A120)</f>
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="B121" s="27">
+        <f>AVERAGE(B111:B120)</f>
+        <v>25.574999999999999</v>
+      </c>
+      <c r="C121" s="27">
+        <f>AVERAGE(C111:C120)</f>
+        <v>1.623</v>
+      </c>
+      <c r="D121" s="27"/>
+      <c r="E121" s="27">
+        <f t="shared" ref="D121:G121" si="12">AVERAGE(E111:E120)</f>
+        <v>15.696999999999999</v>
+      </c>
+      <c r="F121" s="27">
+        <f t="shared" si="12"/>
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="G121" s="27">
+        <f t="shared" si="12"/>
+        <v>2.2929999999999997</v>
+      </c>
+      <c r="H121" s="27"/>
+      <c r="I121" s="27">
+        <f t="shared" ref="I121" si="13">AVERAGE(I111:I120)</f>
+        <v>33.346999999999994</v>
+      </c>
+      <c r="J121" s="27">
+        <f t="shared" ref="J121" si="14">AVERAGE(J111:J120)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="K121" s="27">
+        <f>AVERAGE(K111:K120)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="L121" s="27"/>
+      <c r="M121" s="27">
+        <f t="shared" ref="M121" si="15">AVERAGE(M111:M120)</f>
+        <v>23.876000000000001</v>
+      </c>
+      <c r="N121" s="27">
+        <f t="shared" ref="N121" si="16">AVERAGE(N111:N120)</f>
+        <v>7.484</v>
+      </c>
+      <c r="O121" s="27">
+        <f t="shared" ref="O121" si="17">AVERAGE(O111:O120)</f>
+        <v>2.726</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="128">
+    <mergeCell ref="A109:C109"/>
+    <mergeCell ref="E109:G109"/>
+    <mergeCell ref="I109:K109"/>
+    <mergeCell ref="M109:O109"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="X23:AF23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="A28:AF29"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="X31:AF31"/>
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="A55:AF56"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="X49:AF49"/>
+    <mergeCell ref="X50:AF50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="X58:AF58"/>
+    <mergeCell ref="X59:AF59"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
     <mergeCell ref="X101:Z101"/>
     <mergeCell ref="AA101:AC101"/>
     <mergeCell ref="AD101:AF101"/>
@@ -7330,106 +7988,6 @@
     <mergeCell ref="P85:R85"/>
     <mergeCell ref="S85:U85"/>
     <mergeCell ref="M99:U99"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="A55:AF56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="X49:AF49"/>
-    <mergeCell ref="X50:AF50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="X58:AF58"/>
-    <mergeCell ref="X59:AF59"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="A28:AF29"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="X31:AF31"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="X22:AF22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="576" uniqueCount="39">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="40">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -120,19 +120,22 @@
     <t>50z50</t>
   </si>
   <si>
-    <t>lab</t>
+    <t>Map 2</t>
   </si>
   <si>
-    <t>long path</t>
+    <t>Rozmiar:</t>
   </si>
   <si>
-    <t>slepa</t>
+    <t>Rezultat czasowy [ms]</t>
   </si>
   <si>
-    <t>prosta</t>
+    <t>Agent nr</t>
   </si>
   <si>
-    <t>Map 2</t>
+    <t>Średna</t>
+  </si>
+  <si>
+    <t>Średnia -poprzedni eksperyment</t>
   </si>
 </sst>
 </file>
@@ -353,7 +356,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="28">
+  <cellXfs count="27">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -398,14 +401,13 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+    <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="4" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="0" xfId="0" applyFont="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -707,10 +709,10 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF121"/>
+  <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A94" workbookViewId="0">
-      <selection activeCell="M110" sqref="M110"/>
+    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="B52" sqref="B52"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
@@ -7349,521 +7351,8 @@
         <v>716</v>
       </c>
     </row>
-    <row r="108" spans="1:32">
-      <c r="B108" t="s">
-        <v>37</v>
-      </c>
-      <c r="F108" t="s">
-        <v>36</v>
-      </c>
-      <c r="J108" t="s">
-        <v>35</v>
-      </c>
-      <c r="N108" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="109" spans="1:32">
-      <c r="A109" s="26" t="s">
-        <v>31</v>
-      </c>
-      <c r="B109" s="26"/>
-      <c r="C109" s="26"/>
-      <c r="D109" s="25"/>
-      <c r="E109" s="24" t="s">
-        <v>38</v>
-      </c>
-      <c r="F109" s="24"/>
-      <c r="G109" s="24"/>
-      <c r="H109" s="25"/>
-      <c r="I109" s="24" t="s">
-        <v>30</v>
-      </c>
-      <c r="J109" s="24"/>
-      <c r="K109" s="24"/>
-      <c r="M109" s="24" t="s">
-        <v>29</v>
-      </c>
-      <c r="N109" s="24"/>
-      <c r="O109" s="24"/>
-    </row>
-    <row r="110" spans="1:32">
-      <c r="A110" t="s">
-        <v>26</v>
-      </c>
-      <c r="B110" t="s">
-        <v>28</v>
-      </c>
-      <c r="C110" t="s">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>28</v>
-      </c>
-      <c r="F110" t="s">
-        <v>26</v>
-      </c>
-      <c r="G110" t="s">
-        <v>1</v>
-      </c>
-      <c r="I110" t="s">
-        <v>28</v>
-      </c>
-      <c r="J110" t="s">
-        <v>26</v>
-      </c>
-      <c r="K110" t="s">
-        <v>1</v>
-      </c>
-      <c r="M110" t="s">
-        <v>28</v>
-      </c>
-      <c r="N110" t="s">
-        <v>26</v>
-      </c>
-      <c r="O110" t="s">
-        <v>33</v>
-      </c>
-    </row>
-    <row r="111" spans="1:32">
-      <c r="A111">
-        <v>9.77</v>
-      </c>
-      <c r="B111">
-        <v>23.51</v>
-      </c>
-      <c r="C111">
-        <v>3.34</v>
-      </c>
-      <c r="E111">
-        <v>19.84</v>
-      </c>
-      <c r="F111">
-        <v>8.52</v>
-      </c>
-      <c r="G111">
-        <v>4.72</v>
-      </c>
-      <c r="I111">
-        <v>35.24</v>
-      </c>
-      <c r="J111">
-        <v>3.13</v>
-      </c>
-      <c r="K111">
-        <v>3.26</v>
-      </c>
-      <c r="M111">
-        <v>31.53</v>
-      </c>
-      <c r="N111">
-        <v>7.54</v>
-      </c>
-      <c r="O111">
-        <v>5.91</v>
-      </c>
-    </row>
-    <row r="112" spans="1:32">
-      <c r="A112">
-        <v>6.54</v>
-      </c>
-      <c r="B112">
-        <v>26.61</v>
-      </c>
-      <c r="C112">
-        <v>1.42</v>
-      </c>
-      <c r="E112">
-        <v>13.85</v>
-      </c>
-      <c r="F112">
-        <v>4.82</v>
-      </c>
-      <c r="G112">
-        <v>1.47</v>
-      </c>
-      <c r="I112">
-        <v>32.5</v>
-      </c>
-      <c r="J112">
-        <v>0.68</v>
-      </c>
-      <c r="K112">
-        <v>0.5</v>
-      </c>
-      <c r="M112">
-        <v>22.09</v>
-      </c>
-      <c r="N112">
-        <v>7.31</v>
-      </c>
-      <c r="O112">
-        <v>1.65</v>
-      </c>
-    </row>
-    <row r="113" spans="1:15">
-      <c r="A113">
-        <v>6.57</v>
-      </c>
-      <c r="B113">
-        <v>26.19</v>
-      </c>
-      <c r="C113">
-        <v>1.53</v>
-      </c>
-      <c r="E113">
-        <v>18.98</v>
-      </c>
-      <c r="F113">
-        <v>5.37</v>
-      </c>
-      <c r="G113">
-        <v>1.66</v>
-      </c>
-      <c r="I113">
-        <v>29.67</v>
-      </c>
-      <c r="J113">
-        <v>0.6</v>
-      </c>
-      <c r="K113">
-        <v>0.56000000000000005</v>
-      </c>
-      <c r="M113">
-        <v>20.38</v>
-      </c>
-      <c r="N113">
-        <v>7.26</v>
-      </c>
-      <c r="O113">
-        <v>1.87</v>
-      </c>
-    </row>
-    <row r="114" spans="1:15">
-      <c r="A114">
-        <v>6.78</v>
-      </c>
-      <c r="B114">
-        <v>26.48</v>
-      </c>
-      <c r="C114">
-        <v>1.43</v>
-      </c>
-      <c r="E114">
-        <v>13.98</v>
-      </c>
-      <c r="F114">
-        <v>4.82</v>
-      </c>
-      <c r="G114">
-        <v>1.46</v>
-      </c>
-      <c r="I114">
-        <v>29.02</v>
-      </c>
-      <c r="J114">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K114">
-        <v>0.48</v>
-      </c>
-      <c r="M114">
-        <v>22.54</v>
-      </c>
-      <c r="N114">
-        <v>7.3</v>
-      </c>
-      <c r="O114">
-        <v>2.4300000000000002</v>
-      </c>
-    </row>
-    <row r="115" spans="1:15">
-      <c r="A115">
-        <v>6.64</v>
-      </c>
-      <c r="B115">
-        <v>23.13</v>
-      </c>
-      <c r="C115">
-        <v>1.41</v>
-      </c>
-      <c r="E115">
-        <v>13.9</v>
-      </c>
-      <c r="F115">
-        <v>4.84</v>
-      </c>
-      <c r="G115">
-        <v>1.46</v>
-      </c>
-      <c r="I115">
-        <v>33.299999999999997</v>
-      </c>
-      <c r="J115">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K115">
-        <v>0.34</v>
-      </c>
-      <c r="M115">
-        <v>20.76</v>
-      </c>
-      <c r="N115">
-        <v>7.7</v>
-      </c>
-      <c r="O115">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="116" spans="1:15">
-      <c r="A116">
-        <v>8.74</v>
-      </c>
-      <c r="B116">
-        <v>25.8</v>
-      </c>
-      <c r="C116">
-        <v>1.41</v>
-      </c>
-      <c r="E116">
-        <v>14.35</v>
-      </c>
-      <c r="F116">
-        <v>5.49</v>
-      </c>
-      <c r="G116">
-        <v>1.67</v>
-      </c>
-      <c r="I116">
-        <v>34.94</v>
-      </c>
-      <c r="J116">
-        <v>0.3</v>
-      </c>
-      <c r="K116">
-        <v>0.46</v>
-      </c>
-      <c r="M116">
-        <v>22.6</v>
-      </c>
-      <c r="N116">
-        <v>7.68</v>
-      </c>
-      <c r="O116">
-        <v>2.16</v>
-      </c>
-    </row>
-    <row r="117" spans="1:15">
-      <c r="A117">
-        <v>4.8600000000000003</v>
-      </c>
-      <c r="B117">
-        <v>26.3</v>
-      </c>
-      <c r="C117">
-        <v>1.41</v>
-      </c>
-      <c r="E117">
-        <v>14.28</v>
-      </c>
-      <c r="F117">
-        <v>4.8099999999999996</v>
-      </c>
-      <c r="G117">
-        <v>1.62</v>
-      </c>
-      <c r="I117">
-        <v>35.5</v>
-      </c>
-      <c r="J117">
-        <v>0.28999999999999998</v>
-      </c>
-      <c r="K117">
-        <v>0.47</v>
-      </c>
-      <c r="M117">
-        <v>26.99</v>
-      </c>
-      <c r="N117">
-        <v>7.56</v>
-      </c>
-      <c r="O117">
-        <v>4.59</v>
-      </c>
-    </row>
-    <row r="118" spans="1:15">
-      <c r="A118">
-        <v>5.13</v>
-      </c>
-      <c r="B118">
-        <v>25.84</v>
-      </c>
-      <c r="C118">
-        <v>1.41</v>
-      </c>
-      <c r="E118">
-        <v>13.93</v>
-      </c>
-      <c r="F118">
-        <v>9.74</v>
-      </c>
-      <c r="G118">
-        <v>1.03</v>
-      </c>
-      <c r="I118">
-        <v>39.22</v>
-      </c>
-      <c r="J118">
-        <v>0.28000000000000003</v>
-      </c>
-      <c r="K118">
-        <v>0.46</v>
-      </c>
-      <c r="M118">
-        <v>22.34</v>
-      </c>
-      <c r="N118">
-        <v>7.44</v>
-      </c>
-      <c r="O118">
-        <v>2.2200000000000002</v>
-      </c>
-    </row>
-    <row r="119" spans="1:15">
-      <c r="A119">
-        <v>6.86</v>
-      </c>
-      <c r="B119">
-        <v>25.94</v>
-      </c>
-      <c r="C119">
-        <v>1.82</v>
-      </c>
-      <c r="E119">
-        <v>14.45</v>
-      </c>
-      <c r="F119">
-        <v>4.82</v>
-      </c>
-      <c r="G119">
-        <v>6.25</v>
-      </c>
-      <c r="I119">
-        <v>29.43</v>
-      </c>
-      <c r="J119">
-        <v>0.59</v>
-      </c>
-      <c r="K119">
-        <v>0.48</v>
-      </c>
-      <c r="M119">
-        <v>26.96</v>
-      </c>
-      <c r="N119">
-        <v>7.61</v>
-      </c>
-      <c r="O119">
-        <v>2.15</v>
-      </c>
-    </row>
-    <row r="120" spans="1:15">
-      <c r="A120">
-        <v>6.95</v>
-      </c>
-      <c r="B120">
-        <v>25.95</v>
-      </c>
-      <c r="C120">
-        <v>1.05</v>
-      </c>
-      <c r="E120">
-        <v>19.41</v>
-      </c>
-      <c r="F120">
-        <v>3.41</v>
-      </c>
-      <c r="G120">
-        <v>1.59</v>
-      </c>
-      <c r="I120">
-        <v>34.65</v>
-      </c>
-      <c r="J120">
-        <v>0.37</v>
-      </c>
-      <c r="K120">
-        <v>0.35</v>
-      </c>
-      <c r="M120">
-        <v>22.57</v>
-      </c>
-      <c r="N120">
-        <v>7.44</v>
-      </c>
-      <c r="O120">
-        <v>2.14</v>
-      </c>
-    </row>
-    <row r="121" spans="1:15">
-      <c r="A121" s="27">
-        <f>AVERAGE(A111:A120)</f>
-        <v>6.8840000000000003</v>
-      </c>
-      <c r="B121" s="27">
-        <f>AVERAGE(B111:B120)</f>
-        <v>25.574999999999999</v>
-      </c>
-      <c r="C121" s="27">
-        <f>AVERAGE(C111:C120)</f>
-        <v>1.623</v>
-      </c>
-      <c r="D121" s="27"/>
-      <c r="E121" s="27">
-        <f t="shared" ref="D121:G121" si="12">AVERAGE(E111:E120)</f>
-        <v>15.696999999999999</v>
-      </c>
-      <c r="F121" s="27">
-        <f t="shared" si="12"/>
-        <v>5.6639999999999997</v>
-      </c>
-      <c r="G121" s="27">
-        <f t="shared" si="12"/>
-        <v>2.2929999999999997</v>
-      </c>
-      <c r="H121" s="27"/>
-      <c r="I121" s="27">
-        <f t="shared" ref="I121" si="13">AVERAGE(I111:I120)</f>
-        <v>33.346999999999994</v>
-      </c>
-      <c r="J121" s="27">
-        <f t="shared" ref="J121" si="14">AVERAGE(J111:J120)</f>
-        <v>0.68200000000000005</v>
-      </c>
-      <c r="K121" s="27">
-        <f>AVERAGE(K111:K120)</f>
-        <v>0.73599999999999999</v>
-      </c>
-      <c r="L121" s="27"/>
-      <c r="M121" s="27">
-        <f t="shared" ref="M121" si="15">AVERAGE(M111:M120)</f>
-        <v>23.876000000000001</v>
-      </c>
-      <c r="N121" s="27">
-        <f t="shared" ref="N121" si="16">AVERAGE(N111:N120)</f>
-        <v>7.484</v>
-      </c>
-      <c r="O121" s="27">
-        <f t="shared" ref="O121" si="17">AVERAGE(O111:O120)</f>
-        <v>2.726</v>
-      </c>
-    </row>
   </sheetData>
-  <mergeCells count="128">
-    <mergeCell ref="A109:C109"/>
-    <mergeCell ref="E109:G109"/>
-    <mergeCell ref="I109:K109"/>
-    <mergeCell ref="M109:O109"/>
+  <mergeCells count="124">
     <mergeCell ref="X4:AF4"/>
     <mergeCell ref="X5:AF5"/>
     <mergeCell ref="X6:Z6"/>
@@ -7996,12 +7485,750 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A2:P16"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="M2" sqref="M2:P16"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <cols>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+  </cols>
+  <sheetData>
+    <row r="2" spans="1:16">
+      <c r="A2" s="24" t="s">
+        <v>31</v>
+      </c>
+      <c r="B2" s="24"/>
+      <c r="C2" s="24"/>
+      <c r="D2" s="24"/>
+      <c r="E2" s="24" t="s">
+        <v>34</v>
+      </c>
+      <c r="F2" s="24"/>
+      <c r="G2" s="24"/>
+      <c r="H2" s="24"/>
+      <c r="I2" s="24" t="s">
+        <v>30</v>
+      </c>
+      <c r="J2" s="24"/>
+      <c r="K2" s="24"/>
+      <c r="L2" s="24"/>
+      <c r="M2" s="24" t="s">
+        <v>29</v>
+      </c>
+      <c r="N2" s="24"/>
+      <c r="O2" s="24"/>
+      <c r="P2" s="24"/>
+    </row>
+    <row r="3" spans="1:16">
+      <c r="A3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="B3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="C3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="D3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="E3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="F3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="G3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="H3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="I3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="J3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="K3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="L3" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="M3" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="N3" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="O3" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="P3" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="4" spans="1:16">
+      <c r="A4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="B4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="C4" s="17"/>
+      <c r="D4" s="17"/>
+      <c r="E4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="F4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="G4" s="17"/>
+      <c r="H4" s="17"/>
+      <c r="I4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="J4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="K4" s="17"/>
+      <c r="L4" s="17"/>
+      <c r="M4" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="N4" s="17" t="s">
+        <v>36</v>
+      </c>
+      <c r="O4" s="17"/>
+      <c r="P4" s="17"/>
+    </row>
+    <row r="5" spans="1:16">
+      <c r="A5" s="1">
+        <v>1</v>
+      </c>
+      <c r="B5" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="C5" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="D5" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="E5" s="1">
+        <v>1</v>
+      </c>
+      <c r="F5" s="1">
+        <v>19.84</v>
+      </c>
+      <c r="G5" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="H5" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="I5" s="1">
+        <v>1</v>
+      </c>
+      <c r="J5" s="1">
+        <v>35.24</v>
+      </c>
+      <c r="K5" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="L5" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="M5" s="1">
+        <v>1</v>
+      </c>
+      <c r="N5" s="1">
+        <v>31.53</v>
+      </c>
+      <c r="O5" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="P5" s="1">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="6" spans="1:16">
+      <c r="A6" s="1">
+        <v>2</v>
+      </c>
+      <c r="B6" s="1">
+        <v>26.61</v>
+      </c>
+      <c r="C6" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="D6" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="E6" s="1">
+        <v>2</v>
+      </c>
+      <c r="F6" s="1">
+        <v>13.85</v>
+      </c>
+      <c r="G6" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="H6" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="I6" s="1">
+        <v>2</v>
+      </c>
+      <c r="J6" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="K6" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="L6" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="M6" s="1">
+        <v>2</v>
+      </c>
+      <c r="N6" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="O6" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="P6" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="7" spans="1:16">
+      <c r="A7" s="1">
+        <v>3</v>
+      </c>
+      <c r="B7" s="1">
+        <v>26.19</v>
+      </c>
+      <c r="C7" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="D7" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="E7" s="1">
+        <v>3</v>
+      </c>
+      <c r="F7" s="1">
+        <v>18.98</v>
+      </c>
+      <c r="G7" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="H7" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="I7" s="1">
+        <v>3</v>
+      </c>
+      <c r="J7" s="1">
+        <v>29.67</v>
+      </c>
+      <c r="K7" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="L7" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="M7" s="1">
+        <v>3</v>
+      </c>
+      <c r="N7" s="1">
+        <v>20.38</v>
+      </c>
+      <c r="O7" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="P7" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="8" spans="1:16">
+      <c r="A8" s="1">
+        <v>4</v>
+      </c>
+      <c r="B8" s="1">
+        <v>26.48</v>
+      </c>
+      <c r="C8" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="D8" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="E8" s="1">
+        <v>4</v>
+      </c>
+      <c r="F8" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="G8" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="H8" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="I8" s="1">
+        <v>4</v>
+      </c>
+      <c r="J8" s="1">
+        <v>29.02</v>
+      </c>
+      <c r="K8" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L8" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M8" s="1">
+        <v>4</v>
+      </c>
+      <c r="N8" s="1">
+        <v>22.54</v>
+      </c>
+      <c r="O8" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="P8" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="9" spans="1:16">
+      <c r="A9" s="1">
+        <v>5</v>
+      </c>
+      <c r="B9" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="C9" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="D9" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E9" s="1">
+        <v>5</v>
+      </c>
+      <c r="F9" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="G9" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="H9" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="I9" s="1">
+        <v>5</v>
+      </c>
+      <c r="J9" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="K9" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L9" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="M9" s="1">
+        <v>5</v>
+      </c>
+      <c r="N9" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="O9" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="P9" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="10" spans="1:16">
+      <c r="A10" s="1">
+        <v>6</v>
+      </c>
+      <c r="B10" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="C10" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="D10" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E10" s="1">
+        <v>6</v>
+      </c>
+      <c r="F10" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="G10" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="H10" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="I10" s="1">
+        <v>6</v>
+      </c>
+      <c r="J10" s="1">
+        <v>34.94</v>
+      </c>
+      <c r="K10" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="L10" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M10" s="1">
+        <v>6</v>
+      </c>
+      <c r="N10" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="O10" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="P10" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="11" spans="1:16">
+      <c r="A11" s="1">
+        <v>7</v>
+      </c>
+      <c r="B11" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="C11" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="D11" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E11" s="1">
+        <v>7</v>
+      </c>
+      <c r="F11" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="G11" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="H11" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="I11" s="1">
+        <v>7</v>
+      </c>
+      <c r="J11" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="K11" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="L11" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="M11" s="1">
+        <v>7</v>
+      </c>
+      <c r="N11" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="O11" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="P11" s="1">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="12" spans="1:16">
+      <c r="A12" s="1">
+        <v>8</v>
+      </c>
+      <c r="B12" s="1">
+        <v>25.84</v>
+      </c>
+      <c r="C12" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="D12" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="E12" s="1">
+        <v>8</v>
+      </c>
+      <c r="F12" s="1">
+        <v>13.93</v>
+      </c>
+      <c r="G12" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="H12" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="I12" s="1">
+        <v>8</v>
+      </c>
+      <c r="J12" s="1">
+        <v>39.22</v>
+      </c>
+      <c r="K12" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="L12" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="M12" s="1">
+        <v>8</v>
+      </c>
+      <c r="N12" s="1">
+        <v>22.34</v>
+      </c>
+      <c r="O12" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="P12" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="13" spans="1:16">
+      <c r="A13" s="1">
+        <v>9</v>
+      </c>
+      <c r="B13" s="1">
+        <v>25.94</v>
+      </c>
+      <c r="C13" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="D13" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="E13" s="1">
+        <v>9</v>
+      </c>
+      <c r="F13" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="G13" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="H13" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="I13" s="1">
+        <v>9</v>
+      </c>
+      <c r="J13" s="1">
+        <v>29.43</v>
+      </c>
+      <c r="K13" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="L13" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="M13" s="1">
+        <v>9</v>
+      </c>
+      <c r="N13" s="1">
+        <v>26.96</v>
+      </c>
+      <c r="O13" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="P13" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="14" spans="1:16">
+      <c r="A14" s="1">
+        <v>10</v>
+      </c>
+      <c r="B14" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="C14" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="D14" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="E14" s="1">
+        <v>10</v>
+      </c>
+      <c r="F14" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="G14" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="H14" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="I14" s="1">
+        <v>10</v>
+      </c>
+      <c r="J14" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="K14" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="L14" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="M14" s="1">
+        <v>10</v>
+      </c>
+      <c r="N14" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="O14" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="P14" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="15" spans="1:16">
+      <c r="A15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="B15" s="25">
+        <f>AVERAGE(B5:B14)</f>
+        <v>25.574999999999999</v>
+      </c>
+      <c r="C15" s="25">
+        <f>AVERAGE(C5:C14)</f>
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="D15" s="25">
+        <f>AVERAGE(D5:D14)</f>
+        <v>1.623</v>
+      </c>
+      <c r="E15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="F15" s="25">
+        <f>AVERAGE(F5:F14)</f>
+        <v>15.696999999999999</v>
+      </c>
+      <c r="G15" s="25">
+        <f>AVERAGE(G5:G14)</f>
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="H15" s="25">
+        <f>AVERAGE(H5:H14)</f>
+        <v>2.2929999999999997</v>
+      </c>
+      <c r="I15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="J15" s="25">
+        <f>AVERAGE(J5:J14)</f>
+        <v>33.346999999999994</v>
+      </c>
+      <c r="K15" s="25">
+        <f>AVERAGE(K5:K14)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="L15" s="25">
+        <f>AVERAGE(L5:L14)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="M15" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="N15" s="25">
+        <f>AVERAGE(N5:N14)</f>
+        <v>23.876000000000001</v>
+      </c>
+      <c r="O15" s="25">
+        <f>AVERAGE(O5:O14)</f>
+        <v>7.484</v>
+      </c>
+      <c r="P15" s="25">
+        <f>AVERAGE(P5:P14)</f>
+        <v>2.726</v>
+      </c>
+    </row>
+    <row r="16" spans="1:16" ht="42" customHeight="1">
+      <c r="A16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="B16" s="1">
+        <v>44.89</v>
+      </c>
+      <c r="C16" s="1">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="D16" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="E16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="F16" s="1">
+        <v>30.88</v>
+      </c>
+      <c r="G16" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="H16" s="1">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="I16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="J16" s="1">
+        <v>40.81</v>
+      </c>
+      <c r="K16" s="1">
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="L16" s="1">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="M16" s="26" t="s">
+        <v>39</v>
+      </c>
+      <c r="N16" s="1">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="O16" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="P16" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+  </sheetData>
+  <mergeCells count="8">
+    <mergeCell ref="I2:L2"/>
+    <mergeCell ref="M2:P2"/>
+    <mergeCell ref="B4:D4"/>
+    <mergeCell ref="F4:H4"/>
+    <mergeCell ref="J4:L4"/>
+    <mergeCell ref="N4:P4"/>
+    <mergeCell ref="A2:D2"/>
+    <mergeCell ref="E2:H2"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
 </file>

--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="11840" activeTab="2"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="592" uniqueCount="40">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="43">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -137,12 +137,21 @@
   <si>
     <t>Średnia -poprzedni eksperyment</t>
   </si>
+  <si>
+    <t>I</t>
+  </si>
+  <si>
+    <t>II</t>
+  </si>
+  <si>
+    <t>III</t>
+  </si>
 </sst>
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
 <styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <fonts count="5">
+  <fonts count="7">
     <font>
       <sz val="11"/>
       <color theme="1"/>
@@ -186,6 +195,22 @@
       <charset val="238"/>
       <scheme val="minor"/>
     </font>
+    <font>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Calibri"/>
+      <family val="2"/>
+      <charset val="238"/>
+      <scheme val="minor"/>
+    </font>
+    <font>
+      <b/>
+      <u/>
+      <sz val="10"/>
+      <color theme="1"/>
+      <name val="Czcionka tekstu podstawowego"/>
+      <charset val="238"/>
+    </font>
   </fonts>
   <fills count="3">
     <fill>
@@ -201,7 +226,7 @@
       </patternFill>
     </fill>
   </fills>
-  <borders count="12">
+  <borders count="13">
     <border>
       <left/>
       <right/>
@@ -352,11 +377,20 @@
       </bottom>
       <diagonal/>
     </border>
+    <border>
+      <left/>
+      <right style="thin">
+        <color indexed="64"/>
+      </right>
+      <top/>
+      <bottom/>
+      <diagonal/>
+    </border>
   </borders>
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="27">
+  <cellXfs count="35">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -387,8 +421,11 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment wrapText="1"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -401,13 +438,20 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="3" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment wrapText="1"/>
-    </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -711,228 +755,228 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AF103"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="B52" sqref="B52"/>
+    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="A4" sqref="A4:AF18"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="1" max="1" width="16.1796875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="18" t="s">
+      <c r="A1" s="28" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="18"/>
-      <c r="C1" s="18"/>
-      <c r="D1" s="18"/>
-      <c r="E1" s="18"/>
-      <c r="F1" s="18"/>
-      <c r="G1" s="18"/>
-      <c r="H1" s="18"/>
-      <c r="I1" s="18"/>
-      <c r="J1" s="18"/>
-      <c r="K1" s="18"/>
-      <c r="L1" s="18"/>
-      <c r="M1" s="18"/>
-      <c r="N1" s="18"/>
-      <c r="O1" s="18"/>
-      <c r="P1" s="18"/>
-      <c r="Q1" s="18"/>
-      <c r="R1" s="18"/>
-      <c r="S1" s="18"/>
-      <c r="T1" s="18"/>
-      <c r="U1" s="18"/>
-      <c r="V1" s="18"/>
-      <c r="W1" s="18"/>
-      <c r="X1" s="18"/>
-      <c r="Y1" s="18"/>
-      <c r="Z1" s="18"/>
-      <c r="AA1" s="18"/>
-      <c r="AB1" s="18"/>
-      <c r="AC1" s="18"/>
-      <c r="AD1" s="18"/>
-      <c r="AE1" s="18"/>
-      <c r="AF1" s="18"/>
+      <c r="B1" s="28"/>
+      <c r="C1" s="28"/>
+      <c r="D1" s="28"/>
+      <c r="E1" s="28"/>
+      <c r="F1" s="28"/>
+      <c r="G1" s="28"/>
+      <c r="H1" s="28"/>
+      <c r="I1" s="28"/>
+      <c r="J1" s="28"/>
+      <c r="K1" s="28"/>
+      <c r="L1" s="28"/>
+      <c r="M1" s="28"/>
+      <c r="N1" s="28"/>
+      <c r="O1" s="28"/>
+      <c r="P1" s="28"/>
+      <c r="Q1" s="28"/>
+      <c r="R1" s="28"/>
+      <c r="S1" s="28"/>
+      <c r="T1" s="28"/>
+      <c r="U1" s="28"/>
+      <c r="V1" s="28"/>
+      <c r="W1" s="28"/>
+      <c r="X1" s="28"/>
+      <c r="Y1" s="28"/>
+      <c r="Z1" s="28"/>
+      <c r="AA1" s="28"/>
+      <c r="AB1" s="28"/>
+      <c r="AC1" s="28"/>
+      <c r="AD1" s="28"/>
+      <c r="AE1" s="28"/>
+      <c r="AF1" s="28"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="18"/>
-      <c r="B2" s="18"/>
-      <c r="C2" s="18"/>
-      <c r="D2" s="18"/>
-      <c r="E2" s="18"/>
-      <c r="F2" s="18"/>
-      <c r="G2" s="18"/>
-      <c r="H2" s="18"/>
-      <c r="I2" s="18"/>
-      <c r="J2" s="18"/>
-      <c r="K2" s="18"/>
-      <c r="L2" s="18"/>
-      <c r="M2" s="18"/>
-      <c r="N2" s="18"/>
-      <c r="O2" s="18"/>
-      <c r="P2" s="18"/>
-      <c r="Q2" s="18"/>
-      <c r="R2" s="18"/>
-      <c r="S2" s="18"/>
-      <c r="T2" s="18"/>
-      <c r="U2" s="18"/>
-      <c r="V2" s="18"/>
-      <c r="W2" s="18"/>
-      <c r="X2" s="18"/>
-      <c r="Y2" s="18"/>
-      <c r="Z2" s="18"/>
-      <c r="AA2" s="18"/>
-      <c r="AB2" s="18"/>
-      <c r="AC2" s="18"/>
-      <c r="AD2" s="18"/>
-      <c r="AE2" s="18"/>
-      <c r="AF2" s="18"/>
+      <c r="A2" s="28"/>
+      <c r="B2" s="28"/>
+      <c r="C2" s="28"/>
+      <c r="D2" s="28"/>
+      <c r="E2" s="28"/>
+      <c r="F2" s="28"/>
+      <c r="G2" s="28"/>
+      <c r="H2" s="28"/>
+      <c r="I2" s="28"/>
+      <c r="J2" s="28"/>
+      <c r="K2" s="28"/>
+      <c r="L2" s="28"/>
+      <c r="M2" s="28"/>
+      <c r="N2" s="28"/>
+      <c r="O2" s="28"/>
+      <c r="P2" s="28"/>
+      <c r="Q2" s="28"/>
+      <c r="R2" s="28"/>
+      <c r="S2" s="28"/>
+      <c r="T2" s="28"/>
+      <c r="U2" s="28"/>
+      <c r="V2" s="28"/>
+      <c r="W2" s="28"/>
+      <c r="X2" s="28"/>
+      <c r="Y2" s="28"/>
+      <c r="Z2" s="28"/>
+      <c r="AA2" s="28"/>
+      <c r="AB2" s="28"/>
+      <c r="AC2" s="28"/>
+      <c r="AD2" s="28"/>
+      <c r="AE2" s="28"/>
+      <c r="AF2" s="28"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
-      <c r="E4" s="17"/>
-      <c r="F4" s="17"/>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
-      <c r="I4" s="17"/>
-      <c r="J4" s="17"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
+      <c r="E4" s="27"/>
+      <c r="F4" s="27"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
+      <c r="I4" s="27"/>
+      <c r="J4" s="27"/>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="17" t="s">
+      <c r="M4" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="17"/>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
-      <c r="Q4" s="17"/>
-      <c r="R4" s="17"/>
-      <c r="S4" s="17"/>
-      <c r="T4" s="17"/>
-      <c r="U4" s="17"/>
+      <c r="N4" s="27"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
+      <c r="Q4" s="27"/>
+      <c r="R4" s="27"/>
+      <c r="S4" s="27"/>
+      <c r="T4" s="27"/>
+      <c r="U4" s="27"/>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="19" t="s">
+      <c r="X4" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="20"/>
-      <c r="Z4" s="20"/>
-      <c r="AA4" s="20"/>
-      <c r="AB4" s="20"/>
-      <c r="AC4" s="20"/>
-      <c r="AD4" s="20"/>
-      <c r="AE4" s="20"/>
-      <c r="AF4" s="21"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="24"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="17" t="s">
+      <c r="B5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="17"/>
-      <c r="D5" s="17"/>
-      <c r="E5" s="17"/>
-      <c r="F5" s="17"/>
-      <c r="G5" s="17"/>
-      <c r="H5" s="17"/>
-      <c r="I5" s="17"/>
-      <c r="J5" s="17"/>
+      <c r="C5" s="27"/>
+      <c r="D5" s="27"/>
+      <c r="E5" s="27"/>
+      <c r="F5" s="27"/>
+      <c r="G5" s="27"/>
+      <c r="H5" s="27"/>
+      <c r="I5" s="27"/>
+      <c r="J5" s="27"/>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="17" t="s">
+      <c r="M5" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="17"/>
-      <c r="O5" s="17"/>
-      <c r="P5" s="17"/>
-      <c r="Q5" s="17"/>
-      <c r="R5" s="17"/>
-      <c r="S5" s="17"/>
-      <c r="T5" s="17"/>
-      <c r="U5" s="17"/>
+      <c r="N5" s="27"/>
+      <c r="O5" s="27"/>
+      <c r="P5" s="27"/>
+      <c r="Q5" s="27"/>
+      <c r="R5" s="27"/>
+      <c r="S5" s="27"/>
+      <c r="T5" s="27"/>
+      <c r="U5" s="27"/>
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="19" t="s">
+      <c r="X5" s="22" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="20"/>
-      <c r="Z5" s="20"/>
-      <c r="AA5" s="20"/>
-      <c r="AB5" s="20"/>
-      <c r="AC5" s="20"/>
-      <c r="AD5" s="20"/>
-      <c r="AE5" s="20"/>
-      <c r="AF5" s="21"/>
+      <c r="Y5" s="23"/>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="24"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="17" t="s">
+      <c r="B6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="17"/>
-      <c r="D6" s="17"/>
-      <c r="E6" s="17" t="s">
+      <c r="C6" s="27"/>
+      <c r="D6" s="27"/>
+      <c r="E6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="17"/>
-      <c r="G6" s="17"/>
-      <c r="H6" s="17" t="s">
+      <c r="F6" s="27"/>
+      <c r="G6" s="27"/>
+      <c r="H6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="17"/>
-      <c r="J6" s="17"/>
+      <c r="I6" s="27"/>
+      <c r="J6" s="27"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="17" t="s">
+      <c r="M6" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="17"/>
-      <c r="O6" s="17"/>
-      <c r="P6" s="17" t="s">
+      <c r="N6" s="27"/>
+      <c r="O6" s="27"/>
+      <c r="P6" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="17"/>
-      <c r="R6" s="17"/>
-      <c r="S6" s="17" t="s">
+      <c r="Q6" s="27"/>
+      <c r="R6" s="27"/>
+      <c r="S6" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="17"/>
-      <c r="U6" s="17"/>
+      <c r="T6" s="27"/>
+      <c r="U6" s="27"/>
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="19" t="s">
+      <c r="X6" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="20"/>
-      <c r="Z6" s="21"/>
-      <c r="AA6" s="19" t="s">
+      <c r="Y6" s="23"/>
+      <c r="Z6" s="24"/>
+      <c r="AA6" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="20"/>
-      <c r="AC6" s="21"/>
-      <c r="AD6" s="19" t="s">
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="24"/>
+      <c r="AD6" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="20"/>
-      <c r="AF6" s="21"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="24"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -1847,7 +1891,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15.75" thickBot="1">
+    <row r="17" spans="1:32" ht="15" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1939,7 +1983,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15.75" thickBot="1">
+    <row r="18" spans="1:32" ht="15" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2062,145 +2106,145 @@
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="19" t="s">
+      <c r="B22" s="22" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="20"/>
-      <c r="D22" s="20"/>
-      <c r="E22" s="20"/>
-      <c r="F22" s="20"/>
-      <c r="G22" s="20"/>
-      <c r="H22" s="20"/>
-      <c r="I22" s="20"/>
-      <c r="J22" s="21"/>
+      <c r="C22" s="23"/>
+      <c r="D22" s="23"/>
+      <c r="E22" s="23"/>
+      <c r="F22" s="23"/>
+      <c r="G22" s="23"/>
+      <c r="H22" s="23"/>
+      <c r="I22" s="23"/>
+      <c r="J22" s="24"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="19" t="s">
+      <c r="M22" s="22" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="20"/>
-      <c r="O22" s="20"/>
-      <c r="P22" s="20"/>
-      <c r="Q22" s="20"/>
-      <c r="R22" s="20"/>
-      <c r="S22" s="20"/>
-      <c r="T22" s="20"/>
-      <c r="U22" s="21"/>
+      <c r="N22" s="23"/>
+      <c r="O22" s="23"/>
+      <c r="P22" s="23"/>
+      <c r="Q22" s="23"/>
+      <c r="R22" s="23"/>
+      <c r="S22" s="23"/>
+      <c r="T22" s="23"/>
+      <c r="U22" s="24"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="19" t="s">
+      <c r="X22" s="22" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="20"/>
-      <c r="Z22" s="20"/>
-      <c r="AA22" s="20"/>
-      <c r="AB22" s="20"/>
-      <c r="AC22" s="20"/>
-      <c r="AD22" s="20"/>
-      <c r="AE22" s="20"/>
-      <c r="AF22" s="21"/>
+      <c r="Y22" s="23"/>
+      <c r="Z22" s="23"/>
+      <c r="AA22" s="23"/>
+      <c r="AB22" s="23"/>
+      <c r="AC22" s="23"/>
+      <c r="AD22" s="23"/>
+      <c r="AE22" s="23"/>
+      <c r="AF22" s="24"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="19" t="s">
+      <c r="B23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="20"/>
-      <c r="D23" s="20"/>
-      <c r="E23" s="20"/>
-      <c r="F23" s="20"/>
-      <c r="G23" s="20"/>
-      <c r="H23" s="20"/>
-      <c r="I23" s="20"/>
-      <c r="J23" s="21"/>
+      <c r="C23" s="23"/>
+      <c r="D23" s="23"/>
+      <c r="E23" s="23"/>
+      <c r="F23" s="23"/>
+      <c r="G23" s="23"/>
+      <c r="H23" s="23"/>
+      <c r="I23" s="23"/>
+      <c r="J23" s="24"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="19" t="s">
+      <c r="M23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="20"/>
-      <c r="O23" s="20"/>
-      <c r="P23" s="20"/>
-      <c r="Q23" s="20"/>
-      <c r="R23" s="20"/>
-      <c r="S23" s="20"/>
-      <c r="T23" s="20"/>
-      <c r="U23" s="21"/>
+      <c r="N23" s="23"/>
+      <c r="O23" s="23"/>
+      <c r="P23" s="23"/>
+      <c r="Q23" s="23"/>
+      <c r="R23" s="23"/>
+      <c r="S23" s="23"/>
+      <c r="T23" s="23"/>
+      <c r="U23" s="24"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="19" t="s">
+      <c r="X23" s="22" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="20"/>
-      <c r="Z23" s="20"/>
-      <c r="AA23" s="20"/>
-      <c r="AB23" s="20"/>
-      <c r="AC23" s="20"/>
-      <c r="AD23" s="20"/>
-      <c r="AE23" s="20"/>
-      <c r="AF23" s="21"/>
+      <c r="Y23" s="23"/>
+      <c r="Z23" s="23"/>
+      <c r="AA23" s="23"/>
+      <c r="AB23" s="23"/>
+      <c r="AC23" s="23"/>
+      <c r="AD23" s="23"/>
+      <c r="AE23" s="23"/>
+      <c r="AF23" s="24"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="19" t="s">
+      <c r="B24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="22"/>
-      <c r="D24" s="23"/>
-      <c r="E24" s="19" t="s">
+      <c r="C24" s="25"/>
+      <c r="D24" s="26"/>
+      <c r="E24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="22"/>
-      <c r="G24" s="23"/>
-      <c r="H24" s="19" t="s">
+      <c r="F24" s="25"/>
+      <c r="G24" s="26"/>
+      <c r="H24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="22"/>
-      <c r="J24" s="23"/>
+      <c r="I24" s="25"/>
+      <c r="J24" s="26"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="19" t="s">
+      <c r="M24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="20"/>
-      <c r="O24" s="21"/>
-      <c r="P24" s="19" t="s">
+      <c r="N24" s="23"/>
+      <c r="O24" s="24"/>
+      <c r="P24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="20"/>
-      <c r="R24" s="21"/>
-      <c r="S24" s="17" t="s">
+      <c r="Q24" s="23"/>
+      <c r="R24" s="24"/>
+      <c r="S24" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="17"/>
-      <c r="U24" s="17"/>
+      <c r="T24" s="27"/>
+      <c r="U24" s="27"/>
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="19" t="s">
+      <c r="X24" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="20"/>
-      <c r="Z24" s="21"/>
-      <c r="AA24" s="19" t="s">
+      <c r="Y24" s="23"/>
+      <c r="Z24" s="24"/>
+      <c r="AA24" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="20"/>
-      <c r="AC24" s="21"/>
-      <c r="AD24" s="19" t="s">
+      <c r="AB24" s="23"/>
+      <c r="AC24" s="24"/>
+      <c r="AD24" s="22" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="20"/>
-      <c r="AF24" s="21"/>
+      <c r="AE24" s="23"/>
+      <c r="AF24" s="24"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="9"/>
@@ -2381,218 +2425,218 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="18" t="s">
+      <c r="A28" s="28" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="18"/>
-      <c r="C28" s="18"/>
-      <c r="D28" s="18"/>
-      <c r="E28" s="18"/>
-      <c r="F28" s="18"/>
-      <c r="G28" s="18"/>
-      <c r="H28" s="18"/>
-      <c r="I28" s="18"/>
-      <c r="J28" s="18"/>
-      <c r="K28" s="18"/>
-      <c r="L28" s="18"/>
-      <c r="M28" s="18"/>
-      <c r="N28" s="18"/>
-      <c r="O28" s="18"/>
-      <c r="P28" s="18"/>
-      <c r="Q28" s="18"/>
-      <c r="R28" s="18"/>
-      <c r="S28" s="18"/>
-      <c r="T28" s="18"/>
-      <c r="U28" s="18"/>
-      <c r="V28" s="18"/>
-      <c r="W28" s="18"/>
-      <c r="X28" s="18"/>
-      <c r="Y28" s="18"/>
-      <c r="Z28" s="18"/>
-      <c r="AA28" s="18"/>
-      <c r="AB28" s="18"/>
-      <c r="AC28" s="18"/>
-      <c r="AD28" s="18"/>
-      <c r="AE28" s="18"/>
-      <c r="AF28" s="18"/>
+      <c r="B28" s="28"/>
+      <c r="C28" s="28"/>
+      <c r="D28" s="28"/>
+      <c r="E28" s="28"/>
+      <c r="F28" s="28"/>
+      <c r="G28" s="28"/>
+      <c r="H28" s="28"/>
+      <c r="I28" s="28"/>
+      <c r="J28" s="28"/>
+      <c r="K28" s="28"/>
+      <c r="L28" s="28"/>
+      <c r="M28" s="28"/>
+      <c r="N28" s="28"/>
+      <c r="O28" s="28"/>
+      <c r="P28" s="28"/>
+      <c r="Q28" s="28"/>
+      <c r="R28" s="28"/>
+      <c r="S28" s="28"/>
+      <c r="T28" s="28"/>
+      <c r="U28" s="28"/>
+      <c r="V28" s="28"/>
+      <c r="W28" s="28"/>
+      <c r="X28" s="28"/>
+      <c r="Y28" s="28"/>
+      <c r="Z28" s="28"/>
+      <c r="AA28" s="28"/>
+      <c r="AB28" s="28"/>
+      <c r="AC28" s="28"/>
+      <c r="AD28" s="28"/>
+      <c r="AE28" s="28"/>
+      <c r="AF28" s="28"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="18"/>
-      <c r="B29" s="18"/>
-      <c r="C29" s="18"/>
-      <c r="D29" s="18"/>
-      <c r="E29" s="18"/>
-      <c r="F29" s="18"/>
-      <c r="G29" s="18"/>
-      <c r="H29" s="18"/>
-      <c r="I29" s="18"/>
-      <c r="J29" s="18"/>
-      <c r="K29" s="18"/>
-      <c r="L29" s="18"/>
-      <c r="M29" s="18"/>
-      <c r="N29" s="18"/>
-      <c r="O29" s="18"/>
-      <c r="P29" s="18"/>
-      <c r="Q29" s="18"/>
-      <c r="R29" s="18"/>
-      <c r="S29" s="18"/>
-      <c r="T29" s="18"/>
-      <c r="U29" s="18"/>
-      <c r="V29" s="18"/>
-      <c r="W29" s="18"/>
-      <c r="X29" s="18"/>
-      <c r="Y29" s="18"/>
-      <c r="Z29" s="18"/>
-      <c r="AA29" s="18"/>
-      <c r="AB29" s="18"/>
-      <c r="AC29" s="18"/>
-      <c r="AD29" s="18"/>
-      <c r="AE29" s="18"/>
-      <c r="AF29" s="18"/>
+      <c r="A29" s="28"/>
+      <c r="B29" s="28"/>
+      <c r="C29" s="28"/>
+      <c r="D29" s="28"/>
+      <c r="E29" s="28"/>
+      <c r="F29" s="28"/>
+      <c r="G29" s="28"/>
+      <c r="H29" s="28"/>
+      <c r="I29" s="28"/>
+      <c r="J29" s="28"/>
+      <c r="K29" s="28"/>
+      <c r="L29" s="28"/>
+      <c r="M29" s="28"/>
+      <c r="N29" s="28"/>
+      <c r="O29" s="28"/>
+      <c r="P29" s="28"/>
+      <c r="Q29" s="28"/>
+      <c r="R29" s="28"/>
+      <c r="S29" s="28"/>
+      <c r="T29" s="28"/>
+      <c r="U29" s="28"/>
+      <c r="V29" s="28"/>
+      <c r="W29" s="28"/>
+      <c r="X29" s="28"/>
+      <c r="Y29" s="28"/>
+      <c r="Z29" s="28"/>
+      <c r="AA29" s="28"/>
+      <c r="AB29" s="28"/>
+      <c r="AC29" s="28"/>
+      <c r="AD29" s="28"/>
+      <c r="AE29" s="28"/>
+      <c r="AF29" s="28"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="17" t="s">
+      <c r="B31" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="17"/>
-      <c r="D31" s="17"/>
-      <c r="E31" s="17"/>
-      <c r="F31" s="17"/>
-      <c r="G31" s="17"/>
-      <c r="H31" s="17"/>
-      <c r="I31" s="17"/>
-      <c r="J31" s="17"/>
+      <c r="C31" s="27"/>
+      <c r="D31" s="27"/>
+      <c r="E31" s="27"/>
+      <c r="F31" s="27"/>
+      <c r="G31" s="27"/>
+      <c r="H31" s="27"/>
+      <c r="I31" s="27"/>
+      <c r="J31" s="27"/>
       <c r="L31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="17" t="s">
+      <c r="M31" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="17"/>
-      <c r="O31" s="17"/>
-      <c r="P31" s="17"/>
-      <c r="Q31" s="17"/>
-      <c r="R31" s="17"/>
-      <c r="S31" s="17"/>
-      <c r="T31" s="17"/>
-      <c r="U31" s="17"/>
+      <c r="N31" s="27"/>
+      <c r="O31" s="27"/>
+      <c r="P31" s="27"/>
+      <c r="Q31" s="27"/>
+      <c r="R31" s="27"/>
+      <c r="S31" s="27"/>
+      <c r="T31" s="27"/>
+      <c r="U31" s="27"/>
       <c r="W31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="17" t="s">
+      <c r="X31" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="17"/>
-      <c r="Z31" s="17"/>
-      <c r="AA31" s="17"/>
-      <c r="AB31" s="17"/>
-      <c r="AC31" s="17"/>
-      <c r="AD31" s="17"/>
-      <c r="AE31" s="17"/>
-      <c r="AF31" s="17"/>
+      <c r="Y31" s="27"/>
+      <c r="Z31" s="27"/>
+      <c r="AA31" s="27"/>
+      <c r="AB31" s="27"/>
+      <c r="AC31" s="27"/>
+      <c r="AD31" s="27"/>
+      <c r="AE31" s="27"/>
+      <c r="AF31" s="27"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="17" t="s">
+      <c r="B32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="17"/>
-      <c r="D32" s="17"/>
-      <c r="E32" s="17"/>
-      <c r="F32" s="17"/>
-      <c r="G32" s="17"/>
-      <c r="H32" s="17"/>
-      <c r="I32" s="17"/>
-      <c r="J32" s="17"/>
+      <c r="C32" s="27"/>
+      <c r="D32" s="27"/>
+      <c r="E32" s="27"/>
+      <c r="F32" s="27"/>
+      <c r="G32" s="27"/>
+      <c r="H32" s="27"/>
+      <c r="I32" s="27"/>
+      <c r="J32" s="27"/>
       <c r="L32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="17" t="s">
+      <c r="M32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="17"/>
-      <c r="O32" s="17"/>
-      <c r="P32" s="17"/>
-      <c r="Q32" s="17"/>
-      <c r="R32" s="17"/>
-      <c r="S32" s="17"/>
-      <c r="T32" s="17"/>
-      <c r="U32" s="17"/>
+      <c r="N32" s="27"/>
+      <c r="O32" s="27"/>
+      <c r="P32" s="27"/>
+      <c r="Q32" s="27"/>
+      <c r="R32" s="27"/>
+      <c r="S32" s="27"/>
+      <c r="T32" s="27"/>
+      <c r="U32" s="27"/>
       <c r="W32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="17" t="s">
+      <c r="X32" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="17"/>
-      <c r="Z32" s="17"/>
-      <c r="AA32" s="17"/>
-      <c r="AB32" s="17"/>
-      <c r="AC32" s="17"/>
-      <c r="AD32" s="17"/>
-      <c r="AE32" s="17"/>
-      <c r="AF32" s="17"/>
+      <c r="Y32" s="27"/>
+      <c r="Z32" s="27"/>
+      <c r="AA32" s="27"/>
+      <c r="AB32" s="27"/>
+      <c r="AC32" s="27"/>
+      <c r="AD32" s="27"/>
+      <c r="AE32" s="27"/>
+      <c r="AF32" s="27"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="17" t="s">
+      <c r="B33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="17"/>
-      <c r="D33" s="17"/>
-      <c r="E33" s="17" t="s">
+      <c r="C33" s="27"/>
+      <c r="D33" s="27"/>
+      <c r="E33" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="17"/>
-      <c r="G33" s="17"/>
-      <c r="H33" s="17" t="s">
+      <c r="F33" s="27"/>
+      <c r="G33" s="27"/>
+      <c r="H33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="17"/>
-      <c r="J33" s="17"/>
+      <c r="I33" s="27"/>
+      <c r="J33" s="27"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="17" t="s">
+      <c r="M33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="17"/>
-      <c r="O33" s="17"/>
-      <c r="P33" s="17" t="s">
+      <c r="N33" s="27"/>
+      <c r="O33" s="27"/>
+      <c r="P33" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="17"/>
-      <c r="R33" s="17"/>
-      <c r="S33" s="17" t="s">
+      <c r="Q33" s="27"/>
+      <c r="R33" s="27"/>
+      <c r="S33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="17"/>
-      <c r="U33" s="17"/>
+      <c r="T33" s="27"/>
+      <c r="U33" s="27"/>
       <c r="W33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="17" t="s">
+      <c r="X33" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="17"/>
-      <c r="Z33" s="17"/>
-      <c r="AA33" s="17" t="s">
+      <c r="Y33" s="27"/>
+      <c r="Z33" s="27"/>
+      <c r="AA33" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="17"/>
-      <c r="AC33" s="17"/>
-      <c r="AD33" s="17" t="s">
+      <c r="AB33" s="27"/>
+      <c r="AC33" s="27"/>
+      <c r="AD33" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="17"/>
-      <c r="AF33" s="17"/>
+      <c r="AE33" s="27"/>
+      <c r="AF33" s="27"/>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
@@ -3721,145 +3765,145 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="17" t="s">
+      <c r="B49" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="17"/>
-      <c r="D49" s="17"/>
-      <c r="E49" s="17"/>
-      <c r="F49" s="17"/>
-      <c r="G49" s="17"/>
-      <c r="H49" s="17"/>
-      <c r="I49" s="17"/>
-      <c r="J49" s="17"/>
+      <c r="C49" s="27"/>
+      <c r="D49" s="27"/>
+      <c r="E49" s="27"/>
+      <c r="F49" s="27"/>
+      <c r="G49" s="27"/>
+      <c r="H49" s="27"/>
+      <c r="I49" s="27"/>
+      <c r="J49" s="27"/>
       <c r="L49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="17" t="s">
+      <c r="M49" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="17"/>
-      <c r="O49" s="17"/>
-      <c r="P49" s="17"/>
-      <c r="Q49" s="17"/>
-      <c r="R49" s="17"/>
-      <c r="S49" s="17"/>
-      <c r="T49" s="17"/>
-      <c r="U49" s="17"/>
+      <c r="N49" s="27"/>
+      <c r="O49" s="27"/>
+      <c r="P49" s="27"/>
+      <c r="Q49" s="27"/>
+      <c r="R49" s="27"/>
+      <c r="S49" s="27"/>
+      <c r="T49" s="27"/>
+      <c r="U49" s="27"/>
       <c r="W49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X49" s="17" t="s">
+      <c r="X49" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="17"/>
-      <c r="Z49" s="17"/>
-      <c r="AA49" s="17"/>
-      <c r="AB49" s="17"/>
-      <c r="AC49" s="17"/>
-      <c r="AD49" s="17"/>
-      <c r="AE49" s="17"/>
-      <c r="AF49" s="17"/>
+      <c r="Y49" s="27"/>
+      <c r="Z49" s="27"/>
+      <c r="AA49" s="27"/>
+      <c r="AB49" s="27"/>
+      <c r="AC49" s="27"/>
+      <c r="AD49" s="27"/>
+      <c r="AE49" s="27"/>
+      <c r="AF49" s="27"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="17" t="s">
+      <c r="B50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="17"/>
-      <c r="D50" s="17"/>
-      <c r="E50" s="17"/>
-      <c r="F50" s="17"/>
-      <c r="G50" s="17"/>
-      <c r="H50" s="17"/>
-      <c r="I50" s="17"/>
-      <c r="J50" s="17"/>
+      <c r="C50" s="27"/>
+      <c r="D50" s="27"/>
+      <c r="E50" s="27"/>
+      <c r="F50" s="27"/>
+      <c r="G50" s="27"/>
+      <c r="H50" s="27"/>
+      <c r="I50" s="27"/>
+      <c r="J50" s="27"/>
       <c r="L50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="17" t="s">
+      <c r="M50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="17"/>
-      <c r="O50" s="17"/>
-      <c r="P50" s="17"/>
-      <c r="Q50" s="17"/>
-      <c r="R50" s="17"/>
-      <c r="S50" s="17"/>
-      <c r="T50" s="17"/>
-      <c r="U50" s="17"/>
+      <c r="N50" s="27"/>
+      <c r="O50" s="27"/>
+      <c r="P50" s="27"/>
+      <c r="Q50" s="27"/>
+      <c r="R50" s="27"/>
+      <c r="S50" s="27"/>
+      <c r="T50" s="27"/>
+      <c r="U50" s="27"/>
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="17" t="s">
+      <c r="X50" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y50" s="17"/>
-      <c r="Z50" s="17"/>
-      <c r="AA50" s="17"/>
-      <c r="AB50" s="17"/>
-      <c r="AC50" s="17"/>
-      <c r="AD50" s="17"/>
-      <c r="AE50" s="17"/>
-      <c r="AF50" s="17"/>
+      <c r="Y50" s="27"/>
+      <c r="Z50" s="27"/>
+      <c r="AA50" s="27"/>
+      <c r="AB50" s="27"/>
+      <c r="AC50" s="27"/>
+      <c r="AD50" s="27"/>
+      <c r="AE50" s="27"/>
+      <c r="AF50" s="27"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="17" t="s">
+      <c r="B51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="17"/>
-      <c r="D51" s="17"/>
-      <c r="E51" s="17" t="s">
+      <c r="C51" s="27"/>
+      <c r="D51" s="27"/>
+      <c r="E51" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="17"/>
-      <c r="G51" s="17"/>
-      <c r="H51" s="17" t="s">
+      <c r="F51" s="27"/>
+      <c r="G51" s="27"/>
+      <c r="H51" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="17"/>
-      <c r="J51" s="17"/>
+      <c r="I51" s="27"/>
+      <c r="J51" s="27"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="17" t="s">
+      <c r="M51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="17"/>
-      <c r="O51" s="17"/>
-      <c r="P51" s="17" t="s">
+      <c r="N51" s="27"/>
+      <c r="O51" s="27"/>
+      <c r="P51" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="17"/>
-      <c r="R51" s="17"/>
-      <c r="S51" s="17" t="s">
+      <c r="Q51" s="27"/>
+      <c r="R51" s="27"/>
+      <c r="S51" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="17"/>
-      <c r="U51" s="17"/>
+      <c r="T51" s="27"/>
+      <c r="U51" s="27"/>
       <c r="W51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="17" t="s">
+      <c r="X51" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="17"/>
-      <c r="Z51" s="17"/>
-      <c r="AA51" s="17" t="s">
+      <c r="Y51" s="27"/>
+      <c r="Z51" s="27"/>
+      <c r="AA51" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB51" s="17"/>
-      <c r="AC51" s="17"/>
-      <c r="AD51" s="17" t="s">
+      <c r="AB51" s="27"/>
+      <c r="AC51" s="27"/>
+      <c r="AD51" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="17"/>
-      <c r="AF51" s="17"/>
+      <c r="AE51" s="27"/>
+      <c r="AF51" s="27"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="11"/>
@@ -4040,218 +4084,218 @@
       </c>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="18" t="s">
+      <c r="A55" s="28" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="18"/>
-      <c r="C55" s="18"/>
-      <c r="D55" s="18"/>
-      <c r="E55" s="18"/>
-      <c r="F55" s="18"/>
-      <c r="G55" s="18"/>
-      <c r="H55" s="18"/>
-      <c r="I55" s="18"/>
-      <c r="J55" s="18"/>
-      <c r="K55" s="18"/>
-      <c r="L55" s="18"/>
-      <c r="M55" s="18"/>
-      <c r="N55" s="18"/>
-      <c r="O55" s="18"/>
-      <c r="P55" s="18"/>
-      <c r="Q55" s="18"/>
-      <c r="R55" s="18"/>
-      <c r="S55" s="18"/>
-      <c r="T55" s="18"/>
-      <c r="U55" s="18"/>
-      <c r="V55" s="18"/>
-      <c r="W55" s="18"/>
-      <c r="X55" s="18"/>
-      <c r="Y55" s="18"/>
-      <c r="Z55" s="18"/>
-      <c r="AA55" s="18"/>
-      <c r="AB55" s="18"/>
-      <c r="AC55" s="18"/>
-      <c r="AD55" s="18"/>
-      <c r="AE55" s="18"/>
-      <c r="AF55" s="18"/>
+      <c r="B55" s="28"/>
+      <c r="C55" s="28"/>
+      <c r="D55" s="28"/>
+      <c r="E55" s="28"/>
+      <c r="F55" s="28"/>
+      <c r="G55" s="28"/>
+      <c r="H55" s="28"/>
+      <c r="I55" s="28"/>
+      <c r="J55" s="28"/>
+      <c r="K55" s="28"/>
+      <c r="L55" s="28"/>
+      <c r="M55" s="28"/>
+      <c r="N55" s="28"/>
+      <c r="O55" s="28"/>
+      <c r="P55" s="28"/>
+      <c r="Q55" s="28"/>
+      <c r="R55" s="28"/>
+      <c r="S55" s="28"/>
+      <c r="T55" s="28"/>
+      <c r="U55" s="28"/>
+      <c r="V55" s="28"/>
+      <c r="W55" s="28"/>
+      <c r="X55" s="28"/>
+      <c r="Y55" s="28"/>
+      <c r="Z55" s="28"/>
+      <c r="AA55" s="28"/>
+      <c r="AB55" s="28"/>
+      <c r="AC55" s="28"/>
+      <c r="AD55" s="28"/>
+      <c r="AE55" s="28"/>
+      <c r="AF55" s="28"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="18"/>
-      <c r="B56" s="18"/>
-      <c r="C56" s="18"/>
-      <c r="D56" s="18"/>
-      <c r="E56" s="18"/>
-      <c r="F56" s="18"/>
-      <c r="G56" s="18"/>
-      <c r="H56" s="18"/>
-      <c r="I56" s="18"/>
-      <c r="J56" s="18"/>
-      <c r="K56" s="18"/>
-      <c r="L56" s="18"/>
-      <c r="M56" s="18"/>
-      <c r="N56" s="18"/>
-      <c r="O56" s="18"/>
-      <c r="P56" s="18"/>
-      <c r="Q56" s="18"/>
-      <c r="R56" s="18"/>
-      <c r="S56" s="18"/>
-      <c r="T56" s="18"/>
-      <c r="U56" s="18"/>
-      <c r="V56" s="18"/>
-      <c r="W56" s="18"/>
-      <c r="X56" s="18"/>
-      <c r="Y56" s="18"/>
-      <c r="Z56" s="18"/>
-      <c r="AA56" s="18"/>
-      <c r="AB56" s="18"/>
-      <c r="AC56" s="18"/>
-      <c r="AD56" s="18"/>
-      <c r="AE56" s="18"/>
-      <c r="AF56" s="18"/>
+      <c r="A56" s="28"/>
+      <c r="B56" s="28"/>
+      <c r="C56" s="28"/>
+      <c r="D56" s="28"/>
+      <c r="E56" s="28"/>
+      <c r="F56" s="28"/>
+      <c r="G56" s="28"/>
+      <c r="H56" s="28"/>
+      <c r="I56" s="28"/>
+      <c r="J56" s="28"/>
+      <c r="K56" s="28"/>
+      <c r="L56" s="28"/>
+      <c r="M56" s="28"/>
+      <c r="N56" s="28"/>
+      <c r="O56" s="28"/>
+      <c r="P56" s="28"/>
+      <c r="Q56" s="28"/>
+      <c r="R56" s="28"/>
+      <c r="S56" s="28"/>
+      <c r="T56" s="28"/>
+      <c r="U56" s="28"/>
+      <c r="V56" s="28"/>
+      <c r="W56" s="28"/>
+      <c r="X56" s="28"/>
+      <c r="Y56" s="28"/>
+      <c r="Z56" s="28"/>
+      <c r="AA56" s="28"/>
+      <c r="AB56" s="28"/>
+      <c r="AC56" s="28"/>
+      <c r="AD56" s="28"/>
+      <c r="AE56" s="28"/>
+      <c r="AF56" s="28"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="17" t="s">
+      <c r="B58" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="17"/>
-      <c r="D58" s="17"/>
-      <c r="E58" s="17"/>
-      <c r="F58" s="17"/>
-      <c r="G58" s="17"/>
-      <c r="H58" s="17"/>
-      <c r="I58" s="17"/>
-      <c r="J58" s="17"/>
+      <c r="C58" s="27"/>
+      <c r="D58" s="27"/>
+      <c r="E58" s="27"/>
+      <c r="F58" s="27"/>
+      <c r="G58" s="27"/>
+      <c r="H58" s="27"/>
+      <c r="I58" s="27"/>
+      <c r="J58" s="27"/>
       <c r="L58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="17" t="s">
+      <c r="M58" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="17"/>
-      <c r="O58" s="17"/>
-      <c r="P58" s="17"/>
-      <c r="Q58" s="17"/>
-      <c r="R58" s="17"/>
-      <c r="S58" s="17"/>
-      <c r="T58" s="17"/>
-      <c r="U58" s="17"/>
+      <c r="N58" s="27"/>
+      <c r="O58" s="27"/>
+      <c r="P58" s="27"/>
+      <c r="Q58" s="27"/>
+      <c r="R58" s="27"/>
+      <c r="S58" s="27"/>
+      <c r="T58" s="27"/>
+      <c r="U58" s="27"/>
       <c r="W58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X58" s="17" t="s">
+      <c r="X58" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="17"/>
-      <c r="Z58" s="17"/>
-      <c r="AA58" s="17"/>
-      <c r="AB58" s="17"/>
-      <c r="AC58" s="17"/>
-      <c r="AD58" s="17"/>
-      <c r="AE58" s="17"/>
-      <c r="AF58" s="17"/>
+      <c r="Y58" s="27"/>
+      <c r="Z58" s="27"/>
+      <c r="AA58" s="27"/>
+      <c r="AB58" s="27"/>
+      <c r="AC58" s="27"/>
+      <c r="AD58" s="27"/>
+      <c r="AE58" s="27"/>
+      <c r="AF58" s="27"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="17" t="s">
+      <c r="B59" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="17"/>
-      <c r="D59" s="17"/>
-      <c r="E59" s="17"/>
-      <c r="F59" s="17"/>
-      <c r="G59" s="17"/>
-      <c r="H59" s="17"/>
-      <c r="I59" s="17"/>
-      <c r="J59" s="17"/>
+      <c r="C59" s="27"/>
+      <c r="D59" s="27"/>
+      <c r="E59" s="27"/>
+      <c r="F59" s="27"/>
+      <c r="G59" s="27"/>
+      <c r="H59" s="27"/>
+      <c r="I59" s="27"/>
+      <c r="J59" s="27"/>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="17" t="s">
+      <c r="M59" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="17"/>
-      <c r="O59" s="17"/>
-      <c r="P59" s="17"/>
-      <c r="Q59" s="17"/>
-      <c r="R59" s="17"/>
-      <c r="S59" s="17"/>
-      <c r="T59" s="17"/>
-      <c r="U59" s="17"/>
+      <c r="N59" s="27"/>
+      <c r="O59" s="27"/>
+      <c r="P59" s="27"/>
+      <c r="Q59" s="27"/>
+      <c r="R59" s="27"/>
+      <c r="S59" s="27"/>
+      <c r="T59" s="27"/>
+      <c r="U59" s="27"/>
       <c r="W59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="17" t="s">
+      <c r="X59" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="17"/>
-      <c r="Z59" s="17"/>
-      <c r="AA59" s="17"/>
-      <c r="AB59" s="17"/>
-      <c r="AC59" s="17"/>
-      <c r="AD59" s="17"/>
-      <c r="AE59" s="17"/>
-      <c r="AF59" s="17"/>
+      <c r="Y59" s="27"/>
+      <c r="Z59" s="27"/>
+      <c r="AA59" s="27"/>
+      <c r="AB59" s="27"/>
+      <c r="AC59" s="27"/>
+      <c r="AD59" s="27"/>
+      <c r="AE59" s="27"/>
+      <c r="AF59" s="27"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="19" t="s">
+      <c r="B60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="20"/>
-      <c r="D60" s="21"/>
-      <c r="E60" s="19" t="s">
+      <c r="C60" s="23"/>
+      <c r="D60" s="24"/>
+      <c r="E60" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="20"/>
-      <c r="G60" s="21"/>
-      <c r="H60" s="17" t="s">
+      <c r="F60" s="23"/>
+      <c r="G60" s="24"/>
+      <c r="H60" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="17"/>
-      <c r="J60" s="17"/>
+      <c r="I60" s="27"/>
+      <c r="J60" s="27"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="19" t="s">
+      <c r="M60" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="20"/>
-      <c r="O60" s="21"/>
-      <c r="P60" s="19" t="s">
+      <c r="N60" s="23"/>
+      <c r="O60" s="24"/>
+      <c r="P60" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="20"/>
-      <c r="R60" s="21"/>
-      <c r="S60" s="17" t="s">
+      <c r="Q60" s="23"/>
+      <c r="R60" s="24"/>
+      <c r="S60" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="17"/>
-      <c r="U60" s="17"/>
+      <c r="T60" s="27"/>
+      <c r="U60" s="27"/>
       <c r="W60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="17" t="s">
+      <c r="X60" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="17"/>
-      <c r="Z60" s="17"/>
-      <c r="AA60" s="17" t="s">
+      <c r="Y60" s="27"/>
+      <c r="Z60" s="27"/>
+      <c r="AA60" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB60" s="17"/>
-      <c r="AC60" s="17"/>
-      <c r="AD60" s="17" t="s">
+      <c r="AB60" s="27"/>
+      <c r="AC60" s="27"/>
+      <c r="AD60" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE60" s="17"/>
-      <c r="AF60" s="17"/>
+      <c r="AE60" s="27"/>
+      <c r="AF60" s="27"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="11"/>
@@ -5380,145 +5424,145 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="17" t="s">
+      <c r="B74" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="17"/>
-      <c r="D74" s="17"/>
-      <c r="E74" s="17"/>
-      <c r="F74" s="17"/>
-      <c r="G74" s="17"/>
-      <c r="H74" s="17"/>
-      <c r="I74" s="17"/>
-      <c r="J74" s="17"/>
+      <c r="C74" s="27"/>
+      <c r="D74" s="27"/>
+      <c r="E74" s="27"/>
+      <c r="F74" s="27"/>
+      <c r="G74" s="27"/>
+      <c r="H74" s="27"/>
+      <c r="I74" s="27"/>
+      <c r="J74" s="27"/>
       <c r="L74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="17" t="s">
+      <c r="M74" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="17"/>
-      <c r="O74" s="17"/>
-      <c r="P74" s="17"/>
-      <c r="Q74" s="17"/>
-      <c r="R74" s="17"/>
-      <c r="S74" s="17"/>
-      <c r="T74" s="17"/>
-      <c r="U74" s="17"/>
+      <c r="N74" s="27"/>
+      <c r="O74" s="27"/>
+      <c r="P74" s="27"/>
+      <c r="Q74" s="27"/>
+      <c r="R74" s="27"/>
+      <c r="S74" s="27"/>
+      <c r="T74" s="27"/>
+      <c r="U74" s="27"/>
       <c r="W74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="17" t="s">
+      <c r="X74" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="17"/>
-      <c r="Z74" s="17"/>
-      <c r="AA74" s="17"/>
-      <c r="AB74" s="17"/>
-      <c r="AC74" s="17"/>
-      <c r="AD74" s="17"/>
-      <c r="AE74" s="17"/>
-      <c r="AF74" s="17"/>
+      <c r="Y74" s="27"/>
+      <c r="Z74" s="27"/>
+      <c r="AA74" s="27"/>
+      <c r="AB74" s="27"/>
+      <c r="AC74" s="27"/>
+      <c r="AD74" s="27"/>
+      <c r="AE74" s="27"/>
+      <c r="AF74" s="27"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="17" t="s">
+      <c r="B75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="17"/>
-      <c r="D75" s="17"/>
-      <c r="E75" s="17"/>
-      <c r="F75" s="17"/>
-      <c r="G75" s="17"/>
-      <c r="H75" s="17"/>
-      <c r="I75" s="17"/>
-      <c r="J75" s="17"/>
+      <c r="C75" s="27"/>
+      <c r="D75" s="27"/>
+      <c r="E75" s="27"/>
+      <c r="F75" s="27"/>
+      <c r="G75" s="27"/>
+      <c r="H75" s="27"/>
+      <c r="I75" s="27"/>
+      <c r="J75" s="27"/>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="17" t="s">
+      <c r="M75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="17"/>
-      <c r="O75" s="17"/>
-      <c r="P75" s="17"/>
-      <c r="Q75" s="17"/>
-      <c r="R75" s="17"/>
-      <c r="S75" s="17"/>
-      <c r="T75" s="17"/>
-      <c r="U75" s="17"/>
+      <c r="N75" s="27"/>
+      <c r="O75" s="27"/>
+      <c r="P75" s="27"/>
+      <c r="Q75" s="27"/>
+      <c r="R75" s="27"/>
+      <c r="S75" s="27"/>
+      <c r="T75" s="27"/>
+      <c r="U75" s="27"/>
       <c r="W75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X75" s="17" t="s">
+      <c r="X75" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="17"/>
-      <c r="Z75" s="17"/>
-      <c r="AA75" s="17"/>
-      <c r="AB75" s="17"/>
-      <c r="AC75" s="17"/>
-      <c r="AD75" s="17"/>
-      <c r="AE75" s="17"/>
-      <c r="AF75" s="17"/>
+      <c r="Y75" s="27"/>
+      <c r="Z75" s="27"/>
+      <c r="AA75" s="27"/>
+      <c r="AB75" s="27"/>
+      <c r="AC75" s="27"/>
+      <c r="AD75" s="27"/>
+      <c r="AE75" s="27"/>
+      <c r="AF75" s="27"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="19" t="s">
+      <c r="B76" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="20"/>
-      <c r="D76" s="21"/>
-      <c r="E76" s="19" t="s">
+      <c r="C76" s="23"/>
+      <c r="D76" s="24"/>
+      <c r="E76" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="20"/>
-      <c r="G76" s="21"/>
-      <c r="H76" s="17" t="s">
+      <c r="F76" s="23"/>
+      <c r="G76" s="24"/>
+      <c r="H76" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="17"/>
-      <c r="J76" s="17"/>
+      <c r="I76" s="27"/>
+      <c r="J76" s="27"/>
       <c r="L76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="17" t="s">
+      <c r="M76" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="17"/>
-      <c r="O76" s="17"/>
-      <c r="P76" s="17" t="s">
+      <c r="N76" s="27"/>
+      <c r="O76" s="27"/>
+      <c r="P76" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q76" s="17"/>
-      <c r="R76" s="17"/>
-      <c r="S76" s="17" t="s">
+      <c r="Q76" s="27"/>
+      <c r="R76" s="27"/>
+      <c r="S76" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T76" s="17"/>
-      <c r="U76" s="17"/>
+      <c r="T76" s="27"/>
+      <c r="U76" s="27"/>
       <c r="W76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="17" t="s">
+      <c r="X76" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="17"/>
-      <c r="Z76" s="17"/>
-      <c r="AA76" s="17" t="s">
+      <c r="Y76" s="27"/>
+      <c r="Z76" s="27"/>
+      <c r="AA76" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB76" s="17"/>
-      <c r="AC76" s="17"/>
-      <c r="AD76" s="17" t="s">
+      <c r="AB76" s="27"/>
+      <c r="AC76" s="27"/>
+      <c r="AD76" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE76" s="17"/>
-      <c r="AF76" s="17"/>
+      <c r="AE76" s="27"/>
+      <c r="AF76" s="27"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="11"/>
@@ -5697,218 +5741,218 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="18" t="s">
+      <c r="A80" s="28" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="18"/>
-      <c r="C80" s="18"/>
-      <c r="D80" s="18"/>
-      <c r="E80" s="18"/>
-      <c r="F80" s="18"/>
-      <c r="G80" s="18"/>
-      <c r="H80" s="18"/>
-      <c r="I80" s="18"/>
-      <c r="J80" s="18"/>
-      <c r="K80" s="18"/>
-      <c r="L80" s="18"/>
-      <c r="M80" s="18"/>
-      <c r="N80" s="18"/>
-      <c r="O80" s="18"/>
-      <c r="P80" s="18"/>
-      <c r="Q80" s="18"/>
-      <c r="R80" s="18"/>
-      <c r="S80" s="18"/>
-      <c r="T80" s="18"/>
-      <c r="U80" s="18"/>
-      <c r="V80" s="18"/>
-      <c r="W80" s="18"/>
-      <c r="X80" s="18"/>
-      <c r="Y80" s="18"/>
-      <c r="Z80" s="18"/>
-      <c r="AA80" s="18"/>
-      <c r="AB80" s="18"/>
-      <c r="AC80" s="18"/>
-      <c r="AD80" s="18"/>
-      <c r="AE80" s="18"/>
-      <c r="AF80" s="18"/>
+      <c r="B80" s="28"/>
+      <c r="C80" s="28"/>
+      <c r="D80" s="28"/>
+      <c r="E80" s="28"/>
+      <c r="F80" s="28"/>
+      <c r="G80" s="28"/>
+      <c r="H80" s="28"/>
+      <c r="I80" s="28"/>
+      <c r="J80" s="28"/>
+      <c r="K80" s="28"/>
+      <c r="L80" s="28"/>
+      <c r="M80" s="28"/>
+      <c r="N80" s="28"/>
+      <c r="O80" s="28"/>
+      <c r="P80" s="28"/>
+      <c r="Q80" s="28"/>
+      <c r="R80" s="28"/>
+      <c r="S80" s="28"/>
+      <c r="T80" s="28"/>
+      <c r="U80" s="28"/>
+      <c r="V80" s="28"/>
+      <c r="W80" s="28"/>
+      <c r="X80" s="28"/>
+      <c r="Y80" s="28"/>
+      <c r="Z80" s="28"/>
+      <c r="AA80" s="28"/>
+      <c r="AB80" s="28"/>
+      <c r="AC80" s="28"/>
+      <c r="AD80" s="28"/>
+      <c r="AE80" s="28"/>
+      <c r="AF80" s="28"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="18"/>
-      <c r="B81" s="18"/>
-      <c r="C81" s="18"/>
-      <c r="D81" s="18"/>
-      <c r="E81" s="18"/>
-      <c r="F81" s="18"/>
-      <c r="G81" s="18"/>
-      <c r="H81" s="18"/>
-      <c r="I81" s="18"/>
-      <c r="J81" s="18"/>
-      <c r="K81" s="18"/>
-      <c r="L81" s="18"/>
-      <c r="M81" s="18"/>
-      <c r="N81" s="18"/>
-      <c r="O81" s="18"/>
-      <c r="P81" s="18"/>
-      <c r="Q81" s="18"/>
-      <c r="R81" s="18"/>
-      <c r="S81" s="18"/>
-      <c r="T81" s="18"/>
-      <c r="U81" s="18"/>
-      <c r="V81" s="18"/>
-      <c r="W81" s="18"/>
-      <c r="X81" s="18"/>
-      <c r="Y81" s="18"/>
-      <c r="Z81" s="18"/>
-      <c r="AA81" s="18"/>
-      <c r="AB81" s="18"/>
-      <c r="AC81" s="18"/>
-      <c r="AD81" s="18"/>
-      <c r="AE81" s="18"/>
-      <c r="AF81" s="18"/>
+      <c r="A81" s="28"/>
+      <c r="B81" s="28"/>
+      <c r="C81" s="28"/>
+      <c r="D81" s="28"/>
+      <c r="E81" s="28"/>
+      <c r="F81" s="28"/>
+      <c r="G81" s="28"/>
+      <c r="H81" s="28"/>
+      <c r="I81" s="28"/>
+      <c r="J81" s="28"/>
+      <c r="K81" s="28"/>
+      <c r="L81" s="28"/>
+      <c r="M81" s="28"/>
+      <c r="N81" s="28"/>
+      <c r="O81" s="28"/>
+      <c r="P81" s="28"/>
+      <c r="Q81" s="28"/>
+      <c r="R81" s="28"/>
+      <c r="S81" s="28"/>
+      <c r="T81" s="28"/>
+      <c r="U81" s="28"/>
+      <c r="V81" s="28"/>
+      <c r="W81" s="28"/>
+      <c r="X81" s="28"/>
+      <c r="Y81" s="28"/>
+      <c r="Z81" s="28"/>
+      <c r="AA81" s="28"/>
+      <c r="AB81" s="28"/>
+      <c r="AC81" s="28"/>
+      <c r="AD81" s="28"/>
+      <c r="AE81" s="28"/>
+      <c r="AF81" s="28"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="17" t="s">
+      <c r="B83" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="17"/>
-      <c r="D83" s="17"/>
-      <c r="E83" s="17"/>
-      <c r="F83" s="17"/>
-      <c r="G83" s="17"/>
-      <c r="H83" s="17"/>
-      <c r="I83" s="17"/>
-      <c r="J83" s="17"/>
+      <c r="C83" s="27"/>
+      <c r="D83" s="27"/>
+      <c r="E83" s="27"/>
+      <c r="F83" s="27"/>
+      <c r="G83" s="27"/>
+      <c r="H83" s="27"/>
+      <c r="I83" s="27"/>
+      <c r="J83" s="27"/>
       <c r="L83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M83" s="17" t="s">
+      <c r="M83" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="17"/>
-      <c r="O83" s="17"/>
-      <c r="P83" s="17"/>
-      <c r="Q83" s="17"/>
-      <c r="R83" s="17"/>
-      <c r="S83" s="17"/>
-      <c r="T83" s="17"/>
-      <c r="U83" s="17"/>
+      <c r="N83" s="27"/>
+      <c r="O83" s="27"/>
+      <c r="P83" s="27"/>
+      <c r="Q83" s="27"/>
+      <c r="R83" s="27"/>
+      <c r="S83" s="27"/>
+      <c r="T83" s="27"/>
+      <c r="U83" s="27"/>
       <c r="W83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X83" s="17" t="s">
+      <c r="X83" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y83" s="17"/>
-      <c r="Z83" s="17"/>
-      <c r="AA83" s="17"/>
-      <c r="AB83" s="17"/>
-      <c r="AC83" s="17"/>
-      <c r="AD83" s="17"/>
-      <c r="AE83" s="17"/>
-      <c r="AF83" s="17"/>
+      <c r="Y83" s="27"/>
+      <c r="Z83" s="27"/>
+      <c r="AA83" s="27"/>
+      <c r="AB83" s="27"/>
+      <c r="AC83" s="27"/>
+      <c r="AD83" s="27"/>
+      <c r="AE83" s="27"/>
+      <c r="AF83" s="27"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="17" t="s">
+      <c r="B84" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="17"/>
-      <c r="D84" s="17"/>
-      <c r="E84" s="17"/>
-      <c r="F84" s="17"/>
-      <c r="G84" s="17"/>
-      <c r="H84" s="17"/>
-      <c r="I84" s="17"/>
-      <c r="J84" s="17"/>
+      <c r="C84" s="27"/>
+      <c r="D84" s="27"/>
+      <c r="E84" s="27"/>
+      <c r="F84" s="27"/>
+      <c r="G84" s="27"/>
+      <c r="H84" s="27"/>
+      <c r="I84" s="27"/>
+      <c r="J84" s="27"/>
       <c r="L84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="17" t="s">
+      <c r="M84" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="N84" s="17"/>
-      <c r="O84" s="17"/>
-      <c r="P84" s="17"/>
-      <c r="Q84" s="17"/>
-      <c r="R84" s="17"/>
-      <c r="S84" s="17"/>
-      <c r="T84" s="17"/>
-      <c r="U84" s="17"/>
+      <c r="N84" s="27"/>
+      <c r="O84" s="27"/>
+      <c r="P84" s="27"/>
+      <c r="Q84" s="27"/>
+      <c r="R84" s="27"/>
+      <c r="S84" s="27"/>
+      <c r="T84" s="27"/>
+      <c r="U84" s="27"/>
       <c r="W84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X84" s="17" t="s">
+      <c r="X84" s="27" t="s">
         <v>3</v>
       </c>
-      <c r="Y84" s="17"/>
-      <c r="Z84" s="17"/>
-      <c r="AA84" s="17"/>
-      <c r="AB84" s="17"/>
-      <c r="AC84" s="17"/>
-      <c r="AD84" s="17"/>
-      <c r="AE84" s="17"/>
-      <c r="AF84" s="17"/>
+      <c r="Y84" s="27"/>
+      <c r="Z84" s="27"/>
+      <c r="AA84" s="27"/>
+      <c r="AB84" s="27"/>
+      <c r="AC84" s="27"/>
+      <c r="AD84" s="27"/>
+      <c r="AE84" s="27"/>
+      <c r="AF84" s="27"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="17" t="s">
+      <c r="B85" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="17"/>
-      <c r="D85" s="17"/>
-      <c r="E85" s="17" t="s">
+      <c r="C85" s="27"/>
+      <c r="D85" s="27"/>
+      <c r="E85" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="17"/>
-      <c r="G85" s="17"/>
-      <c r="H85" s="17" t="s">
+      <c r="F85" s="27"/>
+      <c r="G85" s="27"/>
+      <c r="H85" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="17"/>
-      <c r="J85" s="17"/>
+      <c r="I85" s="27"/>
+      <c r="J85" s="27"/>
       <c r="L85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M85" s="17" t="s">
+      <c r="M85" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="17"/>
-      <c r="O85" s="17"/>
-      <c r="P85" s="17" t="s">
+      <c r="N85" s="27"/>
+      <c r="O85" s="27"/>
+      <c r="P85" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="17"/>
-      <c r="R85" s="17"/>
-      <c r="S85" s="17" t="s">
+      <c r="Q85" s="27"/>
+      <c r="R85" s="27"/>
+      <c r="S85" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="17"/>
-      <c r="U85" s="17"/>
+      <c r="T85" s="27"/>
+      <c r="U85" s="27"/>
       <c r="W85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="17" t="s">
+      <c r="X85" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="17"/>
-      <c r="Z85" s="17"/>
-      <c r="AA85" s="17" t="s">
+      <c r="Y85" s="27"/>
+      <c r="Z85" s="27"/>
+      <c r="AA85" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB85" s="17"/>
-      <c r="AC85" s="17"/>
-      <c r="AD85" s="17" t="s">
+      <c r="AB85" s="27"/>
+      <c r="AC85" s="27"/>
+      <c r="AD85" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="17"/>
-      <c r="AF85" s="17"/>
+      <c r="AE85" s="27"/>
+      <c r="AF85" s="27"/>
     </row>
     <row r="86" spans="1:32">
       <c r="B86" s="1" t="s">
@@ -7036,145 +7080,145 @@
       <c r="A99" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="17" t="s">
+      <c r="B99" s="27" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="17"/>
-      <c r="D99" s="17"/>
-      <c r="E99" s="17"/>
-      <c r="F99" s="17"/>
-      <c r="G99" s="17"/>
-      <c r="H99" s="17"/>
-      <c r="I99" s="17"/>
-      <c r="J99" s="17"/>
+      <c r="C99" s="27"/>
+      <c r="D99" s="27"/>
+      <c r="E99" s="27"/>
+      <c r="F99" s="27"/>
+      <c r="G99" s="27"/>
+      <c r="H99" s="27"/>
+      <c r="I99" s="27"/>
+      <c r="J99" s="27"/>
       <c r="L99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M99" s="17" t="s">
+      <c r="M99" s="27" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="17"/>
-      <c r="O99" s="17"/>
-      <c r="P99" s="17"/>
-      <c r="Q99" s="17"/>
-      <c r="R99" s="17"/>
-      <c r="S99" s="17"/>
-      <c r="T99" s="17"/>
-      <c r="U99" s="17"/>
+      <c r="N99" s="27"/>
+      <c r="O99" s="27"/>
+      <c r="P99" s="27"/>
+      <c r="Q99" s="27"/>
+      <c r="R99" s="27"/>
+      <c r="S99" s="27"/>
+      <c r="T99" s="27"/>
+      <c r="U99" s="27"/>
       <c r="W99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X99" s="17" t="s">
+      <c r="X99" s="27" t="s">
         <v>28</v>
       </c>
-      <c r="Y99" s="17"/>
-      <c r="Z99" s="17"/>
-      <c r="AA99" s="17"/>
-      <c r="AB99" s="17"/>
-      <c r="AC99" s="17"/>
-      <c r="AD99" s="17"/>
-      <c r="AE99" s="17"/>
-      <c r="AF99" s="17"/>
+      <c r="Y99" s="27"/>
+      <c r="Z99" s="27"/>
+      <c r="AA99" s="27"/>
+      <c r="AB99" s="27"/>
+      <c r="AC99" s="27"/>
+      <c r="AD99" s="27"/>
+      <c r="AE99" s="27"/>
+      <c r="AF99" s="27"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="17" t="s">
+      <c r="B100" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="17"/>
-      <c r="D100" s="17"/>
-      <c r="E100" s="17"/>
-      <c r="F100" s="17"/>
-      <c r="G100" s="17"/>
-      <c r="H100" s="17"/>
-      <c r="I100" s="17"/>
-      <c r="J100" s="17"/>
+      <c r="C100" s="27"/>
+      <c r="D100" s="27"/>
+      <c r="E100" s="27"/>
+      <c r="F100" s="27"/>
+      <c r="G100" s="27"/>
+      <c r="H100" s="27"/>
+      <c r="I100" s="27"/>
+      <c r="J100" s="27"/>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="17" t="s">
+      <c r="M100" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="17"/>
-      <c r="O100" s="17"/>
-      <c r="P100" s="17"/>
-      <c r="Q100" s="17"/>
-      <c r="R100" s="17"/>
-      <c r="S100" s="17"/>
-      <c r="T100" s="17"/>
-      <c r="U100" s="17"/>
+      <c r="N100" s="27"/>
+      <c r="O100" s="27"/>
+      <c r="P100" s="27"/>
+      <c r="Q100" s="27"/>
+      <c r="R100" s="27"/>
+      <c r="S100" s="27"/>
+      <c r="T100" s="27"/>
+      <c r="U100" s="27"/>
       <c r="W100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X100" s="17" t="s">
+      <c r="X100" s="27" t="s">
         <v>22</v>
       </c>
-      <c r="Y100" s="17"/>
-      <c r="Z100" s="17"/>
-      <c r="AA100" s="17"/>
-      <c r="AB100" s="17"/>
-      <c r="AC100" s="17"/>
-      <c r="AD100" s="17"/>
-      <c r="AE100" s="17"/>
-      <c r="AF100" s="17"/>
+      <c r="Y100" s="27"/>
+      <c r="Z100" s="27"/>
+      <c r="AA100" s="27"/>
+      <c r="AB100" s="27"/>
+      <c r="AC100" s="27"/>
+      <c r="AD100" s="27"/>
+      <c r="AE100" s="27"/>
+      <c r="AF100" s="27"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="17" t="s">
+      <c r="B101" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="17"/>
-      <c r="D101" s="17"/>
-      <c r="E101" s="17" t="s">
+      <c r="C101" s="27"/>
+      <c r="D101" s="27"/>
+      <c r="E101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="17"/>
-      <c r="G101" s="17"/>
-      <c r="H101" s="17" t="s">
+      <c r="F101" s="27"/>
+      <c r="G101" s="27"/>
+      <c r="H101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="17"/>
-      <c r="J101" s="17"/>
+      <c r="I101" s="27"/>
+      <c r="J101" s="27"/>
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="19" t="s">
+      <c r="M101" s="22" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="20"/>
-      <c r="O101" s="21"/>
-      <c r="P101" s="19" t="s">
+      <c r="N101" s="23"/>
+      <c r="O101" s="24"/>
+      <c r="P101" s="22" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="20"/>
-      <c r="R101" s="21"/>
-      <c r="S101" s="17" t="s">
+      <c r="Q101" s="23"/>
+      <c r="R101" s="24"/>
+      <c r="S101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="17"/>
-      <c r="U101" s="17"/>
+      <c r="T101" s="27"/>
+      <c r="U101" s="27"/>
       <c r="W101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="17" t="s">
+      <c r="X101" s="27" t="s">
         <v>5</v>
       </c>
-      <c r="Y101" s="17"/>
-      <c r="Z101" s="17"/>
-      <c r="AA101" s="17" t="s">
+      <c r="Y101" s="27"/>
+      <c r="Z101" s="27"/>
+      <c r="AA101" s="27" t="s">
         <v>6</v>
       </c>
-      <c r="AB101" s="17"/>
-      <c r="AC101" s="17"/>
-      <c r="AD101" s="17" t="s">
+      <c r="AB101" s="27"/>
+      <c r="AC101" s="27"/>
+      <c r="AD101" s="27" t="s">
         <v>7</v>
       </c>
-      <c r="AE101" s="17"/>
-      <c r="AF101" s="17"/>
+      <c r="AE101" s="27"/>
+      <c r="AF101" s="27"/>
     </row>
     <row r="102" spans="1:32">
       <c r="B102" s="1" t="s">
@@ -7353,28 +7397,84 @@
     </row>
   </sheetData>
   <mergeCells count="124">
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="X101:Z101"/>
+    <mergeCell ref="AA101:AC101"/>
+    <mergeCell ref="AD101:AF101"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="A80:AF81"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:U101"/>
+    <mergeCell ref="X83:AF83"/>
+    <mergeCell ref="X84:AF84"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="X99:AF99"/>
+    <mergeCell ref="X100:AF100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="M83:U83"/>
+    <mergeCell ref="M84:U84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="M99:U99"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="A55:AF56"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="X49:AF49"/>
+    <mergeCell ref="X50:AF50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="X58:AF58"/>
+    <mergeCell ref="X59:AF59"/>
+    <mergeCell ref="X60:Z60"/>
     <mergeCell ref="B32:J32"/>
     <mergeCell ref="B33:D33"/>
     <mergeCell ref="E33:G33"/>
@@ -7399,84 +7499,28 @@
     <mergeCell ref="X33:Z33"/>
     <mergeCell ref="AA33:AC33"/>
     <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="A55:AF56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="X49:AF49"/>
-    <mergeCell ref="X50:AF50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="X58:AF58"/>
-    <mergeCell ref="X59:AF59"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="X101:Z101"/>
-    <mergeCell ref="AA101:AC101"/>
-    <mergeCell ref="AD101:AF101"/>
-    <mergeCell ref="A1:AF2"/>
-    <mergeCell ref="A80:AF81"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:U101"/>
-    <mergeCell ref="X83:AF83"/>
-    <mergeCell ref="X84:AF84"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="X99:AF99"/>
-    <mergeCell ref="X100:AF100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="M83:U83"/>
-    <mergeCell ref="M84:U84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="M99:U99"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="X22:AF22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7491,36 +7535,36 @@
       <selection activeCell="M2" sqref="M2:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
-    <col min="1" max="1" width="12.5703125" customWidth="1"/>
+    <col min="1" max="1" width="12.54296875" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="24" t="s">
+      <c r="A2" s="29" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="24"/>
-      <c r="C2" s="24"/>
-      <c r="D2" s="24"/>
-      <c r="E2" s="24" t="s">
+      <c r="B2" s="29"/>
+      <c r="C2" s="29"/>
+      <c r="D2" s="29"/>
+      <c r="E2" s="29" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="24"/>
-      <c r="G2" s="24"/>
-      <c r="H2" s="24"/>
-      <c r="I2" s="24" t="s">
+      <c r="F2" s="29"/>
+      <c r="G2" s="29"/>
+      <c r="H2" s="29"/>
+      <c r="I2" s="29" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="24"/>
-      <c r="K2" s="24"/>
-      <c r="L2" s="24"/>
-      <c r="M2" s="24" t="s">
+      <c r="J2" s="29"/>
+      <c r="K2" s="29"/>
+      <c r="L2" s="29"/>
+      <c r="M2" s="29" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="24"/>
-      <c r="O2" s="24"/>
-      <c r="P2" s="24"/>
+      <c r="N2" s="29"/>
+      <c r="O2" s="29"/>
+      <c r="P2" s="29"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -7576,35 +7620,35 @@
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="17" t="s">
+      <c r="B4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="17"/>
-      <c r="D4" s="17"/>
+      <c r="C4" s="27"/>
+      <c r="D4" s="27"/>
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="17" t="s">
+      <c r="F4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="17"/>
-      <c r="H4" s="17"/>
+      <c r="G4" s="27"/>
+      <c r="H4" s="27"/>
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="17" t="s">
+      <c r="J4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="17"/>
-      <c r="L4" s="17"/>
+      <c r="K4" s="27"/>
+      <c r="L4" s="27"/>
       <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="17" t="s">
+      <c r="N4" s="27" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="17"/>
-      <c r="P4" s="17"/>
+      <c r="O4" s="27"/>
+      <c r="P4" s="27"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -8110,66 +8154,66 @@
       <c r="A15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="B15" s="25">
+      <c r="B15" s="20">
         <f>AVERAGE(B5:B14)</f>
         <v>25.574999999999999</v>
       </c>
-      <c r="C15" s="25">
+      <c r="C15" s="20">
         <f>AVERAGE(C5:C14)</f>
         <v>6.8840000000000003</v>
       </c>
-      <c r="D15" s="25">
+      <c r="D15" s="20">
         <f>AVERAGE(D5:D14)</f>
         <v>1.623</v>
       </c>
       <c r="E15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="F15" s="25">
+      <c r="F15" s="20">
         <f>AVERAGE(F5:F14)</f>
         <v>15.696999999999999</v>
       </c>
-      <c r="G15" s="25">
+      <c r="G15" s="20">
         <f>AVERAGE(G5:G14)</f>
         <v>5.6639999999999997</v>
       </c>
-      <c r="H15" s="25">
+      <c r="H15" s="20">
         <f>AVERAGE(H5:H14)</f>
         <v>2.2929999999999997</v>
       </c>
       <c r="I15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="J15" s="25">
+      <c r="J15" s="20">
         <f>AVERAGE(J5:J14)</f>
         <v>33.346999999999994</v>
       </c>
-      <c r="K15" s="25">
+      <c r="K15" s="20">
         <f>AVERAGE(K5:K14)</f>
         <v>0.68200000000000005</v>
       </c>
-      <c r="L15" s="25">
+      <c r="L15" s="20">
         <f>AVERAGE(L5:L14)</f>
         <v>0.73599999999999999</v>
       </c>
       <c r="M15" s="1" t="s">
         <v>38</v>
       </c>
-      <c r="N15" s="25">
+      <c r="N15" s="20">
         <f>AVERAGE(N5:N14)</f>
         <v>23.876000000000001</v>
       </c>
-      <c r="O15" s="25">
+      <c r="O15" s="20">
         <f>AVERAGE(O5:O14)</f>
         <v>7.484</v>
       </c>
-      <c r="P15" s="25">
+      <c r="P15" s="20">
         <f>AVERAGE(P5:P14)</f>
         <v>2.726</v>
       </c>
     </row>
     <row r="16" spans="1:16" ht="42" customHeight="1">
-      <c r="A16" s="26" t="s">
+      <c r="A16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="B16" s="1">
@@ -8181,7 +8225,7 @@
       <c r="D16" s="1">
         <v>1.7</v>
       </c>
-      <c r="E16" s="26" t="s">
+      <c r="E16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="F16" s="1">
@@ -8193,7 +8237,7 @@
       <c r="H16" s="1">
         <v>1.4950000000000001</v>
       </c>
-      <c r="I16" s="26" t="s">
+      <c r="I16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="J16" s="1">
@@ -8205,7 +8249,7 @@
       <c r="L16" s="1">
         <v>1.3979999999999999</v>
       </c>
-      <c r="M16" s="26" t="s">
+      <c r="M16" s="21" t="s">
         <v>39</v>
       </c>
       <c r="N16" s="1">
@@ -8235,12 +8279,2917 @@
 
 <file path=xl/worksheets/sheet3.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1"/>
+  <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView workbookViewId="0"/>
+    <sheetView tabSelected="1" topLeftCell="V28" workbookViewId="0">
+      <selection activeCell="AG31" sqref="AG31:AG41"/>
+    </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15"/>
-  <sheetData/>
+  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetData>
+    <row r="1" spans="1:33">
+      <c r="A1" s="31" t="s">
+        <v>40</v>
+      </c>
+      <c r="B1" s="31">
+        <f>50*50</f>
+        <v>2500</v>
+      </c>
+    </row>
+    <row r="2" spans="1:33">
+      <c r="A2" s="31" t="s">
+        <v>41</v>
+      </c>
+      <c r="B2" s="31">
+        <f>100*100</f>
+        <v>10000</v>
+      </c>
+      <c r="C2" s="31"/>
+      <c r="D2" s="31"/>
+      <c r="E2" s="31"/>
+      <c r="F2" s="31"/>
+      <c r="G2" s="31"/>
+      <c r="H2" s="31"/>
+      <c r="I2" s="31"/>
+      <c r="J2" s="31"/>
+      <c r="K2" s="31"/>
+      <c r="L2" s="31"/>
+      <c r="M2" s="31"/>
+      <c r="N2" s="31"/>
+      <c r="O2" s="31"/>
+      <c r="P2" s="31"/>
+      <c r="Q2" s="31"/>
+      <c r="R2" s="31"/>
+      <c r="S2" s="31"/>
+      <c r="T2" s="31"/>
+      <c r="U2" s="31"/>
+      <c r="V2" s="31"/>
+      <c r="W2" s="31"/>
+      <c r="X2" s="31"/>
+      <c r="Y2" s="31"/>
+      <c r="Z2" s="31"/>
+      <c r="AA2" s="31"/>
+      <c r="AB2" s="31"/>
+      <c r="AC2" s="31"/>
+      <c r="AD2" s="31"/>
+      <c r="AE2" s="31"/>
+      <c r="AF2" s="31"/>
+      <c r="AG2" s="31"/>
+    </row>
+    <row r="3" spans="1:33">
+      <c r="A3" s="31" t="s">
+        <v>42</v>
+      </c>
+      <c r="B3" s="31">
+        <f>200*200</f>
+        <v>40000</v>
+      </c>
+      <c r="C3" s="31"/>
+      <c r="D3" s="31"/>
+      <c r="E3" s="31"/>
+      <c r="F3" s="31"/>
+      <c r="G3" s="31"/>
+      <c r="H3" s="31"/>
+      <c r="I3" s="31"/>
+      <c r="J3" s="31"/>
+      <c r="K3" s="31"/>
+      <c r="L3" s="31"/>
+      <c r="M3" s="31"/>
+      <c r="N3" s="31"/>
+      <c r="O3" s="31"/>
+      <c r="P3" s="31"/>
+      <c r="Q3" s="31"/>
+      <c r="R3" s="31"/>
+      <c r="S3" s="31"/>
+      <c r="T3" s="31"/>
+      <c r="U3" s="31"/>
+      <c r="V3" s="31"/>
+      <c r="W3" s="31"/>
+      <c r="X3" s="31"/>
+      <c r="Y3" s="31"/>
+      <c r="Z3" s="31"/>
+      <c r="AA3" s="31"/>
+      <c r="AB3" s="31"/>
+      <c r="AC3" s="31"/>
+      <c r="AD3" s="31"/>
+      <c r="AE3" s="31"/>
+      <c r="AF3" s="31"/>
+      <c r="AG3" s="31"/>
+    </row>
+    <row r="4" spans="1:33">
+      <c r="C4" s="31"/>
+      <c r="D4" s="31"/>
+      <c r="E4" s="31"/>
+      <c r="F4" s="31"/>
+      <c r="G4" s="31"/>
+      <c r="H4" s="31"/>
+      <c r="I4" s="31"/>
+      <c r="J4" s="31"/>
+      <c r="K4" s="31"/>
+      <c r="L4" s="31"/>
+      <c r="M4" s="31"/>
+      <c r="N4" s="31"/>
+      <c r="O4" s="31"/>
+      <c r="P4" s="31"/>
+      <c r="Q4" s="31"/>
+      <c r="R4" s="31"/>
+      <c r="S4" s="31"/>
+      <c r="T4" s="31"/>
+      <c r="U4" s="31"/>
+      <c r="V4" s="31"/>
+      <c r="W4" s="31"/>
+      <c r="X4" s="31"/>
+      <c r="Y4" s="31"/>
+      <c r="Z4" s="31"/>
+      <c r="AA4" s="31"/>
+      <c r="AB4" s="31"/>
+      <c r="AC4" s="31"/>
+      <c r="AD4" s="31"/>
+      <c r="AE4" s="31"/>
+      <c r="AF4" s="31"/>
+      <c r="AG4" s="31"/>
+    </row>
+    <row r="5" spans="1:33">
+      <c r="B5" s="6" t="s">
+        <v>0</v>
+      </c>
+      <c r="C5" s="22" t="s">
+        <v>1</v>
+      </c>
+      <c r="D5" s="23"/>
+      <c r="E5" s="23"/>
+      <c r="F5" s="23"/>
+      <c r="G5" s="23"/>
+      <c r="H5" s="23"/>
+      <c r="I5" s="23"/>
+      <c r="J5" s="23"/>
+      <c r="K5" s="24"/>
+      <c r="M5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N5" s="22" t="s">
+        <v>26</v>
+      </c>
+      <c r="O5" s="23"/>
+      <c r="P5" s="23"/>
+      <c r="Q5" s="23"/>
+      <c r="R5" s="23"/>
+      <c r="S5" s="23"/>
+      <c r="T5" s="23"/>
+      <c r="U5" s="23"/>
+      <c r="V5" s="24"/>
+      <c r="X5" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y5" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z5" s="23"/>
+      <c r="AA5" s="23"/>
+      <c r="AB5" s="23"/>
+      <c r="AC5" s="23"/>
+      <c r="AD5" s="23"/>
+      <c r="AE5" s="23"/>
+      <c r="AF5" s="23"/>
+      <c r="AG5" s="24"/>
+    </row>
+    <row r="6" spans="1:33">
+      <c r="B6" s="7" t="s">
+        <v>2</v>
+      </c>
+      <c r="C6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="D6" s="23"/>
+      <c r="E6" s="23"/>
+      <c r="F6" s="23"/>
+      <c r="G6" s="23"/>
+      <c r="H6" s="23"/>
+      <c r="I6" s="23"/>
+      <c r="J6" s="23"/>
+      <c r="K6" s="24"/>
+      <c r="M6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="O6" s="23"/>
+      <c r="P6" s="23"/>
+      <c r="Q6" s="23"/>
+      <c r="R6" s="23"/>
+      <c r="S6" s="23"/>
+      <c r="T6" s="23"/>
+      <c r="U6" s="23"/>
+      <c r="V6" s="24"/>
+      <c r="X6" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y6" s="22" t="s">
+        <v>22</v>
+      </c>
+      <c r="Z6" s="23"/>
+      <c r="AA6" s="23"/>
+      <c r="AB6" s="23"/>
+      <c r="AC6" s="23"/>
+      <c r="AD6" s="23"/>
+      <c r="AE6" s="23"/>
+      <c r="AF6" s="23"/>
+      <c r="AG6" s="24"/>
+    </row>
+    <row r="7" spans="1:33">
+      <c r="B7" s="8" t="s">
+        <v>4</v>
+      </c>
+      <c r="C7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="D7" s="25"/>
+      <c r="E7" s="26"/>
+      <c r="F7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="G7" s="25"/>
+      <c r="H7" s="26"/>
+      <c r="I7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="J7" s="25"/>
+      <c r="K7" s="26"/>
+      <c r="M7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="O7" s="23"/>
+      <c r="P7" s="24"/>
+      <c r="Q7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="R7" s="23"/>
+      <c r="S7" s="24"/>
+      <c r="T7" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U7" s="27"/>
+      <c r="V7" s="27"/>
+      <c r="X7" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y7" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z7" s="23"/>
+      <c r="AA7" s="24"/>
+      <c r="AB7" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC7" s="23"/>
+      <c r="AD7" s="24"/>
+      <c r="AE7" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF7" s="23"/>
+      <c r="AG7" s="24"/>
+    </row>
+    <row r="8" spans="1:33">
+      <c r="B8" s="9"/>
+      <c r="C8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="D8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="E8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="F8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="G8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="H8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="I8" s="17" t="s">
+        <v>8</v>
+      </c>
+      <c r="J8" s="17" t="s">
+        <v>9</v>
+      </c>
+      <c r="K8" s="17" t="s">
+        <v>10</v>
+      </c>
+      <c r="M8" s="11"/>
+      <c r="N8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X8" s="11"/>
+      <c r="Y8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD8" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE8" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF8" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG8" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="9" spans="1:33">
+      <c r="B9" s="17" t="s">
+        <v>23</v>
+      </c>
+      <c r="C9" s="1">
+        <v>3.5019999999999998</v>
+      </c>
+      <c r="D9" s="17">
+        <v>840</v>
+      </c>
+      <c r="E9" s="17">
+        <v>67</v>
+      </c>
+      <c r="F9" s="1">
+        <v>4.1020000000000003</v>
+      </c>
+      <c r="G9" s="17">
+        <v>977</v>
+      </c>
+      <c r="H9" s="17">
+        <v>67</v>
+      </c>
+      <c r="I9" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="J9" s="17">
+        <v>848</v>
+      </c>
+      <c r="K9" s="17">
+        <v>67</v>
+      </c>
+      <c r="M9" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="N9" s="15">
+        <v>11.297000000000001</v>
+      </c>
+      <c r="O9" s="1">
+        <v>3463</v>
+      </c>
+      <c r="P9" s="1">
+        <v>132</v>
+      </c>
+      <c r="Q9" s="18">
+        <v>15.414999999999999</v>
+      </c>
+      <c r="R9" s="1">
+        <v>4294</v>
+      </c>
+      <c r="S9" s="1">
+        <v>132</v>
+      </c>
+      <c r="T9" s="19">
+        <v>11.911</v>
+      </c>
+      <c r="U9" s="1">
+        <v>3592</v>
+      </c>
+      <c r="V9" s="1">
+        <v>132</v>
+      </c>
+      <c r="X9" s="1" t="s">
+        <v>27</v>
+      </c>
+      <c r="Y9" s="15">
+        <v>46.942999999999998</v>
+      </c>
+      <c r="Z9" s="1">
+        <v>14315</v>
+      </c>
+      <c r="AA9" s="1">
+        <v>263</v>
+      </c>
+      <c r="AB9" s="18">
+        <v>66.781999999999996</v>
+      </c>
+      <c r="AC9" s="1">
+        <v>19087</v>
+      </c>
+      <c r="AD9" s="1">
+        <v>263</v>
+      </c>
+      <c r="AE9" s="19">
+        <v>40.095999999999997</v>
+      </c>
+      <c r="AF9" s="1">
+        <v>14869</v>
+      </c>
+      <c r="AG9" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="10" spans="1:33">
+      <c r="B10" s="31"/>
+      <c r="C10" s="31"/>
+      <c r="D10" s="31"/>
+      <c r="E10" s="31"/>
+      <c r="F10" s="31"/>
+      <c r="G10" s="31"/>
+      <c r="H10" s="31"/>
+      <c r="I10" s="31"/>
+      <c r="J10" s="31"/>
+      <c r="K10" s="31"/>
+      <c r="L10" s="31"/>
+      <c r="M10" s="31"/>
+      <c r="N10" s="31"/>
+      <c r="O10" s="31"/>
+      <c r="P10" s="31"/>
+      <c r="Q10" s="31"/>
+      <c r="R10" s="31"/>
+      <c r="S10" s="31"/>
+      <c r="T10" s="31"/>
+      <c r="U10" s="31"/>
+      <c r="V10" s="31"/>
+      <c r="W10" s="31"/>
+      <c r="X10" s="31"/>
+      <c r="Y10" s="31"/>
+      <c r="Z10" s="31"/>
+      <c r="AA10" s="31"/>
+      <c r="AB10" s="31"/>
+      <c r="AC10" s="31"/>
+      <c r="AD10" s="31"/>
+      <c r="AE10" s="31"/>
+      <c r="AF10" s="31"/>
+      <c r="AG10" s="31"/>
+    </row>
+    <row r="11" spans="1:33">
+      <c r="B11" s="31"/>
+      <c r="C11" s="31"/>
+      <c r="D11" s="31">
+        <f>D9/$B$1*100</f>
+        <v>33.6</v>
+      </c>
+      <c r="E11" s="31"/>
+      <c r="F11" s="31"/>
+      <c r="G11" s="31">
+        <f t="shared" ref="E11:AG11" si="0">G9/$B$1*100</f>
+        <v>39.08</v>
+      </c>
+      <c r="H11" s="31"/>
+      <c r="I11" s="31"/>
+      <c r="J11" s="31">
+        <f t="shared" si="0"/>
+        <v>33.92</v>
+      </c>
+      <c r="K11" s="31"/>
+      <c r="L11" s="31"/>
+      <c r="M11" s="31"/>
+      <c r="N11" s="31"/>
+      <c r="O11" s="31">
+        <f>O9/$B$2*100</f>
+        <v>34.630000000000003</v>
+      </c>
+      <c r="P11" s="31"/>
+      <c r="Q11" s="31"/>
+      <c r="R11" s="31">
+        <f>R9/$B$2*100</f>
+        <v>42.94</v>
+      </c>
+      <c r="S11" s="31"/>
+      <c r="T11" s="31"/>
+      <c r="U11" s="31">
+        <f>U9/$B$2*100</f>
+        <v>35.92</v>
+      </c>
+      <c r="V11" s="31"/>
+      <c r="W11" s="31"/>
+      <c r="X11" s="31"/>
+      <c r="Y11" s="31"/>
+      <c r="Z11" s="31">
+        <f>Z9/$B$3*100</f>
+        <v>35.787500000000001</v>
+      </c>
+      <c r="AA11" s="31"/>
+      <c r="AB11" s="31"/>
+      <c r="AC11" s="31">
+        <f>AC9/$B$3*100</f>
+        <v>47.717500000000001</v>
+      </c>
+      <c r="AD11" s="31"/>
+      <c r="AE11" s="31"/>
+      <c r="AF11" s="31">
+        <f>AF9/$B$3*100</f>
+        <v>37.172499999999999</v>
+      </c>
+      <c r="AG11" s="31"/>
+    </row>
+    <row r="12" spans="1:33">
+      <c r="B12" s="31"/>
+      <c r="C12" s="31"/>
+      <c r="D12" s="31"/>
+      <c r="E12" s="31"/>
+      <c r="F12" s="31"/>
+      <c r="G12" s="31"/>
+      <c r="H12" s="31"/>
+      <c r="I12" s="31"/>
+      <c r="J12" s="31"/>
+      <c r="K12" s="31"/>
+      <c r="L12" s="31"/>
+      <c r="M12" s="31"/>
+      <c r="N12" s="31"/>
+      <c r="O12" s="31"/>
+      <c r="P12" s="31"/>
+      <c r="Q12" s="31"/>
+      <c r="R12" s="31"/>
+      <c r="S12" s="31"/>
+      <c r="T12" s="31"/>
+      <c r="U12" s="31"/>
+      <c r="V12" s="31"/>
+      <c r="W12" s="31"/>
+      <c r="X12" s="31"/>
+      <c r="Y12" s="31"/>
+      <c r="Z12" s="31"/>
+      <c r="AA12" s="31"/>
+      <c r="AB12" s="31"/>
+      <c r="AC12" s="31"/>
+      <c r="AD12" s="31"/>
+      <c r="AE12" s="31"/>
+      <c r="AF12" s="31"/>
+      <c r="AG12" s="31"/>
+    </row>
+    <row r="13" spans="1:33">
+      <c r="B13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="C13" s="27" t="s">
+        <v>1</v>
+      </c>
+      <c r="D13" s="27"/>
+      <c r="E13" s="27"/>
+      <c r="F13" s="27"/>
+      <c r="G13" s="27"/>
+      <c r="H13" s="27"/>
+      <c r="I13" s="27"/>
+      <c r="J13" s="27"/>
+      <c r="K13" s="27"/>
+      <c r="M13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="N13" s="27" t="s">
+        <v>26</v>
+      </c>
+      <c r="O13" s="27"/>
+      <c r="P13" s="27"/>
+      <c r="Q13" s="27"/>
+      <c r="R13" s="27"/>
+      <c r="S13" s="27"/>
+      <c r="T13" s="27"/>
+      <c r="U13" s="27"/>
+      <c r="V13" s="27"/>
+      <c r="X13" s="1" t="s">
+        <v>0</v>
+      </c>
+      <c r="Y13" s="22" t="s">
+        <v>28</v>
+      </c>
+      <c r="Z13" s="23"/>
+      <c r="AA13" s="23"/>
+      <c r="AB13" s="23"/>
+      <c r="AC13" s="23"/>
+      <c r="AD13" s="23"/>
+      <c r="AE13" s="23"/>
+      <c r="AF13" s="23"/>
+      <c r="AG13" s="24"/>
+    </row>
+    <row r="14" spans="1:33">
+      <c r="B14" s="1" t="s">
+        <v>24</v>
+      </c>
+      <c r="C14" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="D14" s="27"/>
+      <c r="E14" s="27"/>
+      <c r="F14" s="27"/>
+      <c r="G14" s="27"/>
+      <c r="H14" s="27"/>
+      <c r="I14" s="27"/>
+      <c r="J14" s="27"/>
+      <c r="K14" s="27"/>
+      <c r="M14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="N14" s="27" t="s">
+        <v>3</v>
+      </c>
+      <c r="O14" s="27"/>
+      <c r="P14" s="27"/>
+      <c r="Q14" s="27"/>
+      <c r="R14" s="27"/>
+      <c r="S14" s="27"/>
+      <c r="T14" s="27"/>
+      <c r="U14" s="27"/>
+      <c r="V14" s="27"/>
+      <c r="X14" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="Y14" s="22" t="s">
+        <v>3</v>
+      </c>
+      <c r="Z14" s="23"/>
+      <c r="AA14" s="23"/>
+      <c r="AB14" s="23"/>
+      <c r="AC14" s="23"/>
+      <c r="AD14" s="23"/>
+      <c r="AE14" s="23"/>
+      <c r="AF14" s="23"/>
+      <c r="AG14" s="24"/>
+    </row>
+    <row r="15" spans="1:33">
+      <c r="B15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="C15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="D15" s="27"/>
+      <c r="E15" s="27"/>
+      <c r="F15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="G15" s="27"/>
+      <c r="H15" s="27"/>
+      <c r="I15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="J15" s="27"/>
+      <c r="K15" s="27"/>
+      <c r="M15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="N15" s="27" t="s">
+        <v>5</v>
+      </c>
+      <c r="O15" s="27"/>
+      <c r="P15" s="27"/>
+      <c r="Q15" s="27" t="s">
+        <v>6</v>
+      </c>
+      <c r="R15" s="27"/>
+      <c r="S15" s="27"/>
+      <c r="T15" s="27" t="s">
+        <v>7</v>
+      </c>
+      <c r="U15" s="27"/>
+      <c r="V15" s="27"/>
+      <c r="X15" s="1" t="s">
+        <v>4</v>
+      </c>
+      <c r="Y15" s="22" t="s">
+        <v>5</v>
+      </c>
+      <c r="Z15" s="23"/>
+      <c r="AA15" s="24"/>
+      <c r="AB15" s="22" t="s">
+        <v>6</v>
+      </c>
+      <c r="AC15" s="23"/>
+      <c r="AD15" s="24"/>
+      <c r="AE15" s="22" t="s">
+        <v>7</v>
+      </c>
+      <c r="AF15" s="23"/>
+      <c r="AG15" s="24"/>
+    </row>
+    <row r="16" spans="1:33">
+      <c r="C16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="D16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="E16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="F16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="G16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="H16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="I16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="J16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="K16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="M16" s="11"/>
+      <c r="N16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="O16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="P16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="Q16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="R16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="S16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="T16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="U16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="V16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="X16" s="11"/>
+      <c r="Y16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="Z16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AA16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AB16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AC16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AD16" s="1" t="s">
+        <v>10</v>
+      </c>
+      <c r="AE16" s="1" t="s">
+        <v>8</v>
+      </c>
+      <c r="AF16" s="1" t="s">
+        <v>9</v>
+      </c>
+      <c r="AG16" s="1" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="17" spans="2:33">
+      <c r="B17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="C17" s="1">
+        <v>14.01</v>
+      </c>
+      <c r="D17" s="1">
+        <v>911</v>
+      </c>
+      <c r="E17" s="1">
+        <v>67</v>
+      </c>
+      <c r="F17" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="G17" s="1">
+        <v>1003</v>
+      </c>
+      <c r="H17" s="1">
+        <v>69</v>
+      </c>
+      <c r="I17" s="1">
+        <v>14.01</v>
+      </c>
+      <c r="J17" s="1">
+        <v>869</v>
+      </c>
+      <c r="K17" s="1">
+        <v>67</v>
+      </c>
+      <c r="M17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="N17" s="1">
+        <v>22</v>
+      </c>
+      <c r="O17" s="1">
+        <v>3538</v>
+      </c>
+      <c r="P17" s="1">
+        <v>131</v>
+      </c>
+      <c r="Q17" s="1">
+        <v>25.01</v>
+      </c>
+      <c r="R17" s="1">
+        <v>4351</v>
+      </c>
+      <c r="S17" s="1">
+        <v>131</v>
+      </c>
+      <c r="T17" s="1">
+        <v>22.04</v>
+      </c>
+      <c r="U17" s="1">
+        <v>3640</v>
+      </c>
+      <c r="V17" s="1">
+        <v>131</v>
+      </c>
+      <c r="X17" s="1" t="s">
+        <v>11</v>
+      </c>
+      <c r="Y17" s="1">
+        <v>59.04</v>
+      </c>
+      <c r="Z17" s="1">
+        <v>14594</v>
+      </c>
+      <c r="AA17" s="1">
+        <v>263</v>
+      </c>
+      <c r="AB17" s="1">
+        <v>79.06</v>
+      </c>
+      <c r="AC17" s="1">
+        <v>19510</v>
+      </c>
+      <c r="AD17" s="1">
+        <v>263</v>
+      </c>
+      <c r="AE17" s="1">
+        <v>41.05</v>
+      </c>
+      <c r="AF17" s="1">
+        <v>15202</v>
+      </c>
+      <c r="AG17" s="1">
+        <v>263</v>
+      </c>
+    </row>
+    <row r="18" spans="2:33">
+      <c r="B18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="C18" s="1">
+        <v>2</v>
+      </c>
+      <c r="D18" s="1">
+        <v>958</v>
+      </c>
+      <c r="E18" s="1">
+        <v>69</v>
+      </c>
+      <c r="F18" s="1">
+        <v>5</v>
+      </c>
+      <c r="G18" s="1">
+        <v>1633</v>
+      </c>
+      <c r="H18" s="1">
+        <v>67</v>
+      </c>
+      <c r="I18" s="1">
+        <v>3</v>
+      </c>
+      <c r="J18" s="1">
+        <v>989</v>
+      </c>
+      <c r="K18" s="1">
+        <v>69</v>
+      </c>
+      <c r="M18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="N18" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="O18" s="1">
+        <v>3662</v>
+      </c>
+      <c r="P18" s="1">
+        <v>133</v>
+      </c>
+      <c r="Q18" s="1">
+        <v>32.04</v>
+      </c>
+      <c r="R18" s="1">
+        <v>9000</v>
+      </c>
+      <c r="S18" s="1">
+        <v>132</v>
+      </c>
+      <c r="T18" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="U18" s="1">
+        <v>3802</v>
+      </c>
+      <c r="V18" s="1">
+        <v>133</v>
+      </c>
+      <c r="X18" s="1" t="s">
+        <v>12</v>
+      </c>
+      <c r="Y18" s="1">
+        <v>44.07</v>
+      </c>
+      <c r="Z18" s="1">
+        <v>15234</v>
+      </c>
+      <c r="AA18" s="1">
+        <v>264</v>
+      </c>
+      <c r="AB18" s="1">
+        <v>76.459999999999994</v>
+      </c>
+      <c r="AC18" s="1">
+        <v>21256</v>
+      </c>
+      <c r="AD18" s="1">
+        <v>264</v>
+      </c>
+      <c r="AE18" s="1">
+        <v>47.97</v>
+      </c>
+      <c r="AF18" s="1">
+        <v>15406</v>
+      </c>
+      <c r="AG18" s="1">
+        <v>264</v>
+      </c>
+    </row>
+    <row r="19" spans="2:33">
+      <c r="B19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="C19" s="1">
+        <v>2</v>
+      </c>
+      <c r="D19" s="1">
+        <v>981</v>
+      </c>
+      <c r="E19" s="1">
+        <v>69</v>
+      </c>
+      <c r="F19" s="1">
+        <v>4.01</v>
+      </c>
+      <c r="G19" s="1">
+        <v>1679</v>
+      </c>
+      <c r="H19" s="1">
+        <v>69</v>
+      </c>
+      <c r="I19" s="1">
+        <v>2</v>
+      </c>
+      <c r="J19" s="1">
+        <v>1052</v>
+      </c>
+      <c r="K19" s="1">
+        <v>67</v>
+      </c>
+      <c r="M19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="N19" s="1">
+        <v>10.02</v>
+      </c>
+      <c r="O19" s="1">
+        <v>3860</v>
+      </c>
+      <c r="P19" s="1">
+        <v>137</v>
+      </c>
+      <c r="Q19" s="1">
+        <v>31.04</v>
+      </c>
+      <c r="R19" s="1">
+        <v>9246</v>
+      </c>
+      <c r="S19" s="1">
+        <v>137</v>
+      </c>
+      <c r="T19" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="U19" s="1">
+        <v>3888</v>
+      </c>
+      <c r="V19" s="1">
+        <v>132</v>
+      </c>
+      <c r="X19" s="1" t="s">
+        <v>13</v>
+      </c>
+      <c r="Y19" s="1">
+        <v>50.08</v>
+      </c>
+      <c r="Z19" s="1">
+        <v>16255</v>
+      </c>
+      <c r="AA19" s="1">
+        <v>266</v>
+      </c>
+      <c r="AB19" s="1">
+        <v>83.1</v>
+      </c>
+      <c r="AC19" s="1">
+        <v>24827</v>
+      </c>
+      <c r="AD19" s="1">
+        <v>272</v>
+      </c>
+      <c r="AE19" s="1">
+        <v>50.06</v>
+      </c>
+      <c r="AF19" s="1">
+        <v>15950</v>
+      </c>
+      <c r="AG19" s="1">
+        <v>265</v>
+      </c>
+    </row>
+    <row r="20" spans="2:33">
+      <c r="B20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="C20" s="1">
+        <v>3</v>
+      </c>
+      <c r="D20" s="1">
+        <v>982</v>
+      </c>
+      <c r="E20" s="1">
+        <v>67</v>
+      </c>
+      <c r="F20" s="1">
+        <v>7</v>
+      </c>
+      <c r="G20" s="1">
+        <v>1562</v>
+      </c>
+      <c r="H20" s="1">
+        <v>67</v>
+      </c>
+      <c r="I20" s="1">
+        <v>4</v>
+      </c>
+      <c r="J20" s="1">
+        <v>1020</v>
+      </c>
+      <c r="K20" s="1">
+        <v>69</v>
+      </c>
+      <c r="M20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="N20" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="O20" s="1">
+        <v>3783</v>
+      </c>
+      <c r="P20" s="1">
+        <v>135</v>
+      </c>
+      <c r="Q20" s="1">
+        <v>35.090000000000003</v>
+      </c>
+      <c r="R20" s="1">
+        <v>8991</v>
+      </c>
+      <c r="S20" s="1">
+        <v>132</v>
+      </c>
+      <c r="T20" s="1">
+        <v>12.02</v>
+      </c>
+      <c r="U20" s="1">
+        <v>4120</v>
+      </c>
+      <c r="V20" s="1">
+        <v>137</v>
+      </c>
+      <c r="X20" s="1" t="s">
+        <v>14</v>
+      </c>
+      <c r="Y20" s="1">
+        <v>51.03</v>
+      </c>
+      <c r="Z20" s="1">
+        <v>16178</v>
+      </c>
+      <c r="AA20" s="1">
+        <v>272</v>
+      </c>
+      <c r="AB20" s="1">
+        <v>89.09</v>
+      </c>
+      <c r="AC20" s="1">
+        <v>25021</v>
+      </c>
+      <c r="AD20" s="1">
+        <v>264</v>
+      </c>
+      <c r="AE20" s="1">
+        <v>53.02</v>
+      </c>
+      <c r="AF20" s="1">
+        <v>15700</v>
+      </c>
+      <c r="AG20" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="21" spans="2:33">
+      <c r="B21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="C21" s="1">
+        <v>2</v>
+      </c>
+      <c r="D21" s="1">
+        <v>1023</v>
+      </c>
+      <c r="E21" s="1">
+        <v>69</v>
+      </c>
+      <c r="F21" s="1">
+        <v>3.01</v>
+      </c>
+      <c r="G21" s="1">
+        <v>1386</v>
+      </c>
+      <c r="H21" s="1">
+        <v>71</v>
+      </c>
+      <c r="I21" s="1">
+        <v>2</v>
+      </c>
+      <c r="J21" s="1">
+        <v>1077</v>
+      </c>
+      <c r="K21" s="1">
+        <v>69</v>
+      </c>
+      <c r="M21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="N21" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="O21" s="1">
+        <v>3927</v>
+      </c>
+      <c r="P21" s="1">
+        <v>138</v>
+      </c>
+      <c r="Q21" s="1">
+        <v>32.049999999999997</v>
+      </c>
+      <c r="R21" s="1">
+        <v>9220</v>
+      </c>
+      <c r="S21" s="1">
+        <v>134</v>
+      </c>
+      <c r="T21" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="U21" s="1">
+        <v>3940</v>
+      </c>
+      <c r="V21" s="1">
+        <v>135</v>
+      </c>
+      <c r="X21" s="1" t="s">
+        <v>15</v>
+      </c>
+      <c r="Y21" s="1">
+        <v>57.07</v>
+      </c>
+      <c r="Z21" s="1">
+        <v>16462</v>
+      </c>
+      <c r="AA21" s="1">
+        <v>269</v>
+      </c>
+      <c r="AB21" s="1">
+        <v>97.11</v>
+      </c>
+      <c r="AC21" s="1">
+        <v>25559</v>
+      </c>
+      <c r="AD21" s="1">
+        <v>268</v>
+      </c>
+      <c r="AE21" s="1">
+        <v>50.04</v>
+      </c>
+      <c r="AF21" s="1">
+        <v>16165</v>
+      </c>
+      <c r="AG21" s="1">
+        <v>268</v>
+      </c>
+    </row>
+    <row r="22" spans="2:33">
+      <c r="B22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="C22" s="1">
+        <v>3</v>
+      </c>
+      <c r="D22" s="1">
+        <v>1051</v>
+      </c>
+      <c r="E22" s="1">
+        <v>68</v>
+      </c>
+      <c r="F22" s="1">
+        <v>4</v>
+      </c>
+      <c r="G22" s="1">
+        <v>1229</v>
+      </c>
+      <c r="H22" s="1">
+        <v>68</v>
+      </c>
+      <c r="I22" s="1">
+        <v>4</v>
+      </c>
+      <c r="J22" s="1">
+        <v>1074</v>
+      </c>
+      <c r="K22" s="1">
+        <v>67</v>
+      </c>
+      <c r="M22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="N22" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="O22" s="1">
+        <v>3974</v>
+      </c>
+      <c r="P22" s="1">
+        <v>134</v>
+      </c>
+      <c r="Q22" s="1">
+        <v>31</v>
+      </c>
+      <c r="R22" s="1">
+        <v>8790</v>
+      </c>
+      <c r="S22" s="1">
+        <v>137</v>
+      </c>
+      <c r="T22" s="1">
+        <v>11</v>
+      </c>
+      <c r="U22" s="1">
+        <v>4004</v>
+      </c>
+      <c r="V22" s="1">
+        <v>137</v>
+      </c>
+      <c r="X22" s="1" t="s">
+        <v>16</v>
+      </c>
+      <c r="Y22" s="1">
+        <v>58.06</v>
+      </c>
+      <c r="Z22" s="1">
+        <v>16316</v>
+      </c>
+      <c r="AA22" s="1">
+        <v>274</v>
+      </c>
+      <c r="AB22" s="1">
+        <v>90.8</v>
+      </c>
+      <c r="AC22" s="1">
+        <v>25248</v>
+      </c>
+      <c r="AD22" s="1">
+        <v>272</v>
+      </c>
+      <c r="AE22" s="1">
+        <v>51.74</v>
+      </c>
+      <c r="AF22" s="1">
+        <v>16608</v>
+      </c>
+      <c r="AG22" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="23" spans="2:33">
+      <c r="B23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="C23" s="1">
+        <v>2</v>
+      </c>
+      <c r="D23" s="1">
+        <v>1037</v>
+      </c>
+      <c r="E23" s="1">
+        <v>69</v>
+      </c>
+      <c r="F23" s="1">
+        <v>4</v>
+      </c>
+      <c r="G23" s="1">
+        <v>1772</v>
+      </c>
+      <c r="H23" s="1">
+        <v>68</v>
+      </c>
+      <c r="I23" s="1">
+        <v>3</v>
+      </c>
+      <c r="J23" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K23" s="1">
+        <v>69</v>
+      </c>
+      <c r="M23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="N23" s="1">
+        <v>10.01</v>
+      </c>
+      <c r="O23" s="1">
+        <v>4030</v>
+      </c>
+      <c r="P23" s="1">
+        <v>138</v>
+      </c>
+      <c r="Q23" s="1">
+        <v>40.03</v>
+      </c>
+      <c r="R23" s="1">
+        <v>11115</v>
+      </c>
+      <c r="S23" s="1">
+        <v>133</v>
+      </c>
+      <c r="T23" s="1">
+        <v>11.02</v>
+      </c>
+      <c r="U23" s="1">
+        <v>4094</v>
+      </c>
+      <c r="V23" s="1">
+        <v>138</v>
+      </c>
+      <c r="X23" s="1" t="s">
+        <v>17</v>
+      </c>
+      <c r="Y23" s="1">
+        <v>48.05</v>
+      </c>
+      <c r="Z23" s="1">
+        <v>16109</v>
+      </c>
+      <c r="AA23" s="1">
+        <v>271</v>
+      </c>
+      <c r="AB23" s="1">
+        <v>178.15</v>
+      </c>
+      <c r="AC23" s="1">
+        <v>48113</v>
+      </c>
+      <c r="AD23" s="1">
+        <v>270</v>
+      </c>
+      <c r="AE23" s="1">
+        <v>42.06</v>
+      </c>
+      <c r="AF23" s="1">
+        <v>16066</v>
+      </c>
+      <c r="AG23" s="1">
+        <v>272</v>
+      </c>
+    </row>
+    <row r="24" spans="2:33">
+      <c r="B24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="C24" s="1">
+        <v>5</v>
+      </c>
+      <c r="D24" s="1">
+        <v>1041</v>
+      </c>
+      <c r="E24" s="1">
+        <v>69</v>
+      </c>
+      <c r="F24" s="1">
+        <v>6</v>
+      </c>
+      <c r="G24" s="1">
+        <v>1706</v>
+      </c>
+      <c r="H24" s="1">
+        <v>69</v>
+      </c>
+      <c r="I24" s="1">
+        <v>3</v>
+      </c>
+      <c r="J24" s="1">
+        <v>1110</v>
+      </c>
+      <c r="K24" s="1">
+        <v>68</v>
+      </c>
+      <c r="M24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="N24" s="1">
+        <v>13.01</v>
+      </c>
+      <c r="O24" s="1">
+        <v>4040</v>
+      </c>
+      <c r="P24" s="1">
+        <v>138</v>
+      </c>
+      <c r="Q24" s="1">
+        <v>39.31</v>
+      </c>
+      <c r="R24" s="1">
+        <v>10753</v>
+      </c>
+      <c r="S24" s="1">
+        <v>138</v>
+      </c>
+      <c r="T24" s="1">
+        <v>12.01</v>
+      </c>
+      <c r="U24" s="1">
+        <v>4136</v>
+      </c>
+      <c r="V24" s="1">
+        <v>134</v>
+      </c>
+      <c r="X24" s="1" t="s">
+        <v>18</v>
+      </c>
+      <c r="Y24" s="1">
+        <v>52.05</v>
+      </c>
+      <c r="Z24" s="1">
+        <v>16499</v>
+      </c>
+      <c r="AA24" s="1">
+        <v>273</v>
+      </c>
+      <c r="AB24" s="1">
+        <v>183.2</v>
+      </c>
+      <c r="AC24" s="1">
+        <v>50231</v>
+      </c>
+      <c r="AD24" s="1">
+        <v>274</v>
+      </c>
+      <c r="AE24" s="1">
+        <v>43.21</v>
+      </c>
+      <c r="AF24" s="1">
+        <v>16260</v>
+      </c>
+      <c r="AG24" s="1">
+        <v>275</v>
+      </c>
+    </row>
+    <row r="25" spans="2:33">
+      <c r="B25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="C25" s="1">
+        <v>3</v>
+      </c>
+      <c r="D25" s="1">
+        <v>1076</v>
+      </c>
+      <c r="E25" s="1">
+        <v>70</v>
+      </c>
+      <c r="F25" s="1">
+        <v>4</v>
+      </c>
+      <c r="G25" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H25" s="1">
+        <v>71</v>
+      </c>
+      <c r="I25" s="1">
+        <v>3</v>
+      </c>
+      <c r="J25" s="1">
+        <v>1113</v>
+      </c>
+      <c r="K25" s="1">
+        <v>69</v>
+      </c>
+      <c r="M25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="N25" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="O25" s="1">
+        <v>4154</v>
+      </c>
+      <c r="P25" s="1">
+        <v>136</v>
+      </c>
+      <c r="Q25" s="1">
+        <v>45.13</v>
+      </c>
+      <c r="R25" s="1">
+        <v>11343</v>
+      </c>
+      <c r="S25" s="1">
+        <v>137</v>
+      </c>
+      <c r="T25" s="1">
+        <v>11.01</v>
+      </c>
+      <c r="U25" s="1">
+        <v>4174</v>
+      </c>
+      <c r="V25" s="1">
+        <v>136</v>
+      </c>
+      <c r="X25" s="1" t="s">
+        <v>19</v>
+      </c>
+      <c r="Y25" s="1">
+        <v>52.01</v>
+      </c>
+      <c r="Z25" s="1">
+        <v>16299</v>
+      </c>
+      <c r="AA25" s="1">
+        <v>274</v>
+      </c>
+      <c r="AB25" s="1">
+        <v>194.15</v>
+      </c>
+      <c r="AC25" s="1">
+        <v>50208</v>
+      </c>
+      <c r="AD25" s="1">
+        <v>275</v>
+      </c>
+      <c r="AE25" s="1">
+        <v>46.05</v>
+      </c>
+      <c r="AF25" s="1">
+        <v>16249</v>
+      </c>
+      <c r="AG25" s="1">
+        <v>273</v>
+      </c>
+    </row>
+    <row r="26" spans="2:33" ht="15" thickBot="1">
+      <c r="B26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="C26" s="2">
+        <v>2</v>
+      </c>
+      <c r="D26" s="2">
+        <v>1083</v>
+      </c>
+      <c r="E26" s="2">
+        <v>70</v>
+      </c>
+      <c r="F26" s="2">
+        <v>4</v>
+      </c>
+      <c r="G26" s="2">
+        <v>1680</v>
+      </c>
+      <c r="H26" s="2">
+        <v>68</v>
+      </c>
+      <c r="I26" s="2">
+        <v>2</v>
+      </c>
+      <c r="J26" s="2">
+        <v>1150</v>
+      </c>
+      <c r="K26" s="2">
+        <v>67</v>
+      </c>
+      <c r="M26" s="2" t="s">
+        <v>20</v>
+      </c>
+      <c r="N26" s="2">
+        <v>10.95</v>
+      </c>
+      <c r="O26" s="2">
+        <v>4177</v>
+      </c>
+      <c r="P26" s="2">
+        <v>140</v>
+      </c>
+      <c r="Q26" s="2">
+        <v>40.049999999999997</v>
+      </c>
+      <c r="R26" s="2">
+        <v>10971</v>
+      </c>
+      <c r="S26" s="2">
+        <v>139</v>
+      </c>
+      <c r="T26" s="2">
+        <v>11.02</v>
+      </c>
+      <c r="U26" s="2">
+        <v>4266</v>
+      </c>
+      <c r="V26" s="2">
+        <v>140</v>
+      </c>
+      <c r="X26" s="1" t="s">
+        <v>20</v>
+      </c>
+      <c r="Y26" s="1">
+        <v>57.04</v>
+      </c>
+      <c r="Z26" s="1">
+        <v>16494</v>
+      </c>
+      <c r="AA26" s="1">
+        <v>274</v>
+      </c>
+      <c r="AB26" s="1">
+        <v>194.11</v>
+      </c>
+      <c r="AC26" s="1">
+        <v>50808</v>
+      </c>
+      <c r="AD26" s="1">
+        <v>270</v>
+      </c>
+      <c r="AE26" s="1">
+        <v>45.05</v>
+      </c>
+      <c r="AF26" s="1">
+        <v>16214</v>
+      </c>
+      <c r="AG26" s="1">
+        <v>277</v>
+      </c>
+    </row>
+    <row r="27" spans="2:33" ht="15" thickBot="1">
+      <c r="B27" s="3" t="s">
+        <v>25</v>
+      </c>
+      <c r="C27" s="4">
+        <f t="shared" ref="C27:K27" si="1">AVERAGE(C17:C26)</f>
+        <v>3.8009999999999997</v>
+      </c>
+      <c r="D27" s="4">
+        <f t="shared" si="1"/>
+        <v>1014.3</v>
+      </c>
+      <c r="E27" s="4">
+        <f t="shared" si="1"/>
+        <v>68.7</v>
+      </c>
+      <c r="F27" s="4">
+        <f t="shared" si="1"/>
+        <v>5.4029999999999996</v>
+      </c>
+      <c r="G27" s="4">
+        <f t="shared" si="1"/>
+        <v>1540.9</v>
+      </c>
+      <c r="H27" s="4">
+        <f t="shared" si="1"/>
+        <v>68.7</v>
+      </c>
+      <c r="I27" s="4">
+        <f t="shared" si="1"/>
+        <v>4.0009999999999994</v>
+      </c>
+      <c r="J27" s="4">
+        <f t="shared" si="1"/>
+        <v>1053.4000000000001</v>
+      </c>
+      <c r="K27" s="5">
+        <f t="shared" si="1"/>
+        <v>68.099999999999994</v>
+      </c>
+      <c r="M27" s="3" t="s">
+        <v>27</v>
+      </c>
+      <c r="N27" s="4">
+        <f t="shared" ref="N27:V27" si="2">AVERAGE(N17:N26)</f>
+        <v>12.205000000000002</v>
+      </c>
+      <c r="O27" s="4">
+        <f t="shared" si="2"/>
+        <v>3914.5</v>
+      </c>
+      <c r="P27" s="4">
+        <f t="shared" si="2"/>
+        <v>136</v>
+      </c>
+      <c r="Q27" s="4">
+        <f t="shared" si="2"/>
+        <v>35.075000000000003</v>
+      </c>
+      <c r="R27" s="4">
+        <f t="shared" si="2"/>
+        <v>9378</v>
+      </c>
+      <c r="S27" s="4">
+        <f t="shared" si="2"/>
+        <v>135</v>
+      </c>
+      <c r="T27" s="4">
+        <f t="shared" si="2"/>
+        <v>12.215</v>
+      </c>
+      <c r="U27" s="4">
+        <f t="shared" si="2"/>
+        <v>4006.4</v>
+      </c>
+      <c r="V27" s="5">
+        <f t="shared" si="2"/>
+        <v>135.30000000000001</v>
+      </c>
+      <c r="X27" s="1" t="s">
+        <v>21</v>
+      </c>
+      <c r="Y27" s="12">
+        <f t="shared" ref="Y27:AG27" si="3">AVERAGE(Y17:Y26)</f>
+        <v>52.85</v>
+      </c>
+      <c r="Z27" s="12">
+        <f t="shared" si="3"/>
+        <v>16044</v>
+      </c>
+      <c r="AA27" s="12">
+        <f t="shared" si="3"/>
+        <v>270</v>
+      </c>
+      <c r="AB27" s="12">
+        <f t="shared" si="3"/>
+        <v>126.523</v>
+      </c>
+      <c r="AC27" s="12">
+        <f t="shared" si="3"/>
+        <v>34078.1</v>
+      </c>
+      <c r="AD27" s="12">
+        <f t="shared" si="3"/>
+        <v>269.2</v>
+      </c>
+      <c r="AE27" s="12">
+        <f t="shared" si="3"/>
+        <v>47.024999999999999</v>
+      </c>
+      <c r="AF27" s="12">
+        <f t="shared" si="3"/>
+        <v>15982</v>
+      </c>
+      <c r="AG27" s="12">
+        <f t="shared" si="3"/>
+        <v>270.2</v>
+      </c>
+    </row>
+    <row r="28" spans="2:33">
+      <c r="B28" s="31"/>
+      <c r="C28" s="31"/>
+      <c r="D28" s="31"/>
+      <c r="E28" s="31"/>
+      <c r="F28" s="31"/>
+      <c r="G28" s="31"/>
+      <c r="H28" s="31"/>
+      <c r="I28" s="31"/>
+      <c r="J28" s="31"/>
+      <c r="K28" s="31"/>
+      <c r="L28" s="31"/>
+      <c r="M28" s="31"/>
+      <c r="N28" s="31"/>
+      <c r="O28" s="31"/>
+      <c r="P28" s="31"/>
+      <c r="Q28" s="31"/>
+      <c r="R28" s="31"/>
+      <c r="S28" s="31"/>
+      <c r="T28" s="31"/>
+      <c r="U28" s="31"/>
+      <c r="V28" s="31"/>
+      <c r="W28" s="31"/>
+      <c r="X28" s="31"/>
+      <c r="Y28" s="31"/>
+      <c r="Z28" s="31"/>
+      <c r="AA28" s="31"/>
+      <c r="AB28" s="31"/>
+      <c r="AC28" s="31"/>
+      <c r="AD28" s="31"/>
+      <c r="AE28" s="31"/>
+      <c r="AF28" s="31"/>
+      <c r="AG28" s="34"/>
+    </row>
+    <row r="29" spans="2:33">
+      <c r="B29" s="31"/>
+      <c r="C29" s="31"/>
+      <c r="D29" s="31"/>
+      <c r="E29" s="31"/>
+      <c r="F29" s="31"/>
+      <c r="G29" s="31"/>
+      <c r="H29" s="31"/>
+      <c r="I29" s="31"/>
+      <c r="J29" s="31"/>
+      <c r="K29" s="31"/>
+      <c r="L29" s="31"/>
+      <c r="M29" s="31"/>
+      <c r="N29" s="31"/>
+      <c r="O29" s="31"/>
+      <c r="P29" s="31"/>
+      <c r="Q29" s="31"/>
+      <c r="R29" s="31"/>
+      <c r="S29" s="31"/>
+      <c r="T29" s="31"/>
+      <c r="U29" s="31"/>
+      <c r="V29" s="31"/>
+      <c r="W29" s="31"/>
+      <c r="X29" s="31"/>
+      <c r="Y29" s="31"/>
+      <c r="Z29" s="31"/>
+      <c r="AA29" s="31"/>
+      <c r="AB29" s="31"/>
+      <c r="AC29" s="31"/>
+      <c r="AD29" s="31"/>
+      <c r="AE29" s="31"/>
+      <c r="AF29" s="31"/>
+      <c r="AG29" s="34"/>
+    </row>
+    <row r="30" spans="2:33">
+      <c r="B30" s="31"/>
+      <c r="C30" s="31"/>
+      <c r="D30" s="31"/>
+      <c r="E30" s="31"/>
+      <c r="F30" s="31"/>
+      <c r="G30" s="31"/>
+      <c r="H30" s="31"/>
+      <c r="I30" s="31"/>
+      <c r="J30" s="31"/>
+      <c r="K30" s="31"/>
+      <c r="L30" s="31"/>
+      <c r="M30" s="31"/>
+      <c r="N30" s="31"/>
+      <c r="O30" s="31"/>
+      <c r="P30" s="31"/>
+      <c r="Q30" s="31"/>
+      <c r="R30" s="31"/>
+      <c r="S30" s="31"/>
+      <c r="T30" s="31"/>
+      <c r="U30" s="31"/>
+      <c r="V30" s="31"/>
+      <c r="W30" s="31"/>
+      <c r="X30" s="31"/>
+      <c r="Y30" s="31"/>
+      <c r="Z30" s="31"/>
+      <c r="AA30" s="31"/>
+      <c r="AB30" s="31"/>
+      <c r="AC30" s="31"/>
+      <c r="AD30" s="31"/>
+      <c r="AE30" s="31"/>
+      <c r="AF30" s="31"/>
+      <c r="AG30" s="34"/>
+    </row>
+    <row r="31" spans="2:33">
+      <c r="D31" s="30"/>
+      <c r="E31" s="30"/>
+      <c r="F31" s="30"/>
+      <c r="G31" s="30"/>
+      <c r="H31" s="30"/>
+      <c r="I31" s="30"/>
+      <c r="J31" s="30"/>
+      <c r="K31" s="30"/>
+      <c r="L31" s="30"/>
+      <c r="M31" s="30"/>
+      <c r="N31" s="30"/>
+      <c r="O31" s="1">
+        <v>3538</v>
+      </c>
+      <c r="P31" s="30">
+        <f>O31/$B$2*100</f>
+        <v>35.380000000000003</v>
+      </c>
+      <c r="Q31" s="30"/>
+      <c r="R31" s="1">
+        <v>4351</v>
+      </c>
+      <c r="S31" s="30">
+        <f>R31/$B$2*100</f>
+        <v>43.51</v>
+      </c>
+      <c r="T31" s="30"/>
+      <c r="U31" s="1">
+        <v>3640</v>
+      </c>
+      <c r="V31" s="30">
+        <f>U31/$B$2*100</f>
+        <v>36.4</v>
+      </c>
+      <c r="W31" s="30"/>
+      <c r="X31" s="30"/>
+      <c r="Y31" s="30"/>
+      <c r="Z31" s="1">
+        <v>14594</v>
+      </c>
+      <c r="AA31" s="30">
+        <f>Z31/$B$3*100</f>
+        <v>36.484999999999999</v>
+      </c>
+      <c r="AB31" s="30"/>
+      <c r="AC31" s="1">
+        <v>19510</v>
+      </c>
+      <c r="AD31" s="30">
+        <f>AC31/$B$3*100</f>
+        <v>48.774999999999999</v>
+      </c>
+      <c r="AE31" s="30"/>
+      <c r="AF31" s="1">
+        <v>15202</v>
+      </c>
+      <c r="AG31" s="30">
+        <f>AF31/$B$3*100</f>
+        <v>38.005000000000003</v>
+      </c>
+    </row>
+    <row r="32" spans="2:33">
+      <c r="D32" s="1">
+        <v>911</v>
+      </c>
+      <c r="E32" s="30">
+        <f>D32/$B$1*100</f>
+        <v>36.44</v>
+      </c>
+      <c r="F32" s="30"/>
+      <c r="G32" s="1">
+        <v>1003</v>
+      </c>
+      <c r="H32" s="30">
+        <f>G32/$B$1*100</f>
+        <v>40.119999999999997</v>
+      </c>
+      <c r="I32" s="30"/>
+      <c r="J32" s="1">
+        <v>869</v>
+      </c>
+      <c r="K32" s="30">
+        <f>J32/$B$1*100</f>
+        <v>34.760000000000005</v>
+      </c>
+      <c r="L32" s="30"/>
+      <c r="M32" s="30"/>
+      <c r="N32" s="30"/>
+      <c r="O32" s="1">
+        <v>3662</v>
+      </c>
+      <c r="P32" s="30">
+        <f t="shared" ref="P32:P40" si="4">O32/$B$2*100</f>
+        <v>36.620000000000005</v>
+      </c>
+      <c r="Q32" s="30"/>
+      <c r="R32" s="1">
+        <v>9000</v>
+      </c>
+      <c r="S32" s="30">
+        <f t="shared" ref="S32:S40" si="5">R32/$B$2*100</f>
+        <v>90</v>
+      </c>
+      <c r="T32" s="30"/>
+      <c r="U32" s="1">
+        <v>3802</v>
+      </c>
+      <c r="V32" s="30">
+        <f t="shared" ref="V32:V40" si="6">U32/$B$2*100</f>
+        <v>38.019999999999996</v>
+      </c>
+      <c r="W32" s="30"/>
+      <c r="X32" s="30"/>
+      <c r="Y32" s="30"/>
+      <c r="Z32" s="1">
+        <v>15234</v>
+      </c>
+      <c r="AA32" s="30">
+        <f t="shared" ref="AA32:AA40" si="7">Z32/$B$3*100</f>
+        <v>38.085000000000001</v>
+      </c>
+      <c r="AB32" s="30"/>
+      <c r="AC32" s="1">
+        <v>21256</v>
+      </c>
+      <c r="AD32" s="30">
+        <f t="shared" ref="AD32:AD40" si="8">AC32/$B$3*100</f>
+        <v>53.14</v>
+      </c>
+      <c r="AE32" s="30"/>
+      <c r="AF32" s="1">
+        <v>15406</v>
+      </c>
+      <c r="AG32" s="30">
+        <f t="shared" ref="AG32:AG40" si="9">AF32/$B$3*100</f>
+        <v>38.515000000000001</v>
+      </c>
+    </row>
+    <row r="33" spans="2:33">
+      <c r="D33" s="1">
+        <v>958</v>
+      </c>
+      <c r="E33" s="30">
+        <f t="shared" ref="E33:E42" si="10">D33/$B$1*100</f>
+        <v>38.32</v>
+      </c>
+      <c r="F33" s="30"/>
+      <c r="G33" s="1">
+        <v>1633</v>
+      </c>
+      <c r="H33" s="30">
+        <f t="shared" ref="H33:H41" si="11">G33/$B$1*100</f>
+        <v>65.319999999999993</v>
+      </c>
+      <c r="I33" s="30"/>
+      <c r="J33" s="1">
+        <v>989</v>
+      </c>
+      <c r="K33" s="30">
+        <f t="shared" ref="K33:K41" si="12">J33/$B$1*100</f>
+        <v>39.56</v>
+      </c>
+      <c r="L33" s="30"/>
+      <c r="M33" s="30"/>
+      <c r="N33" s="30"/>
+      <c r="O33" s="1">
+        <v>3860</v>
+      </c>
+      <c r="P33" s="30">
+        <f t="shared" si="4"/>
+        <v>38.6</v>
+      </c>
+      <c r="Q33" s="30"/>
+      <c r="R33" s="1">
+        <v>9246</v>
+      </c>
+      <c r="S33" s="30">
+        <f t="shared" si="5"/>
+        <v>92.46</v>
+      </c>
+      <c r="T33" s="30"/>
+      <c r="U33" s="1">
+        <v>3888</v>
+      </c>
+      <c r="V33" s="30">
+        <f t="shared" si="6"/>
+        <v>38.879999999999995</v>
+      </c>
+      <c r="W33" s="30"/>
+      <c r="X33" s="30"/>
+      <c r="Y33" s="30"/>
+      <c r="Z33" s="1">
+        <v>16255</v>
+      </c>
+      <c r="AA33" s="30">
+        <f t="shared" si="7"/>
+        <v>40.637499999999996</v>
+      </c>
+      <c r="AB33" s="30"/>
+      <c r="AC33" s="1">
+        <v>24827</v>
+      </c>
+      <c r="AD33" s="30">
+        <f t="shared" si="8"/>
+        <v>62.067499999999995</v>
+      </c>
+      <c r="AE33" s="30"/>
+      <c r="AF33" s="1">
+        <v>15950</v>
+      </c>
+      <c r="AG33" s="30">
+        <f t="shared" si="9"/>
+        <v>39.875</v>
+      </c>
+    </row>
+    <row r="34" spans="2:33">
+      <c r="D34" s="1">
+        <v>981</v>
+      </c>
+      <c r="E34" s="30">
+        <f t="shared" si="10"/>
+        <v>39.24</v>
+      </c>
+      <c r="F34" s="30"/>
+      <c r="G34" s="1">
+        <v>1679</v>
+      </c>
+      <c r="H34" s="30">
+        <f t="shared" si="11"/>
+        <v>67.16</v>
+      </c>
+      <c r="I34" s="30"/>
+      <c r="J34" s="1">
+        <v>1052</v>
+      </c>
+      <c r="K34" s="30">
+        <f t="shared" si="12"/>
+        <v>42.08</v>
+      </c>
+      <c r="L34" s="30"/>
+      <c r="M34" s="30"/>
+      <c r="N34" s="30"/>
+      <c r="O34" s="1">
+        <v>3783</v>
+      </c>
+      <c r="P34" s="30">
+        <f t="shared" si="4"/>
+        <v>37.830000000000005</v>
+      </c>
+      <c r="Q34" s="30"/>
+      <c r="R34" s="1">
+        <v>8991</v>
+      </c>
+      <c r="S34" s="30">
+        <f t="shared" si="5"/>
+        <v>89.91</v>
+      </c>
+      <c r="T34" s="30"/>
+      <c r="U34" s="1">
+        <v>4120</v>
+      </c>
+      <c r="V34" s="30">
+        <f t="shared" si="6"/>
+        <v>41.199999999999996</v>
+      </c>
+      <c r="W34" s="30"/>
+      <c r="X34" s="30"/>
+      <c r="Y34" s="30"/>
+      <c r="Z34" s="1">
+        <v>16178</v>
+      </c>
+      <c r="AA34" s="30">
+        <f t="shared" si="7"/>
+        <v>40.445</v>
+      </c>
+      <c r="AB34" s="30"/>
+      <c r="AC34" s="1">
+        <v>25021</v>
+      </c>
+      <c r="AD34" s="30">
+        <f t="shared" si="8"/>
+        <v>62.552500000000002</v>
+      </c>
+      <c r="AE34" s="30"/>
+      <c r="AF34" s="1">
+        <v>15700</v>
+      </c>
+      <c r="AG34" s="30">
+        <f t="shared" si="9"/>
+        <v>39.25</v>
+      </c>
+    </row>
+    <row r="35" spans="2:33">
+      <c r="D35" s="1">
+        <v>982</v>
+      </c>
+      <c r="E35" s="30">
+        <f t="shared" si="10"/>
+        <v>39.28</v>
+      </c>
+      <c r="F35" s="30"/>
+      <c r="G35" s="1">
+        <v>1562</v>
+      </c>
+      <c r="H35" s="30">
+        <f t="shared" si="11"/>
+        <v>62.480000000000004</v>
+      </c>
+      <c r="I35" s="30"/>
+      <c r="J35" s="1">
+        <v>1020</v>
+      </c>
+      <c r="K35" s="30">
+        <f t="shared" si="12"/>
+        <v>40.799999999999997</v>
+      </c>
+      <c r="L35" s="30"/>
+      <c r="M35" s="30"/>
+      <c r="N35" s="30"/>
+      <c r="O35" s="1">
+        <v>3927</v>
+      </c>
+      <c r="P35" s="30">
+        <f t="shared" si="4"/>
+        <v>39.269999999999996</v>
+      </c>
+      <c r="Q35" s="30"/>
+      <c r="R35" s="1">
+        <v>9220</v>
+      </c>
+      <c r="S35" s="30">
+        <f t="shared" si="5"/>
+        <v>92.2</v>
+      </c>
+      <c r="T35" s="30"/>
+      <c r="U35" s="1">
+        <v>3940</v>
+      </c>
+      <c r="V35" s="30">
+        <f t="shared" si="6"/>
+        <v>39.4</v>
+      </c>
+      <c r="W35" s="30"/>
+      <c r="X35" s="30"/>
+      <c r="Y35" s="30"/>
+      <c r="Z35" s="1">
+        <v>16462</v>
+      </c>
+      <c r="AA35" s="30">
+        <f t="shared" si="7"/>
+        <v>41.155000000000001</v>
+      </c>
+      <c r="AB35" s="30"/>
+      <c r="AC35" s="1">
+        <v>25559</v>
+      </c>
+      <c r="AD35" s="30">
+        <f t="shared" si="8"/>
+        <v>63.897499999999994</v>
+      </c>
+      <c r="AE35" s="30"/>
+      <c r="AF35" s="1">
+        <v>16165</v>
+      </c>
+      <c r="AG35" s="30">
+        <f t="shared" si="9"/>
+        <v>40.412500000000001</v>
+      </c>
+    </row>
+    <row r="36" spans="2:33">
+      <c r="B36" s="31"/>
+      <c r="C36" s="31"/>
+      <c r="D36" s="1">
+        <v>1023</v>
+      </c>
+      <c r="E36" s="30">
+        <f t="shared" si="10"/>
+        <v>40.92</v>
+      </c>
+      <c r="F36" s="32"/>
+      <c r="G36" s="1">
+        <v>1386</v>
+      </c>
+      <c r="H36" s="30">
+        <f t="shared" si="11"/>
+        <v>55.44</v>
+      </c>
+      <c r="I36" s="32"/>
+      <c r="J36" s="1">
+        <v>1077</v>
+      </c>
+      <c r="K36" s="30">
+        <f t="shared" si="12"/>
+        <v>43.08</v>
+      </c>
+      <c r="L36" s="32"/>
+      <c r="M36" s="32"/>
+      <c r="N36" s="32"/>
+      <c r="O36" s="1">
+        <v>3974</v>
+      </c>
+      <c r="P36" s="30">
+        <f t="shared" si="4"/>
+        <v>39.739999999999995</v>
+      </c>
+      <c r="Q36" s="32"/>
+      <c r="R36" s="1">
+        <v>8790</v>
+      </c>
+      <c r="S36" s="30">
+        <f t="shared" si="5"/>
+        <v>87.9</v>
+      </c>
+      <c r="T36" s="32"/>
+      <c r="U36" s="1">
+        <v>4004</v>
+      </c>
+      <c r="V36" s="30">
+        <f t="shared" si="6"/>
+        <v>40.04</v>
+      </c>
+      <c r="W36" s="32"/>
+      <c r="X36" s="32"/>
+      <c r="Y36" s="32"/>
+      <c r="Z36" s="1">
+        <v>16316</v>
+      </c>
+      <c r="AA36" s="30">
+        <f t="shared" si="7"/>
+        <v>40.79</v>
+      </c>
+      <c r="AB36" s="32"/>
+      <c r="AC36" s="1">
+        <v>25248</v>
+      </c>
+      <c r="AD36" s="30">
+        <f t="shared" si="8"/>
+        <v>63.12</v>
+      </c>
+      <c r="AE36" s="32"/>
+      <c r="AF36" s="1">
+        <v>16608</v>
+      </c>
+      <c r="AG36" s="30">
+        <f t="shared" si="9"/>
+        <v>41.52</v>
+      </c>
+    </row>
+    <row r="37" spans="2:33">
+      <c r="B37" s="31"/>
+      <c r="C37" s="31"/>
+      <c r="D37" s="1">
+        <v>1051</v>
+      </c>
+      <c r="E37" s="30">
+        <f t="shared" si="10"/>
+        <v>42.04</v>
+      </c>
+      <c r="F37" s="32"/>
+      <c r="G37" s="1">
+        <v>1229</v>
+      </c>
+      <c r="H37" s="30">
+        <f t="shared" si="11"/>
+        <v>49.16</v>
+      </c>
+      <c r="I37" s="32"/>
+      <c r="J37" s="1">
+        <v>1074</v>
+      </c>
+      <c r="K37" s="30">
+        <f t="shared" si="12"/>
+        <v>42.96</v>
+      </c>
+      <c r="L37" s="32"/>
+      <c r="M37" s="32"/>
+      <c r="N37" s="32"/>
+      <c r="O37" s="1">
+        <v>4030</v>
+      </c>
+      <c r="P37" s="30">
+        <f t="shared" si="4"/>
+        <v>40.300000000000004</v>
+      </c>
+      <c r="Q37" s="32"/>
+      <c r="R37" s="1">
+        <v>11115</v>
+      </c>
+      <c r="S37" s="30">
+        <f t="shared" si="5"/>
+        <v>111.14999999999999</v>
+      </c>
+      <c r="T37" s="32"/>
+      <c r="U37" s="1">
+        <v>4094</v>
+      </c>
+      <c r="V37" s="30">
+        <f t="shared" si="6"/>
+        <v>40.94</v>
+      </c>
+      <c r="W37" s="32"/>
+      <c r="X37" s="32"/>
+      <c r="Y37" s="32"/>
+      <c r="Z37" s="1">
+        <v>16109</v>
+      </c>
+      <c r="AA37" s="30">
+        <f t="shared" si="7"/>
+        <v>40.272500000000001</v>
+      </c>
+      <c r="AB37" s="32"/>
+      <c r="AC37" s="1">
+        <v>48113</v>
+      </c>
+      <c r="AD37" s="30">
+        <f t="shared" si="8"/>
+        <v>120.2825</v>
+      </c>
+      <c r="AE37" s="32"/>
+      <c r="AF37" s="1">
+        <v>16066</v>
+      </c>
+      <c r="AG37" s="30">
+        <f t="shared" si="9"/>
+        <v>40.164999999999999</v>
+      </c>
+    </row>
+    <row r="38" spans="2:33">
+      <c r="B38" s="31"/>
+      <c r="C38" s="31"/>
+      <c r="D38" s="1">
+        <v>1037</v>
+      </c>
+      <c r="E38" s="30">
+        <f t="shared" si="10"/>
+        <v>41.48</v>
+      </c>
+      <c r="F38" s="32"/>
+      <c r="G38" s="1">
+        <v>1772</v>
+      </c>
+      <c r="H38" s="30">
+        <f t="shared" si="11"/>
+        <v>70.88</v>
+      </c>
+      <c r="I38" s="32"/>
+      <c r="J38" s="1">
+        <v>1080</v>
+      </c>
+      <c r="K38" s="30">
+        <f t="shared" si="12"/>
+        <v>43.2</v>
+      </c>
+      <c r="L38" s="32"/>
+      <c r="M38" s="32"/>
+      <c r="N38" s="32"/>
+      <c r="O38" s="1">
+        <v>4040</v>
+      </c>
+      <c r="P38" s="30">
+        <f t="shared" si="4"/>
+        <v>40.400000000000006</v>
+      </c>
+      <c r="Q38" s="32"/>
+      <c r="R38" s="1">
+        <v>10753</v>
+      </c>
+      <c r="S38" s="30">
+        <f t="shared" si="5"/>
+        <v>107.52999999999999</v>
+      </c>
+      <c r="T38" s="32"/>
+      <c r="U38" s="1">
+        <v>4136</v>
+      </c>
+      <c r="V38" s="30">
+        <f t="shared" si="6"/>
+        <v>41.36</v>
+      </c>
+      <c r="W38" s="32"/>
+      <c r="X38" s="32"/>
+      <c r="Y38" s="32"/>
+      <c r="Z38" s="1">
+        <v>16499</v>
+      </c>
+      <c r="AA38" s="30">
+        <f t="shared" si="7"/>
+        <v>41.247499999999995</v>
+      </c>
+      <c r="AB38" s="32"/>
+      <c r="AC38" s="1">
+        <v>50231</v>
+      </c>
+      <c r="AD38" s="30">
+        <f t="shared" si="8"/>
+        <v>125.57750000000001</v>
+      </c>
+      <c r="AE38" s="32"/>
+      <c r="AF38" s="1">
+        <v>16260</v>
+      </c>
+      <c r="AG38" s="30">
+        <f t="shared" si="9"/>
+        <v>40.65</v>
+      </c>
+    </row>
+    <row r="39" spans="2:33">
+      <c r="D39" s="1">
+        <v>1041</v>
+      </c>
+      <c r="E39" s="30">
+        <f t="shared" si="10"/>
+        <v>41.64</v>
+      </c>
+      <c r="F39" s="30"/>
+      <c r="G39" s="1">
+        <v>1706</v>
+      </c>
+      <c r="H39" s="30">
+        <f t="shared" si="11"/>
+        <v>68.239999999999995</v>
+      </c>
+      <c r="I39" s="30"/>
+      <c r="J39" s="1">
+        <v>1110</v>
+      </c>
+      <c r="K39" s="30">
+        <f t="shared" si="12"/>
+        <v>44.4</v>
+      </c>
+      <c r="L39" s="30"/>
+      <c r="M39" s="30"/>
+      <c r="N39" s="30"/>
+      <c r="O39" s="1">
+        <v>4154</v>
+      </c>
+      <c r="P39" s="30">
+        <f t="shared" si="4"/>
+        <v>41.54</v>
+      </c>
+      <c r="Q39" s="30"/>
+      <c r="R39" s="1">
+        <v>11343</v>
+      </c>
+      <c r="S39" s="30">
+        <f t="shared" si="5"/>
+        <v>113.43</v>
+      </c>
+      <c r="T39" s="30"/>
+      <c r="U39" s="1">
+        <v>4174</v>
+      </c>
+      <c r="V39" s="30">
+        <f t="shared" si="6"/>
+        <v>41.74</v>
+      </c>
+      <c r="W39" s="30"/>
+      <c r="X39" s="30"/>
+      <c r="Y39" s="30"/>
+      <c r="Z39" s="1">
+        <v>16299</v>
+      </c>
+      <c r="AA39" s="30">
+        <f t="shared" si="7"/>
+        <v>40.747499999999995</v>
+      </c>
+      <c r="AB39" s="30"/>
+      <c r="AC39" s="1">
+        <v>50208</v>
+      </c>
+      <c r="AD39" s="30">
+        <f t="shared" si="8"/>
+        <v>125.52000000000001</v>
+      </c>
+      <c r="AE39" s="30"/>
+      <c r="AF39" s="1">
+        <v>16249</v>
+      </c>
+      <c r="AG39" s="30">
+        <f t="shared" si="9"/>
+        <v>40.622500000000002</v>
+      </c>
+    </row>
+    <row r="40" spans="2:33" ht="15" thickBot="1">
+      <c r="D40" s="1">
+        <v>1076</v>
+      </c>
+      <c r="E40" s="30">
+        <f t="shared" si="10"/>
+        <v>43.04</v>
+      </c>
+      <c r="F40" s="30"/>
+      <c r="G40" s="1">
+        <v>1759</v>
+      </c>
+      <c r="H40" s="30">
+        <f t="shared" si="11"/>
+        <v>70.36</v>
+      </c>
+      <c r="I40" s="30"/>
+      <c r="J40" s="1">
+        <v>1113</v>
+      </c>
+      <c r="K40" s="30">
+        <f t="shared" si="12"/>
+        <v>44.519999999999996</v>
+      </c>
+      <c r="L40" s="30"/>
+      <c r="M40" s="30"/>
+      <c r="N40" s="30"/>
+      <c r="O40" s="2">
+        <v>4177</v>
+      </c>
+      <c r="P40" s="30">
+        <f t="shared" si="4"/>
+        <v>41.77</v>
+      </c>
+      <c r="Q40" s="30"/>
+      <c r="R40" s="2">
+        <v>10971</v>
+      </c>
+      <c r="S40" s="30">
+        <f t="shared" si="5"/>
+        <v>109.71</v>
+      </c>
+      <c r="T40" s="30"/>
+      <c r="U40" s="2">
+        <v>4266</v>
+      </c>
+      <c r="V40" s="30">
+        <f t="shared" si="6"/>
+        <v>42.66</v>
+      </c>
+      <c r="W40" s="30"/>
+      <c r="X40" s="30"/>
+      <c r="Y40" s="30"/>
+      <c r="Z40" s="1">
+        <v>16494</v>
+      </c>
+      <c r="AA40" s="30">
+        <f t="shared" si="7"/>
+        <v>41.234999999999999</v>
+      </c>
+      <c r="AB40" s="30"/>
+      <c r="AC40" s="1">
+        <v>50808</v>
+      </c>
+      <c r="AD40" s="30">
+        <f t="shared" si="8"/>
+        <v>127.02</v>
+      </c>
+      <c r="AE40" s="30"/>
+      <c r="AF40" s="1">
+        <v>16214</v>
+      </c>
+      <c r="AG40" s="30">
+        <f t="shared" si="9"/>
+        <v>40.534999999999997</v>
+      </c>
+    </row>
+    <row r="41" spans="2:33" ht="15" thickBot="1">
+      <c r="D41" s="2">
+        <v>1083</v>
+      </c>
+      <c r="E41" s="30">
+        <f t="shared" si="10"/>
+        <v>43.32</v>
+      </c>
+      <c r="F41" s="30"/>
+      <c r="G41" s="2">
+        <v>1680</v>
+      </c>
+      <c r="H41" s="30">
+        <f t="shared" si="11"/>
+        <v>67.2</v>
+      </c>
+      <c r="I41" s="30"/>
+      <c r="J41" s="2">
+        <v>1150</v>
+      </c>
+      <c r="K41" s="30">
+        <f t="shared" si="12"/>
+        <v>46</v>
+      </c>
+      <c r="L41" s="30"/>
+      <c r="M41" s="30"/>
+      <c r="N41" s="30"/>
+      <c r="O41" s="4">
+        <f t="shared" ref="O41" si="13">AVERAGE(O31:O40)</f>
+        <v>3914.5</v>
+      </c>
+      <c r="P41" s="33">
+        <f t="shared" ref="O41:P41" si="14">AVERAGE(P31:P40)</f>
+        <v>39.144999999999996</v>
+      </c>
+      <c r="Q41" s="30"/>
+      <c r="R41" s="4">
+        <f t="shared" ref="R41" si="15">AVERAGE(R31:R40)</f>
+        <v>9378</v>
+      </c>
+      <c r="S41" s="33">
+        <f t="shared" ref="R41:S41" si="16">AVERAGE(S31:S40)</f>
+        <v>93.78</v>
+      </c>
+      <c r="T41" s="30"/>
+      <c r="U41" s="4">
+        <f t="shared" ref="U41" si="17">AVERAGE(U31:U40)</f>
+        <v>4006.4</v>
+      </c>
+      <c r="V41" s="33">
+        <f t="shared" ref="U41:V41" si="18">AVERAGE(V31:V40)</f>
+        <v>40.064</v>
+      </c>
+      <c r="W41" s="30"/>
+      <c r="X41" s="30"/>
+      <c r="Y41" s="30"/>
+      <c r="Z41" s="12">
+        <f t="shared" ref="Z41" si="19">AVERAGE(Z31:Z40)</f>
+        <v>16044</v>
+      </c>
+      <c r="AA41" s="33">
+        <f t="shared" ref="Z41:AA41" si="20">AVERAGE(AA31:AA40)</f>
+        <v>40.11</v>
+      </c>
+      <c r="AB41" s="30"/>
+      <c r="AC41" s="12">
+        <f t="shared" ref="AC41" si="21">AVERAGE(AC31:AC40)</f>
+        <v>34078.1</v>
+      </c>
+      <c r="AD41" s="33">
+        <f t="shared" ref="AC41:AD41" si="22">AVERAGE(AD31:AD40)</f>
+        <v>85.195250000000001</v>
+      </c>
+      <c r="AE41" s="30"/>
+      <c r="AF41" s="12">
+        <f t="shared" ref="AF41" si="23">AVERAGE(AF31:AF40)</f>
+        <v>15982</v>
+      </c>
+      <c r="AG41" s="33">
+        <f t="shared" ref="AF41:AG41" si="24">AVERAGE(AG31:AG40)</f>
+        <v>39.954999999999998</v>
+      </c>
+    </row>
+    <row r="42" spans="2:33" ht="15" thickBot="1">
+      <c r="D42" s="4">
+        <f t="shared" ref="D42" si="25">AVERAGE(D32:D41)</f>
+        <v>1014.3</v>
+      </c>
+      <c r="E42" s="33">
+        <f>AVERAGE(E32:E41)</f>
+        <v>40.571999999999996</v>
+      </c>
+      <c r="F42" s="30"/>
+      <c r="G42" s="4">
+        <f t="shared" ref="G42" si="26">AVERAGE(G32:G41)</f>
+        <v>1540.9</v>
+      </c>
+      <c r="H42" s="33">
+        <f t="shared" ref="G42:H42" si="27">AVERAGE(H32:H41)</f>
+        <v>61.636000000000003</v>
+      </c>
+      <c r="I42" s="30"/>
+      <c r="J42" s="4">
+        <f t="shared" ref="J42" si="28">AVERAGE(J32:J41)</f>
+        <v>1053.4000000000001</v>
+      </c>
+      <c r="K42" s="33">
+        <f>AVERAGE(K32:K41)</f>
+        <v>42.135999999999996</v>
+      </c>
+      <c r="L42" s="30"/>
+      <c r="M42" s="30"/>
+      <c r="N42" s="30"/>
+      <c r="O42" s="30"/>
+      <c r="P42" s="30"/>
+      <c r="Q42" s="30"/>
+      <c r="R42" s="30"/>
+      <c r="S42" s="30"/>
+      <c r="T42" s="30"/>
+      <c r="U42" s="30"/>
+      <c r="V42" s="30"/>
+      <c r="W42" s="30"/>
+      <c r="X42" s="30"/>
+      <c r="Y42" s="30"/>
+      <c r="Z42" s="30"/>
+      <c r="AA42" s="30"/>
+      <c r="AB42" s="30"/>
+      <c r="AC42" s="30"/>
+      <c r="AD42" s="30"/>
+      <c r="AE42" s="30"/>
+      <c r="AF42" s="30"/>
+      <c r="AG42" s="30"/>
+    </row>
+    <row r="43" spans="2:33">
+      <c r="D43" s="30"/>
+      <c r="E43" s="30"/>
+      <c r="F43" s="30"/>
+      <c r="G43" s="30"/>
+      <c r="H43" s="30"/>
+      <c r="I43" s="30"/>
+      <c r="J43" s="30"/>
+      <c r="K43" s="30"/>
+      <c r="L43" s="30"/>
+      <c r="M43" s="30"/>
+      <c r="N43" s="30"/>
+      <c r="O43" s="30"/>
+      <c r="P43" s="30"/>
+      <c r="Q43" s="30"/>
+      <c r="R43" s="30"/>
+      <c r="S43" s="30"/>
+      <c r="T43" s="30"/>
+      <c r="U43" s="30"/>
+      <c r="V43" s="30"/>
+      <c r="W43" s="30"/>
+      <c r="X43" s="30"/>
+      <c r="Y43" s="30"/>
+      <c r="Z43" s="30"/>
+      <c r="AA43" s="30"/>
+      <c r="AB43" s="30"/>
+      <c r="AC43" s="30"/>
+      <c r="AD43" s="30"/>
+      <c r="AE43" s="30"/>
+      <c r="AF43" s="30"/>
+      <c r="AG43" s="30"/>
+    </row>
+  </sheetData>
+  <mergeCells count="30">
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="N13:V13"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="Y14:AG14"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="Y5:AG5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="Y6:AG6"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+  </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+  <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
 </worksheet>
 </file>
--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="11840" activeTab="2"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="11840"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="733" uniqueCount="43">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="46">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -145,6 +145,15 @@
   </si>
   <si>
     <t>III</t>
+  </si>
+  <si>
+    <t>Skrypty</t>
+  </si>
+  <si>
+    <t>Tak</t>
+  </si>
+  <si>
+    <t>Nie</t>
   </si>
 </sst>
 </file>
@@ -390,7 +399,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="35">
+  <cellXfs count="36">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -427,6 +436,17 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment wrapText="1"/>
     </xf>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
@@ -438,20 +458,12 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
+    </xf>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normalny" xfId="0" builtinId="0"/>
@@ -753,15 +765,16 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF103"/>
+  <dimension ref="A1:AF113"/>
   <sheetViews>
-    <sheetView zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="A4" sqref="A4:AF18"/>
+    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
+      <selection activeCell="J112" sqref="J112"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <cols>
     <col min="1" max="1" width="16.1796875" customWidth="1"/>
+    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
@@ -866,17 +879,17 @@
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="22" t="s">
+      <c r="X4" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="23"/>
-      <c r="Z4" s="23"/>
-      <c r="AA4" s="23"/>
-      <c r="AB4" s="23"/>
-      <c r="AC4" s="23"/>
-      <c r="AD4" s="23"/>
-      <c r="AE4" s="23"/>
-      <c r="AF4" s="24"/>
+      <c r="Y4" s="30"/>
+      <c r="Z4" s="30"/>
+      <c r="AA4" s="30"/>
+      <c r="AB4" s="30"/>
+      <c r="AC4" s="30"/>
+      <c r="AD4" s="30"/>
+      <c r="AE4" s="30"/>
+      <c r="AF4" s="31"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
@@ -910,17 +923,17 @@
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="22" t="s">
+      <c r="X5" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="23"/>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="24"/>
+      <c r="Y5" s="30"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="31"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
@@ -962,21 +975,21 @@
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="22" t="s">
+      <c r="X6" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="23"/>
-      <c r="Z6" s="24"/>
-      <c r="AA6" s="22" t="s">
+      <c r="Y6" s="30"/>
+      <c r="Z6" s="31"/>
+      <c r="AA6" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="24"/>
-      <c r="AD6" s="22" t="s">
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="31"/>
+      <c r="AD6" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="24"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="31"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -2106,122 +2119,122 @@
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="22" t="s">
+      <c r="B22" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="23"/>
-      <c r="D22" s="23"/>
-      <c r="E22" s="23"/>
-      <c r="F22" s="23"/>
-      <c r="G22" s="23"/>
-      <c r="H22" s="23"/>
-      <c r="I22" s="23"/>
-      <c r="J22" s="24"/>
+      <c r="C22" s="30"/>
+      <c r="D22" s="30"/>
+      <c r="E22" s="30"/>
+      <c r="F22" s="30"/>
+      <c r="G22" s="30"/>
+      <c r="H22" s="30"/>
+      <c r="I22" s="30"/>
+      <c r="J22" s="31"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="22" t="s">
+      <c r="M22" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="23"/>
-      <c r="O22" s="23"/>
-      <c r="P22" s="23"/>
-      <c r="Q22" s="23"/>
-      <c r="R22" s="23"/>
-      <c r="S22" s="23"/>
-      <c r="T22" s="23"/>
-      <c r="U22" s="24"/>
+      <c r="N22" s="30"/>
+      <c r="O22" s="30"/>
+      <c r="P22" s="30"/>
+      <c r="Q22" s="30"/>
+      <c r="R22" s="30"/>
+      <c r="S22" s="30"/>
+      <c r="T22" s="30"/>
+      <c r="U22" s="31"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="22" t="s">
+      <c r="X22" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="23"/>
-      <c r="Z22" s="23"/>
-      <c r="AA22" s="23"/>
-      <c r="AB22" s="23"/>
-      <c r="AC22" s="23"/>
-      <c r="AD22" s="23"/>
-      <c r="AE22" s="23"/>
-      <c r="AF22" s="24"/>
+      <c r="Y22" s="30"/>
+      <c r="Z22" s="30"/>
+      <c r="AA22" s="30"/>
+      <c r="AB22" s="30"/>
+      <c r="AC22" s="30"/>
+      <c r="AD22" s="30"/>
+      <c r="AE22" s="30"/>
+      <c r="AF22" s="31"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="22" t="s">
+      <c r="B23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="23"/>
-      <c r="D23" s="23"/>
-      <c r="E23" s="23"/>
-      <c r="F23" s="23"/>
-      <c r="G23" s="23"/>
-      <c r="H23" s="23"/>
-      <c r="I23" s="23"/>
-      <c r="J23" s="24"/>
+      <c r="C23" s="30"/>
+      <c r="D23" s="30"/>
+      <c r="E23" s="30"/>
+      <c r="F23" s="30"/>
+      <c r="G23" s="30"/>
+      <c r="H23" s="30"/>
+      <c r="I23" s="30"/>
+      <c r="J23" s="31"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="22" t="s">
+      <c r="M23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="23"/>
-      <c r="O23" s="23"/>
-      <c r="P23" s="23"/>
-      <c r="Q23" s="23"/>
-      <c r="R23" s="23"/>
-      <c r="S23" s="23"/>
-      <c r="T23" s="23"/>
-      <c r="U23" s="24"/>
+      <c r="N23" s="30"/>
+      <c r="O23" s="30"/>
+      <c r="P23" s="30"/>
+      <c r="Q23" s="30"/>
+      <c r="R23" s="30"/>
+      <c r="S23" s="30"/>
+      <c r="T23" s="30"/>
+      <c r="U23" s="31"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="22" t="s">
+      <c r="X23" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="23"/>
-      <c r="Z23" s="23"/>
-      <c r="AA23" s="23"/>
-      <c r="AB23" s="23"/>
-      <c r="AC23" s="23"/>
-      <c r="AD23" s="23"/>
-      <c r="AE23" s="23"/>
-      <c r="AF23" s="24"/>
+      <c r="Y23" s="30"/>
+      <c r="Z23" s="30"/>
+      <c r="AA23" s="30"/>
+      <c r="AB23" s="30"/>
+      <c r="AC23" s="30"/>
+      <c r="AD23" s="30"/>
+      <c r="AE23" s="30"/>
+      <c r="AF23" s="31"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="22" t="s">
+      <c r="B24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="25"/>
-      <c r="D24" s="26"/>
-      <c r="E24" s="22" t="s">
+      <c r="C24" s="32"/>
+      <c r="D24" s="33"/>
+      <c r="E24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="25"/>
-      <c r="G24" s="26"/>
-      <c r="H24" s="22" t="s">
+      <c r="F24" s="32"/>
+      <c r="G24" s="33"/>
+      <c r="H24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="25"/>
-      <c r="J24" s="26"/>
+      <c r="I24" s="32"/>
+      <c r="J24" s="33"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="22" t="s">
+      <c r="M24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="23"/>
-      <c r="O24" s="24"/>
-      <c r="P24" s="22" t="s">
+      <c r="N24" s="30"/>
+      <c r="O24" s="31"/>
+      <c r="P24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="23"/>
-      <c r="R24" s="24"/>
+      <c r="Q24" s="30"/>
+      <c r="R24" s="31"/>
       <c r="S24" s="27" t="s">
         <v>7</v>
       </c>
@@ -2230,21 +2243,21 @@
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="22" t="s">
+      <c r="X24" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="23"/>
-      <c r="Z24" s="24"/>
-      <c r="AA24" s="22" t="s">
+      <c r="Y24" s="30"/>
+      <c r="Z24" s="31"/>
+      <c r="AA24" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="23"/>
-      <c r="AC24" s="24"/>
-      <c r="AD24" s="22" t="s">
+      <c r="AB24" s="30"/>
+      <c r="AC24" s="31"/>
+      <c r="AD24" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="23"/>
-      <c r="AF24" s="24"/>
+      <c r="AE24" s="30"/>
+      <c r="AF24" s="31"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="9"/>
@@ -4245,16 +4258,16 @@
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="22" t="s">
+      <c r="B60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="23"/>
-      <c r="D60" s="24"/>
-      <c r="E60" s="22" t="s">
+      <c r="C60" s="30"/>
+      <c r="D60" s="31"/>
+      <c r="E60" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="23"/>
-      <c r="G60" s="24"/>
+      <c r="F60" s="30"/>
+      <c r="G60" s="31"/>
       <c r="H60" s="27" t="s">
         <v>7</v>
       </c>
@@ -4263,16 +4276,16 @@
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="22" t="s">
+      <c r="M60" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="23"/>
-      <c r="O60" s="24"/>
-      <c r="P60" s="22" t="s">
+      <c r="N60" s="30"/>
+      <c r="O60" s="31"/>
+      <c r="P60" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="23"/>
-      <c r="R60" s="24"/>
+      <c r="Q60" s="30"/>
+      <c r="R60" s="31"/>
       <c r="S60" s="27" t="s">
         <v>7</v>
       </c>
@@ -5512,16 +5525,16 @@
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="22" t="s">
+      <c r="B76" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="23"/>
-      <c r="D76" s="24"/>
-      <c r="E76" s="22" t="s">
+      <c r="C76" s="30"/>
+      <c r="D76" s="31"/>
+      <c r="E76" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="23"/>
-      <c r="G76" s="24"/>
+      <c r="F76" s="30"/>
+      <c r="G76" s="31"/>
       <c r="H76" s="27" t="s">
         <v>7</v>
       </c>
@@ -7186,16 +7199,16 @@
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="22" t="s">
+      <c r="M101" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="23"/>
-      <c r="O101" s="24"/>
-      <c r="P101" s="22" t="s">
+      <c r="N101" s="30"/>
+      <c r="O101" s="31"/>
+      <c r="P101" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="23"/>
-      <c r="R101" s="24"/>
+      <c r="Q101" s="30"/>
+      <c r="R101" s="31"/>
       <c r="S101" s="27" t="s">
         <v>7</v>
       </c>
@@ -7395,8 +7408,234 @@
         <v>716</v>
       </c>
     </row>
+    <row r="105" spans="1:32">
+      <c r="C105" t="s">
+        <v>43</v>
+      </c>
+      <c r="D105" t="s">
+        <v>1</v>
+      </c>
+      <c r="E105" t="s">
+        <v>26</v>
+      </c>
+      <c r="F105" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="106" spans="1:32">
+      <c r="B106" s="35" t="s">
+        <v>32</v>
+      </c>
+      <c r="C106" t="s">
+        <v>44</v>
+      </c>
+      <c r="D106">
+        <f>AVERAGE(B97,E97,H97)</f>
+        <v>2.0323333333333333</v>
+      </c>
+    </row>
+    <row r="107" spans="1:32">
+      <c r="B107" s="35"/>
+      <c r="C107" t="s">
+        <v>45</v>
+      </c>
+      <c r="D107">
+        <f>AVERAGE(B103,E103,H103)</f>
+        <v>1.6740000000000002</v>
+      </c>
+      <c r="F107">
+        <f>D107/D106</f>
+        <v>0.82368377890765954</v>
+      </c>
+    </row>
+    <row r="108" spans="1:32">
+      <c r="B108" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C108" t="s">
+        <v>44</v>
+      </c>
+      <c r="D108">
+        <f>AVERAGE(B72,E72,H72)</f>
+        <v>2.0333333333333332</v>
+      </c>
+    </row>
+    <row r="109" spans="1:32">
+      <c r="B109" s="35"/>
+      <c r="C109" t="s">
+        <v>45</v>
+      </c>
+      <c r="D109">
+        <f>AVERAGE(B78,E78,H78)</f>
+        <v>1.7983333333333336</v>
+      </c>
+      <c r="F109">
+        <f>D109/D108</f>
+        <v>0.88442622950819694</v>
+      </c>
+    </row>
+    <row r="110" spans="1:32">
+      <c r="B110" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="C110" t="s">
+        <v>44</v>
+      </c>
+      <c r="D110">
+        <f>AVERAGE(B45,E45,H45)</f>
+        <v>2.4676666666666662</v>
+      </c>
+    </row>
+    <row r="111" spans="1:32">
+      <c r="B111" s="35"/>
+      <c r="C111" t="s">
+        <v>45</v>
+      </c>
+      <c r="D111">
+        <f>AVERAGE(B53,E53,H53)</f>
+        <v>1.7636666666666667</v>
+      </c>
+      <c r="F111">
+        <f>D111/D110</f>
+        <v>0.7147102526002973</v>
+      </c>
+      <c r="J111">
+        <f>AVERAGE(F107,F109,F111,F113)</f>
+        <v>0.81594739770386804</v>
+      </c>
+    </row>
+    <row r="112" spans="1:32">
+      <c r="B112" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="C112" t="s">
+        <v>44</v>
+      </c>
+      <c r="D112">
+        <f>AVERAGE(B18,E18,H18)</f>
+        <v>4.4016666666666664</v>
+      </c>
+    </row>
+    <row r="113" spans="2:6">
+      <c r="B113" s="35"/>
+      <c r="C113" t="s">
+        <v>45</v>
+      </c>
+      <c r="D113">
+        <f>AVERAGE(B26,E26,H26)</f>
+        <v>3.7016666666666667</v>
+      </c>
+      <c r="F113">
+        <f>D113/D112</f>
+        <v>0.84096932979931849</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="124">
+  <mergeCells count="128">
+    <mergeCell ref="B106:B107"/>
+    <mergeCell ref="B108:B109"/>
+    <mergeCell ref="B110:B111"/>
+    <mergeCell ref="B112:B113"/>
+    <mergeCell ref="X4:AF4"/>
+    <mergeCell ref="X5:AF5"/>
+    <mergeCell ref="X6:Z6"/>
+    <mergeCell ref="AA6:AC6"/>
+    <mergeCell ref="AD6:AF6"/>
+    <mergeCell ref="B23:J23"/>
+    <mergeCell ref="B24:D24"/>
+    <mergeCell ref="E24:G24"/>
+    <mergeCell ref="H24:J24"/>
+    <mergeCell ref="M4:U4"/>
+    <mergeCell ref="M5:U5"/>
+    <mergeCell ref="M6:O6"/>
+    <mergeCell ref="P6:R6"/>
+    <mergeCell ref="S6:U6"/>
+    <mergeCell ref="M22:U22"/>
+    <mergeCell ref="B4:J4"/>
+    <mergeCell ref="B5:J5"/>
+    <mergeCell ref="B6:D6"/>
+    <mergeCell ref="E6:G6"/>
+    <mergeCell ref="H6:J6"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="X23:AF23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="A28:AF29"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="X31:AF31"/>
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X33:Z33"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="A55:AF56"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="X49:AF49"/>
+    <mergeCell ref="X50:AF50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="X58:AF58"/>
+    <mergeCell ref="X59:AF59"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
     <mergeCell ref="X101:Z101"/>
     <mergeCell ref="AA101:AC101"/>
     <mergeCell ref="AD101:AF101"/>
@@ -7421,106 +7660,6 @@
     <mergeCell ref="P85:R85"/>
     <mergeCell ref="S85:U85"/>
     <mergeCell ref="M99:U99"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="A55:AF56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="X49:AF49"/>
-    <mergeCell ref="X50:AF50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="X58:AF58"/>
-    <mergeCell ref="X59:AF59"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="A28:AF29"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="X31:AF31"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="X4:AF4"/>
-    <mergeCell ref="X5:AF5"/>
-    <mergeCell ref="X6:Z6"/>
-    <mergeCell ref="AA6:AC6"/>
-    <mergeCell ref="AD6:AF6"/>
-    <mergeCell ref="B23:J23"/>
-    <mergeCell ref="B24:D24"/>
-    <mergeCell ref="E24:G24"/>
-    <mergeCell ref="H24:J24"/>
-    <mergeCell ref="M4:U4"/>
-    <mergeCell ref="M5:U5"/>
-    <mergeCell ref="M6:O6"/>
-    <mergeCell ref="P6:R6"/>
-    <mergeCell ref="S6:U6"/>
-    <mergeCell ref="M22:U22"/>
-    <mergeCell ref="B4:J4"/>
-    <mergeCell ref="B5:J5"/>
-    <mergeCell ref="B6:D6"/>
-    <mergeCell ref="E6:G6"/>
-    <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="X22:AF22"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
@@ -7541,30 +7680,30 @@
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="29" t="s">
+      <c r="A2" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="29"/>
-      <c r="C2" s="29"/>
-      <c r="D2" s="29"/>
-      <c r="E2" s="29" t="s">
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="29"/>
-      <c r="G2" s="29"/>
-      <c r="H2" s="29"/>
-      <c r="I2" s="29" t="s">
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="29"/>
-      <c r="K2" s="29"/>
-      <c r="L2" s="29"/>
-      <c r="M2" s="29" t="s">
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="29"/>
-      <c r="O2" s="29"/>
-      <c r="P2" s="29"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -8281,254 +8420,254 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="A1:AG43"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="V28" workbookViewId="0">
+    <sheetView topLeftCell="V28" workbookViewId="0">
       <selection activeCell="AG31" sqref="AG31:AG41"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.5"/>
   <sheetData>
     <row r="1" spans="1:33">
-      <c r="A1" s="31" t="s">
+      <c r="A1" s="23" t="s">
         <v>40</v>
       </c>
-      <c r="B1" s="31">
+      <c r="B1" s="23">
         <f>50*50</f>
         <v>2500</v>
       </c>
     </row>
     <row r="2" spans="1:33">
-      <c r="A2" s="31" t="s">
+      <c r="A2" s="23" t="s">
         <v>41</v>
       </c>
-      <c r="B2" s="31">
+      <c r="B2" s="23">
         <f>100*100</f>
         <v>10000</v>
       </c>
-      <c r="C2" s="31"/>
-      <c r="D2" s="31"/>
-      <c r="E2" s="31"/>
-      <c r="F2" s="31"/>
-      <c r="G2" s="31"/>
-      <c r="H2" s="31"/>
-      <c r="I2" s="31"/>
-      <c r="J2" s="31"/>
-      <c r="K2" s="31"/>
-      <c r="L2" s="31"/>
-      <c r="M2" s="31"/>
-      <c r="N2" s="31"/>
-      <c r="O2" s="31"/>
-      <c r="P2" s="31"/>
-      <c r="Q2" s="31"/>
-      <c r="R2" s="31"/>
-      <c r="S2" s="31"/>
-      <c r="T2" s="31"/>
-      <c r="U2" s="31"/>
-      <c r="V2" s="31"/>
-      <c r="W2" s="31"/>
-      <c r="X2" s="31"/>
-      <c r="Y2" s="31"/>
-      <c r="Z2" s="31"/>
-      <c r="AA2" s="31"/>
-      <c r="AB2" s="31"/>
-      <c r="AC2" s="31"/>
-      <c r="AD2" s="31"/>
-      <c r="AE2" s="31"/>
-      <c r="AF2" s="31"/>
-      <c r="AG2" s="31"/>
+      <c r="C2" s="23"/>
+      <c r="D2" s="23"/>
+      <c r="E2" s="23"/>
+      <c r="F2" s="23"/>
+      <c r="G2" s="23"/>
+      <c r="H2" s="23"/>
+      <c r="I2" s="23"/>
+      <c r="J2" s="23"/>
+      <c r="K2" s="23"/>
+      <c r="L2" s="23"/>
+      <c r="M2" s="23"/>
+      <c r="N2" s="23"/>
+      <c r="O2" s="23"/>
+      <c r="P2" s="23"/>
+      <c r="Q2" s="23"/>
+      <c r="R2" s="23"/>
+      <c r="S2" s="23"/>
+      <c r="T2" s="23"/>
+      <c r="U2" s="23"/>
+      <c r="V2" s="23"/>
+      <c r="W2" s="23"/>
+      <c r="X2" s="23"/>
+      <c r="Y2" s="23"/>
+      <c r="Z2" s="23"/>
+      <c r="AA2" s="23"/>
+      <c r="AB2" s="23"/>
+      <c r="AC2" s="23"/>
+      <c r="AD2" s="23"/>
+      <c r="AE2" s="23"/>
+      <c r="AF2" s="23"/>
+      <c r="AG2" s="23"/>
     </row>
     <row r="3" spans="1:33">
-      <c r="A3" s="31" t="s">
+      <c r="A3" s="23" t="s">
         <v>42</v>
       </c>
-      <c r="B3" s="31">
+      <c r="B3" s="23">
         <f>200*200</f>
         <v>40000</v>
       </c>
-      <c r="C3" s="31"/>
-      <c r="D3" s="31"/>
-      <c r="E3" s="31"/>
-      <c r="F3" s="31"/>
-      <c r="G3" s="31"/>
-      <c r="H3" s="31"/>
-      <c r="I3" s="31"/>
-      <c r="J3" s="31"/>
-      <c r="K3" s="31"/>
-      <c r="L3" s="31"/>
-      <c r="M3" s="31"/>
-      <c r="N3" s="31"/>
-      <c r="O3" s="31"/>
-      <c r="P3" s="31"/>
-      <c r="Q3" s="31"/>
-      <c r="R3" s="31"/>
-      <c r="S3" s="31"/>
-      <c r="T3" s="31"/>
-      <c r="U3" s="31"/>
-      <c r="V3" s="31"/>
-      <c r="W3" s="31"/>
-      <c r="X3" s="31"/>
-      <c r="Y3" s="31"/>
-      <c r="Z3" s="31"/>
-      <c r="AA3" s="31"/>
-      <c r="AB3" s="31"/>
-      <c r="AC3" s="31"/>
-      <c r="AD3" s="31"/>
-      <c r="AE3" s="31"/>
-      <c r="AF3" s="31"/>
-      <c r="AG3" s="31"/>
+      <c r="C3" s="23"/>
+      <c r="D3" s="23"/>
+      <c r="E3" s="23"/>
+      <c r="F3" s="23"/>
+      <c r="G3" s="23"/>
+      <c r="H3" s="23"/>
+      <c r="I3" s="23"/>
+      <c r="J3" s="23"/>
+      <c r="K3" s="23"/>
+      <c r="L3" s="23"/>
+      <c r="M3" s="23"/>
+      <c r="N3" s="23"/>
+      <c r="O3" s="23"/>
+      <c r="P3" s="23"/>
+      <c r="Q3" s="23"/>
+      <c r="R3" s="23"/>
+      <c r="S3" s="23"/>
+      <c r="T3" s="23"/>
+      <c r="U3" s="23"/>
+      <c r="V3" s="23"/>
+      <c r="W3" s="23"/>
+      <c r="X3" s="23"/>
+      <c r="Y3" s="23"/>
+      <c r="Z3" s="23"/>
+      <c r="AA3" s="23"/>
+      <c r="AB3" s="23"/>
+      <c r="AC3" s="23"/>
+      <c r="AD3" s="23"/>
+      <c r="AE3" s="23"/>
+      <c r="AF3" s="23"/>
+      <c r="AG3" s="23"/>
     </row>
     <row r="4" spans="1:33">
-      <c r="C4" s="31"/>
-      <c r="D4" s="31"/>
-      <c r="E4" s="31"/>
-      <c r="F4" s="31"/>
-      <c r="G4" s="31"/>
-      <c r="H4" s="31"/>
-      <c r="I4" s="31"/>
-      <c r="J4" s="31"/>
-      <c r="K4" s="31"/>
-      <c r="L4" s="31"/>
-      <c r="M4" s="31"/>
-      <c r="N4" s="31"/>
-      <c r="O4" s="31"/>
-      <c r="P4" s="31"/>
-      <c r="Q4" s="31"/>
-      <c r="R4" s="31"/>
-      <c r="S4" s="31"/>
-      <c r="T4" s="31"/>
-      <c r="U4" s="31"/>
-      <c r="V4" s="31"/>
-      <c r="W4" s="31"/>
-      <c r="X4" s="31"/>
-      <c r="Y4" s="31"/>
-      <c r="Z4" s="31"/>
-      <c r="AA4" s="31"/>
-      <c r="AB4" s="31"/>
-      <c r="AC4" s="31"/>
-      <c r="AD4" s="31"/>
-      <c r="AE4" s="31"/>
-      <c r="AF4" s="31"/>
-      <c r="AG4" s="31"/>
+      <c r="C4" s="23"/>
+      <c r="D4" s="23"/>
+      <c r="E4" s="23"/>
+      <c r="F4" s="23"/>
+      <c r="G4" s="23"/>
+      <c r="H4" s="23"/>
+      <c r="I4" s="23"/>
+      <c r="J4" s="23"/>
+      <c r="K4" s="23"/>
+      <c r="L4" s="23"/>
+      <c r="M4" s="23"/>
+      <c r="N4" s="23"/>
+      <c r="O4" s="23"/>
+      <c r="P4" s="23"/>
+      <c r="Q4" s="23"/>
+      <c r="R4" s="23"/>
+      <c r="S4" s="23"/>
+      <c r="T4" s="23"/>
+      <c r="U4" s="23"/>
+      <c r="V4" s="23"/>
+      <c r="W4" s="23"/>
+      <c r="X4" s="23"/>
+      <c r="Y4" s="23"/>
+      <c r="Z4" s="23"/>
+      <c r="AA4" s="23"/>
+      <c r="AB4" s="23"/>
+      <c r="AC4" s="23"/>
+      <c r="AD4" s="23"/>
+      <c r="AE4" s="23"/>
+      <c r="AF4" s="23"/>
+      <c r="AG4" s="23"/>
     </row>
     <row r="5" spans="1:33">
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="22" t="s">
+      <c r="C5" s="29" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="23"/>
-      <c r="E5" s="23"/>
-      <c r="F5" s="23"/>
-      <c r="G5" s="23"/>
-      <c r="H5" s="23"/>
-      <c r="I5" s="23"/>
-      <c r="J5" s="23"/>
-      <c r="K5" s="24"/>
+      <c r="D5" s="30"/>
+      <c r="E5" s="30"/>
+      <c r="F5" s="30"/>
+      <c r="G5" s="30"/>
+      <c r="H5" s="30"/>
+      <c r="I5" s="30"/>
+      <c r="J5" s="30"/>
+      <c r="K5" s="31"/>
       <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="22" t="s">
+      <c r="N5" s="29" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="23"/>
-      <c r="P5" s="23"/>
-      <c r="Q5" s="23"/>
-      <c r="R5" s="23"/>
-      <c r="S5" s="23"/>
-      <c r="T5" s="23"/>
-      <c r="U5" s="23"/>
-      <c r="V5" s="24"/>
+      <c r="O5" s="30"/>
+      <c r="P5" s="30"/>
+      <c r="Q5" s="30"/>
+      <c r="R5" s="30"/>
+      <c r="S5" s="30"/>
+      <c r="T5" s="30"/>
+      <c r="U5" s="30"/>
+      <c r="V5" s="31"/>
       <c r="X5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="22" t="s">
+      <c r="Y5" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="23"/>
-      <c r="AA5" s="23"/>
-      <c r="AB5" s="23"/>
-      <c r="AC5" s="23"/>
-      <c r="AD5" s="23"/>
-      <c r="AE5" s="23"/>
-      <c r="AF5" s="23"/>
-      <c r="AG5" s="24"/>
+      <c r="Z5" s="30"/>
+      <c r="AA5" s="30"/>
+      <c r="AB5" s="30"/>
+      <c r="AC5" s="30"/>
+      <c r="AD5" s="30"/>
+      <c r="AE5" s="30"/>
+      <c r="AF5" s="30"/>
+      <c r="AG5" s="31"/>
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="22" t="s">
+      <c r="C6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="23"/>
-      <c r="E6" s="23"/>
-      <c r="F6" s="23"/>
-      <c r="G6" s="23"/>
-      <c r="H6" s="23"/>
-      <c r="I6" s="23"/>
-      <c r="J6" s="23"/>
-      <c r="K6" s="24"/>
+      <c r="D6" s="30"/>
+      <c r="E6" s="30"/>
+      <c r="F6" s="30"/>
+      <c r="G6" s="30"/>
+      <c r="H6" s="30"/>
+      <c r="I6" s="30"/>
+      <c r="J6" s="30"/>
+      <c r="K6" s="31"/>
       <c r="M6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="22" t="s">
+      <c r="N6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="23"/>
-      <c r="P6" s="23"/>
-      <c r="Q6" s="23"/>
-      <c r="R6" s="23"/>
-      <c r="S6" s="23"/>
-      <c r="T6" s="23"/>
-      <c r="U6" s="23"/>
-      <c r="V6" s="24"/>
+      <c r="O6" s="30"/>
+      <c r="P6" s="30"/>
+      <c r="Q6" s="30"/>
+      <c r="R6" s="30"/>
+      <c r="S6" s="30"/>
+      <c r="T6" s="30"/>
+      <c r="U6" s="30"/>
+      <c r="V6" s="31"/>
       <c r="X6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="22" t="s">
+      <c r="Y6" s="29" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="23"/>
-      <c r="AA6" s="23"/>
-      <c r="AB6" s="23"/>
-      <c r="AC6" s="23"/>
-      <c r="AD6" s="23"/>
-      <c r="AE6" s="23"/>
-      <c r="AF6" s="23"/>
-      <c r="AG6" s="24"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="30"/>
+      <c r="AB6" s="30"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="30"/>
+      <c r="AE6" s="30"/>
+      <c r="AF6" s="30"/>
+      <c r="AG6" s="31"/>
     </row>
     <row r="7" spans="1:33">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="22" t="s">
+      <c r="C7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="25"/>
-      <c r="E7" s="26"/>
-      <c r="F7" s="22" t="s">
+      <c r="D7" s="32"/>
+      <c r="E7" s="33"/>
+      <c r="F7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="25"/>
-      <c r="H7" s="26"/>
-      <c r="I7" s="22" t="s">
+      <c r="G7" s="32"/>
+      <c r="H7" s="33"/>
+      <c r="I7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="25"/>
-      <c r="K7" s="26"/>
+      <c r="J7" s="32"/>
+      <c r="K7" s="33"/>
       <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="22" t="s">
+      <c r="N7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="23"/>
-      <c r="P7" s="24"/>
-      <c r="Q7" s="22" t="s">
+      <c r="O7" s="30"/>
+      <c r="P7" s="31"/>
+      <c r="Q7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="23"/>
-      <c r="S7" s="24"/>
+      <c r="R7" s="30"/>
+      <c r="S7" s="31"/>
       <c r="T7" s="27" t="s">
         <v>7</v>
       </c>
@@ -8537,21 +8676,21 @@
       <c r="X7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="22" t="s">
+      <c r="Y7" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="23"/>
-      <c r="AA7" s="24"/>
-      <c r="AB7" s="22" t="s">
+      <c r="Z7" s="30"/>
+      <c r="AA7" s="31"/>
+      <c r="AB7" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AC7" s="23"/>
-      <c r="AD7" s="24"/>
-      <c r="AE7" s="22" t="s">
+      <c r="AC7" s="30"/>
+      <c r="AD7" s="31"/>
+      <c r="AE7" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="23"/>
-      <c r="AG7" s="24"/>
+      <c r="AF7" s="30"/>
+      <c r="AG7" s="31"/>
     </row>
     <row r="8" spans="1:33">
       <c r="B8" s="9"/>
@@ -8732,133 +8871,133 @@
       </c>
     </row>
     <row r="10" spans="1:33">
-      <c r="B10" s="31"/>
-      <c r="C10" s="31"/>
-      <c r="D10" s="31"/>
-      <c r="E10" s="31"/>
-      <c r="F10" s="31"/>
-      <c r="G10" s="31"/>
-      <c r="H10" s="31"/>
-      <c r="I10" s="31"/>
-      <c r="J10" s="31"/>
-      <c r="K10" s="31"/>
-      <c r="L10" s="31"/>
-      <c r="M10" s="31"/>
-      <c r="N10" s="31"/>
-      <c r="O10" s="31"/>
-      <c r="P10" s="31"/>
-      <c r="Q10" s="31"/>
-      <c r="R10" s="31"/>
-      <c r="S10" s="31"/>
-      <c r="T10" s="31"/>
-      <c r="U10" s="31"/>
-      <c r="V10" s="31"/>
-      <c r="W10" s="31"/>
-      <c r="X10" s="31"/>
-      <c r="Y10" s="31"/>
-      <c r="Z10" s="31"/>
-      <c r="AA10" s="31"/>
-      <c r="AB10" s="31"/>
-      <c r="AC10" s="31"/>
-      <c r="AD10" s="31"/>
-      <c r="AE10" s="31"/>
-      <c r="AF10" s="31"/>
-      <c r="AG10" s="31"/>
+      <c r="B10" s="23"/>
+      <c r="C10" s="23"/>
+      <c r="D10" s="23"/>
+      <c r="E10" s="23"/>
+      <c r="F10" s="23"/>
+      <c r="G10" s="23"/>
+      <c r="H10" s="23"/>
+      <c r="I10" s="23"/>
+      <c r="J10" s="23"/>
+      <c r="K10" s="23"/>
+      <c r="L10" s="23"/>
+      <c r="M10" s="23"/>
+      <c r="N10" s="23"/>
+      <c r="O10" s="23"/>
+      <c r="P10" s="23"/>
+      <c r="Q10" s="23"/>
+      <c r="R10" s="23"/>
+      <c r="S10" s="23"/>
+      <c r="T10" s="23"/>
+      <c r="U10" s="23"/>
+      <c r="V10" s="23"/>
+      <c r="W10" s="23"/>
+      <c r="X10" s="23"/>
+      <c r="Y10" s="23"/>
+      <c r="Z10" s="23"/>
+      <c r="AA10" s="23"/>
+      <c r="AB10" s="23"/>
+      <c r="AC10" s="23"/>
+      <c r="AD10" s="23"/>
+      <c r="AE10" s="23"/>
+      <c r="AF10" s="23"/>
+      <c r="AG10" s="23"/>
     </row>
     <row r="11" spans="1:33">
-      <c r="B11" s="31"/>
-      <c r="C11" s="31"/>
-      <c r="D11" s="31">
+      <c r="B11" s="23"/>
+      <c r="C11" s="23"/>
+      <c r="D11" s="23">
         <f>D9/$B$1*100</f>
         <v>33.6</v>
       </c>
-      <c r="E11" s="31"/>
-      <c r="F11" s="31"/>
-      <c r="G11" s="31">
-        <f t="shared" ref="E11:AG11" si="0">G9/$B$1*100</f>
+      <c r="E11" s="23"/>
+      <c r="F11" s="23"/>
+      <c r="G11" s="23">
+        <f t="shared" ref="G11:J11" si="0">G9/$B$1*100</f>
         <v>39.08</v>
       </c>
-      <c r="H11" s="31"/>
-      <c r="I11" s="31"/>
-      <c r="J11" s="31">
+      <c r="H11" s="23"/>
+      <c r="I11" s="23"/>
+      <c r="J11" s="23">
         <f t="shared" si="0"/>
         <v>33.92</v>
       </c>
-      <c r="K11" s="31"/>
-      <c r="L11" s="31"/>
-      <c r="M11" s="31"/>
-      <c r="N11" s="31"/>
-      <c r="O11" s="31">
+      <c r="K11" s="23"/>
+      <c r="L11" s="23"/>
+      <c r="M11" s="23"/>
+      <c r="N11" s="23"/>
+      <c r="O11" s="23">
         <f>O9/$B$2*100</f>
         <v>34.630000000000003</v>
       </c>
-      <c r="P11" s="31"/>
-      <c r="Q11" s="31"/>
-      <c r="R11" s="31">
+      <c r="P11" s="23"/>
+      <c r="Q11" s="23"/>
+      <c r="R11" s="23">
         <f>R9/$B$2*100</f>
         <v>42.94</v>
       </c>
-      <c r="S11" s="31"/>
-      <c r="T11" s="31"/>
-      <c r="U11" s="31">
+      <c r="S11" s="23"/>
+      <c r="T11" s="23"/>
+      <c r="U11" s="23">
         <f>U9/$B$2*100</f>
         <v>35.92</v>
       </c>
-      <c r="V11" s="31"/>
-      <c r="W11" s="31"/>
-      <c r="X11" s="31"/>
-      <c r="Y11" s="31"/>
-      <c r="Z11" s="31">
+      <c r="V11" s="23"/>
+      <c r="W11" s="23"/>
+      <c r="X11" s="23"/>
+      <c r="Y11" s="23"/>
+      <c r="Z11" s="23">
         <f>Z9/$B$3*100</f>
         <v>35.787500000000001</v>
       </c>
-      <c r="AA11" s="31"/>
-      <c r="AB11" s="31"/>
-      <c r="AC11" s="31">
+      <c r="AA11" s="23"/>
+      <c r="AB11" s="23"/>
+      <c r="AC11" s="23">
         <f>AC9/$B$3*100</f>
         <v>47.717500000000001</v>
       </c>
-      <c r="AD11" s="31"/>
-      <c r="AE11" s="31"/>
-      <c r="AF11" s="31">
+      <c r="AD11" s="23"/>
+      <c r="AE11" s="23"/>
+      <c r="AF11" s="23">
         <f>AF9/$B$3*100</f>
         <v>37.172499999999999</v>
       </c>
-      <c r="AG11" s="31"/>
+      <c r="AG11" s="23"/>
     </row>
     <row r="12" spans="1:33">
-      <c r="B12" s="31"/>
-      <c r="C12" s="31"/>
-      <c r="D12" s="31"/>
-      <c r="E12" s="31"/>
-      <c r="F12" s="31"/>
-      <c r="G12" s="31"/>
-      <c r="H12" s="31"/>
-      <c r="I12" s="31"/>
-      <c r="J12" s="31"/>
-      <c r="K12" s="31"/>
-      <c r="L12" s="31"/>
-      <c r="M12" s="31"/>
-      <c r="N12" s="31"/>
-      <c r="O12" s="31"/>
-      <c r="P12" s="31"/>
-      <c r="Q12" s="31"/>
-      <c r="R12" s="31"/>
-      <c r="S12" s="31"/>
-      <c r="T12" s="31"/>
-      <c r="U12" s="31"/>
-      <c r="V12" s="31"/>
-      <c r="W12" s="31"/>
-      <c r="X12" s="31"/>
-      <c r="Y12" s="31"/>
-      <c r="Z12" s="31"/>
-      <c r="AA12" s="31"/>
-      <c r="AB12" s="31"/>
-      <c r="AC12" s="31"/>
-      <c r="AD12" s="31"/>
-      <c r="AE12" s="31"/>
-      <c r="AF12" s="31"/>
-      <c r="AG12" s="31"/>
+      <c r="B12" s="23"/>
+      <c r="C12" s="23"/>
+      <c r="D12" s="23"/>
+      <c r="E12" s="23"/>
+      <c r="F12" s="23"/>
+      <c r="G12" s="23"/>
+      <c r="H12" s="23"/>
+      <c r="I12" s="23"/>
+      <c r="J12" s="23"/>
+      <c r="K12" s="23"/>
+      <c r="L12" s="23"/>
+      <c r="M12" s="23"/>
+      <c r="N12" s="23"/>
+      <c r="O12" s="23"/>
+      <c r="P12" s="23"/>
+      <c r="Q12" s="23"/>
+      <c r="R12" s="23"/>
+      <c r="S12" s="23"/>
+      <c r="T12" s="23"/>
+      <c r="U12" s="23"/>
+      <c r="V12" s="23"/>
+      <c r="W12" s="23"/>
+      <c r="X12" s="23"/>
+      <c r="Y12" s="23"/>
+      <c r="Z12" s="23"/>
+      <c r="AA12" s="23"/>
+      <c r="AB12" s="23"/>
+      <c r="AC12" s="23"/>
+      <c r="AD12" s="23"/>
+      <c r="AE12" s="23"/>
+      <c r="AF12" s="23"/>
+      <c r="AG12" s="23"/>
     </row>
     <row r="13" spans="1:33">
       <c r="B13" s="1" t="s">
@@ -8892,17 +9031,17 @@
       <c r="X13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="22" t="s">
+      <c r="Y13" s="29" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="23"/>
-      <c r="AA13" s="23"/>
-      <c r="AB13" s="23"/>
-      <c r="AC13" s="23"/>
-      <c r="AD13" s="23"/>
-      <c r="AE13" s="23"/>
-      <c r="AF13" s="23"/>
-      <c r="AG13" s="24"/>
+      <c r="Z13" s="30"/>
+      <c r="AA13" s="30"/>
+      <c r="AB13" s="30"/>
+      <c r="AC13" s="30"/>
+      <c r="AD13" s="30"/>
+      <c r="AE13" s="30"/>
+      <c r="AF13" s="30"/>
+      <c r="AG13" s="31"/>
     </row>
     <row r="14" spans="1:33">
       <c r="B14" s="1" t="s">
@@ -8936,17 +9075,17 @@
       <c r="X14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="22" t="s">
+      <c r="Y14" s="29" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="23"/>
-      <c r="AA14" s="23"/>
-      <c r="AB14" s="23"/>
-      <c r="AC14" s="23"/>
-      <c r="AD14" s="23"/>
-      <c r="AE14" s="23"/>
-      <c r="AF14" s="23"/>
-      <c r="AG14" s="24"/>
+      <c r="Z14" s="30"/>
+      <c r="AA14" s="30"/>
+      <c r="AB14" s="30"/>
+      <c r="AC14" s="30"/>
+      <c r="AD14" s="30"/>
+      <c r="AE14" s="30"/>
+      <c r="AF14" s="30"/>
+      <c r="AG14" s="31"/>
     </row>
     <row r="15" spans="1:33">
       <c r="B15" s="1" t="s">
@@ -8988,21 +9127,21 @@
       <c r="X15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="22" t="s">
+      <c r="Y15" s="29" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="23"/>
-      <c r="AA15" s="24"/>
-      <c r="AB15" s="22" t="s">
+      <c r="Z15" s="30"/>
+      <c r="AA15" s="31"/>
+      <c r="AB15" s="29" t="s">
         <v>6</v>
       </c>
-      <c r="AC15" s="23"/>
-      <c r="AD15" s="24"/>
-      <c r="AE15" s="22" t="s">
+      <c r="AC15" s="30"/>
+      <c r="AD15" s="31"/>
+      <c r="AE15" s="29" t="s">
         <v>7</v>
       </c>
-      <c r="AF15" s="23"/>
-      <c r="AG15" s="24"/>
+      <c r="AF15" s="30"/>
+      <c r="AG15" s="31"/>
     </row>
     <row r="16" spans="1:33">
       <c r="C16" s="1" t="s">
@@ -10129,165 +10268,165 @@
       </c>
     </row>
     <row r="28" spans="2:33">
-      <c r="B28" s="31"/>
-      <c r="C28" s="31"/>
-      <c r="D28" s="31"/>
-      <c r="E28" s="31"/>
-      <c r="F28" s="31"/>
-      <c r="G28" s="31"/>
-      <c r="H28" s="31"/>
-      <c r="I28" s="31"/>
-      <c r="J28" s="31"/>
-      <c r="K28" s="31"/>
-      <c r="L28" s="31"/>
-      <c r="M28" s="31"/>
-      <c r="N28" s="31"/>
-      <c r="O28" s="31"/>
-      <c r="P28" s="31"/>
-      <c r="Q28" s="31"/>
-      <c r="R28" s="31"/>
-      <c r="S28" s="31"/>
-      <c r="T28" s="31"/>
-      <c r="U28" s="31"/>
-      <c r="V28" s="31"/>
-      <c r="W28" s="31"/>
-      <c r="X28" s="31"/>
-      <c r="Y28" s="31"/>
-      <c r="Z28" s="31"/>
-      <c r="AA28" s="31"/>
-      <c r="AB28" s="31"/>
-      <c r="AC28" s="31"/>
-      <c r="AD28" s="31"/>
-      <c r="AE28" s="31"/>
-      <c r="AF28" s="31"/>
-      <c r="AG28" s="34"/>
+      <c r="B28" s="23"/>
+      <c r="C28" s="23"/>
+      <c r="D28" s="23"/>
+      <c r="E28" s="23"/>
+      <c r="F28" s="23"/>
+      <c r="G28" s="23"/>
+      <c r="H28" s="23"/>
+      <c r="I28" s="23"/>
+      <c r="J28" s="23"/>
+      <c r="K28" s="23"/>
+      <c r="L28" s="23"/>
+      <c r="M28" s="23"/>
+      <c r="N28" s="23"/>
+      <c r="O28" s="23"/>
+      <c r="P28" s="23"/>
+      <c r="Q28" s="23"/>
+      <c r="R28" s="23"/>
+      <c r="S28" s="23"/>
+      <c r="T28" s="23"/>
+      <c r="U28" s="23"/>
+      <c r="V28" s="23"/>
+      <c r="W28" s="23"/>
+      <c r="X28" s="23"/>
+      <c r="Y28" s="23"/>
+      <c r="Z28" s="23"/>
+      <c r="AA28" s="23"/>
+      <c r="AB28" s="23"/>
+      <c r="AC28" s="23"/>
+      <c r="AD28" s="23"/>
+      <c r="AE28" s="23"/>
+      <c r="AF28" s="23"/>
+      <c r="AG28" s="26"/>
     </row>
     <row r="29" spans="2:33">
-      <c r="B29" s="31"/>
-      <c r="C29" s="31"/>
-      <c r="D29" s="31"/>
-      <c r="E29" s="31"/>
-      <c r="F29" s="31"/>
-      <c r="G29" s="31"/>
-      <c r="H29" s="31"/>
-      <c r="I29" s="31"/>
-      <c r="J29" s="31"/>
-      <c r="K29" s="31"/>
-      <c r="L29" s="31"/>
-      <c r="M29" s="31"/>
-      <c r="N29" s="31"/>
-      <c r="O29" s="31"/>
-      <c r="P29" s="31"/>
-      <c r="Q29" s="31"/>
-      <c r="R29" s="31"/>
-      <c r="S29" s="31"/>
-      <c r="T29" s="31"/>
-      <c r="U29" s="31"/>
-      <c r="V29" s="31"/>
-      <c r="W29" s="31"/>
-      <c r="X29" s="31"/>
-      <c r="Y29" s="31"/>
-      <c r="Z29" s="31"/>
-      <c r="AA29" s="31"/>
-      <c r="AB29" s="31"/>
-      <c r="AC29" s="31"/>
-      <c r="AD29" s="31"/>
-      <c r="AE29" s="31"/>
-      <c r="AF29" s="31"/>
-      <c r="AG29" s="34"/>
+      <c r="B29" s="23"/>
+      <c r="C29" s="23"/>
+      <c r="D29" s="23"/>
+      <c r="E29" s="23"/>
+      <c r="F29" s="23"/>
+      <c r="G29" s="23"/>
+      <c r="H29" s="23"/>
+      <c r="I29" s="23"/>
+      <c r="J29" s="23"/>
+      <c r="K29" s="23"/>
+      <c r="L29" s="23"/>
+      <c r="M29" s="23"/>
+      <c r="N29" s="23"/>
+      <c r="O29" s="23"/>
+      <c r="P29" s="23"/>
+      <c r="Q29" s="23"/>
+      <c r="R29" s="23"/>
+      <c r="S29" s="23"/>
+      <c r="T29" s="23"/>
+      <c r="U29" s="23"/>
+      <c r="V29" s="23"/>
+      <c r="W29" s="23"/>
+      <c r="X29" s="23"/>
+      <c r="Y29" s="23"/>
+      <c r="Z29" s="23"/>
+      <c r="AA29" s="23"/>
+      <c r="AB29" s="23"/>
+      <c r="AC29" s="23"/>
+      <c r="AD29" s="23"/>
+      <c r="AE29" s="23"/>
+      <c r="AF29" s="23"/>
+      <c r="AG29" s="26"/>
     </row>
     <row r="30" spans="2:33">
-      <c r="B30" s="31"/>
-      <c r="C30" s="31"/>
-      <c r="D30" s="31"/>
-      <c r="E30" s="31"/>
-      <c r="F30" s="31"/>
-      <c r="G30" s="31"/>
-      <c r="H30" s="31"/>
-      <c r="I30" s="31"/>
-      <c r="J30" s="31"/>
-      <c r="K30" s="31"/>
-      <c r="L30" s="31"/>
-      <c r="M30" s="31"/>
-      <c r="N30" s="31"/>
-      <c r="O30" s="31"/>
-      <c r="P30" s="31"/>
-      <c r="Q30" s="31"/>
-      <c r="R30" s="31"/>
-      <c r="S30" s="31"/>
-      <c r="T30" s="31"/>
-      <c r="U30" s="31"/>
-      <c r="V30" s="31"/>
-      <c r="W30" s="31"/>
-      <c r="X30" s="31"/>
-      <c r="Y30" s="31"/>
-      <c r="Z30" s="31"/>
-      <c r="AA30" s="31"/>
-      <c r="AB30" s="31"/>
-      <c r="AC30" s="31"/>
-      <c r="AD30" s="31"/>
-      <c r="AE30" s="31"/>
-      <c r="AF30" s="31"/>
-      <c r="AG30" s="34"/>
+      <c r="B30" s="23"/>
+      <c r="C30" s="23"/>
+      <c r="D30" s="23"/>
+      <c r="E30" s="23"/>
+      <c r="F30" s="23"/>
+      <c r="G30" s="23"/>
+      <c r="H30" s="23"/>
+      <c r="I30" s="23"/>
+      <c r="J30" s="23"/>
+      <c r="K30" s="23"/>
+      <c r="L30" s="23"/>
+      <c r="M30" s="23"/>
+      <c r="N30" s="23"/>
+      <c r="O30" s="23"/>
+      <c r="P30" s="23"/>
+      <c r="Q30" s="23"/>
+      <c r="R30" s="23"/>
+      <c r="S30" s="23"/>
+      <c r="T30" s="23"/>
+      <c r="U30" s="23"/>
+      <c r="V30" s="23"/>
+      <c r="W30" s="23"/>
+      <c r="X30" s="23"/>
+      <c r="Y30" s="23"/>
+      <c r="Z30" s="23"/>
+      <c r="AA30" s="23"/>
+      <c r="AB30" s="23"/>
+      <c r="AC30" s="23"/>
+      <c r="AD30" s="23"/>
+      <c r="AE30" s="23"/>
+      <c r="AF30" s="23"/>
+      <c r="AG30" s="26"/>
     </row>
     <row r="31" spans="2:33">
-      <c r="D31" s="30"/>
-      <c r="E31" s="30"/>
-      <c r="F31" s="30"/>
-      <c r="G31" s="30"/>
-      <c r="H31" s="30"/>
-      <c r="I31" s="30"/>
-      <c r="J31" s="30"/>
-      <c r="K31" s="30"/>
-      <c r="L31" s="30"/>
-      <c r="M31" s="30"/>
-      <c r="N31" s="30"/>
+      <c r="D31" s="22"/>
+      <c r="E31" s="22"/>
+      <c r="F31" s="22"/>
+      <c r="G31" s="22"/>
+      <c r="H31" s="22"/>
+      <c r="I31" s="22"/>
+      <c r="J31" s="22"/>
+      <c r="K31" s="22"/>
+      <c r="L31" s="22"/>
+      <c r="M31" s="22"/>
+      <c r="N31" s="22"/>
       <c r="O31" s="1">
         <v>3538</v>
       </c>
-      <c r="P31" s="30">
+      <c r="P31" s="22">
         <f>O31/$B$2*100</f>
         <v>35.380000000000003</v>
       </c>
-      <c r="Q31" s="30"/>
+      <c r="Q31" s="22"/>
       <c r="R31" s="1">
         <v>4351</v>
       </c>
-      <c r="S31" s="30">
+      <c r="S31" s="22">
         <f>R31/$B$2*100</f>
         <v>43.51</v>
       </c>
-      <c r="T31" s="30"/>
+      <c r="T31" s="22"/>
       <c r="U31" s="1">
         <v>3640</v>
       </c>
-      <c r="V31" s="30">
+      <c r="V31" s="22">
         <f>U31/$B$2*100</f>
         <v>36.4</v>
       </c>
-      <c r="W31" s="30"/>
-      <c r="X31" s="30"/>
-      <c r="Y31" s="30"/>
+      <c r="W31" s="22"/>
+      <c r="X31" s="22"/>
+      <c r="Y31" s="22"/>
       <c r="Z31" s="1">
         <v>14594</v>
       </c>
-      <c r="AA31" s="30">
+      <c r="AA31" s="22">
         <f>Z31/$B$3*100</f>
         <v>36.484999999999999</v>
       </c>
-      <c r="AB31" s="30"/>
+      <c r="AB31" s="22"/>
       <c r="AC31" s="1">
         <v>19510</v>
       </c>
-      <c r="AD31" s="30">
+      <c r="AD31" s="22">
         <f>AC31/$B$3*100</f>
         <v>48.774999999999999</v>
       </c>
-      <c r="AE31" s="30"/>
+      <c r="AE31" s="22"/>
       <c r="AF31" s="1">
         <v>15202</v>
       </c>
-      <c r="AG31" s="30">
+      <c r="AG31" s="22">
         <f>AF31/$B$3*100</f>
         <v>38.005000000000003</v>
       </c>
@@ -10296,75 +10435,75 @@
       <c r="D32" s="1">
         <v>911</v>
       </c>
-      <c r="E32" s="30">
+      <c r="E32" s="22">
         <f>D32/$B$1*100</f>
         <v>36.44</v>
       </c>
-      <c r="F32" s="30"/>
+      <c r="F32" s="22"/>
       <c r="G32" s="1">
         <v>1003</v>
       </c>
-      <c r="H32" s="30">
+      <c r="H32" s="22">
         <f>G32/$B$1*100</f>
         <v>40.119999999999997</v>
       </c>
-      <c r="I32" s="30"/>
+      <c r="I32" s="22"/>
       <c r="J32" s="1">
         <v>869</v>
       </c>
-      <c r="K32" s="30">
+      <c r="K32" s="22">
         <f>J32/$B$1*100</f>
         <v>34.760000000000005</v>
       </c>
-      <c r="L32" s="30"/>
-      <c r="M32" s="30"/>
-      <c r="N32" s="30"/>
+      <c r="L32" s="22"/>
+      <c r="M32" s="22"/>
+      <c r="N32" s="22"/>
       <c r="O32" s="1">
         <v>3662</v>
       </c>
-      <c r="P32" s="30">
+      <c r="P32" s="22">
         <f t="shared" ref="P32:P40" si="4">O32/$B$2*100</f>
         <v>36.620000000000005</v>
       </c>
-      <c r="Q32" s="30"/>
+      <c r="Q32" s="22"/>
       <c r="R32" s="1">
         <v>9000</v>
       </c>
-      <c r="S32" s="30">
+      <c r="S32" s="22">
         <f t="shared" ref="S32:S40" si="5">R32/$B$2*100</f>
         <v>90</v>
       </c>
-      <c r="T32" s="30"/>
+      <c r="T32" s="22"/>
       <c r="U32" s="1">
         <v>3802</v>
       </c>
-      <c r="V32" s="30">
+      <c r="V32" s="22">
         <f t="shared" ref="V32:V40" si="6">U32/$B$2*100</f>
         <v>38.019999999999996</v>
       </c>
-      <c r="W32" s="30"/>
-      <c r="X32" s="30"/>
-      <c r="Y32" s="30"/>
+      <c r="W32" s="22"/>
+      <c r="X32" s="22"/>
+      <c r="Y32" s="22"/>
       <c r="Z32" s="1">
         <v>15234</v>
       </c>
-      <c r="AA32" s="30">
+      <c r="AA32" s="22">
         <f t="shared" ref="AA32:AA40" si="7">Z32/$B$3*100</f>
         <v>38.085000000000001</v>
       </c>
-      <c r="AB32" s="30"/>
+      <c r="AB32" s="22"/>
       <c r="AC32" s="1">
         <v>21256</v>
       </c>
-      <c r="AD32" s="30">
+      <c r="AD32" s="22">
         <f t="shared" ref="AD32:AD40" si="8">AC32/$B$3*100</f>
         <v>53.14</v>
       </c>
-      <c r="AE32" s="30"/>
+      <c r="AE32" s="22"/>
       <c r="AF32" s="1">
         <v>15406</v>
       </c>
-      <c r="AG32" s="30">
+      <c r="AG32" s="22">
         <f t="shared" ref="AG32:AG40" si="9">AF32/$B$3*100</f>
         <v>38.515000000000001</v>
       </c>
@@ -10373,75 +10512,75 @@
       <c r="D33" s="1">
         <v>958</v>
       </c>
-      <c r="E33" s="30">
-        <f t="shared" ref="E33:E42" si="10">D33/$B$1*100</f>
+      <c r="E33" s="22">
+        <f t="shared" ref="E33:E41" si="10">D33/$B$1*100</f>
         <v>38.32</v>
       </c>
-      <c r="F33" s="30"/>
+      <c r="F33" s="22"/>
       <c r="G33" s="1">
         <v>1633</v>
       </c>
-      <c r="H33" s="30">
+      <c r="H33" s="22">
         <f t="shared" ref="H33:H41" si="11">G33/$B$1*100</f>
         <v>65.319999999999993</v>
       </c>
-      <c r="I33" s="30"/>
+      <c r="I33" s="22"/>
       <c r="J33" s="1">
         <v>989</v>
       </c>
-      <c r="K33" s="30">
+      <c r="K33" s="22">
         <f t="shared" ref="K33:K41" si="12">J33/$B$1*100</f>
         <v>39.56</v>
       </c>
-      <c r="L33" s="30"/>
-      <c r="M33" s="30"/>
-      <c r="N33" s="30"/>
+      <c r="L33" s="22"/>
+      <c r="M33" s="22"/>
+      <c r="N33" s="22"/>
       <c r="O33" s="1">
         <v>3860</v>
       </c>
-      <c r="P33" s="30">
+      <c r="P33" s="22">
         <f t="shared" si="4"/>
         <v>38.6</v>
       </c>
-      <c r="Q33" s="30"/>
+      <c r="Q33" s="22"/>
       <c r="R33" s="1">
         <v>9246</v>
       </c>
-      <c r="S33" s="30">
+      <c r="S33" s="22">
         <f t="shared" si="5"/>
         <v>92.46</v>
       </c>
-      <c r="T33" s="30"/>
+      <c r="T33" s="22"/>
       <c r="U33" s="1">
         <v>3888</v>
       </c>
-      <c r="V33" s="30">
+      <c r="V33" s="22">
         <f t="shared" si="6"/>
         <v>38.879999999999995</v>
       </c>
-      <c r="W33" s="30"/>
-      <c r="X33" s="30"/>
-      <c r="Y33" s="30"/>
+      <c r="W33" s="22"/>
+      <c r="X33" s="22"/>
+      <c r="Y33" s="22"/>
       <c r="Z33" s="1">
         <v>16255</v>
       </c>
-      <c r="AA33" s="30">
+      <c r="AA33" s="22">
         <f t="shared" si="7"/>
         <v>40.637499999999996</v>
       </c>
-      <c r="AB33" s="30"/>
+      <c r="AB33" s="22"/>
       <c r="AC33" s="1">
         <v>24827</v>
       </c>
-      <c r="AD33" s="30">
+      <c r="AD33" s="22">
         <f t="shared" si="8"/>
         <v>62.067499999999995</v>
       </c>
-      <c r="AE33" s="30"/>
+      <c r="AE33" s="22"/>
       <c r="AF33" s="1">
         <v>15950</v>
       </c>
-      <c r="AG33" s="30">
+      <c r="AG33" s="22">
         <f t="shared" si="9"/>
         <v>39.875</v>
       </c>
@@ -10450,75 +10589,75 @@
       <c r="D34" s="1">
         <v>981</v>
       </c>
-      <c r="E34" s="30">
+      <c r="E34" s="22">
         <f t="shared" si="10"/>
         <v>39.24</v>
       </c>
-      <c r="F34" s="30"/>
+      <c r="F34" s="22"/>
       <c r="G34" s="1">
         <v>1679</v>
       </c>
-      <c r="H34" s="30">
+      <c r="H34" s="22">
         <f t="shared" si="11"/>
         <v>67.16</v>
       </c>
-      <c r="I34" s="30"/>
+      <c r="I34" s="22"/>
       <c r="J34" s="1">
         <v>1052</v>
       </c>
-      <c r="K34" s="30">
+      <c r="K34" s="22">
         <f t="shared" si="12"/>
         <v>42.08</v>
       </c>
-      <c r="L34" s="30"/>
-      <c r="M34" s="30"/>
-      <c r="N34" s="30"/>
+      <c r="L34" s="22"/>
+      <c r="M34" s="22"/>
+      <c r="N34" s="22"/>
       <c r="O34" s="1">
         <v>3783</v>
       </c>
-      <c r="P34" s="30">
+      <c r="P34" s="22">
         <f t="shared" si="4"/>
         <v>37.830000000000005</v>
       </c>
-      <c r="Q34" s="30"/>
+      <c r="Q34" s="22"/>
       <c r="R34" s="1">
         <v>8991</v>
       </c>
-      <c r="S34" s="30">
+      <c r="S34" s="22">
         <f t="shared" si="5"/>
         <v>89.91</v>
       </c>
-      <c r="T34" s="30"/>
+      <c r="T34" s="22"/>
       <c r="U34" s="1">
         <v>4120</v>
       </c>
-      <c r="V34" s="30">
+      <c r="V34" s="22">
         <f t="shared" si="6"/>
         <v>41.199999999999996</v>
       </c>
-      <c r="W34" s="30"/>
-      <c r="X34" s="30"/>
-      <c r="Y34" s="30"/>
+      <c r="W34" s="22"/>
+      <c r="X34" s="22"/>
+      <c r="Y34" s="22"/>
       <c r="Z34" s="1">
         <v>16178</v>
       </c>
-      <c r="AA34" s="30">
+      <c r="AA34" s="22">
         <f t="shared" si="7"/>
         <v>40.445</v>
       </c>
-      <c r="AB34" s="30"/>
+      <c r="AB34" s="22"/>
       <c r="AC34" s="1">
         <v>25021</v>
       </c>
-      <c r="AD34" s="30">
+      <c r="AD34" s="22">
         <f t="shared" si="8"/>
         <v>62.552500000000002</v>
       </c>
-      <c r="AE34" s="30"/>
+      <c r="AE34" s="22"/>
       <c r="AF34" s="1">
         <v>15700</v>
       </c>
-      <c r="AG34" s="30">
+      <c r="AG34" s="22">
         <f t="shared" si="9"/>
         <v>39.25</v>
       </c>
@@ -10527,312 +10666,312 @@
       <c r="D35" s="1">
         <v>982</v>
       </c>
-      <c r="E35" s="30">
+      <c r="E35" s="22">
         <f t="shared" si="10"/>
         <v>39.28</v>
       </c>
-      <c r="F35" s="30"/>
+      <c r="F35" s="22"/>
       <c r="G35" s="1">
         <v>1562</v>
       </c>
-      <c r="H35" s="30">
+      <c r="H35" s="22">
         <f t="shared" si="11"/>
         <v>62.480000000000004</v>
       </c>
-      <c r="I35" s="30"/>
+      <c r="I35" s="22"/>
       <c r="J35" s="1">
         <v>1020</v>
       </c>
-      <c r="K35" s="30">
+      <c r="K35" s="22">
         <f t="shared" si="12"/>
         <v>40.799999999999997</v>
       </c>
-      <c r="L35" s="30"/>
-      <c r="M35" s="30"/>
-      <c r="N35" s="30"/>
+      <c r="L35" s="22"/>
+      <c r="M35" s="22"/>
+      <c r="N35" s="22"/>
       <c r="O35" s="1">
         <v>3927</v>
       </c>
-      <c r="P35" s="30">
+      <c r="P35" s="22">
         <f t="shared" si="4"/>
         <v>39.269999999999996</v>
       </c>
-      <c r="Q35" s="30"/>
+      <c r="Q35" s="22"/>
       <c r="R35" s="1">
         <v>9220</v>
       </c>
-      <c r="S35" s="30">
+      <c r="S35" s="22">
         <f t="shared" si="5"/>
         <v>92.2</v>
       </c>
-      <c r="T35" s="30"/>
+      <c r="T35" s="22"/>
       <c r="U35" s="1">
         <v>3940</v>
       </c>
-      <c r="V35" s="30">
+      <c r="V35" s="22">
         <f t="shared" si="6"/>
         <v>39.4</v>
       </c>
-      <c r="W35" s="30"/>
-      <c r="X35" s="30"/>
-      <c r="Y35" s="30"/>
+      <c r="W35" s="22"/>
+      <c r="X35" s="22"/>
+      <c r="Y35" s="22"/>
       <c r="Z35" s="1">
         <v>16462</v>
       </c>
-      <c r="AA35" s="30">
+      <c r="AA35" s="22">
         <f t="shared" si="7"/>
         <v>41.155000000000001</v>
       </c>
-      <c r="AB35" s="30"/>
+      <c r="AB35" s="22"/>
       <c r="AC35" s="1">
         <v>25559</v>
       </c>
-      <c r="AD35" s="30">
+      <c r="AD35" s="22">
         <f t="shared" si="8"/>
         <v>63.897499999999994</v>
       </c>
-      <c r="AE35" s="30"/>
+      <c r="AE35" s="22"/>
       <c r="AF35" s="1">
         <v>16165</v>
       </c>
-      <c r="AG35" s="30">
+      <c r="AG35" s="22">
         <f t="shared" si="9"/>
         <v>40.412500000000001</v>
       </c>
     </row>
     <row r="36" spans="2:33">
-      <c r="B36" s="31"/>
-      <c r="C36" s="31"/>
+      <c r="B36" s="23"/>
+      <c r="C36" s="23"/>
       <c r="D36" s="1">
         <v>1023</v>
       </c>
-      <c r="E36" s="30">
+      <c r="E36" s="22">
         <f t="shared" si="10"/>
         <v>40.92</v>
       </c>
-      <c r="F36" s="32"/>
+      <c r="F36" s="24"/>
       <c r="G36" s="1">
         <v>1386</v>
       </c>
-      <c r="H36" s="30">
+      <c r="H36" s="22">
         <f t="shared" si="11"/>
         <v>55.44</v>
       </c>
-      <c r="I36" s="32"/>
+      <c r="I36" s="24"/>
       <c r="J36" s="1">
         <v>1077</v>
       </c>
-      <c r="K36" s="30">
+      <c r="K36" s="22">
         <f t="shared" si="12"/>
         <v>43.08</v>
       </c>
-      <c r="L36" s="32"/>
-      <c r="M36" s="32"/>
-      <c r="N36" s="32"/>
+      <c r="L36" s="24"/>
+      <c r="M36" s="24"/>
+      <c r="N36" s="24"/>
       <c r="O36" s="1">
         <v>3974</v>
       </c>
-      <c r="P36" s="30">
+      <c r="P36" s="22">
         <f t="shared" si="4"/>
         <v>39.739999999999995</v>
       </c>
-      <c r="Q36" s="32"/>
+      <c r="Q36" s="24"/>
       <c r="R36" s="1">
         <v>8790</v>
       </c>
-      <c r="S36" s="30">
+      <c r="S36" s="22">
         <f t="shared" si="5"/>
         <v>87.9</v>
       </c>
-      <c r="T36" s="32"/>
+      <c r="T36" s="24"/>
       <c r="U36" s="1">
         <v>4004</v>
       </c>
-      <c r="V36" s="30">
+      <c r="V36" s="22">
         <f t="shared" si="6"/>
         <v>40.04</v>
       </c>
-      <c r="W36" s="32"/>
-      <c r="X36" s="32"/>
-      <c r="Y36" s="32"/>
+      <c r="W36" s="24"/>
+      <c r="X36" s="24"/>
+      <c r="Y36" s="24"/>
       <c r="Z36" s="1">
         <v>16316</v>
       </c>
-      <c r="AA36" s="30">
+      <c r="AA36" s="22">
         <f t="shared" si="7"/>
         <v>40.79</v>
       </c>
-      <c r="AB36" s="32"/>
+      <c r="AB36" s="24"/>
       <c r="AC36" s="1">
         <v>25248</v>
       </c>
-      <c r="AD36" s="30">
+      <c r="AD36" s="22">
         <f t="shared" si="8"/>
         <v>63.12</v>
       </c>
-      <c r="AE36" s="32"/>
+      <c r="AE36" s="24"/>
       <c r="AF36" s="1">
         <v>16608</v>
       </c>
-      <c r="AG36" s="30">
+      <c r="AG36" s="22">
         <f t="shared" si="9"/>
         <v>41.52</v>
       </c>
     </row>
     <row r="37" spans="2:33">
-      <c r="B37" s="31"/>
-      <c r="C37" s="31"/>
+      <c r="B37" s="23"/>
+      <c r="C37" s="23"/>
       <c r="D37" s="1">
         <v>1051</v>
       </c>
-      <c r="E37" s="30">
+      <c r="E37" s="22">
         <f t="shared" si="10"/>
         <v>42.04</v>
       </c>
-      <c r="F37" s="32"/>
+      <c r="F37" s="24"/>
       <c r="G37" s="1">
         <v>1229</v>
       </c>
-      <c r="H37" s="30">
+      <c r="H37" s="22">
         <f t="shared" si="11"/>
         <v>49.16</v>
       </c>
-      <c r="I37" s="32"/>
+      <c r="I37" s="24"/>
       <c r="J37" s="1">
         <v>1074</v>
       </c>
-      <c r="K37" s="30">
+      <c r="K37" s="22">
         <f t="shared" si="12"/>
         <v>42.96</v>
       </c>
-      <c r="L37" s="32"/>
-      <c r="M37" s="32"/>
-      <c r="N37" s="32"/>
+      <c r="L37" s="24"/>
+      <c r="M37" s="24"/>
+      <c r="N37" s="24"/>
       <c r="O37" s="1">
         <v>4030</v>
       </c>
-      <c r="P37" s="30">
+      <c r="P37" s="22">
         <f t="shared" si="4"/>
         <v>40.300000000000004</v>
       </c>
-      <c r="Q37" s="32"/>
+      <c r="Q37" s="24"/>
       <c r="R37" s="1">
         <v>11115</v>
       </c>
-      <c r="S37" s="30">
+      <c r="S37" s="22">
         <f t="shared" si="5"/>
         <v>111.14999999999999</v>
       </c>
-      <c r="T37" s="32"/>
+      <c r="T37" s="24"/>
       <c r="U37" s="1">
         <v>4094</v>
       </c>
-      <c r="V37" s="30">
+      <c r="V37" s="22">
         <f t="shared" si="6"/>
         <v>40.94</v>
       </c>
-      <c r="W37" s="32"/>
-      <c r="X37" s="32"/>
-      <c r="Y37" s="32"/>
+      <c r="W37" s="24"/>
+      <c r="X37" s="24"/>
+      <c r="Y37" s="24"/>
       <c r="Z37" s="1">
         <v>16109</v>
       </c>
-      <c r="AA37" s="30">
+      <c r="AA37" s="22">
         <f t="shared" si="7"/>
         <v>40.272500000000001</v>
       </c>
-      <c r="AB37" s="32"/>
+      <c r="AB37" s="24"/>
       <c r="AC37" s="1">
         <v>48113</v>
       </c>
-      <c r="AD37" s="30">
+      <c r="AD37" s="22">
         <f t="shared" si="8"/>
         <v>120.2825</v>
       </c>
-      <c r="AE37" s="32"/>
+      <c r="AE37" s="24"/>
       <c r="AF37" s="1">
         <v>16066</v>
       </c>
-      <c r="AG37" s="30">
+      <c r="AG37" s="22">
         <f t="shared" si="9"/>
         <v>40.164999999999999</v>
       </c>
     </row>
     <row r="38" spans="2:33">
-      <c r="B38" s="31"/>
-      <c r="C38" s="31"/>
+      <c r="B38" s="23"/>
+      <c r="C38" s="23"/>
       <c r="D38" s="1">
         <v>1037</v>
       </c>
-      <c r="E38" s="30">
+      <c r="E38" s="22">
         <f t="shared" si="10"/>
         <v>41.48</v>
       </c>
-      <c r="F38" s="32"/>
+      <c r="F38" s="24"/>
       <c r="G38" s="1">
         <v>1772</v>
       </c>
-      <c r="H38" s="30">
+      <c r="H38" s="22">
         <f t="shared" si="11"/>
         <v>70.88</v>
       </c>
-      <c r="I38" s="32"/>
+      <c r="I38" s="24"/>
       <c r="J38" s="1">
         <v>1080</v>
       </c>
-      <c r="K38" s="30">
+      <c r="K38" s="22">
         <f t="shared" si="12"/>
         <v>43.2</v>
       </c>
-      <c r="L38" s="32"/>
-      <c r="M38" s="32"/>
-      <c r="N38" s="32"/>
+      <c r="L38" s="24"/>
+      <c r="M38" s="24"/>
+      <c r="N38" s="24"/>
       <c r="O38" s="1">
         <v>4040</v>
       </c>
-      <c r="P38" s="30">
+      <c r="P38" s="22">
         <f t="shared" si="4"/>
         <v>40.400000000000006</v>
       </c>
-      <c r="Q38" s="32"/>
+      <c r="Q38" s="24"/>
       <c r="R38" s="1">
         <v>10753</v>
       </c>
-      <c r="S38" s="30">
+      <c r="S38" s="22">
         <f t="shared" si="5"/>
         <v>107.52999999999999</v>
       </c>
-      <c r="T38" s="32"/>
+      <c r="T38" s="24"/>
       <c r="U38" s="1">
         <v>4136</v>
       </c>
-      <c r="V38" s="30">
+      <c r="V38" s="22">
         <f t="shared" si="6"/>
         <v>41.36</v>
       </c>
-      <c r="W38" s="32"/>
-      <c r="X38" s="32"/>
-      <c r="Y38" s="32"/>
+      <c r="W38" s="24"/>
+      <c r="X38" s="24"/>
+      <c r="Y38" s="24"/>
       <c r="Z38" s="1">
         <v>16499</v>
       </c>
-      <c r="AA38" s="30">
+      <c r="AA38" s="22">
         <f t="shared" si="7"/>
         <v>41.247499999999995</v>
       </c>
-      <c r="AB38" s="32"/>
+      <c r="AB38" s="24"/>
       <c r="AC38" s="1">
         <v>50231</v>
       </c>
-      <c r="AD38" s="30">
+      <c r="AD38" s="22">
         <f t="shared" si="8"/>
         <v>125.57750000000001</v>
       </c>
-      <c r="AE38" s="32"/>
+      <c r="AE38" s="24"/>
       <c r="AF38" s="1">
         <v>16260</v>
       </c>
-      <c r="AG38" s="30">
+      <c r="AG38" s="22">
         <f t="shared" si="9"/>
         <v>40.65</v>
       </c>
@@ -10841,75 +10980,75 @@
       <c r="D39" s="1">
         <v>1041</v>
       </c>
-      <c r="E39" s="30">
+      <c r="E39" s="22">
         <f t="shared" si="10"/>
         <v>41.64</v>
       </c>
-      <c r="F39" s="30"/>
+      <c r="F39" s="22"/>
       <c r="G39" s="1">
         <v>1706</v>
       </c>
-      <c r="H39" s="30">
+      <c r="H39" s="22">
         <f t="shared" si="11"/>
         <v>68.239999999999995</v>
       </c>
-      <c r="I39" s="30"/>
+      <c r="I39" s="22"/>
       <c r="J39" s="1">
         <v>1110</v>
       </c>
-      <c r="K39" s="30">
+      <c r="K39" s="22">
         <f t="shared" si="12"/>
         <v>44.4</v>
       </c>
-      <c r="L39" s="30"/>
-      <c r="M39" s="30"/>
-      <c r="N39" s="30"/>
+      <c r="L39" s="22"/>
+      <c r="M39" s="22"/>
+      <c r="N39" s="22"/>
       <c r="O39" s="1">
         <v>4154</v>
       </c>
-      <c r="P39" s="30">
+      <c r="P39" s="22">
         <f t="shared" si="4"/>
         <v>41.54</v>
       </c>
-      <c r="Q39" s="30"/>
+      <c r="Q39" s="22"/>
       <c r="R39" s="1">
         <v>11343</v>
       </c>
-      <c r="S39" s="30">
+      <c r="S39" s="22">
         <f t="shared" si="5"/>
         <v>113.43</v>
       </c>
-      <c r="T39" s="30"/>
+      <c r="T39" s="22"/>
       <c r="U39" s="1">
         <v>4174</v>
       </c>
-      <c r="V39" s="30">
+      <c r="V39" s="22">
         <f t="shared" si="6"/>
         <v>41.74</v>
       </c>
-      <c r="W39" s="30"/>
-      <c r="X39" s="30"/>
-      <c r="Y39" s="30"/>
+      <c r="W39" s="22"/>
+      <c r="X39" s="22"/>
+      <c r="Y39" s="22"/>
       <c r="Z39" s="1">
         <v>16299</v>
       </c>
-      <c r="AA39" s="30">
+      <c r="AA39" s="22">
         <f t="shared" si="7"/>
         <v>40.747499999999995</v>
       </c>
-      <c r="AB39" s="30"/>
+      <c r="AB39" s="22"/>
       <c r="AC39" s="1">
         <v>50208</v>
       </c>
-      <c r="AD39" s="30">
+      <c r="AD39" s="22">
         <f t="shared" si="8"/>
         <v>125.52000000000001</v>
       </c>
-      <c r="AE39" s="30"/>
+      <c r="AE39" s="22"/>
       <c r="AF39" s="1">
         <v>16249</v>
       </c>
-      <c r="AG39" s="30">
+      <c r="AG39" s="22">
         <f t="shared" si="9"/>
         <v>40.622500000000002</v>
       </c>
@@ -10918,75 +11057,75 @@
       <c r="D40" s="1">
         <v>1076</v>
       </c>
-      <c r="E40" s="30">
+      <c r="E40" s="22">
         <f t="shared" si="10"/>
         <v>43.04</v>
       </c>
-      <c r="F40" s="30"/>
+      <c r="F40" s="22"/>
       <c r="G40" s="1">
         <v>1759</v>
       </c>
-      <c r="H40" s="30">
+      <c r="H40" s="22">
         <f t="shared" si="11"/>
         <v>70.36</v>
       </c>
-      <c r="I40" s="30"/>
+      <c r="I40" s="22"/>
       <c r="J40" s="1">
         <v>1113</v>
       </c>
-      <c r="K40" s="30">
+      <c r="K40" s="22">
         <f t="shared" si="12"/>
         <v>44.519999999999996</v>
       </c>
-      <c r="L40" s="30"/>
-      <c r="M40" s="30"/>
-      <c r="N40" s="30"/>
+      <c r="L40" s="22"/>
+      <c r="M40" s="22"/>
+      <c r="N40" s="22"/>
       <c r="O40" s="2">
         <v>4177</v>
       </c>
-      <c r="P40" s="30">
+      <c r="P40" s="22">
         <f t="shared" si="4"/>
         <v>41.77</v>
       </c>
-      <c r="Q40" s="30"/>
+      <c r="Q40" s="22"/>
       <c r="R40" s="2">
         <v>10971</v>
       </c>
-      <c r="S40" s="30">
+      <c r="S40" s="22">
         <f t="shared" si="5"/>
         <v>109.71</v>
       </c>
-      <c r="T40" s="30"/>
+      <c r="T40" s="22"/>
       <c r="U40" s="2">
         <v>4266</v>
       </c>
-      <c r="V40" s="30">
+      <c r="V40" s="22">
         <f t="shared" si="6"/>
         <v>42.66</v>
       </c>
-      <c r="W40" s="30"/>
-      <c r="X40" s="30"/>
-      <c r="Y40" s="30"/>
+      <c r="W40" s="22"/>
+      <c r="X40" s="22"/>
+      <c r="Y40" s="22"/>
       <c r="Z40" s="1">
         <v>16494</v>
       </c>
-      <c r="AA40" s="30">
+      <c r="AA40" s="22">
         <f t="shared" si="7"/>
         <v>41.234999999999999</v>
       </c>
-      <c r="AB40" s="30"/>
+      <c r="AB40" s="22"/>
       <c r="AC40" s="1">
         <v>50808</v>
       </c>
-      <c r="AD40" s="30">
+      <c r="AD40" s="22">
         <f t="shared" si="8"/>
         <v>127.02</v>
       </c>
-      <c r="AE40" s="30"/>
+      <c r="AE40" s="22"/>
       <c r="AF40" s="1">
         <v>16214</v>
       </c>
-      <c r="AG40" s="30">
+      <c r="AG40" s="22">
         <f t="shared" si="9"/>
         <v>40.534999999999997</v>
       </c>
@@ -10995,82 +11134,82 @@
       <c r="D41" s="2">
         <v>1083</v>
       </c>
-      <c r="E41" s="30">
+      <c r="E41" s="22">
         <f t="shared" si="10"/>
         <v>43.32</v>
       </c>
-      <c r="F41" s="30"/>
+      <c r="F41" s="22"/>
       <c r="G41" s="2">
         <v>1680</v>
       </c>
-      <c r="H41" s="30">
+      <c r="H41" s="22">
         <f t="shared" si="11"/>
         <v>67.2</v>
       </c>
-      <c r="I41" s="30"/>
+      <c r="I41" s="22"/>
       <c r="J41" s="2">
         <v>1150</v>
       </c>
-      <c r="K41" s="30">
+      <c r="K41" s="22">
         <f t="shared" si="12"/>
         <v>46</v>
       </c>
-      <c r="L41" s="30"/>
-      <c r="M41" s="30"/>
-      <c r="N41" s="30"/>
+      <c r="L41" s="22"/>
+      <c r="M41" s="22"/>
+      <c r="N41" s="22"/>
       <c r="O41" s="4">
         <f t="shared" ref="O41" si="13">AVERAGE(O31:O40)</f>
         <v>3914.5</v>
       </c>
-      <c r="P41" s="33">
-        <f t="shared" ref="O41:P41" si="14">AVERAGE(P31:P40)</f>
+      <c r="P41" s="25">
+        <f t="shared" ref="P41" si="14">AVERAGE(P31:P40)</f>
         <v>39.144999999999996</v>
       </c>
-      <c r="Q41" s="30"/>
+      <c r="Q41" s="22"/>
       <c r="R41" s="4">
         <f t="shared" ref="R41" si="15">AVERAGE(R31:R40)</f>
         <v>9378</v>
       </c>
-      <c r="S41" s="33">
-        <f t="shared" ref="R41:S41" si="16">AVERAGE(S31:S40)</f>
+      <c r="S41" s="25">
+        <f t="shared" ref="S41" si="16">AVERAGE(S31:S40)</f>
         <v>93.78</v>
       </c>
-      <c r="T41" s="30"/>
+      <c r="T41" s="22"/>
       <c r="U41" s="4">
         <f t="shared" ref="U41" si="17">AVERAGE(U31:U40)</f>
         <v>4006.4</v>
       </c>
-      <c r="V41" s="33">
-        <f t="shared" ref="U41:V41" si="18">AVERAGE(V31:V40)</f>
+      <c r="V41" s="25">
+        <f t="shared" ref="V41" si="18">AVERAGE(V31:V40)</f>
         <v>40.064</v>
       </c>
-      <c r="W41" s="30"/>
-      <c r="X41" s="30"/>
-      <c r="Y41" s="30"/>
+      <c r="W41" s="22"/>
+      <c r="X41" s="22"/>
+      <c r="Y41" s="22"/>
       <c r="Z41" s="12">
         <f t="shared" ref="Z41" si="19">AVERAGE(Z31:Z40)</f>
         <v>16044</v>
       </c>
-      <c r="AA41" s="33">
-        <f t="shared" ref="Z41:AA41" si="20">AVERAGE(AA31:AA40)</f>
+      <c r="AA41" s="25">
+        <f t="shared" ref="AA41" si="20">AVERAGE(AA31:AA40)</f>
         <v>40.11</v>
       </c>
-      <c r="AB41" s="30"/>
+      <c r="AB41" s="22"/>
       <c r="AC41" s="12">
         <f t="shared" ref="AC41" si="21">AVERAGE(AC31:AC40)</f>
         <v>34078.1</v>
       </c>
-      <c r="AD41" s="33">
-        <f t="shared" ref="AC41:AD41" si="22">AVERAGE(AD31:AD40)</f>
+      <c r="AD41" s="25">
+        <f t="shared" ref="AD41" si="22">AVERAGE(AD31:AD40)</f>
         <v>85.195250000000001</v>
       </c>
-      <c r="AE41" s="30"/>
+      <c r="AE41" s="22"/>
       <c r="AF41" s="12">
         <f t="shared" ref="AF41" si="23">AVERAGE(AF31:AF40)</f>
         <v>15982</v>
       </c>
-      <c r="AG41" s="33">
-        <f t="shared" ref="AF41:AG41" si="24">AVERAGE(AG31:AG40)</f>
+      <c r="AG41" s="25">
+        <f t="shared" ref="AG41" si="24">AVERAGE(AG31:AG40)</f>
         <v>39.954999999999998</v>
       </c>
     </row>
@@ -11079,85 +11218,108 @@
         <f t="shared" ref="D42" si="25">AVERAGE(D32:D41)</f>
         <v>1014.3</v>
       </c>
-      <c r="E42" s="33">
+      <c r="E42" s="25">
         <f>AVERAGE(E32:E41)</f>
         <v>40.571999999999996</v>
       </c>
-      <c r="F42" s="30"/>
+      <c r="F42" s="22"/>
       <c r="G42" s="4">
         <f t="shared" ref="G42" si="26">AVERAGE(G32:G41)</f>
         <v>1540.9</v>
       </c>
-      <c r="H42" s="33">
-        <f t="shared" ref="G42:H42" si="27">AVERAGE(H32:H41)</f>
+      <c r="H42" s="25">
+        <f t="shared" ref="H42" si="27">AVERAGE(H32:H41)</f>
         <v>61.636000000000003</v>
       </c>
-      <c r="I42" s="30"/>
+      <c r="I42" s="22"/>
       <c r="J42" s="4">
         <f t="shared" ref="J42" si="28">AVERAGE(J32:J41)</f>
         <v>1053.4000000000001</v>
       </c>
-      <c r="K42" s="33">
+      <c r="K42" s="25">
         <f>AVERAGE(K32:K41)</f>
         <v>42.135999999999996</v>
       </c>
-      <c r="L42" s="30"/>
-      <c r="M42" s="30"/>
-      <c r="N42" s="30"/>
-      <c r="O42" s="30"/>
-      <c r="P42" s="30"/>
-      <c r="Q42" s="30"/>
-      <c r="R42" s="30"/>
-      <c r="S42" s="30"/>
-      <c r="T42" s="30"/>
-      <c r="U42" s="30"/>
-      <c r="V42" s="30"/>
-      <c r="W42" s="30"/>
-      <c r="X42" s="30"/>
-      <c r="Y42" s="30"/>
-      <c r="Z42" s="30"/>
-      <c r="AA42" s="30"/>
-      <c r="AB42" s="30"/>
-      <c r="AC42" s="30"/>
-      <c r="AD42" s="30"/>
-      <c r="AE42" s="30"/>
-      <c r="AF42" s="30"/>
-      <c r="AG42" s="30"/>
+      <c r="L42" s="22"/>
+      <c r="M42" s="22"/>
+      <c r="N42" s="22"/>
+      <c r="O42" s="22"/>
+      <c r="P42" s="22"/>
+      <c r="Q42" s="22"/>
+      <c r="R42" s="22"/>
+      <c r="S42" s="22"/>
+      <c r="T42" s="22"/>
+      <c r="U42" s="22"/>
+      <c r="V42" s="22"/>
+      <c r="W42" s="22"/>
+      <c r="X42" s="22"/>
+      <c r="Y42" s="22"/>
+      <c r="Z42" s="22"/>
+      <c r="AA42" s="22"/>
+      <c r="AB42" s="22"/>
+      <c r="AC42" s="22"/>
+      <c r="AD42" s="22"/>
+      <c r="AE42" s="22"/>
+      <c r="AF42" s="22"/>
+      <c r="AG42" s="22"/>
     </row>
     <row r="43" spans="2:33">
-      <c r="D43" s="30"/>
-      <c r="E43" s="30"/>
-      <c r="F43" s="30"/>
-      <c r="G43" s="30"/>
-      <c r="H43" s="30"/>
-      <c r="I43" s="30"/>
-      <c r="J43" s="30"/>
-      <c r="K43" s="30"/>
-      <c r="L43" s="30"/>
-      <c r="M43" s="30"/>
-      <c r="N43" s="30"/>
-      <c r="O43" s="30"/>
-      <c r="P43" s="30"/>
-      <c r="Q43" s="30"/>
-      <c r="R43" s="30"/>
-      <c r="S43" s="30"/>
-      <c r="T43" s="30"/>
-      <c r="U43" s="30"/>
-      <c r="V43" s="30"/>
-      <c r="W43" s="30"/>
-      <c r="X43" s="30"/>
-      <c r="Y43" s="30"/>
-      <c r="Z43" s="30"/>
-      <c r="AA43" s="30"/>
-      <c r="AB43" s="30"/>
-      <c r="AC43" s="30"/>
-      <c r="AD43" s="30"/>
-      <c r="AE43" s="30"/>
-      <c r="AF43" s="30"/>
-      <c r="AG43" s="30"/>
+      <c r="D43" s="22"/>
+      <c r="E43" s="22"/>
+      <c r="F43" s="22"/>
+      <c r="G43" s="22"/>
+      <c r="H43" s="22"/>
+      <c r="I43" s="22"/>
+      <c r="J43" s="22"/>
+      <c r="K43" s="22"/>
+      <c r="L43" s="22"/>
+      <c r="M43" s="22"/>
+      <c r="N43" s="22"/>
+      <c r="O43" s="22"/>
+      <c r="P43" s="22"/>
+      <c r="Q43" s="22"/>
+      <c r="R43" s="22"/>
+      <c r="S43" s="22"/>
+      <c r="T43" s="22"/>
+      <c r="U43" s="22"/>
+      <c r="V43" s="22"/>
+      <c r="W43" s="22"/>
+      <c r="X43" s="22"/>
+      <c r="Y43" s="22"/>
+      <c r="Z43" s="22"/>
+      <c r="AA43" s="22"/>
+      <c r="AB43" s="22"/>
+      <c r="AC43" s="22"/>
+      <c r="AD43" s="22"/>
+      <c r="AE43" s="22"/>
+      <c r="AF43" s="22"/>
+      <c r="AG43" s="22"/>
     </row>
   </sheetData>
   <mergeCells count="30">
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="Y5:AG5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="Y6:AG6"/>
+    <mergeCell ref="T7:V7"/>
+    <mergeCell ref="Y7:AA7"/>
+    <mergeCell ref="AB7:AD7"/>
+    <mergeCell ref="AE7:AG7"/>
+    <mergeCell ref="C14:K14"/>
+    <mergeCell ref="N14:V14"/>
+    <mergeCell ref="Y14:AG14"/>
+    <mergeCell ref="C7:E7"/>
+    <mergeCell ref="F7:H7"/>
+    <mergeCell ref="I7:K7"/>
+    <mergeCell ref="N7:P7"/>
+    <mergeCell ref="Q7:S7"/>
+    <mergeCell ref="C13:K13"/>
+    <mergeCell ref="N13:V13"/>
+    <mergeCell ref="Y13:AG13"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
     <mergeCell ref="AE15:AG15"/>
     <mergeCell ref="I15:K15"/>
     <mergeCell ref="N15:P15"/>
@@ -11165,29 +11327,6 @@
     <mergeCell ref="T15:V15"/>
     <mergeCell ref="Y15:AA15"/>
     <mergeCell ref="AB15:AD15"/>
-    <mergeCell ref="C13:K13"/>
-    <mergeCell ref="N13:V13"/>
-    <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="T7:V7"/>
-    <mergeCell ref="Y7:AA7"/>
-    <mergeCell ref="AB7:AD7"/>
-    <mergeCell ref="AE7:AG7"/>
-    <mergeCell ref="C14:K14"/>
-    <mergeCell ref="N14:V14"/>
-    <mergeCell ref="Y14:AG14"/>
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="Y5:AG5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="Y6:AG6"/>
-    <mergeCell ref="C7:E7"/>
-    <mergeCell ref="F7:H7"/>
-    <mergeCell ref="I7:K7"/>
-    <mergeCell ref="N7:P7"/>
-    <mergeCell ref="Q7:S7"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>

--- a/doc/Wyniki_end.xlsx
+++ b/doc/Wyniki_end.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="60" windowWidth="18200" windowHeight="11840"/>
+    <workbookView xWindow="480" yWindow="60" windowWidth="18195" windowHeight="11835"/>
   </bookViews>
   <sheets>
     <sheet name="Arkusz1" sheetId="1" r:id="rId1"/>
@@ -16,7 +16,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="749" uniqueCount="46">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="821" uniqueCount="52">
   <si>
     <t>Rozmiar grafu:</t>
   </si>
@@ -154,6 +154,24 @@
   </si>
   <si>
     <t>Nie</t>
+  </si>
+  <si>
+    <t>A*</t>
+  </si>
+  <si>
+    <t>JPS</t>
+  </si>
+  <si>
+    <t>Środowisko 1</t>
+  </si>
+  <si>
+    <t>Środowisko 2</t>
+  </si>
+  <si>
+    <t>Środowisko 3</t>
+  </si>
+  <si>
+    <t>Środowisko 4</t>
   </si>
 </sst>
 </file>
@@ -399,7 +417,7 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="36">
+  <cellXfs count="40">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="2" xfId="0" applyBorder="1"/>
@@ -441,11 +459,8 @@
     <xf numFmtId="0" fontId="5" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1"/>
     <xf numFmtId="0" fontId="6" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="12" xfId="0" applyBorder="1" applyAlignment="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
-      <alignment horizontal="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="7" xfId="0" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
@@ -458,11 +473,26 @@
     </xf>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="8" xfId="0" applyBorder="1"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="9" xfId="0" applyBorder="1"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
-      <alignment horizontal="center" vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center"/>
+    </xf>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -476,6 +506,867 @@
     </ext>
   </extLst>
 </styleSheet>
+</file>
+
+<file path=xl/charts/chart1.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Środowisko 1</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A*</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$E$147:$G$147</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$143:$D$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>44.892000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>7.4729999999999999</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.7</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPS</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$143:$G$143</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>25.574999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.8840000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.623</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="58059008"/>
+        <c:axId val="60448768"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58059008"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="60448768"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="60448768"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="58059008"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart2.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Środowisko 2</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A*</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$147:$D$147</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$148:$D$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>30.881</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>6.2960000000000003</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.4950000000000001</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPS</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$148:$G$148</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>15.696999999999999</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.6639999999999997</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>2.2929999999999997</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="59052032"/>
+        <c:axId val="59053568"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="59052032"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="59053568"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="59053568"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="59052032"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart3.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Środowisko 3</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A*</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$152:$D$152</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$153:$D$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.81</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>5.2910000000000004</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>1.3979999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPS</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$153:$G$153</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>33.347000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>0.68200000000000005</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>0.73599999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="62774272"/>
+        <c:axId val="62890752"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="62774272"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="62890752"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="62890752"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:title>
+          <c:tx>
+            <c:rich>
+              <a:bodyPr rot="-5400000" vert="horz"/>
+              <a:lstStyle/>
+              <a:p>
+                <a:pPr>
+                  <a:defRPr/>
+                </a:pPr>
+                <a:r>
+                  <a:rPr lang="pl-PL"/>
+                  <a:t>Czas</a:t>
+                </a:r>
+                <a:r>
+                  <a:rPr lang="pl-PL" baseline="0"/>
+                  <a:t> [ms]</a:t>
+                </a:r>
+                <a:endParaRPr lang="pl-PL"/>
+              </a:p>
+            </c:rich>
+          </c:tx>
+          <c:layout/>
+          <c:overlay val="0"/>
+        </c:title>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="62774272"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/charts/chart4.xml><?xml version="1.0" encoding="utf-8"?>
+<c:chartSpace xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
+  <c:date1904 val="0"/>
+  <c:lang val="pl-PL"/>
+  <c:roundedCorners val="0"/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice xmlns:c14="http://schemas.microsoft.com/office/drawing/2007/8/2/chart" Requires="c14">
+      <c14:style val="102"/>
+    </mc:Choice>
+    <mc:Fallback>
+      <c:style val="2"/>
+    </mc:Fallback>
+  </mc:AlternateContent>
+  <c:chart>
+    <c:title>
+      <c:tx>
+        <c:rich>
+          <a:bodyPr/>
+          <a:lstStyle/>
+          <a:p>
+            <a:pPr>
+              <a:defRPr/>
+            </a:pPr>
+            <a:r>
+              <a:rPr lang="pl-PL"/>
+              <a:t>Środowisko 4</a:t>
+            </a:r>
+          </a:p>
+        </c:rich>
+      </c:tx>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:title>
+    <c:autoTitleDeleted val="0"/>
+    <c:plotArea>
+      <c:layout/>
+      <c:barChart>
+        <c:barDir val="col"/>
+        <c:grouping val="clustered"/>
+        <c:varyColors val="0"/>
+        <c:ser>
+          <c:idx val="0"/>
+          <c:order val="0"/>
+          <c:tx>
+            <c:v>A*</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:cat>
+            <c:strRef>
+              <c:f>Arkusz1!$B$157:$D$157</c:f>
+              <c:strCache>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>200x200</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>100x100</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>50x50</c:v>
+                </c:pt>
+              </c:strCache>
+            </c:strRef>
+          </c:cat>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$B$158:$D$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>40.090000000000003</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:ser>
+          <c:idx val="1"/>
+          <c:order val="1"/>
+          <c:tx>
+            <c:v>JPS</c:v>
+          </c:tx>
+          <c:invertIfNegative val="0"/>
+          <c:val>
+            <c:numRef>
+              <c:f>Arkusz1!$E$158:$G$158</c:f>
+              <c:numCache>
+                <c:formatCode>General</c:formatCode>
+                <c:ptCount val="3"/>
+                <c:pt idx="0">
+                  <c:v>23.876000000000001</c:v>
+                </c:pt>
+                <c:pt idx="1">
+                  <c:v>11.91</c:v>
+                </c:pt>
+                <c:pt idx="2">
+                  <c:v>3.5009999999999999</c:v>
+                </c:pt>
+              </c:numCache>
+            </c:numRef>
+          </c:val>
+        </c:ser>
+        <c:dLbls>
+          <c:showLegendKey val="0"/>
+          <c:showVal val="0"/>
+          <c:showCatName val="0"/>
+          <c:showSerName val="0"/>
+          <c:showPercent val="0"/>
+          <c:showBubbleSize val="0"/>
+        </c:dLbls>
+        <c:gapWidth val="75"/>
+        <c:overlap val="-25"/>
+        <c:axId val="58023296"/>
+        <c:axId val="58025472"/>
+      </c:barChart>
+      <c:catAx>
+        <c:axId val="58023296"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="b"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:crossAx val="58025472"/>
+        <c:crosses val="autoZero"/>
+        <c:auto val="1"/>
+        <c:lblAlgn val="ctr"/>
+        <c:lblOffset val="100"/>
+        <c:noMultiLvlLbl val="0"/>
+      </c:catAx>
+      <c:valAx>
+        <c:axId val="58025472"/>
+        <c:scaling>
+          <c:orientation val="minMax"/>
+        </c:scaling>
+        <c:delete val="0"/>
+        <c:axPos val="l"/>
+        <c:majorGridlines/>
+        <c:numFmt formatCode="General" sourceLinked="1"/>
+        <c:majorTickMark val="none"/>
+        <c:minorTickMark val="none"/>
+        <c:tickLblPos val="nextTo"/>
+        <c:spPr>
+          <a:ln w="9525">
+            <a:noFill/>
+          </a:ln>
+        </c:spPr>
+        <c:crossAx val="58023296"/>
+        <c:crosses val="autoZero"/>
+        <c:crossBetween val="between"/>
+      </c:valAx>
+    </c:plotArea>
+    <c:legend>
+      <c:legendPos val="b"/>
+      <c:layout/>
+      <c:overlay val="0"/>
+    </c:legend>
+    <c:plotVisOnly val="1"/>
+    <c:dispBlanksAs val="gap"/>
+    <c:showDLblsOverMax val="0"/>
+  </c:chart>
+  <c:printSettings>
+    <c:headerFooter/>
+    <c:pageMargins b="0.75" l="0.7" r="0.7" t="0.75" header="0.3" footer="0.3"/>
+    <c:pageSetup/>
+  </c:printSettings>
+</c:chartSpace>
+</file>
+
+<file path=xl/drawings/drawing1.xml><?xml version="1.0" encoding="utf-8"?>
+<xdr:wsDr xmlns:xdr="http://schemas.openxmlformats.org/drawingml/2006/spreadsheetDrawing" xmlns:a="http://schemas.openxmlformats.org/drawingml/2006/main">
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>66674</xdr:colOff>
+      <xdr:row>135</xdr:row>
+      <xdr:rowOff>190499</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>590099</xdr:colOff>
+      <xdr:row>154</xdr:row>
+      <xdr:rowOff>170999</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="6" name="Wykres 5" title="Środowisko 1"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId1"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>152400</xdr:colOff>
+      <xdr:row>155</xdr:row>
+      <xdr:rowOff>185735</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>15</xdr:col>
+      <xdr:colOff>66225</xdr:colOff>
+      <xdr:row>174</xdr:row>
+      <xdr:rowOff>166235</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="7" name="Wykres 6"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId2"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>1</xdr:col>
+      <xdr:colOff>19050</xdr:colOff>
+      <xdr:row>159</xdr:row>
+      <xdr:rowOff>14287</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>6</xdr:col>
+      <xdr:colOff>571050</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>185287</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="8" name="Wykres 7"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId3"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+  <xdr:twoCellAnchor>
+    <xdr:from>
+      <xdr:col>9</xdr:col>
+      <xdr:colOff>47625</xdr:colOff>
+      <xdr:row>177</xdr:row>
+      <xdr:rowOff>33337</xdr:rowOff>
+    </xdr:from>
+    <xdr:to>
+      <xdr:col>14</xdr:col>
+      <xdr:colOff>571050</xdr:colOff>
+      <xdr:row>196</xdr:row>
+      <xdr:rowOff>13837</xdr:rowOff>
+    </xdr:to>
+    <xdr:graphicFrame macro="">
+      <xdr:nvGraphicFramePr>
+        <xdr:cNvPr id="9" name="Wykres 8"/>
+        <xdr:cNvGraphicFramePr/>
+      </xdr:nvGraphicFramePr>
+      <xdr:xfrm>
+        <a:off x="0" y="0"/>
+        <a:ext cx="0" cy="0"/>
+      </xdr:xfrm>
+      <a:graphic>
+        <a:graphicData uri="http://schemas.openxmlformats.org/drawingml/2006/chart">
+          <c:chart xmlns:c="http://schemas.openxmlformats.org/drawingml/2006/chart" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" r:id="rId4"/>
+        </a:graphicData>
+      </a:graphic>
+    </xdr:graphicFrame>
+    <xdr:clientData/>
+  </xdr:twoCellAnchor>
+</xdr:wsDr>
 </file>
 
 <file path=xl/theme/theme1.xml><?xml version="1.0" encoding="utf-8"?>
@@ -765,231 +1656,231 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
-  <dimension ref="A1:AF113"/>
+  <dimension ref="A1:AF158"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A73" zoomScale="55" zoomScaleNormal="55" workbookViewId="0">
-      <selection activeCell="J112" sqref="J112"/>
+    <sheetView tabSelected="1" topLeftCell="A151" zoomScaleNormal="100" workbookViewId="0">
+      <selection activeCell="O179" sqref="O179"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="16.1796875" customWidth="1"/>
-    <col min="10" max="10" width="9.54296875" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="16.140625" customWidth="1"/>
+    <col min="10" max="10" width="9.5703125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:32">
-      <c r="A1" s="28" t="s">
+      <c r="A1" s="34" t="s">
         <v>29</v>
       </c>
-      <c r="B1" s="28"/>
-      <c r="C1" s="28"/>
-      <c r="D1" s="28"/>
-      <c r="E1" s="28"/>
-      <c r="F1" s="28"/>
-      <c r="G1" s="28"/>
-      <c r="H1" s="28"/>
-      <c r="I1" s="28"/>
-      <c r="J1" s="28"/>
-      <c r="K1" s="28"/>
-      <c r="L1" s="28"/>
-      <c r="M1" s="28"/>
-      <c r="N1" s="28"/>
-      <c r="O1" s="28"/>
-      <c r="P1" s="28"/>
-      <c r="Q1" s="28"/>
-      <c r="R1" s="28"/>
-      <c r="S1" s="28"/>
-      <c r="T1" s="28"/>
-      <c r="U1" s="28"/>
-      <c r="V1" s="28"/>
-      <c r="W1" s="28"/>
-      <c r="X1" s="28"/>
-      <c r="Y1" s="28"/>
-      <c r="Z1" s="28"/>
-      <c r="AA1" s="28"/>
-      <c r="AB1" s="28"/>
-      <c r="AC1" s="28"/>
-      <c r="AD1" s="28"/>
-      <c r="AE1" s="28"/>
-      <c r="AF1" s="28"/>
+      <c r="B1" s="34"/>
+      <c r="C1" s="34"/>
+      <c r="D1" s="34"/>
+      <c r="E1" s="34"/>
+      <c r="F1" s="34"/>
+      <c r="G1" s="34"/>
+      <c r="H1" s="34"/>
+      <c r="I1" s="34"/>
+      <c r="J1" s="34"/>
+      <c r="K1" s="34"/>
+      <c r="L1" s="34"/>
+      <c r="M1" s="34"/>
+      <c r="N1" s="34"/>
+      <c r="O1" s="34"/>
+      <c r="P1" s="34"/>
+      <c r="Q1" s="34"/>
+      <c r="R1" s="34"/>
+      <c r="S1" s="34"/>
+      <c r="T1" s="34"/>
+      <c r="U1" s="34"/>
+      <c r="V1" s="34"/>
+      <c r="W1" s="34"/>
+      <c r="X1" s="34"/>
+      <c r="Y1" s="34"/>
+      <c r="Z1" s="34"/>
+      <c r="AA1" s="34"/>
+      <c r="AB1" s="34"/>
+      <c r="AC1" s="34"/>
+      <c r="AD1" s="34"/>
+      <c r="AE1" s="34"/>
+      <c r="AF1" s="34"/>
     </row>
     <row r="2" spans="1:32">
-      <c r="A2" s="28"/>
-      <c r="B2" s="28"/>
-      <c r="C2" s="28"/>
-      <c r="D2" s="28"/>
-      <c r="E2" s="28"/>
-      <c r="F2" s="28"/>
-      <c r="G2" s="28"/>
-      <c r="H2" s="28"/>
-      <c r="I2" s="28"/>
-      <c r="J2" s="28"/>
-      <c r="K2" s="28"/>
-      <c r="L2" s="28"/>
-      <c r="M2" s="28"/>
-      <c r="N2" s="28"/>
-      <c r="O2" s="28"/>
-      <c r="P2" s="28"/>
-      <c r="Q2" s="28"/>
-      <c r="R2" s="28"/>
-      <c r="S2" s="28"/>
-      <c r="T2" s="28"/>
-      <c r="U2" s="28"/>
-      <c r="V2" s="28"/>
-      <c r="W2" s="28"/>
-      <c r="X2" s="28"/>
-      <c r="Y2" s="28"/>
-      <c r="Z2" s="28"/>
-      <c r="AA2" s="28"/>
-      <c r="AB2" s="28"/>
-      <c r="AC2" s="28"/>
-      <c r="AD2" s="28"/>
-      <c r="AE2" s="28"/>
-      <c r="AF2" s="28"/>
+      <c r="A2" s="34"/>
+      <c r="B2" s="34"/>
+      <c r="C2" s="34"/>
+      <c r="D2" s="34"/>
+      <c r="E2" s="34"/>
+      <c r="F2" s="34"/>
+      <c r="G2" s="34"/>
+      <c r="H2" s="34"/>
+      <c r="I2" s="34"/>
+      <c r="J2" s="34"/>
+      <c r="K2" s="34"/>
+      <c r="L2" s="34"/>
+      <c r="M2" s="34"/>
+      <c r="N2" s="34"/>
+      <c r="O2" s="34"/>
+      <c r="P2" s="34"/>
+      <c r="Q2" s="34"/>
+      <c r="R2" s="34"/>
+      <c r="S2" s="34"/>
+      <c r="T2" s="34"/>
+      <c r="U2" s="34"/>
+      <c r="V2" s="34"/>
+      <c r="W2" s="34"/>
+      <c r="X2" s="34"/>
+      <c r="Y2" s="34"/>
+      <c r="Z2" s="34"/>
+      <c r="AA2" s="34"/>
+      <c r="AB2" s="34"/>
+      <c r="AC2" s="34"/>
+      <c r="AD2" s="34"/>
+      <c r="AE2" s="34"/>
+      <c r="AF2" s="34"/>
     </row>
     <row r="4" spans="1:32">
       <c r="A4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
-      <c r="E4" s="27"/>
-      <c r="F4" s="27"/>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
-      <c r="I4" s="27"/>
-      <c r="J4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
+      <c r="E4" s="33"/>
+      <c r="F4" s="33"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
+      <c r="I4" s="33"/>
+      <c r="J4" s="33"/>
       <c r="L4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M4" s="27" t="s">
+      <c r="M4" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N4" s="27"/>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
-      <c r="Q4" s="27"/>
-      <c r="R4" s="27"/>
-      <c r="S4" s="27"/>
-      <c r="T4" s="27"/>
-      <c r="U4" s="27"/>
+      <c r="N4" s="33"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
+      <c r="Q4" s="33"/>
+      <c r="R4" s="33"/>
+      <c r="S4" s="33"/>
+      <c r="T4" s="33"/>
+      <c r="U4" s="33"/>
       <c r="W4" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X4" s="29" t="s">
+      <c r="X4" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y4" s="30"/>
-      <c r="Z4" s="30"/>
-      <c r="AA4" s="30"/>
-      <c r="AB4" s="30"/>
-      <c r="AC4" s="30"/>
-      <c r="AD4" s="30"/>
-      <c r="AE4" s="30"/>
-      <c r="AF4" s="31"/>
+      <c r="Y4" s="29"/>
+      <c r="Z4" s="29"/>
+      <c r="AA4" s="29"/>
+      <c r="AB4" s="29"/>
+      <c r="AC4" s="29"/>
+      <c r="AD4" s="29"/>
+      <c r="AE4" s="29"/>
+      <c r="AF4" s="30"/>
     </row>
     <row r="5" spans="1:32">
       <c r="A5" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="B5" s="27" t="s">
+      <c r="B5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C5" s="27"/>
-      <c r="D5" s="27"/>
-      <c r="E5" s="27"/>
-      <c r="F5" s="27"/>
-      <c r="G5" s="27"/>
-      <c r="H5" s="27"/>
-      <c r="I5" s="27"/>
-      <c r="J5" s="27"/>
+      <c r="C5" s="33"/>
+      <c r="D5" s="33"/>
+      <c r="E5" s="33"/>
+      <c r="F5" s="33"/>
+      <c r="G5" s="33"/>
+      <c r="H5" s="33"/>
+      <c r="I5" s="33"/>
+      <c r="J5" s="33"/>
       <c r="L5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M5" s="27" t="s">
+      <c r="M5" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N5" s="27"/>
-      <c r="O5" s="27"/>
-      <c r="P5" s="27"/>
-      <c r="Q5" s="27"/>
-      <c r="R5" s="27"/>
-      <c r="S5" s="27"/>
-      <c r="T5" s="27"/>
-      <c r="U5" s="27"/>
+      <c r="N5" s="33"/>
+      <c r="O5" s="33"/>
+      <c r="P5" s="33"/>
+      <c r="Q5" s="33"/>
+      <c r="R5" s="33"/>
+      <c r="S5" s="33"/>
+      <c r="T5" s="33"/>
+      <c r="U5" s="33"/>
       <c r="W5" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X5" s="29" t="s">
+      <c r="X5" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Y5" s="30"/>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="31"/>
+      <c r="Y5" s="29"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="30"/>
     </row>
     <row r="6" spans="1:32">
       <c r="A6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B6" s="27" t="s">
+      <c r="B6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C6" s="27"/>
-      <c r="D6" s="27"/>
-      <c r="E6" s="27" t="s">
+      <c r="C6" s="33"/>
+      <c r="D6" s="33"/>
+      <c r="E6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F6" s="27"/>
-      <c r="G6" s="27"/>
-      <c r="H6" s="27" t="s">
+      <c r="F6" s="33"/>
+      <c r="G6" s="33"/>
+      <c r="H6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I6" s="27"/>
-      <c r="J6" s="27"/>
+      <c r="I6" s="33"/>
+      <c r="J6" s="33"/>
       <c r="L6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M6" s="27" t="s">
+      <c r="M6" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N6" s="27"/>
-      <c r="O6" s="27"/>
-      <c r="P6" s="27" t="s">
+      <c r="N6" s="33"/>
+      <c r="O6" s="33"/>
+      <c r="P6" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q6" s="27"/>
-      <c r="R6" s="27"/>
-      <c r="S6" s="27" t="s">
+      <c r="Q6" s="33"/>
+      <c r="R6" s="33"/>
+      <c r="S6" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T6" s="27"/>
-      <c r="U6" s="27"/>
+      <c r="T6" s="33"/>
+      <c r="U6" s="33"/>
       <c r="W6" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X6" s="29" t="s">
+      <c r="X6" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y6" s="30"/>
-      <c r="Z6" s="31"/>
-      <c r="AA6" s="29" t="s">
+      <c r="Y6" s="29"/>
+      <c r="Z6" s="30"/>
+      <c r="AA6" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="31"/>
-      <c r="AD6" s="29" t="s">
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="30"/>
+      <c r="AD6" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="31"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="30"/>
     </row>
     <row r="7" spans="1:32">
       <c r="B7" s="1" t="s">
@@ -1904,7 +2795,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="17" spans="1:32" ht="15" thickBot="1">
+    <row r="17" spans="1:32" ht="15.75" thickBot="1">
       <c r="A17" s="2" t="s">
         <v>20</v>
       </c>
@@ -1996,7 +2887,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="18" spans="1:32" ht="15" thickBot="1">
+    <row r="18" spans="1:32" ht="15.75" thickBot="1">
       <c r="A18" s="3" t="s">
         <v>25</v>
       </c>
@@ -2025,7 +2916,7 @@
         <v>68.7</v>
       </c>
       <c r="H18" s="4">
-        <f t="shared" si="0"/>
+        <f>AVERAGE(H8:H17)</f>
         <v>4.0009999999999994</v>
       </c>
       <c r="I18" s="4">
@@ -2064,7 +2955,7 @@
         <v>135</v>
       </c>
       <c r="S18" s="4">
-        <f t="shared" si="1"/>
+        <f>AVERAGE(S8:S17)</f>
         <v>12.215</v>
       </c>
       <c r="T18" s="4">
@@ -2119,145 +3010,145 @@
       <c r="A22" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="B22" s="29" t="s">
+      <c r="B22" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="C22" s="30"/>
-      <c r="D22" s="30"/>
-      <c r="E22" s="30"/>
-      <c r="F22" s="30"/>
-      <c r="G22" s="30"/>
-      <c r="H22" s="30"/>
-      <c r="I22" s="30"/>
-      <c r="J22" s="31"/>
+      <c r="C22" s="29"/>
+      <c r="D22" s="29"/>
+      <c r="E22" s="29"/>
+      <c r="F22" s="29"/>
+      <c r="G22" s="29"/>
+      <c r="H22" s="29"/>
+      <c r="I22" s="29"/>
+      <c r="J22" s="30"/>
       <c r="L22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M22" s="29" t="s">
+      <c r="M22" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="N22" s="30"/>
-      <c r="O22" s="30"/>
-      <c r="P22" s="30"/>
-      <c r="Q22" s="30"/>
-      <c r="R22" s="30"/>
-      <c r="S22" s="30"/>
-      <c r="T22" s="30"/>
-      <c r="U22" s="31"/>
+      <c r="N22" s="29"/>
+      <c r="O22" s="29"/>
+      <c r="P22" s="29"/>
+      <c r="Q22" s="29"/>
+      <c r="R22" s="29"/>
+      <c r="S22" s="29"/>
+      <c r="T22" s="29"/>
+      <c r="U22" s="30"/>
       <c r="W22" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X22" s="29" t="s">
+      <c r="X22" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Y22" s="30"/>
-      <c r="Z22" s="30"/>
-      <c r="AA22" s="30"/>
-      <c r="AB22" s="30"/>
-      <c r="AC22" s="30"/>
-      <c r="AD22" s="30"/>
-      <c r="AE22" s="30"/>
-      <c r="AF22" s="31"/>
+      <c r="Y22" s="29"/>
+      <c r="Z22" s="29"/>
+      <c r="AA22" s="29"/>
+      <c r="AB22" s="29"/>
+      <c r="AC22" s="29"/>
+      <c r="AD22" s="29"/>
+      <c r="AE22" s="29"/>
+      <c r="AF22" s="30"/>
     </row>
     <row r="23" spans="1:32">
       <c r="A23" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="B23" s="29" t="s">
+      <c r="B23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="C23" s="30"/>
-      <c r="D23" s="30"/>
-      <c r="E23" s="30"/>
-      <c r="F23" s="30"/>
-      <c r="G23" s="30"/>
-      <c r="H23" s="30"/>
-      <c r="I23" s="30"/>
-      <c r="J23" s="31"/>
+      <c r="C23" s="29"/>
+      <c r="D23" s="29"/>
+      <c r="E23" s="29"/>
+      <c r="F23" s="29"/>
+      <c r="G23" s="29"/>
+      <c r="H23" s="29"/>
+      <c r="I23" s="29"/>
+      <c r="J23" s="30"/>
       <c r="L23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M23" s="29" t="s">
+      <c r="M23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="N23" s="30"/>
-      <c r="O23" s="30"/>
-      <c r="P23" s="30"/>
-      <c r="Q23" s="30"/>
-      <c r="R23" s="30"/>
-      <c r="S23" s="30"/>
-      <c r="T23" s="30"/>
-      <c r="U23" s="31"/>
+      <c r="N23" s="29"/>
+      <c r="O23" s="29"/>
+      <c r="P23" s="29"/>
+      <c r="Q23" s="29"/>
+      <c r="R23" s="29"/>
+      <c r="S23" s="29"/>
+      <c r="T23" s="29"/>
+      <c r="U23" s="30"/>
       <c r="W23" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X23" s="29" t="s">
+      <c r="X23" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Y23" s="30"/>
-      <c r="Z23" s="30"/>
-      <c r="AA23" s="30"/>
-      <c r="AB23" s="30"/>
-      <c r="AC23" s="30"/>
-      <c r="AD23" s="30"/>
-      <c r="AE23" s="30"/>
-      <c r="AF23" s="31"/>
+      <c r="Y23" s="29"/>
+      <c r="Z23" s="29"/>
+      <c r="AA23" s="29"/>
+      <c r="AB23" s="29"/>
+      <c r="AC23" s="29"/>
+      <c r="AD23" s="29"/>
+      <c r="AE23" s="29"/>
+      <c r="AF23" s="30"/>
     </row>
     <row r="24" spans="1:32">
       <c r="A24" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="B24" s="29" t="s">
+      <c r="B24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C24" s="32"/>
-      <c r="D24" s="33"/>
-      <c r="E24" s="29" t="s">
+      <c r="C24" s="31"/>
+      <c r="D24" s="32"/>
+      <c r="E24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F24" s="32"/>
-      <c r="G24" s="33"/>
-      <c r="H24" s="29" t="s">
+      <c r="F24" s="31"/>
+      <c r="G24" s="32"/>
+      <c r="H24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="I24" s="32"/>
-      <c r="J24" s="33"/>
+      <c r="I24" s="31"/>
+      <c r="J24" s="32"/>
       <c r="L24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M24" s="29" t="s">
+      <c r="M24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N24" s="30"/>
-      <c r="O24" s="31"/>
-      <c r="P24" s="29" t="s">
+      <c r="N24" s="29"/>
+      <c r="O24" s="30"/>
+      <c r="P24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q24" s="30"/>
-      <c r="R24" s="31"/>
-      <c r="S24" s="27" t="s">
+      <c r="Q24" s="29"/>
+      <c r="R24" s="30"/>
+      <c r="S24" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T24" s="27"/>
-      <c r="U24" s="27"/>
+      <c r="T24" s="33"/>
+      <c r="U24" s="33"/>
       <c r="W24" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X24" s="29" t="s">
+      <c r="X24" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Y24" s="30"/>
-      <c r="Z24" s="31"/>
-      <c r="AA24" s="29" t="s">
+      <c r="Y24" s="29"/>
+      <c r="Z24" s="30"/>
+      <c r="AA24" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AB24" s="30"/>
-      <c r="AC24" s="31"/>
-      <c r="AD24" s="29" t="s">
+      <c r="AB24" s="29"/>
+      <c r="AC24" s="30"/>
+      <c r="AD24" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AE24" s="30"/>
-      <c r="AF24" s="31"/>
+      <c r="AE24" s="29"/>
+      <c r="AF24" s="30"/>
     </row>
     <row r="25" spans="1:32">
       <c r="A25" s="9"/>
@@ -2438,218 +3329,218 @@
       </c>
     </row>
     <row r="28" spans="1:32">
-      <c r="A28" s="28" t="s">
+      <c r="A28" s="34" t="s">
         <v>30</v>
       </c>
-      <c r="B28" s="28"/>
-      <c r="C28" s="28"/>
-      <c r="D28" s="28"/>
-      <c r="E28" s="28"/>
-      <c r="F28" s="28"/>
-      <c r="G28" s="28"/>
-      <c r="H28" s="28"/>
-      <c r="I28" s="28"/>
-      <c r="J28" s="28"/>
-      <c r="K28" s="28"/>
-      <c r="L28" s="28"/>
-      <c r="M28" s="28"/>
-      <c r="N28" s="28"/>
-      <c r="O28" s="28"/>
-      <c r="P28" s="28"/>
-      <c r="Q28" s="28"/>
-      <c r="R28" s="28"/>
-      <c r="S28" s="28"/>
-      <c r="T28" s="28"/>
-      <c r="U28" s="28"/>
-      <c r="V28" s="28"/>
-      <c r="W28" s="28"/>
-      <c r="X28" s="28"/>
-      <c r="Y28" s="28"/>
-      <c r="Z28" s="28"/>
-      <c r="AA28" s="28"/>
-      <c r="AB28" s="28"/>
-      <c r="AC28" s="28"/>
-      <c r="AD28" s="28"/>
-      <c r="AE28" s="28"/>
-      <c r="AF28" s="28"/>
+      <c r="B28" s="34"/>
+      <c r="C28" s="34"/>
+      <c r="D28" s="34"/>
+      <c r="E28" s="34"/>
+      <c r="F28" s="34"/>
+      <c r="G28" s="34"/>
+      <c r="H28" s="34"/>
+      <c r="I28" s="34"/>
+      <c r="J28" s="34"/>
+      <c r="K28" s="34"/>
+      <c r="L28" s="34"/>
+      <c r="M28" s="34"/>
+      <c r="N28" s="34"/>
+      <c r="O28" s="34"/>
+      <c r="P28" s="34"/>
+      <c r="Q28" s="34"/>
+      <c r="R28" s="34"/>
+      <c r="S28" s="34"/>
+      <c r="T28" s="34"/>
+      <c r="U28" s="34"/>
+      <c r="V28" s="34"/>
+      <c r="W28" s="34"/>
+      <c r="X28" s="34"/>
+      <c r="Y28" s="34"/>
+      <c r="Z28" s="34"/>
+      <c r="AA28" s="34"/>
+      <c r="AB28" s="34"/>
+      <c r="AC28" s="34"/>
+      <c r="AD28" s="34"/>
+      <c r="AE28" s="34"/>
+      <c r="AF28" s="34"/>
     </row>
     <row r="29" spans="1:32">
-      <c r="A29" s="28"/>
-      <c r="B29" s="28"/>
-      <c r="C29" s="28"/>
-      <c r="D29" s="28"/>
-      <c r="E29" s="28"/>
-      <c r="F29" s="28"/>
-      <c r="G29" s="28"/>
-      <c r="H29" s="28"/>
-      <c r="I29" s="28"/>
-      <c r="J29" s="28"/>
-      <c r="K29" s="28"/>
-      <c r="L29" s="28"/>
-      <c r="M29" s="28"/>
-      <c r="N29" s="28"/>
-      <c r="O29" s="28"/>
-      <c r="P29" s="28"/>
-      <c r="Q29" s="28"/>
-      <c r="R29" s="28"/>
-      <c r="S29" s="28"/>
-      <c r="T29" s="28"/>
-      <c r="U29" s="28"/>
-      <c r="V29" s="28"/>
-      <c r="W29" s="28"/>
-      <c r="X29" s="28"/>
-      <c r="Y29" s="28"/>
-      <c r="Z29" s="28"/>
-      <c r="AA29" s="28"/>
-      <c r="AB29" s="28"/>
-      <c r="AC29" s="28"/>
-      <c r="AD29" s="28"/>
-      <c r="AE29" s="28"/>
-      <c r="AF29" s="28"/>
+      <c r="A29" s="34"/>
+      <c r="B29" s="34"/>
+      <c r="C29" s="34"/>
+      <c r="D29" s="34"/>
+      <c r="E29" s="34"/>
+      <c r="F29" s="34"/>
+      <c r="G29" s="34"/>
+      <c r="H29" s="34"/>
+      <c r="I29" s="34"/>
+      <c r="J29" s="34"/>
+      <c r="K29" s="34"/>
+      <c r="L29" s="34"/>
+      <c r="M29" s="34"/>
+      <c r="N29" s="34"/>
+      <c r="O29" s="34"/>
+      <c r="P29" s="34"/>
+      <c r="Q29" s="34"/>
+      <c r="R29" s="34"/>
+      <c r="S29" s="34"/>
+      <c r="T29" s="34"/>
+      <c r="U29" s="34"/>
+      <c r="V29" s="34"/>
+      <c r="W29" s="34"/>
+      <c r="X29" s="34"/>
+      <c r="Y29" s="34"/>
+      <c r="Z29" s="34"/>
+      <c r="AA29" s="34"/>
+      <c r="AB29" s="34"/>
+      <c r="AC29" s="34"/>
+      <c r="AD29" s="34"/>
+      <c r="AE29" s="34"/>
+      <c r="AF29" s="34"/>
     </row>
     <row r="31" spans="1:32">
       <c r="A31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B31" s="27" t="s">
+      <c r="B31" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C31" s="27"/>
-      <c r="D31" s="27"/>
-      <c r="E31" s="27"/>
-      <c r="F31" s="27"/>
-      <c r="G31" s="27"/>
-      <c r="H31" s="27"/>
-      <c r="I31" s="27"/>
-      <c r="J31" s="27"/>
+      <c r="C31" s="33"/>
+      <c r="D31" s="33"/>
+      <c r="E31" s="33"/>
+      <c r="F31" s="33"/>
+      <c r="G31" s="33"/>
+      <c r="H31" s="33"/>
+      <c r="I31" s="33"/>
+      <c r="J31" s="33"/>
       <c r="L31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M31" s="27" t="s">
+      <c r="M31" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N31" s="27"/>
-      <c r="O31" s="27"/>
-      <c r="P31" s="27"/>
-      <c r="Q31" s="27"/>
-      <c r="R31" s="27"/>
-      <c r="S31" s="27"/>
-      <c r="T31" s="27"/>
-      <c r="U31" s="27"/>
+      <c r="N31" s="33"/>
+      <c r="O31" s="33"/>
+      <c r="P31" s="33"/>
+      <c r="Q31" s="33"/>
+      <c r="R31" s="33"/>
+      <c r="S31" s="33"/>
+      <c r="T31" s="33"/>
+      <c r="U31" s="33"/>
       <c r="W31" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X31" s="27" t="s">
+      <c r="X31" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y31" s="27"/>
-      <c r="Z31" s="27"/>
-      <c r="AA31" s="27"/>
-      <c r="AB31" s="27"/>
-      <c r="AC31" s="27"/>
-      <c r="AD31" s="27"/>
-      <c r="AE31" s="27"/>
-      <c r="AF31" s="27"/>
+      <c r="Y31" s="33"/>
+      <c r="Z31" s="33"/>
+      <c r="AA31" s="33"/>
+      <c r="AB31" s="33"/>
+      <c r="AC31" s="33"/>
+      <c r="AD31" s="33"/>
+      <c r="AE31" s="33"/>
+      <c r="AF31" s="33"/>
     </row>
     <row r="32" spans="1:32">
       <c r="A32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B32" s="27" t="s">
+      <c r="B32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C32" s="27"/>
-      <c r="D32" s="27"/>
-      <c r="E32" s="27"/>
-      <c r="F32" s="27"/>
-      <c r="G32" s="27"/>
-      <c r="H32" s="27"/>
-      <c r="I32" s="27"/>
-      <c r="J32" s="27"/>
+      <c r="C32" s="33"/>
+      <c r="D32" s="33"/>
+      <c r="E32" s="33"/>
+      <c r="F32" s="33"/>
+      <c r="G32" s="33"/>
+      <c r="H32" s="33"/>
+      <c r="I32" s="33"/>
+      <c r="J32" s="33"/>
       <c r="L32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M32" s="27" t="s">
+      <c r="M32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N32" s="27"/>
-      <c r="O32" s="27"/>
-      <c r="P32" s="27"/>
-      <c r="Q32" s="27"/>
-      <c r="R32" s="27"/>
-      <c r="S32" s="27"/>
-      <c r="T32" s="27"/>
-      <c r="U32" s="27"/>
+      <c r="N32" s="33"/>
+      <c r="O32" s="33"/>
+      <c r="P32" s="33"/>
+      <c r="Q32" s="33"/>
+      <c r="R32" s="33"/>
+      <c r="S32" s="33"/>
+      <c r="T32" s="33"/>
+      <c r="U32" s="33"/>
       <c r="W32" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X32" s="27" t="s">
+      <c r="X32" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Y32" s="27"/>
-      <c r="Z32" s="27"/>
-      <c r="AA32" s="27"/>
-      <c r="AB32" s="27"/>
-      <c r="AC32" s="27"/>
-      <c r="AD32" s="27"/>
-      <c r="AE32" s="27"/>
-      <c r="AF32" s="27"/>
+      <c r="Y32" s="33"/>
+      <c r="Z32" s="33"/>
+      <c r="AA32" s="33"/>
+      <c r="AB32" s="33"/>
+      <c r="AC32" s="33"/>
+      <c r="AD32" s="33"/>
+      <c r="AE32" s="33"/>
+      <c r="AF32" s="33"/>
     </row>
     <row r="33" spans="1:32">
       <c r="A33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B33" s="27" t="s">
+      <c r="B33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C33" s="27"/>
-      <c r="D33" s="27"/>
-      <c r="E33" s="27" t="s">
+      <c r="C33" s="33"/>
+      <c r="D33" s="33"/>
+      <c r="E33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F33" s="27"/>
-      <c r="G33" s="27"/>
-      <c r="H33" s="27" t="s">
+      <c r="F33" s="33"/>
+      <c r="G33" s="33"/>
+      <c r="H33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I33" s="27"/>
-      <c r="J33" s="27"/>
+      <c r="I33" s="33"/>
+      <c r="J33" s="33"/>
       <c r="L33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M33" s="27" t="s">
+      <c r="M33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N33" s="27"/>
-      <c r="O33" s="27"/>
-      <c r="P33" s="27" t="s">
+      <c r="N33" s="33"/>
+      <c r="O33" s="33"/>
+      <c r="P33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q33" s="27"/>
-      <c r="R33" s="27"/>
-      <c r="S33" s="27" t="s">
+      <c r="Q33" s="33"/>
+      <c r="R33" s="33"/>
+      <c r="S33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T33" s="27"/>
-      <c r="U33" s="27"/>
+      <c r="T33" s="33"/>
+      <c r="U33" s="33"/>
       <c r="W33" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X33" s="27" t="s">
+      <c r="X33" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y33" s="27"/>
-      <c r="Z33" s="27"/>
-      <c r="AA33" s="27" t="s">
+      <c r="Y33" s="33"/>
+      <c r="Z33" s="33"/>
+      <c r="AA33" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB33" s="27"/>
-      <c r="AC33" s="27"/>
-      <c r="AD33" s="27" t="s">
+      <c r="AB33" s="33"/>
+      <c r="AC33" s="33"/>
+      <c r="AD33" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE33" s="27"/>
-      <c r="AF33" s="27"/>
+      <c r="AE33" s="33"/>
+      <c r="AF33" s="33"/>
     </row>
     <row r="34" spans="1:32">
       <c r="B34" s="1" t="s">
@@ -3778,145 +4669,145 @@
       <c r="A49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B49" s="27" t="s">
+      <c r="B49" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C49" s="27"/>
-      <c r="D49" s="27"/>
-      <c r="E49" s="27"/>
-      <c r="F49" s="27"/>
-      <c r="G49" s="27"/>
-      <c r="H49" s="27"/>
-      <c r="I49" s="27"/>
-      <c r="J49" s="27"/>
+      <c r="C49" s="33"/>
+      <c r="D49" s="33"/>
+      <c r="E49" s="33"/>
+      <c r="F49" s="33"/>
+      <c r="G49" s="33"/>
+      <c r="H49" s="33"/>
+      <c r="I49" s="33"/>
+      <c r="J49" s="33"/>
       <c r="L49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M49" s="27" t="s">
+      <c r="M49" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N49" s="27"/>
-      <c r="O49" s="27"/>
-      <c r="P49" s="27"/>
-      <c r="Q49" s="27"/>
-      <c r="R49" s="27"/>
-      <c r="S49" s="27"/>
-      <c r="T49" s="27"/>
-      <c r="U49" s="27"/>
+      <c r="N49" s="33"/>
+      <c r="O49" s="33"/>
+      <c r="P49" s="33"/>
+      <c r="Q49" s="33"/>
+      <c r="R49" s="33"/>
+      <c r="S49" s="33"/>
+      <c r="T49" s="33"/>
+      <c r="U49" s="33"/>
       <c r="W49" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X49" s="27" t="s">
+      <c r="X49" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y49" s="27"/>
-      <c r="Z49" s="27"/>
-      <c r="AA49" s="27"/>
-      <c r="AB49" s="27"/>
-      <c r="AC49" s="27"/>
-      <c r="AD49" s="27"/>
-      <c r="AE49" s="27"/>
-      <c r="AF49" s="27"/>
+      <c r="Y49" s="33"/>
+      <c r="Z49" s="33"/>
+      <c r="AA49" s="33"/>
+      <c r="AB49" s="33"/>
+      <c r="AC49" s="33"/>
+      <c r="AD49" s="33"/>
+      <c r="AE49" s="33"/>
+      <c r="AF49" s="33"/>
     </row>
     <row r="50" spans="1:32">
       <c r="A50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B50" s="27" t="s">
+      <c r="B50" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C50" s="27"/>
-      <c r="D50" s="27"/>
-      <c r="E50" s="27"/>
-      <c r="F50" s="27"/>
-      <c r="G50" s="27"/>
-      <c r="H50" s="27"/>
-      <c r="I50" s="27"/>
-      <c r="J50" s="27"/>
+      <c r="C50" s="33"/>
+      <c r="D50" s="33"/>
+      <c r="E50" s="33"/>
+      <c r="F50" s="33"/>
+      <c r="G50" s="33"/>
+      <c r="H50" s="33"/>
+      <c r="I50" s="33"/>
+      <c r="J50" s="33"/>
       <c r="L50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M50" s="27" t="s">
+      <c r="M50" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N50" s="27"/>
-      <c r="O50" s="27"/>
-      <c r="P50" s="27"/>
-      <c r="Q50" s="27"/>
-      <c r="R50" s="27"/>
-      <c r="S50" s="27"/>
-      <c r="T50" s="27"/>
-      <c r="U50" s="27"/>
+      <c r="N50" s="33"/>
+      <c r="O50" s="33"/>
+      <c r="P50" s="33"/>
+      <c r="Q50" s="33"/>
+      <c r="R50" s="33"/>
+      <c r="S50" s="33"/>
+      <c r="T50" s="33"/>
+      <c r="U50" s="33"/>
       <c r="W50" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X50" s="27" t="s">
+      <c r="X50" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y50" s="27"/>
-      <c r="Z50" s="27"/>
-      <c r="AA50" s="27"/>
-      <c r="AB50" s="27"/>
-      <c r="AC50" s="27"/>
-      <c r="AD50" s="27"/>
-      <c r="AE50" s="27"/>
-      <c r="AF50" s="27"/>
+      <c r="Y50" s="33"/>
+      <c r="Z50" s="33"/>
+      <c r="AA50" s="33"/>
+      <c r="AB50" s="33"/>
+      <c r="AC50" s="33"/>
+      <c r="AD50" s="33"/>
+      <c r="AE50" s="33"/>
+      <c r="AF50" s="33"/>
     </row>
     <row r="51" spans="1:32">
       <c r="A51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B51" s="27" t="s">
+      <c r="B51" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C51" s="27"/>
-      <c r="D51" s="27"/>
-      <c r="E51" s="27" t="s">
+      <c r="C51" s="33"/>
+      <c r="D51" s="33"/>
+      <c r="E51" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F51" s="27"/>
-      <c r="G51" s="27"/>
-      <c r="H51" s="27" t="s">
+      <c r="F51" s="33"/>
+      <c r="G51" s="33"/>
+      <c r="H51" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I51" s="27"/>
-      <c r="J51" s="27"/>
+      <c r="I51" s="33"/>
+      <c r="J51" s="33"/>
       <c r="L51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M51" s="27" t="s">
+      <c r="M51" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N51" s="27"/>
-      <c r="O51" s="27"/>
-      <c r="P51" s="27" t="s">
+      <c r="N51" s="33"/>
+      <c r="O51" s="33"/>
+      <c r="P51" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q51" s="27"/>
-      <c r="R51" s="27"/>
-      <c r="S51" s="27" t="s">
+      <c r="Q51" s="33"/>
+      <c r="R51" s="33"/>
+      <c r="S51" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T51" s="27"/>
-      <c r="U51" s="27"/>
+      <c r="T51" s="33"/>
+      <c r="U51" s="33"/>
       <c r="W51" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X51" s="27" t="s">
+      <c r="X51" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y51" s="27"/>
-      <c r="Z51" s="27"/>
-      <c r="AA51" s="27" t="s">
+      <c r="Y51" s="33"/>
+      <c r="Z51" s="33"/>
+      <c r="AA51" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB51" s="27"/>
-      <c r="AC51" s="27"/>
-      <c r="AD51" s="27" t="s">
+      <c r="AB51" s="33"/>
+      <c r="AC51" s="33"/>
+      <c r="AD51" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE51" s="27"/>
-      <c r="AF51" s="27"/>
+      <c r="AE51" s="33"/>
+      <c r="AF51" s="33"/>
     </row>
     <row r="52" spans="1:32">
       <c r="A52" s="11"/>
@@ -4097,218 +4988,218 @@
       </c>
     </row>
     <row r="55" spans="1:32">
-      <c r="A55" s="28" t="s">
+      <c r="A55" s="34" t="s">
         <v>31</v>
       </c>
-      <c r="B55" s="28"/>
-      <c r="C55" s="28"/>
-      <c r="D55" s="28"/>
-      <c r="E55" s="28"/>
-      <c r="F55" s="28"/>
-      <c r="G55" s="28"/>
-      <c r="H55" s="28"/>
-      <c r="I55" s="28"/>
-      <c r="J55" s="28"/>
-      <c r="K55" s="28"/>
-      <c r="L55" s="28"/>
-      <c r="M55" s="28"/>
-      <c r="N55" s="28"/>
-      <c r="O55" s="28"/>
-      <c r="P55" s="28"/>
-      <c r="Q55" s="28"/>
-      <c r="R55" s="28"/>
-      <c r="S55" s="28"/>
-      <c r="T55" s="28"/>
-      <c r="U55" s="28"/>
-      <c r="V55" s="28"/>
-      <c r="W55" s="28"/>
-      <c r="X55" s="28"/>
-      <c r="Y55" s="28"/>
-      <c r="Z55" s="28"/>
-      <c r="AA55" s="28"/>
-      <c r="AB55" s="28"/>
-      <c r="AC55" s="28"/>
-      <c r="AD55" s="28"/>
-      <c r="AE55" s="28"/>
-      <c r="AF55" s="28"/>
+      <c r="B55" s="34"/>
+      <c r="C55" s="34"/>
+      <c r="D55" s="34"/>
+      <c r="E55" s="34"/>
+      <c r="F55" s="34"/>
+      <c r="G55" s="34"/>
+      <c r="H55" s="34"/>
+      <c r="I55" s="34"/>
+      <c r="J55" s="34"/>
+      <c r="K55" s="34"/>
+      <c r="L55" s="34"/>
+      <c r="M55" s="34"/>
+      <c r="N55" s="34"/>
+      <c r="O55" s="34"/>
+      <c r="P55" s="34"/>
+      <c r="Q55" s="34"/>
+      <c r="R55" s="34"/>
+      <c r="S55" s="34"/>
+      <c r="T55" s="34"/>
+      <c r="U55" s="34"/>
+      <c r="V55" s="34"/>
+      <c r="W55" s="34"/>
+      <c r="X55" s="34"/>
+      <c r="Y55" s="34"/>
+      <c r="Z55" s="34"/>
+      <c r="AA55" s="34"/>
+      <c r="AB55" s="34"/>
+      <c r="AC55" s="34"/>
+      <c r="AD55" s="34"/>
+      <c r="AE55" s="34"/>
+      <c r="AF55" s="34"/>
     </row>
     <row r="56" spans="1:32">
-      <c r="A56" s="28"/>
-      <c r="B56" s="28"/>
-      <c r="C56" s="28"/>
-      <c r="D56" s="28"/>
-      <c r="E56" s="28"/>
-      <c r="F56" s="28"/>
-      <c r="G56" s="28"/>
-      <c r="H56" s="28"/>
-      <c r="I56" s="28"/>
-      <c r="J56" s="28"/>
-      <c r="K56" s="28"/>
-      <c r="L56" s="28"/>
-      <c r="M56" s="28"/>
-      <c r="N56" s="28"/>
-      <c r="O56" s="28"/>
-      <c r="P56" s="28"/>
-      <c r="Q56" s="28"/>
-      <c r="R56" s="28"/>
-      <c r="S56" s="28"/>
-      <c r="T56" s="28"/>
-      <c r="U56" s="28"/>
-      <c r="V56" s="28"/>
-      <c r="W56" s="28"/>
-      <c r="X56" s="28"/>
-      <c r="Y56" s="28"/>
-      <c r="Z56" s="28"/>
-      <c r="AA56" s="28"/>
-      <c r="AB56" s="28"/>
-      <c r="AC56" s="28"/>
-      <c r="AD56" s="28"/>
-      <c r="AE56" s="28"/>
-      <c r="AF56" s="28"/>
+      <c r="A56" s="34"/>
+      <c r="B56" s="34"/>
+      <c r="C56" s="34"/>
+      <c r="D56" s="34"/>
+      <c r="E56" s="34"/>
+      <c r="F56" s="34"/>
+      <c r="G56" s="34"/>
+      <c r="H56" s="34"/>
+      <c r="I56" s="34"/>
+      <c r="J56" s="34"/>
+      <c r="K56" s="34"/>
+      <c r="L56" s="34"/>
+      <c r="M56" s="34"/>
+      <c r="N56" s="34"/>
+      <c r="O56" s="34"/>
+      <c r="P56" s="34"/>
+      <c r="Q56" s="34"/>
+      <c r="R56" s="34"/>
+      <c r="S56" s="34"/>
+      <c r="T56" s="34"/>
+      <c r="U56" s="34"/>
+      <c r="V56" s="34"/>
+      <c r="W56" s="34"/>
+      <c r="X56" s="34"/>
+      <c r="Y56" s="34"/>
+      <c r="Z56" s="34"/>
+      <c r="AA56" s="34"/>
+      <c r="AB56" s="34"/>
+      <c r="AC56" s="34"/>
+      <c r="AD56" s="34"/>
+      <c r="AE56" s="34"/>
+      <c r="AF56" s="34"/>
     </row>
     <row r="58" spans="1:32">
       <c r="A58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B58" s="27" t="s">
+      <c r="B58" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C58" s="27"/>
-      <c r="D58" s="27"/>
-      <c r="E58" s="27"/>
-      <c r="F58" s="27"/>
-      <c r="G58" s="27"/>
-      <c r="H58" s="27"/>
-      <c r="I58" s="27"/>
-      <c r="J58" s="27"/>
+      <c r="C58" s="33"/>
+      <c r="D58" s="33"/>
+      <c r="E58" s="33"/>
+      <c r="F58" s="33"/>
+      <c r="G58" s="33"/>
+      <c r="H58" s="33"/>
+      <c r="I58" s="33"/>
+      <c r="J58" s="33"/>
       <c r="L58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M58" s="27" t="s">
+      <c r="M58" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N58" s="27"/>
-      <c r="O58" s="27"/>
-      <c r="P58" s="27"/>
-      <c r="Q58" s="27"/>
-      <c r="R58" s="27"/>
-      <c r="S58" s="27"/>
-      <c r="T58" s="27"/>
-      <c r="U58" s="27"/>
+      <c r="N58" s="33"/>
+      <c r="O58" s="33"/>
+      <c r="P58" s="33"/>
+      <c r="Q58" s="33"/>
+      <c r="R58" s="33"/>
+      <c r="S58" s="33"/>
+      <c r="T58" s="33"/>
+      <c r="U58" s="33"/>
       <c r="W58" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X58" s="27" t="s">
+      <c r="X58" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y58" s="27"/>
-      <c r="Z58" s="27"/>
-      <c r="AA58" s="27"/>
-      <c r="AB58" s="27"/>
-      <c r="AC58" s="27"/>
-      <c r="AD58" s="27"/>
-      <c r="AE58" s="27"/>
-      <c r="AF58" s="27"/>
+      <c r="Y58" s="33"/>
+      <c r="Z58" s="33"/>
+      <c r="AA58" s="33"/>
+      <c r="AB58" s="33"/>
+      <c r="AC58" s="33"/>
+      <c r="AD58" s="33"/>
+      <c r="AE58" s="33"/>
+      <c r="AF58" s="33"/>
     </row>
     <row r="59" spans="1:32">
       <c r="A59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B59" s="27" t="s">
+      <c r="B59" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C59" s="27"/>
-      <c r="D59" s="27"/>
-      <c r="E59" s="27"/>
-      <c r="F59" s="27"/>
-      <c r="G59" s="27"/>
-      <c r="H59" s="27"/>
-      <c r="I59" s="27"/>
-      <c r="J59" s="27"/>
+      <c r="C59" s="33"/>
+      <c r="D59" s="33"/>
+      <c r="E59" s="33"/>
+      <c r="F59" s="33"/>
+      <c r="G59" s="33"/>
+      <c r="H59" s="33"/>
+      <c r="I59" s="33"/>
+      <c r="J59" s="33"/>
       <c r="L59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M59" s="27" t="s">
+      <c r="M59" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N59" s="27"/>
-      <c r="O59" s="27"/>
-      <c r="P59" s="27"/>
-      <c r="Q59" s="27"/>
-      <c r="R59" s="27"/>
-      <c r="S59" s="27"/>
-      <c r="T59" s="27"/>
-      <c r="U59" s="27"/>
+      <c r="N59" s="33"/>
+      <c r="O59" s="33"/>
+      <c r="P59" s="33"/>
+      <c r="Q59" s="33"/>
+      <c r="R59" s="33"/>
+      <c r="S59" s="33"/>
+      <c r="T59" s="33"/>
+      <c r="U59" s="33"/>
       <c r="W59" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X59" s="27" t="s">
+      <c r="X59" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Y59" s="27"/>
-      <c r="Z59" s="27"/>
-      <c r="AA59" s="27"/>
-      <c r="AB59" s="27"/>
-      <c r="AC59" s="27"/>
-      <c r="AD59" s="27"/>
-      <c r="AE59" s="27"/>
-      <c r="AF59" s="27"/>
+      <c r="Y59" s="33"/>
+      <c r="Z59" s="33"/>
+      <c r="AA59" s="33"/>
+      <c r="AB59" s="33"/>
+      <c r="AC59" s="33"/>
+      <c r="AD59" s="33"/>
+      <c r="AE59" s="33"/>
+      <c r="AF59" s="33"/>
     </row>
     <row r="60" spans="1:32">
       <c r="A60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B60" s="29" t="s">
+      <c r="B60" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C60" s="30"/>
-      <c r="D60" s="31"/>
-      <c r="E60" s="29" t="s">
+      <c r="C60" s="29"/>
+      <c r="D60" s="30"/>
+      <c r="E60" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F60" s="30"/>
-      <c r="G60" s="31"/>
-      <c r="H60" s="27" t="s">
+      <c r="F60" s="29"/>
+      <c r="G60" s="30"/>
+      <c r="H60" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I60" s="27"/>
-      <c r="J60" s="27"/>
+      <c r="I60" s="33"/>
+      <c r="J60" s="33"/>
       <c r="L60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M60" s="29" t="s">
+      <c r="M60" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N60" s="30"/>
-      <c r="O60" s="31"/>
-      <c r="P60" s="29" t="s">
+      <c r="N60" s="29"/>
+      <c r="O60" s="30"/>
+      <c r="P60" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q60" s="30"/>
-      <c r="R60" s="31"/>
-      <c r="S60" s="27" t="s">
+      <c r="Q60" s="29"/>
+      <c r="R60" s="30"/>
+      <c r="S60" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T60" s="27"/>
-      <c r="U60" s="27"/>
+      <c r="T60" s="33"/>
+      <c r="U60" s="33"/>
       <c r="W60" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X60" s="27" t="s">
+      <c r="X60" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y60" s="27"/>
-      <c r="Z60" s="27"/>
-      <c r="AA60" s="27" t="s">
+      <c r="Y60" s="33"/>
+      <c r="Z60" s="33"/>
+      <c r="AA60" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB60" s="27"/>
-      <c r="AC60" s="27"/>
-      <c r="AD60" s="27" t="s">
+      <c r="AB60" s="33"/>
+      <c r="AC60" s="33"/>
+      <c r="AD60" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE60" s="27"/>
-      <c r="AF60" s="27"/>
+      <c r="AE60" s="33"/>
+      <c r="AF60" s="33"/>
     </row>
     <row r="61" spans="1:32">
       <c r="A61" s="11"/>
@@ -5437,145 +6328,145 @@
       <c r="A74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B74" s="27" t="s">
+      <c r="B74" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C74" s="27"/>
-      <c r="D74" s="27"/>
-      <c r="E74" s="27"/>
-      <c r="F74" s="27"/>
-      <c r="G74" s="27"/>
-      <c r="H74" s="27"/>
-      <c r="I74" s="27"/>
-      <c r="J74" s="27"/>
+      <c r="C74" s="33"/>
+      <c r="D74" s="33"/>
+      <c r="E74" s="33"/>
+      <c r="F74" s="33"/>
+      <c r="G74" s="33"/>
+      <c r="H74" s="33"/>
+      <c r="I74" s="33"/>
+      <c r="J74" s="33"/>
       <c r="L74" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M74" s="27" t="s">
+      <c r="M74" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N74" s="27"/>
-      <c r="O74" s="27"/>
-      <c r="P74" s="27"/>
-      <c r="Q74" s="27"/>
-      <c r="R74" s="27"/>
-      <c r="S74" s="27"/>
-      <c r="T74" s="27"/>
-      <c r="U74" s="27"/>
+      <c r="N74" s="33"/>
+      <c r="O74" s="33"/>
+      <c r="P74" s="33"/>
+      <c r="Q74" s="33"/>
+      <c r="R74" s="33"/>
+      <c r="S74" s="33"/>
+      <c r="T74" s="33"/>
+      <c r="U74" s="33"/>
       <c r="W74" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="X74" s="27" t="s">
+      <c r="X74" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y74" s="27"/>
-      <c r="Z74" s="27"/>
-      <c r="AA74" s="27"/>
-      <c r="AB74" s="27"/>
-      <c r="AC74" s="27"/>
-      <c r="AD74" s="27"/>
-      <c r="AE74" s="27"/>
-      <c r="AF74" s="27"/>
+      <c r="Y74" s="33"/>
+      <c r="Z74" s="33"/>
+      <c r="AA74" s="33"/>
+      <c r="AB74" s="33"/>
+      <c r="AC74" s="33"/>
+      <c r="AD74" s="33"/>
+      <c r="AE74" s="33"/>
+      <c r="AF74" s="33"/>
     </row>
     <row r="75" spans="1:32">
       <c r="A75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="B75" s="27" t="s">
+      <c r="B75" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C75" s="27"/>
-      <c r="D75" s="27"/>
-      <c r="E75" s="27"/>
-      <c r="F75" s="27"/>
-      <c r="G75" s="27"/>
-      <c r="H75" s="27"/>
-      <c r="I75" s="27"/>
-      <c r="J75" s="27"/>
+      <c r="C75" s="33"/>
+      <c r="D75" s="33"/>
+      <c r="E75" s="33"/>
+      <c r="F75" s="33"/>
+      <c r="G75" s="33"/>
+      <c r="H75" s="33"/>
+      <c r="I75" s="33"/>
+      <c r="J75" s="33"/>
       <c r="L75" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M75" s="27" t="s">
+      <c r="M75" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N75" s="27"/>
-      <c r="O75" s="27"/>
-      <c r="P75" s="27"/>
-      <c r="Q75" s="27"/>
-      <c r="R75" s="27"/>
-      <c r="S75" s="27"/>
-      <c r="T75" s="27"/>
-      <c r="U75" s="27"/>
+      <c r="N75" s="33"/>
+      <c r="O75" s="33"/>
+      <c r="P75" s="33"/>
+      <c r="Q75" s="33"/>
+      <c r="R75" s="33"/>
+      <c r="S75" s="33"/>
+      <c r="T75" s="33"/>
+      <c r="U75" s="33"/>
       <c r="W75" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="X75" s="27" t="s">
+      <c r="X75" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y75" s="27"/>
-      <c r="Z75" s="27"/>
-      <c r="AA75" s="27"/>
-      <c r="AB75" s="27"/>
-      <c r="AC75" s="27"/>
-      <c r="AD75" s="27"/>
-      <c r="AE75" s="27"/>
-      <c r="AF75" s="27"/>
+      <c r="Y75" s="33"/>
+      <c r="Z75" s="33"/>
+      <c r="AA75" s="33"/>
+      <c r="AB75" s="33"/>
+      <c r="AC75" s="33"/>
+      <c r="AD75" s="33"/>
+      <c r="AE75" s="33"/>
+      <c r="AF75" s="33"/>
     </row>
     <row r="76" spans="1:32">
       <c r="A76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="B76" s="29" t="s">
+      <c r="B76" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="C76" s="30"/>
-      <c r="D76" s="31"/>
-      <c r="E76" s="29" t="s">
+      <c r="C76" s="29"/>
+      <c r="D76" s="30"/>
+      <c r="E76" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="F76" s="30"/>
-      <c r="G76" s="31"/>
-      <c r="H76" s="27" t="s">
+      <c r="F76" s="29"/>
+      <c r="G76" s="30"/>
+      <c r="H76" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I76" s="27"/>
-      <c r="J76" s="27"/>
+      <c r="I76" s="33"/>
+      <c r="J76" s="33"/>
       <c r="L76" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M76" s="27" t="s">
+      <c r="M76" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N76" s="27"/>
-      <c r="O76" s="27"/>
-      <c r="P76" s="27" t="s">
+      <c r="N76" s="33"/>
+      <c r="O76" s="33"/>
+      <c r="P76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q76" s="27"/>
-      <c r="R76" s="27"/>
-      <c r="S76" s="27" t="s">
+      <c r="Q76" s="33"/>
+      <c r="R76" s="33"/>
+      <c r="S76" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T76" s="27"/>
-      <c r="U76" s="27"/>
+      <c r="T76" s="33"/>
+      <c r="U76" s="33"/>
       <c r="W76" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="X76" s="27" t="s">
+      <c r="X76" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y76" s="27"/>
-      <c r="Z76" s="27"/>
-      <c r="AA76" s="27" t="s">
+      <c r="Y76" s="33"/>
+      <c r="Z76" s="33"/>
+      <c r="AA76" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB76" s="27"/>
-      <c r="AC76" s="27"/>
-      <c r="AD76" s="27" t="s">
+      <c r="AB76" s="33"/>
+      <c r="AC76" s="33"/>
+      <c r="AD76" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE76" s="27"/>
-      <c r="AF76" s="27"/>
+      <c r="AE76" s="33"/>
+      <c r="AF76" s="33"/>
     </row>
     <row r="77" spans="1:32">
       <c r="A77" s="11"/>
@@ -5754,218 +6645,218 @@
       </c>
     </row>
     <row r="80" spans="1:32">
-      <c r="A80" s="28" t="s">
+      <c r="A80" s="34" t="s">
         <v>32</v>
       </c>
-      <c r="B80" s="28"/>
-      <c r="C80" s="28"/>
-      <c r="D80" s="28"/>
-      <c r="E80" s="28"/>
-      <c r="F80" s="28"/>
-      <c r="G80" s="28"/>
-      <c r="H80" s="28"/>
-      <c r="I80" s="28"/>
-      <c r="J80" s="28"/>
-      <c r="K80" s="28"/>
-      <c r="L80" s="28"/>
-      <c r="M80" s="28"/>
-      <c r="N80" s="28"/>
-      <c r="O80" s="28"/>
-      <c r="P80" s="28"/>
-      <c r="Q80" s="28"/>
-      <c r="R80" s="28"/>
-      <c r="S80" s="28"/>
-      <c r="T80" s="28"/>
-      <c r="U80" s="28"/>
-      <c r="V80" s="28"/>
-      <c r="W80" s="28"/>
-      <c r="X80" s="28"/>
-      <c r="Y80" s="28"/>
-      <c r="Z80" s="28"/>
-      <c r="AA80" s="28"/>
-      <c r="AB80" s="28"/>
-      <c r="AC80" s="28"/>
-      <c r="AD80" s="28"/>
-      <c r="AE80" s="28"/>
-      <c r="AF80" s="28"/>
+      <c r="B80" s="34"/>
+      <c r="C80" s="34"/>
+      <c r="D80" s="34"/>
+      <c r="E80" s="34"/>
+      <c r="F80" s="34"/>
+      <c r="G80" s="34"/>
+      <c r="H80" s="34"/>
+      <c r="I80" s="34"/>
+      <c r="J80" s="34"/>
+      <c r="K80" s="34"/>
+      <c r="L80" s="34"/>
+      <c r="M80" s="34"/>
+      <c r="N80" s="34"/>
+      <c r="O80" s="34"/>
+      <c r="P80" s="34"/>
+      <c r="Q80" s="34"/>
+      <c r="R80" s="34"/>
+      <c r="S80" s="34"/>
+      <c r="T80" s="34"/>
+      <c r="U80" s="34"/>
+      <c r="V80" s="34"/>
+      <c r="W80" s="34"/>
+      <c r="X80" s="34"/>
+      <c r="Y80" s="34"/>
+      <c r="Z80" s="34"/>
+      <c r="AA80" s="34"/>
+      <c r="AB80" s="34"/>
+      <c r="AC80" s="34"/>
+      <c r="AD80" s="34"/>
+      <c r="AE80" s="34"/>
+      <c r="AF80" s="34"/>
     </row>
     <row r="81" spans="1:32">
-      <c r="A81" s="28"/>
-      <c r="B81" s="28"/>
-      <c r="C81" s="28"/>
-      <c r="D81" s="28"/>
-      <c r="E81" s="28"/>
-      <c r="F81" s="28"/>
-      <c r="G81" s="28"/>
-      <c r="H81" s="28"/>
-      <c r="I81" s="28"/>
-      <c r="J81" s="28"/>
-      <c r="K81" s="28"/>
-      <c r="L81" s="28"/>
-      <c r="M81" s="28"/>
-      <c r="N81" s="28"/>
-      <c r="O81" s="28"/>
-      <c r="P81" s="28"/>
-      <c r="Q81" s="28"/>
-      <c r="R81" s="28"/>
-      <c r="S81" s="28"/>
-      <c r="T81" s="28"/>
-      <c r="U81" s="28"/>
-      <c r="V81" s="28"/>
-      <c r="W81" s="28"/>
-      <c r="X81" s="28"/>
-      <c r="Y81" s="28"/>
-      <c r="Z81" s="28"/>
-      <c r="AA81" s="28"/>
-      <c r="AB81" s="28"/>
-      <c r="AC81" s="28"/>
-      <c r="AD81" s="28"/>
-      <c r="AE81" s="28"/>
-      <c r="AF81" s="28"/>
+      <c r="A81" s="34"/>
+      <c r="B81" s="34"/>
+      <c r="C81" s="34"/>
+      <c r="D81" s="34"/>
+      <c r="E81" s="34"/>
+      <c r="F81" s="34"/>
+      <c r="G81" s="34"/>
+      <c r="H81" s="34"/>
+      <c r="I81" s="34"/>
+      <c r="J81" s="34"/>
+      <c r="K81" s="34"/>
+      <c r="L81" s="34"/>
+      <c r="M81" s="34"/>
+      <c r="N81" s="34"/>
+      <c r="O81" s="34"/>
+      <c r="P81" s="34"/>
+      <c r="Q81" s="34"/>
+      <c r="R81" s="34"/>
+      <c r="S81" s="34"/>
+      <c r="T81" s="34"/>
+      <c r="U81" s="34"/>
+      <c r="V81" s="34"/>
+      <c r="W81" s="34"/>
+      <c r="X81" s="34"/>
+      <c r="Y81" s="34"/>
+      <c r="Z81" s="34"/>
+      <c r="AA81" s="34"/>
+      <c r="AB81" s="34"/>
+      <c r="AC81" s="34"/>
+      <c r="AD81" s="34"/>
+      <c r="AE81" s="34"/>
+      <c r="AF81" s="34"/>
     </row>
     <row r="83" spans="1:32">
       <c r="A83" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B83" s="27" t="s">
+      <c r="B83" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C83" s="27"/>
-      <c r="D83" s="27"/>
-      <c r="E83" s="27"/>
-      <c r="F83" s="27"/>
-      <c r="G83" s="27"/>
-      <c r="H83" s="27"/>
-      <c r="I83" s="27"/>
-      <c r="J83" s="27"/>
+      <c r="C83" s="33"/>
+      <c r="D83" s="33"/>
+      <c r="E83" s="33"/>
+      <c r="F83" s="33"/>
+      <c r="G83" s="33"/>
+      <c r="H83" s="33"/>
+      <c r="I83" s="33"/>
+      <c r="J83" s="33"/>
       <c r="L83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M83" s="27" t="s">
+      <c r="M83" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N83" s="27"/>
-      <c r="O83" s="27"/>
-      <c r="P83" s="27"/>
-      <c r="Q83" s="27"/>
-      <c r="R83" s="27"/>
-      <c r="S83" s="27"/>
-      <c r="T83" s="27"/>
-      <c r="U83" s="27"/>
+      <c r="N83" s="33"/>
+      <c r="O83" s="33"/>
+      <c r="P83" s="33"/>
+      <c r="Q83" s="33"/>
+      <c r="R83" s="33"/>
+      <c r="S83" s="33"/>
+      <c r="T83" s="33"/>
+      <c r="U83" s="33"/>
       <c r="W83" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X83" s="27" t="s">
+      <c r="X83" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y83" s="27"/>
-      <c r="Z83" s="27"/>
-      <c r="AA83" s="27"/>
-      <c r="AB83" s="27"/>
-      <c r="AC83" s="27"/>
-      <c r="AD83" s="27"/>
-      <c r="AE83" s="27"/>
-      <c r="AF83" s="27"/>
+      <c r="Y83" s="33"/>
+      <c r="Z83" s="33"/>
+      <c r="AA83" s="33"/>
+      <c r="AB83" s="33"/>
+      <c r="AC83" s="33"/>
+      <c r="AD83" s="33"/>
+      <c r="AE83" s="33"/>
+      <c r="AF83" s="33"/>
     </row>
     <row r="84" spans="1:32">
       <c r="A84" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B84" s="27" t="s">
+      <c r="B84" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="C84" s="27"/>
-      <c r="D84" s="27"/>
-      <c r="E84" s="27"/>
-      <c r="F84" s="27"/>
-      <c r="G84" s="27"/>
-      <c r="H84" s="27"/>
-      <c r="I84" s="27"/>
-      <c r="J84" s="27"/>
+      <c r="C84" s="33"/>
+      <c r="D84" s="33"/>
+      <c r="E84" s="33"/>
+      <c r="F84" s="33"/>
+      <c r="G84" s="33"/>
+      <c r="H84" s="33"/>
+      <c r="I84" s="33"/>
+      <c r="J84" s="33"/>
       <c r="L84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M84" s="27" t="s">
+      <c r="M84" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="N84" s="27"/>
-      <c r="O84" s="27"/>
-      <c r="P84" s="27"/>
-      <c r="Q84" s="27"/>
-      <c r="R84" s="27"/>
-      <c r="S84" s="27"/>
-      <c r="T84" s="27"/>
-      <c r="U84" s="27"/>
+      <c r="N84" s="33"/>
+      <c r="O84" s="33"/>
+      <c r="P84" s="33"/>
+      <c r="Q84" s="33"/>
+      <c r="R84" s="33"/>
+      <c r="S84" s="33"/>
+      <c r="T84" s="33"/>
+      <c r="U84" s="33"/>
       <c r="W84" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X84" s="27" t="s">
+      <c r="X84" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="Y84" s="27"/>
-      <c r="Z84" s="27"/>
-      <c r="AA84" s="27"/>
-      <c r="AB84" s="27"/>
-      <c r="AC84" s="27"/>
-      <c r="AD84" s="27"/>
-      <c r="AE84" s="27"/>
-      <c r="AF84" s="27"/>
+      <c r="Y84" s="33"/>
+      <c r="Z84" s="33"/>
+      <c r="AA84" s="33"/>
+      <c r="AB84" s="33"/>
+      <c r="AC84" s="33"/>
+      <c r="AD84" s="33"/>
+      <c r="AE84" s="33"/>
+      <c r="AF84" s="33"/>
     </row>
     <row r="85" spans="1:32">
       <c r="A85" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B85" s="27" t="s">
+      <c r="B85" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C85" s="27"/>
-      <c r="D85" s="27"/>
-      <c r="E85" s="27" t="s">
+      <c r="C85" s="33"/>
+      <c r="D85" s="33"/>
+      <c r="E85" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F85" s="27"/>
-      <c r="G85" s="27"/>
-      <c r="H85" s="27" t="s">
+      <c r="F85" s="33"/>
+      <c r="G85" s="33"/>
+      <c r="H85" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I85" s="27"/>
-      <c r="J85" s="27"/>
+      <c r="I85" s="33"/>
+      <c r="J85" s="33"/>
       <c r="L85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M85" s="27" t="s">
+      <c r="M85" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="N85" s="27"/>
-      <c r="O85" s="27"/>
-      <c r="P85" s="27" t="s">
+      <c r="N85" s="33"/>
+      <c r="O85" s="33"/>
+      <c r="P85" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="Q85" s="27"/>
-      <c r="R85" s="27"/>
-      <c r="S85" s="27" t="s">
+      <c r="Q85" s="33"/>
+      <c r="R85" s="33"/>
+      <c r="S85" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T85" s="27"/>
-      <c r="U85" s="27"/>
+      <c r="T85" s="33"/>
+      <c r="U85" s="33"/>
       <c r="W85" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X85" s="27" t="s">
+      <c r="X85" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y85" s="27"/>
-      <c r="Z85" s="27"/>
-      <c r="AA85" s="27" t="s">
+      <c r="Y85" s="33"/>
+      <c r="Z85" s="33"/>
+      <c r="AA85" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB85" s="27"/>
-      <c r="AC85" s="27"/>
-      <c r="AD85" s="27" t="s">
+      <c r="AB85" s="33"/>
+      <c r="AC85" s="33"/>
+      <c r="AD85" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE85" s="27"/>
-      <c r="AF85" s="27"/>
+      <c r="AE85" s="33"/>
+      <c r="AF85" s="33"/>
     </row>
     <row r="86" spans="1:32">
       <c r="B86" s="1" t="s">
@@ -7093,145 +7984,145 @@
       <c r="A99" s="15" t="s">
         <v>0</v>
       </c>
-      <c r="B99" s="27" t="s">
+      <c r="B99" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="C99" s="27"/>
-      <c r="D99" s="27"/>
-      <c r="E99" s="27"/>
-      <c r="F99" s="27"/>
-      <c r="G99" s="27"/>
-      <c r="H99" s="27"/>
-      <c r="I99" s="27"/>
-      <c r="J99" s="27"/>
+      <c r="C99" s="33"/>
+      <c r="D99" s="33"/>
+      <c r="E99" s="33"/>
+      <c r="F99" s="33"/>
+      <c r="G99" s="33"/>
+      <c r="H99" s="33"/>
+      <c r="I99" s="33"/>
+      <c r="J99" s="33"/>
       <c r="L99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="M99" s="27" t="s">
+      <c r="M99" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="N99" s="27"/>
-      <c r="O99" s="27"/>
-      <c r="P99" s="27"/>
-      <c r="Q99" s="27"/>
-      <c r="R99" s="27"/>
-      <c r="S99" s="27"/>
-      <c r="T99" s="27"/>
-      <c r="U99" s="27"/>
+      <c r="N99" s="33"/>
+      <c r="O99" s="33"/>
+      <c r="P99" s="33"/>
+      <c r="Q99" s="33"/>
+      <c r="R99" s="33"/>
+      <c r="S99" s="33"/>
+      <c r="T99" s="33"/>
+      <c r="U99" s="33"/>
       <c r="W99" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="X99" s="27" t="s">
+      <c r="X99" s="33" t="s">
         <v>28</v>
       </c>
-      <c r="Y99" s="27"/>
-      <c r="Z99" s="27"/>
-      <c r="AA99" s="27"/>
-      <c r="AB99" s="27"/>
-      <c r="AC99" s="27"/>
-      <c r="AD99" s="27"/>
-      <c r="AE99" s="27"/>
-      <c r="AF99" s="27"/>
+      <c r="Y99" s="33"/>
+      <c r="Z99" s="33"/>
+      <c r="AA99" s="33"/>
+      <c r="AB99" s="33"/>
+      <c r="AC99" s="33"/>
+      <c r="AD99" s="33"/>
+      <c r="AE99" s="33"/>
+      <c r="AF99" s="33"/>
     </row>
     <row r="100" spans="1:32">
       <c r="A100" s="15" t="s">
         <v>2</v>
       </c>
-      <c r="B100" s="27" t="s">
+      <c r="B100" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="C100" s="27"/>
-      <c r="D100" s="27"/>
-      <c r="E100" s="27"/>
-      <c r="F100" s="27"/>
-      <c r="G100" s="27"/>
-      <c r="H100" s="27"/>
-      <c r="I100" s="27"/>
-      <c r="J100" s="27"/>
+      <c r="C100" s="33"/>
+      <c r="D100" s="33"/>
+      <c r="E100" s="33"/>
+      <c r="F100" s="33"/>
+      <c r="G100" s="33"/>
+      <c r="H100" s="33"/>
+      <c r="I100" s="33"/>
+      <c r="J100" s="33"/>
       <c r="L100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="M100" s="27" t="s">
+      <c r="M100" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="N100" s="27"/>
-      <c r="O100" s="27"/>
-      <c r="P100" s="27"/>
-      <c r="Q100" s="27"/>
-      <c r="R100" s="27"/>
-      <c r="S100" s="27"/>
-      <c r="T100" s="27"/>
-      <c r="U100" s="27"/>
+      <c r="N100" s="33"/>
+      <c r="O100" s="33"/>
+      <c r="P100" s="33"/>
+      <c r="Q100" s="33"/>
+      <c r="R100" s="33"/>
+      <c r="S100" s="33"/>
+      <c r="T100" s="33"/>
+      <c r="U100" s="33"/>
       <c r="W100" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="X100" s="27" t="s">
+      <c r="X100" s="33" t="s">
         <v>22</v>
       </c>
-      <c r="Y100" s="27"/>
-      <c r="Z100" s="27"/>
-      <c r="AA100" s="27"/>
-      <c r="AB100" s="27"/>
-      <c r="AC100" s="27"/>
-      <c r="AD100" s="27"/>
-      <c r="AE100" s="27"/>
-      <c r="AF100" s="27"/>
+      <c r="Y100" s="33"/>
+      <c r="Z100" s="33"/>
+      <c r="AA100" s="33"/>
+      <c r="AB100" s="33"/>
+      <c r="AC100" s="33"/>
+      <c r="AD100" s="33"/>
+      <c r="AE100" s="33"/>
+      <c r="AF100" s="33"/>
     </row>
     <row r="101" spans="1:32">
       <c r="A101" s="15" t="s">
         <v>4</v>
       </c>
-      <c r="B101" s="27" t="s">
+      <c r="B101" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="C101" s="27"/>
-      <c r="D101" s="27"/>
-      <c r="E101" s="27" t="s">
+      <c r="C101" s="33"/>
+      <c r="D101" s="33"/>
+      <c r="E101" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="F101" s="27"/>
-      <c r="G101" s="27"/>
-      <c r="H101" s="27" t="s">
+      <c r="F101" s="33"/>
+      <c r="G101" s="33"/>
+      <c r="H101" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="I101" s="27"/>
-      <c r="J101" s="27"/>
+      <c r="I101" s="33"/>
+      <c r="J101" s="33"/>
       <c r="L101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="M101" s="29" t="s">
+      <c r="M101" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="N101" s="30"/>
-      <c r="O101" s="31"/>
-      <c r="P101" s="29" t="s">
+      <c r="N101" s="29"/>
+      <c r="O101" s="30"/>
+      <c r="P101" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="Q101" s="30"/>
-      <c r="R101" s="31"/>
-      <c r="S101" s="27" t="s">
+      <c r="Q101" s="29"/>
+      <c r="R101" s="30"/>
+      <c r="S101" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="T101" s="27"/>
-      <c r="U101" s="27"/>
+      <c r="T101" s="33"/>
+      <c r="U101" s="33"/>
       <c r="W101" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="X101" s="27" t="s">
+      <c r="X101" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="Y101" s="27"/>
-      <c r="Z101" s="27"/>
-      <c r="AA101" s="27" t="s">
+      <c r="Y101" s="33"/>
+      <c r="Z101" s="33"/>
+      <c r="AA101" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="AB101" s="27"/>
-      <c r="AC101" s="27"/>
-      <c r="AD101" s="27" t="s">
+      <c r="AB101" s="33"/>
+      <c r="AC101" s="33"/>
+      <c r="AD101" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="AE101" s="27"/>
-      <c r="AF101" s="27"/>
+      <c r="AE101" s="33"/>
+      <c r="AF101" s="33"/>
     </row>
     <row r="102" spans="1:32">
       <c r="B102" s="1" t="s">
@@ -7423,7 +8314,7 @@
       </c>
     </row>
     <row r="106" spans="1:32">
-      <c r="B106" s="35" t="s">
+      <c r="B106" s="27" t="s">
         <v>32</v>
       </c>
       <c r="C106" t="s">
@@ -7435,7 +8326,7 @@
       </c>
     </row>
     <row r="107" spans="1:32">
-      <c r="B107" s="35"/>
+      <c r="B107" s="27"/>
       <c r="C107" t="s">
         <v>45</v>
       </c>
@@ -7449,7 +8340,7 @@
       </c>
     </row>
     <row r="108" spans="1:32">
-      <c r="B108" s="35" t="s">
+      <c r="B108" s="27" t="s">
         <v>31</v>
       </c>
       <c r="C108" t="s">
@@ -7461,7 +8352,7 @@
       </c>
     </row>
     <row r="109" spans="1:32">
-      <c r="B109" s="35"/>
+      <c r="B109" s="27"/>
       <c r="C109" t="s">
         <v>45</v>
       </c>
@@ -7475,7 +8366,7 @@
       </c>
     </row>
     <row r="110" spans="1:32">
-      <c r="B110" s="35" t="s">
+      <c r="B110" s="27" t="s">
         <v>30</v>
       </c>
       <c r="C110" t="s">
@@ -7487,7 +8378,7 @@
       </c>
     </row>
     <row r="111" spans="1:32">
-      <c r="B111" s="35"/>
+      <c r="B111" s="27"/>
       <c r="C111" t="s">
         <v>45</v>
       </c>
@@ -7505,7 +8396,7 @@
       </c>
     </row>
     <row r="112" spans="1:32">
-      <c r="B112" s="35" t="s">
+      <c r="B112" s="27" t="s">
         <v>29</v>
       </c>
       <c r="C112" t="s">
@@ -7516,8 +8407,8 @@
         <v>4.4016666666666664</v>
       </c>
     </row>
-    <row r="113" spans="2:6">
-      <c r="B113" s="35"/>
+    <row r="113" spans="2:17">
+      <c r="B113" s="27"/>
       <c r="C113" t="s">
         <v>45</v>
       </c>
@@ -7530,8 +8421,1132 @@
         <v>0.84096932979931849</v>
       </c>
     </row>
+    <row r="119" spans="2:17">
+      <c r="B119" s="35" t="s">
+        <v>31</v>
+      </c>
+      <c r="C119" s="35"/>
+      <c r="D119" s="35"/>
+      <c r="E119" s="35"/>
+      <c r="F119" s="35" t="s">
+        <v>34</v>
+      </c>
+      <c r="G119" s="35"/>
+      <c r="H119" s="35"/>
+      <c r="I119" s="35"/>
+      <c r="J119" s="35" t="s">
+        <v>30</v>
+      </c>
+      <c r="K119" s="35"/>
+      <c r="L119" s="35"/>
+      <c r="M119" s="35"/>
+      <c r="N119" s="35" t="s">
+        <v>29</v>
+      </c>
+      <c r="O119" s="35"/>
+      <c r="P119" s="35"/>
+      <c r="Q119" s="35"/>
+    </row>
+    <row r="120" spans="2:17">
+      <c r="B120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="C120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="D120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="E120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="F120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="G120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="H120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="I120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="J120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="K120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="L120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="M120" s="1" t="s">
+        <v>1</v>
+      </c>
+      <c r="N120" s="1" t="s">
+        <v>35</v>
+      </c>
+      <c r="O120" s="1" t="s">
+        <v>28</v>
+      </c>
+      <c r="P120" s="1" t="s">
+        <v>26</v>
+      </c>
+      <c r="Q120" s="1" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="121" spans="2:17">
+      <c r="B121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="C121" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="D121" s="33"/>
+      <c r="E121" s="33"/>
+      <c r="F121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="G121" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="H121" s="33"/>
+      <c r="I121" s="33"/>
+      <c r="J121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="K121" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="L121" s="33"/>
+      <c r="M121" s="33"/>
+      <c r="N121" s="1" t="s">
+        <v>37</v>
+      </c>
+      <c r="O121" s="33" t="s">
+        <v>36</v>
+      </c>
+      <c r="P121" s="33"/>
+      <c r="Q121" s="33"/>
+    </row>
+    <row r="122" spans="2:17">
+      <c r="B122" s="1">
+        <v>1</v>
+      </c>
+      <c r="C122" s="1">
+        <v>23.51</v>
+      </c>
+      <c r="D122" s="1">
+        <v>9.77</v>
+      </c>
+      <c r="E122" s="1">
+        <v>3.34</v>
+      </c>
+      <c r="F122" s="1">
+        <v>1</v>
+      </c>
+      <c r="G122" s="1">
+        <v>19.84</v>
+      </c>
+      <c r="H122" s="1">
+        <v>8.52</v>
+      </c>
+      <c r="I122" s="1">
+        <v>4.72</v>
+      </c>
+      <c r="J122" s="1">
+        <v>1</v>
+      </c>
+      <c r="K122" s="1">
+        <v>35.24</v>
+      </c>
+      <c r="L122" s="1">
+        <v>3.13</v>
+      </c>
+      <c r="M122" s="1">
+        <v>3.26</v>
+      </c>
+      <c r="N122" s="1">
+        <v>1</v>
+      </c>
+      <c r="O122" s="1">
+        <v>31.53</v>
+      </c>
+      <c r="P122" s="1">
+        <v>7.54</v>
+      </c>
+      <c r="Q122" s="1">
+        <v>5.91</v>
+      </c>
+    </row>
+    <row r="123" spans="2:17">
+      <c r="B123" s="1">
+        <v>2</v>
+      </c>
+      <c r="C123" s="1">
+        <v>26.61</v>
+      </c>
+      <c r="D123" s="1">
+        <v>6.54</v>
+      </c>
+      <c r="E123" s="1">
+        <v>1.42</v>
+      </c>
+      <c r="F123" s="1">
+        <v>2</v>
+      </c>
+      <c r="G123" s="1">
+        <v>13.85</v>
+      </c>
+      <c r="H123" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="I123" s="1">
+        <v>1.47</v>
+      </c>
+      <c r="J123" s="1">
+        <v>2</v>
+      </c>
+      <c r="K123" s="1">
+        <v>32.5</v>
+      </c>
+      <c r="L123" s="1">
+        <v>0.68</v>
+      </c>
+      <c r="M123" s="1">
+        <v>0.5</v>
+      </c>
+      <c r="N123" s="1">
+        <v>2</v>
+      </c>
+      <c r="O123" s="1">
+        <v>22.09</v>
+      </c>
+      <c r="P123" s="1">
+        <v>7.31</v>
+      </c>
+      <c r="Q123" s="1">
+        <v>1.65</v>
+      </c>
+    </row>
+    <row r="124" spans="2:17">
+      <c r="B124" s="1">
+        <v>3</v>
+      </c>
+      <c r="C124" s="1">
+        <v>26.19</v>
+      </c>
+      <c r="D124" s="1">
+        <v>6.57</v>
+      </c>
+      <c r="E124" s="1">
+        <v>1.53</v>
+      </c>
+      <c r="F124" s="1">
+        <v>3</v>
+      </c>
+      <c r="G124" s="1">
+        <v>18.98</v>
+      </c>
+      <c r="H124" s="1">
+        <v>5.37</v>
+      </c>
+      <c r="I124" s="1">
+        <v>1.66</v>
+      </c>
+      <c r="J124" s="1">
+        <v>3</v>
+      </c>
+      <c r="K124" s="1">
+        <v>29.67</v>
+      </c>
+      <c r="L124" s="1">
+        <v>0.6</v>
+      </c>
+      <c r="M124" s="1">
+        <v>0.56000000000000005</v>
+      </c>
+      <c r="N124" s="1">
+        <v>3</v>
+      </c>
+      <c r="O124" s="1">
+        <v>20.38</v>
+      </c>
+      <c r="P124" s="1">
+        <v>7.26</v>
+      </c>
+      <c r="Q124" s="1">
+        <v>1.87</v>
+      </c>
+    </row>
+    <row r="125" spans="2:17">
+      <c r="B125" s="1">
+        <v>4</v>
+      </c>
+      <c r="C125" s="1">
+        <v>26.48</v>
+      </c>
+      <c r="D125" s="1">
+        <v>6.78</v>
+      </c>
+      <c r="E125" s="1">
+        <v>1.43</v>
+      </c>
+      <c r="F125" s="1">
+        <v>4</v>
+      </c>
+      <c r="G125" s="1">
+        <v>13.98</v>
+      </c>
+      <c r="H125" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="I125" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J125" s="1">
+        <v>4</v>
+      </c>
+      <c r="K125" s="1">
+        <v>29.02</v>
+      </c>
+      <c r="L125" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M125" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N125" s="1">
+        <v>4</v>
+      </c>
+      <c r="O125" s="1">
+        <v>22.54</v>
+      </c>
+      <c r="P125" s="1">
+        <v>7.3</v>
+      </c>
+      <c r="Q125" s="1">
+        <v>2.4300000000000002</v>
+      </c>
+    </row>
+    <row r="126" spans="2:17">
+      <c r="B126" s="1">
+        <v>5</v>
+      </c>
+      <c r="C126" s="1">
+        <v>23.13</v>
+      </c>
+      <c r="D126" s="1">
+        <v>6.64</v>
+      </c>
+      <c r="E126" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F126" s="1">
+        <v>5</v>
+      </c>
+      <c r="G126" s="1">
+        <v>13.9</v>
+      </c>
+      <c r="H126" s="1">
+        <v>4.84</v>
+      </c>
+      <c r="I126" s="1">
+        <v>1.46</v>
+      </c>
+      <c r="J126" s="1">
+        <v>5</v>
+      </c>
+      <c r="K126" s="1">
+        <v>33.299999999999997</v>
+      </c>
+      <c r="L126" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M126" s="1">
+        <v>0.34</v>
+      </c>
+      <c r="N126" s="1">
+        <v>5</v>
+      </c>
+      <c r="O126" s="1">
+        <v>20.76</v>
+      </c>
+      <c r="P126" s="1">
+        <v>7.7</v>
+      </c>
+      <c r="Q126" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="127" spans="2:17">
+      <c r="B127" s="1">
+        <v>6</v>
+      </c>
+      <c r="C127" s="1">
+        <v>25.8</v>
+      </c>
+      <c r="D127" s="1">
+        <v>8.74</v>
+      </c>
+      <c r="E127" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F127" s="1">
+        <v>6</v>
+      </c>
+      <c r="G127" s="1">
+        <v>14.35</v>
+      </c>
+      <c r="H127" s="1">
+        <v>5.49</v>
+      </c>
+      <c r="I127" s="1">
+        <v>1.67</v>
+      </c>
+      <c r="J127" s="1">
+        <v>6</v>
+      </c>
+      <c r="K127" s="1">
+        <v>34.94</v>
+      </c>
+      <c r="L127" s="1">
+        <v>0.3</v>
+      </c>
+      <c r="M127" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N127" s="1">
+        <v>6</v>
+      </c>
+      <c r="O127" s="1">
+        <v>22.6</v>
+      </c>
+      <c r="P127" s="1">
+        <v>7.68</v>
+      </c>
+      <c r="Q127" s="1">
+        <v>2.16</v>
+      </c>
+    </row>
+    <row r="128" spans="2:17">
+      <c r="B128" s="1">
+        <v>7</v>
+      </c>
+      <c r="C128" s="1">
+        <v>26.3</v>
+      </c>
+      <c r="D128" s="1">
+        <v>4.8600000000000003</v>
+      </c>
+      <c r="E128" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F128" s="1">
+        <v>7</v>
+      </c>
+      <c r="G128" s="1">
+        <v>14.28</v>
+      </c>
+      <c r="H128" s="1">
+        <v>4.8099999999999996</v>
+      </c>
+      <c r="I128" s="1">
+        <v>1.62</v>
+      </c>
+      <c r="J128" s="1">
+        <v>7</v>
+      </c>
+      <c r="K128" s="1">
+        <v>35.5</v>
+      </c>
+      <c r="L128" s="1">
+        <v>0.28999999999999998</v>
+      </c>
+      <c r="M128" s="1">
+        <v>0.47</v>
+      </c>
+      <c r="N128" s="1">
+        <v>7</v>
+      </c>
+      <c r="O128" s="1">
+        <v>26.99</v>
+      </c>
+      <c r="P128" s="1">
+        <v>7.56</v>
+      </c>
+      <c r="Q128" s="1">
+        <v>4.59</v>
+      </c>
+    </row>
+    <row r="129" spans="2:17">
+      <c r="B129" s="1">
+        <v>8</v>
+      </c>
+      <c r="C129" s="1">
+        <v>25.84</v>
+      </c>
+      <c r="D129" s="1">
+        <v>5.13</v>
+      </c>
+      <c r="E129" s="1">
+        <v>1.41</v>
+      </c>
+      <c r="F129" s="1">
+        <v>8</v>
+      </c>
+      <c r="G129" s="1">
+        <v>13.93</v>
+      </c>
+      <c r="H129" s="1">
+        <v>9.74</v>
+      </c>
+      <c r="I129" s="1">
+        <v>1.03</v>
+      </c>
+      <c r="J129" s="1">
+        <v>8</v>
+      </c>
+      <c r="K129" s="1">
+        <v>39.22</v>
+      </c>
+      <c r="L129" s="1">
+        <v>0.28000000000000003</v>
+      </c>
+      <c r="M129" s="1">
+        <v>0.46</v>
+      </c>
+      <c r="N129" s="1">
+        <v>8</v>
+      </c>
+      <c r="O129" s="1">
+        <v>22.34</v>
+      </c>
+      <c r="P129" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="Q129" s="1">
+        <v>2.2200000000000002</v>
+      </c>
+    </row>
+    <row r="130" spans="2:17">
+      <c r="B130" s="1">
+        <v>9</v>
+      </c>
+      <c r="C130" s="1">
+        <v>25.94</v>
+      </c>
+      <c r="D130" s="1">
+        <v>6.86</v>
+      </c>
+      <c r="E130" s="1">
+        <v>1.82</v>
+      </c>
+      <c r="F130" s="1">
+        <v>9</v>
+      </c>
+      <c r="G130" s="1">
+        <v>14.45</v>
+      </c>
+      <c r="H130" s="1">
+        <v>4.82</v>
+      </c>
+      <c r="I130" s="1">
+        <v>6.25</v>
+      </c>
+      <c r="J130" s="1">
+        <v>9</v>
+      </c>
+      <c r="K130" s="1">
+        <v>29.43</v>
+      </c>
+      <c r="L130" s="1">
+        <v>0.59</v>
+      </c>
+      <c r="M130" s="1">
+        <v>0.48</v>
+      </c>
+      <c r="N130" s="1">
+        <v>9</v>
+      </c>
+      <c r="O130" s="1">
+        <v>26.96</v>
+      </c>
+      <c r="P130" s="1">
+        <v>7.61</v>
+      </c>
+      <c r="Q130" s="1">
+        <v>2.15</v>
+      </c>
+    </row>
+    <row r="131" spans="2:17">
+      <c r="B131" s="1">
+        <v>10</v>
+      </c>
+      <c r="C131" s="1">
+        <v>25.95</v>
+      </c>
+      <c r="D131" s="1">
+        <v>6.95</v>
+      </c>
+      <c r="E131" s="1">
+        <v>1.05</v>
+      </c>
+      <c r="F131" s="1">
+        <v>10</v>
+      </c>
+      <c r="G131" s="1">
+        <v>19.41</v>
+      </c>
+      <c r="H131" s="1">
+        <v>3.41</v>
+      </c>
+      <c r="I131" s="1">
+        <v>1.59</v>
+      </c>
+      <c r="J131" s="1">
+        <v>10</v>
+      </c>
+      <c r="K131" s="1">
+        <v>34.65</v>
+      </c>
+      <c r="L131" s="1">
+        <v>0.37</v>
+      </c>
+      <c r="M131" s="1">
+        <v>0.35</v>
+      </c>
+      <c r="N131" s="1">
+        <v>10</v>
+      </c>
+      <c r="O131" s="1">
+        <v>22.57</v>
+      </c>
+      <c r="P131" s="1">
+        <v>7.44</v>
+      </c>
+      <c r="Q131" s="1">
+        <v>2.14</v>
+      </c>
+    </row>
+    <row r="132" spans="2:17">
+      <c r="B132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="C132" s="20">
+        <f>AVERAGE(C122:C131)</f>
+        <v>25.574999999999999</v>
+      </c>
+      <c r="D132" s="20">
+        <f>AVERAGE(D122:D131)</f>
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="E132" s="20">
+        <f>AVERAGE(E122:E131)</f>
+        <v>1.623</v>
+      </c>
+      <c r="F132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="G132" s="20">
+        <f>AVERAGE(G122:G131)</f>
+        <v>15.696999999999999</v>
+      </c>
+      <c r="H132" s="20">
+        <f>AVERAGE(H122:H131)</f>
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="I132" s="20">
+        <f>AVERAGE(I122:I131)</f>
+        <v>2.2929999999999997</v>
+      </c>
+      <c r="J132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="K132" s="20">
+        <f>AVERAGE(K122:K131)</f>
+        <v>33.346999999999994</v>
+      </c>
+      <c r="L132" s="20">
+        <f>AVERAGE(L122:L131)</f>
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="M132" s="20">
+        <f>AVERAGE(M122:M131)</f>
+        <v>0.73599999999999999</v>
+      </c>
+      <c r="N132" s="1" t="s">
+        <v>38</v>
+      </c>
+      <c r="O132" s="20">
+        <f>AVERAGE(O122:O131)</f>
+        <v>23.876000000000001</v>
+      </c>
+      <c r="P132" s="20">
+        <f>AVERAGE(P122:P131)</f>
+        <v>7.484</v>
+      </c>
+      <c r="Q132" s="20">
+        <f>AVERAGE(Q122:Q131)</f>
+        <v>2.726</v>
+      </c>
+    </row>
+    <row r="133" spans="2:17" ht="75">
+      <c r="B133" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="C133" s="1">
+        <v>44.89</v>
+      </c>
+      <c r="D133" s="1">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="E133" s="1">
+        <v>1.7</v>
+      </c>
+      <c r="F133" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="G133" s="1">
+        <v>30.88</v>
+      </c>
+      <c r="H133" s="1">
+        <v>6.29</v>
+      </c>
+      <c r="I133" s="1">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="J133" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="K133" s="1">
+        <v>40.81</v>
+      </c>
+      <c r="L133" s="1">
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="M133" s="1">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="N133" s="21" t="s">
+        <v>39</v>
+      </c>
+      <c r="O133" s="1">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="P133" s="1">
+        <v>11.91</v>
+      </c>
+      <c r="Q133" s="1">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
+    <row r="140" spans="2:17">
+      <c r="B140" s="36" t="s">
+        <v>48</v>
+      </c>
+      <c r="C140" s="36"/>
+      <c r="D140" s="36"/>
+      <c r="E140" s="36"/>
+      <c r="F140" s="36"/>
+      <c r="G140" s="36"/>
+    </row>
+    <row r="141" spans="2:17">
+      <c r="B141" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C141" s="36"/>
+      <c r="D141" s="36"/>
+      <c r="E141" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F141" s="36"/>
+      <c r="G141" s="36"/>
+    </row>
+    <row r="142" spans="2:17">
+      <c r="B142" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C142" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D142" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E142" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F142" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G142" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="143" spans="2:17">
+      <c r="B143" s="37">
+        <v>44.892000000000003</v>
+      </c>
+      <c r="C143" s="37">
+        <v>7.4729999999999999</v>
+      </c>
+      <c r="D143" s="37">
+        <v>1.7</v>
+      </c>
+      <c r="E143" s="37">
+        <f>AVERAGE(C122:C131)</f>
+        <v>25.574999999999999</v>
+      </c>
+      <c r="F143" s="37">
+        <f>AVERAGE(D122:D131)</f>
+        <v>6.8840000000000003</v>
+      </c>
+      <c r="G143" s="37">
+        <f>AVERAGE(E122:E131)</f>
+        <v>1.623</v>
+      </c>
+    </row>
+    <row r="144" spans="2:17">
+      <c r="B144" s="38"/>
+      <c r="C144" s="38"/>
+      <c r="D144" s="38"/>
+      <c r="E144" s="38"/>
+      <c r="F144" s="38"/>
+      <c r="G144" s="38"/>
+    </row>
+    <row r="145" spans="2:7">
+      <c r="B145" s="36" t="s">
+        <v>49</v>
+      </c>
+      <c r="C145" s="36"/>
+      <c r="D145" s="36"/>
+      <c r="E145" s="36"/>
+      <c r="F145" s="36"/>
+      <c r="G145" s="36"/>
+    </row>
+    <row r="146" spans="2:7">
+      <c r="B146" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C146" s="36"/>
+      <c r="D146" s="36"/>
+      <c r="E146" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F146" s="36"/>
+      <c r="G146" s="36"/>
+    </row>
+    <row r="147" spans="2:7">
+      <c r="B147" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C147" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D147" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E147" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F147" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G147" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="148" spans="2:7">
+      <c r="B148" s="37">
+        <v>30.881</v>
+      </c>
+      <c r="C148" s="37">
+        <v>6.2960000000000003</v>
+      </c>
+      <c r="D148" s="37">
+        <v>1.4950000000000001</v>
+      </c>
+      <c r="E148" s="37">
+        <f>AVERAGE(G122:G131)</f>
+        <v>15.696999999999999</v>
+      </c>
+      <c r="F148" s="37">
+        <f>AVERAGE(H122:H131)</f>
+        <v>5.6639999999999997</v>
+      </c>
+      <c r="G148" s="37">
+        <f>AVERAGE(I122:I131)</f>
+        <v>2.2929999999999997</v>
+      </c>
+    </row>
+    <row r="149" spans="2:7">
+      <c r="B149" s="39"/>
+      <c r="C149" s="39"/>
+      <c r="D149" s="39"/>
+      <c r="E149" s="39"/>
+      <c r="F149" s="39"/>
+      <c r="G149" s="39"/>
+    </row>
+    <row r="150" spans="2:7">
+      <c r="B150" s="36" t="s">
+        <v>50</v>
+      </c>
+      <c r="C150" s="36"/>
+      <c r="D150" s="36"/>
+      <c r="E150" s="36"/>
+      <c r="F150" s="36"/>
+      <c r="G150" s="36"/>
+    </row>
+    <row r="151" spans="2:7">
+      <c r="B151" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C151" s="36"/>
+      <c r="D151" s="36"/>
+      <c r="E151" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F151" s="36"/>
+      <c r="G151" s="36"/>
+    </row>
+    <row r="152" spans="2:7">
+      <c r="B152" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C152" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D152" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E152" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F152" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G152" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="153" spans="2:7">
+      <c r="B153" s="37">
+        <v>40.81</v>
+      </c>
+      <c r="C153" s="37">
+        <v>5.2910000000000004</v>
+      </c>
+      <c r="D153" s="37">
+        <v>1.3979999999999999</v>
+      </c>
+      <c r="E153" s="37">
+        <v>33.347000000000001</v>
+      </c>
+      <c r="F153" s="37">
+        <v>0.68200000000000005</v>
+      </c>
+      <c r="G153" s="37">
+        <v>0.73599999999999999</v>
+      </c>
+    </row>
+    <row r="154" spans="2:7">
+      <c r="B154" s="39"/>
+      <c r="C154" s="39"/>
+      <c r="D154" s="39"/>
+      <c r="E154" s="39"/>
+      <c r="F154" s="39"/>
+      <c r="G154" s="39"/>
+    </row>
+    <row r="155" spans="2:7">
+      <c r="B155" s="36" t="s">
+        <v>51</v>
+      </c>
+      <c r="C155" s="36"/>
+      <c r="D155" s="36"/>
+      <c r="E155" s="36"/>
+      <c r="F155" s="36"/>
+      <c r="G155" s="36"/>
+    </row>
+    <row r="156" spans="2:7">
+      <c r="B156" s="36" t="s">
+        <v>46</v>
+      </c>
+      <c r="C156" s="36"/>
+      <c r="D156" s="36"/>
+      <c r="E156" s="36" t="s">
+        <v>47</v>
+      </c>
+      <c r="F156" s="36"/>
+      <c r="G156" s="36"/>
+    </row>
+    <row r="157" spans="2:7">
+      <c r="B157" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="C157" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="D157" s="37" t="s">
+        <v>1</v>
+      </c>
+      <c r="E157" s="37" t="s">
+        <v>28</v>
+      </c>
+      <c r="F157" s="37" t="s">
+        <v>26</v>
+      </c>
+      <c r="G157" s="37" t="s">
+        <v>1</v>
+      </c>
+    </row>
+    <row r="158" spans="2:7">
+      <c r="B158" s="37">
+        <v>40.090000000000003</v>
+      </c>
+      <c r="C158" s="37">
+        <v>11.91</v>
+      </c>
+      <c r="D158" s="37">
+        <v>3.5009999999999999</v>
+      </c>
+      <c r="E158" s="37">
+        <v>23.876000000000001</v>
+      </c>
+      <c r="F158" s="37">
+        <v>11.91</v>
+      </c>
+      <c r="G158" s="37">
+        <v>3.5009999999999999</v>
+      </c>
+    </row>
   </sheetData>
-  <mergeCells count="128">
+  <mergeCells count="148">
+    <mergeCell ref="B150:G150"/>
+    <mergeCell ref="B151:D151"/>
+    <mergeCell ref="E151:G151"/>
+    <mergeCell ref="B155:G155"/>
+    <mergeCell ref="B156:D156"/>
+    <mergeCell ref="E156:G156"/>
+    <mergeCell ref="B141:D141"/>
+    <mergeCell ref="E141:G141"/>
+    <mergeCell ref="B145:G145"/>
+    <mergeCell ref="B146:D146"/>
+    <mergeCell ref="E146:G146"/>
+    <mergeCell ref="B119:E119"/>
+    <mergeCell ref="F119:I119"/>
+    <mergeCell ref="J119:M119"/>
+    <mergeCell ref="N119:Q119"/>
+    <mergeCell ref="C121:E121"/>
+    <mergeCell ref="G121:I121"/>
+    <mergeCell ref="K121:M121"/>
+    <mergeCell ref="O121:Q121"/>
+    <mergeCell ref="B140:G140"/>
+    <mergeCell ref="X101:Z101"/>
+    <mergeCell ref="AA101:AC101"/>
+    <mergeCell ref="AD101:AF101"/>
+    <mergeCell ref="A1:AF2"/>
+    <mergeCell ref="A80:AF81"/>
+    <mergeCell ref="M101:O101"/>
+    <mergeCell ref="P101:R101"/>
+    <mergeCell ref="S101:U101"/>
+    <mergeCell ref="X83:AF83"/>
+    <mergeCell ref="X84:AF84"/>
+    <mergeCell ref="X85:Z85"/>
+    <mergeCell ref="AA85:AC85"/>
+    <mergeCell ref="AD85:AF85"/>
+    <mergeCell ref="X99:AF99"/>
+    <mergeCell ref="X100:AF100"/>
+    <mergeCell ref="B101:D101"/>
+    <mergeCell ref="E101:G101"/>
+    <mergeCell ref="H101:J101"/>
+    <mergeCell ref="M83:U83"/>
+    <mergeCell ref="M84:U84"/>
+    <mergeCell ref="M85:O85"/>
+    <mergeCell ref="P85:R85"/>
+    <mergeCell ref="S85:U85"/>
+    <mergeCell ref="M99:U99"/>
+    <mergeCell ref="M58:U58"/>
+    <mergeCell ref="M59:U59"/>
+    <mergeCell ref="M60:O60"/>
+    <mergeCell ref="P60:R60"/>
+    <mergeCell ref="S60:U60"/>
+    <mergeCell ref="M100:U100"/>
+    <mergeCell ref="B84:J84"/>
+    <mergeCell ref="B85:D85"/>
+    <mergeCell ref="E85:G85"/>
+    <mergeCell ref="H85:J85"/>
+    <mergeCell ref="B99:J99"/>
+    <mergeCell ref="B100:J100"/>
+    <mergeCell ref="B83:J83"/>
+    <mergeCell ref="M74:U74"/>
+    <mergeCell ref="M75:U75"/>
+    <mergeCell ref="M76:O76"/>
+    <mergeCell ref="P76:R76"/>
+    <mergeCell ref="S76:U76"/>
+    <mergeCell ref="X59:AF59"/>
+    <mergeCell ref="X60:Z60"/>
+    <mergeCell ref="AA60:AC60"/>
+    <mergeCell ref="AD60:AF60"/>
+    <mergeCell ref="B74:J74"/>
+    <mergeCell ref="B75:J75"/>
+    <mergeCell ref="B76:D76"/>
+    <mergeCell ref="E76:G76"/>
+    <mergeCell ref="H76:J76"/>
+    <mergeCell ref="X74:AF74"/>
+    <mergeCell ref="X75:AF75"/>
+    <mergeCell ref="X76:Z76"/>
+    <mergeCell ref="AA76:AC76"/>
+    <mergeCell ref="AD76:AF76"/>
+    <mergeCell ref="AA33:AC33"/>
+    <mergeCell ref="M33:O33"/>
+    <mergeCell ref="P33:R33"/>
+    <mergeCell ref="S33:U33"/>
+    <mergeCell ref="A55:AF56"/>
+    <mergeCell ref="B58:J58"/>
+    <mergeCell ref="B59:J59"/>
+    <mergeCell ref="B60:D60"/>
+    <mergeCell ref="E60:G60"/>
+    <mergeCell ref="H60:J60"/>
+    <mergeCell ref="AD33:AF33"/>
+    <mergeCell ref="X49:AF49"/>
+    <mergeCell ref="X50:AF50"/>
+    <mergeCell ref="X51:Z51"/>
+    <mergeCell ref="AA51:AC51"/>
+    <mergeCell ref="AD51:AF51"/>
+    <mergeCell ref="B51:D51"/>
+    <mergeCell ref="E51:G51"/>
+    <mergeCell ref="H51:J51"/>
+    <mergeCell ref="M50:U50"/>
+    <mergeCell ref="M51:O51"/>
+    <mergeCell ref="P51:R51"/>
+    <mergeCell ref="S51:U51"/>
+    <mergeCell ref="X58:AF58"/>
+    <mergeCell ref="B22:J22"/>
+    <mergeCell ref="X22:AF22"/>
+    <mergeCell ref="B32:J32"/>
+    <mergeCell ref="B33:D33"/>
+    <mergeCell ref="E33:G33"/>
+    <mergeCell ref="H33:J33"/>
+    <mergeCell ref="B49:J49"/>
+    <mergeCell ref="B50:J50"/>
+    <mergeCell ref="X23:AF23"/>
+    <mergeCell ref="B31:J31"/>
+    <mergeCell ref="M31:U31"/>
+    <mergeCell ref="A28:AF29"/>
+    <mergeCell ref="M23:U23"/>
+    <mergeCell ref="M24:O24"/>
+    <mergeCell ref="P24:R24"/>
+    <mergeCell ref="S24:U24"/>
+    <mergeCell ref="M32:U32"/>
+    <mergeCell ref="X24:Z24"/>
+    <mergeCell ref="AA24:AC24"/>
+    <mergeCell ref="AD24:AF24"/>
+    <mergeCell ref="M49:U49"/>
+    <mergeCell ref="X31:AF31"/>
+    <mergeCell ref="X32:AF32"/>
+    <mergeCell ref="X33:Z33"/>
     <mergeCell ref="B106:B107"/>
     <mergeCell ref="B108:B109"/>
     <mergeCell ref="B110:B111"/>
@@ -7556,113 +9571,10 @@
     <mergeCell ref="B6:D6"/>
     <mergeCell ref="E6:G6"/>
     <mergeCell ref="H6:J6"/>
-    <mergeCell ref="B22:J22"/>
-    <mergeCell ref="X22:AF22"/>
-    <mergeCell ref="B32:J32"/>
-    <mergeCell ref="B33:D33"/>
-    <mergeCell ref="E33:G33"/>
-    <mergeCell ref="H33:J33"/>
-    <mergeCell ref="B49:J49"/>
-    <mergeCell ref="B50:J50"/>
-    <mergeCell ref="X23:AF23"/>
-    <mergeCell ref="B31:J31"/>
-    <mergeCell ref="M31:U31"/>
-    <mergeCell ref="A28:AF29"/>
-    <mergeCell ref="M23:U23"/>
-    <mergeCell ref="M24:O24"/>
-    <mergeCell ref="P24:R24"/>
-    <mergeCell ref="S24:U24"/>
-    <mergeCell ref="M32:U32"/>
-    <mergeCell ref="X24:Z24"/>
-    <mergeCell ref="AA24:AC24"/>
-    <mergeCell ref="AD24:AF24"/>
-    <mergeCell ref="M49:U49"/>
-    <mergeCell ref="X31:AF31"/>
-    <mergeCell ref="X32:AF32"/>
-    <mergeCell ref="X33:Z33"/>
-    <mergeCell ref="AA33:AC33"/>
-    <mergeCell ref="M33:O33"/>
-    <mergeCell ref="P33:R33"/>
-    <mergeCell ref="S33:U33"/>
-    <mergeCell ref="A55:AF56"/>
-    <mergeCell ref="B58:J58"/>
-    <mergeCell ref="B59:J59"/>
-    <mergeCell ref="B60:D60"/>
-    <mergeCell ref="E60:G60"/>
-    <mergeCell ref="H60:J60"/>
-    <mergeCell ref="AD33:AF33"/>
-    <mergeCell ref="X49:AF49"/>
-    <mergeCell ref="X50:AF50"/>
-    <mergeCell ref="X51:Z51"/>
-    <mergeCell ref="AA51:AC51"/>
-    <mergeCell ref="AD51:AF51"/>
-    <mergeCell ref="B51:D51"/>
-    <mergeCell ref="E51:G51"/>
-    <mergeCell ref="H51:J51"/>
-    <mergeCell ref="M50:U50"/>
-    <mergeCell ref="M51:O51"/>
-    <mergeCell ref="P51:R51"/>
-    <mergeCell ref="S51:U51"/>
-    <mergeCell ref="X58:AF58"/>
-    <mergeCell ref="X59:AF59"/>
-    <mergeCell ref="X60:Z60"/>
-    <mergeCell ref="AA60:AC60"/>
-    <mergeCell ref="AD60:AF60"/>
-    <mergeCell ref="B74:J74"/>
-    <mergeCell ref="B75:J75"/>
-    <mergeCell ref="B76:D76"/>
-    <mergeCell ref="E76:G76"/>
-    <mergeCell ref="H76:J76"/>
-    <mergeCell ref="M58:U58"/>
-    <mergeCell ref="M59:U59"/>
-    <mergeCell ref="M60:O60"/>
-    <mergeCell ref="P60:R60"/>
-    <mergeCell ref="S60:U60"/>
-    <mergeCell ref="M100:U100"/>
-    <mergeCell ref="B84:J84"/>
-    <mergeCell ref="B85:D85"/>
-    <mergeCell ref="E85:G85"/>
-    <mergeCell ref="H85:J85"/>
-    <mergeCell ref="B99:J99"/>
-    <mergeCell ref="B100:J100"/>
-    <mergeCell ref="X74:AF74"/>
-    <mergeCell ref="X75:AF75"/>
-    <mergeCell ref="X76:Z76"/>
-    <mergeCell ref="AA76:AC76"/>
-    <mergeCell ref="AD76:AF76"/>
-    <mergeCell ref="B83:J83"/>
-    <mergeCell ref="M74:U74"/>
-    <mergeCell ref="M75:U75"/>
-    <mergeCell ref="M76:O76"/>
-    <mergeCell ref="P76:R76"/>
-    <mergeCell ref="S76:U76"/>
-    <mergeCell ref="X101:Z101"/>
-    <mergeCell ref="AA101:AC101"/>
-    <mergeCell ref="AD101:AF101"/>
-    <mergeCell ref="A1:AF2"/>
-    <mergeCell ref="A80:AF81"/>
-    <mergeCell ref="M101:O101"/>
-    <mergeCell ref="P101:R101"/>
-    <mergeCell ref="S101:U101"/>
-    <mergeCell ref="X83:AF83"/>
-    <mergeCell ref="X84:AF84"/>
-    <mergeCell ref="X85:Z85"/>
-    <mergeCell ref="AA85:AC85"/>
-    <mergeCell ref="AD85:AF85"/>
-    <mergeCell ref="X99:AF99"/>
-    <mergeCell ref="X100:AF100"/>
-    <mergeCell ref="B101:D101"/>
-    <mergeCell ref="E101:G101"/>
-    <mergeCell ref="H101:J101"/>
-    <mergeCell ref="M83:U83"/>
-    <mergeCell ref="M84:U84"/>
-    <mergeCell ref="M85:O85"/>
-    <mergeCell ref="P85:R85"/>
-    <mergeCell ref="S85:U85"/>
-    <mergeCell ref="M99:U99"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
+  <drawing r:id="rId2"/>
 </worksheet>
 </file>
 
@@ -7671,39 +9583,39 @@
   <dimension ref="A2:P16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="M2" sqref="M2:P16"/>
+      <selection activeCell="A2" sqref="A2:P16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <cols>
-    <col min="1" max="1" width="12.54296875" customWidth="1"/>
+    <col min="1" max="1" width="12.5703125" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="2" spans="1:16">
-      <c r="A2" s="34" t="s">
+      <c r="A2" s="35" t="s">
         <v>31</v>
       </c>
-      <c r="B2" s="34"/>
-      <c r="C2" s="34"/>
-      <c r="D2" s="34"/>
-      <c r="E2" s="34" t="s">
+      <c r="B2" s="35"/>
+      <c r="C2" s="35"/>
+      <c r="D2" s="35"/>
+      <c r="E2" s="35" t="s">
         <v>34</v>
       </c>
-      <c r="F2" s="34"/>
-      <c r="G2" s="34"/>
-      <c r="H2" s="34"/>
-      <c r="I2" s="34" t="s">
+      <c r="F2" s="35"/>
+      <c r="G2" s="35"/>
+      <c r="H2" s="35"/>
+      <c r="I2" s="35" t="s">
         <v>30</v>
       </c>
-      <c r="J2" s="34"/>
-      <c r="K2" s="34"/>
-      <c r="L2" s="34"/>
-      <c r="M2" s="34" t="s">
+      <c r="J2" s="35"/>
+      <c r="K2" s="35"/>
+      <c r="L2" s="35"/>
+      <c r="M2" s="35" t="s">
         <v>29</v>
       </c>
-      <c r="N2" s="34"/>
-      <c r="O2" s="34"/>
-      <c r="P2" s="34"/>
+      <c r="N2" s="35"/>
+      <c r="O2" s="35"/>
+      <c r="P2" s="35"/>
     </row>
     <row r="3" spans="1:16">
       <c r="A3" s="1" t="s">
@@ -7759,35 +9671,35 @@
       <c r="A4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="B4" s="27" t="s">
+      <c r="B4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="C4" s="27"/>
-      <c r="D4" s="27"/>
+      <c r="C4" s="33"/>
+      <c r="D4" s="33"/>
       <c r="E4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="F4" s="27" t="s">
+      <c r="F4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="G4" s="27"/>
-      <c r="H4" s="27"/>
+      <c r="G4" s="33"/>
+      <c r="H4" s="33"/>
       <c r="I4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="J4" s="27" t="s">
+      <c r="J4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="K4" s="27"/>
-      <c r="L4" s="27"/>
+      <c r="K4" s="33"/>
+      <c r="L4" s="33"/>
       <c r="M4" s="1" t="s">
         <v>37</v>
       </c>
-      <c r="N4" s="27" t="s">
+      <c r="N4" s="33" t="s">
         <v>36</v>
       </c>
-      <c r="O4" s="27"/>
-      <c r="P4" s="27"/>
+      <c r="O4" s="33"/>
+      <c r="P4" s="33"/>
     </row>
     <row r="5" spans="1:16">
       <c r="A5" s="1">
@@ -8424,7 +10336,7 @@
       <selection activeCell="AG31" sqref="AG31:AG41"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="14.5"/>
+  <sheetFormatPr defaultRowHeight="15"/>
   <sheetData>
     <row r="1" spans="1:33">
       <c r="A1" s="23" t="s">
@@ -8552,145 +10464,145 @@
       <c r="B5" s="6" t="s">
         <v>0</v>
       </c>
-      <c r="C5" s="29" t="s">
+      <c r="C5" s="28" t="s">
         <v>1</v>
       </c>
-      <c r="D5" s="30"/>
-      <c r="E5" s="30"/>
-      <c r="F5" s="30"/>
-      <c r="G5" s="30"/>
-      <c r="H5" s="30"/>
-      <c r="I5" s="30"/>
-      <c r="J5" s="30"/>
-      <c r="K5" s="31"/>
+      <c r="D5" s="29"/>
+      <c r="E5" s="29"/>
+      <c r="F5" s="29"/>
+      <c r="G5" s="29"/>
+      <c r="H5" s="29"/>
+      <c r="I5" s="29"/>
+      <c r="J5" s="29"/>
+      <c r="K5" s="30"/>
       <c r="M5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N5" s="29" t="s">
+      <c r="N5" s="28" t="s">
         <v>26</v>
       </c>
-      <c r="O5" s="30"/>
-      <c r="P5" s="30"/>
-      <c r="Q5" s="30"/>
-      <c r="R5" s="30"/>
-      <c r="S5" s="30"/>
-      <c r="T5" s="30"/>
-      <c r="U5" s="30"/>
-      <c r="V5" s="31"/>
+      <c r="O5" s="29"/>
+      <c r="P5" s="29"/>
+      <c r="Q5" s="29"/>
+      <c r="R5" s="29"/>
+      <c r="S5" s="29"/>
+      <c r="T5" s="29"/>
+      <c r="U5" s="29"/>
+      <c r="V5" s="30"/>
       <c r="X5" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y5" s="29" t="s">
+      <c r="Y5" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Z5" s="30"/>
-      <c r="AA5" s="30"/>
-      <c r="AB5" s="30"/>
-      <c r="AC5" s="30"/>
-      <c r="AD5" s="30"/>
-      <c r="AE5" s="30"/>
-      <c r="AF5" s="30"/>
-      <c r="AG5" s="31"/>
+      <c r="Z5" s="29"/>
+      <c r="AA5" s="29"/>
+      <c r="AB5" s="29"/>
+      <c r="AC5" s="29"/>
+      <c r="AD5" s="29"/>
+      <c r="AE5" s="29"/>
+      <c r="AF5" s="29"/>
+      <c r="AG5" s="30"/>
     </row>
     <row r="6" spans="1:33">
       <c r="B6" s="7" t="s">
         <v>2</v>
       </c>
-      <c r="C6" s="29" t="s">
+      <c r="C6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="D6" s="30"/>
-      <c r="E6" s="30"/>
-      <c r="F6" s="30"/>
-      <c r="G6" s="30"/>
-      <c r="H6" s="30"/>
-      <c r="I6" s="30"/>
-      <c r="J6" s="30"/>
-      <c r="K6" s="31"/>
+      <c r="D6" s="29"/>
+      <c r="E6" s="29"/>
+      <c r="F6" s="29"/>
+      <c r="G6" s="29"/>
+      <c r="H6" s="29"/>
+      <c r="I6" s="29"/>
+      <c r="J6" s="29"/>
+      <c r="K6" s="30"/>
       <c r="M6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N6" s="29" t="s">
+      <c r="N6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="O6" s="30"/>
-      <c r="P6" s="30"/>
-      <c r="Q6" s="30"/>
-      <c r="R6" s="30"/>
-      <c r="S6" s="30"/>
-      <c r="T6" s="30"/>
-      <c r="U6" s="30"/>
-      <c r="V6" s="31"/>
+      <c r="O6" s="29"/>
+      <c r="P6" s="29"/>
+      <c r="Q6" s="29"/>
+      <c r="R6" s="29"/>
+      <c r="S6" s="29"/>
+      <c r="T6" s="29"/>
+      <c r="U6" s="29"/>
+      <c r="V6" s="30"/>
       <c r="X6" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y6" s="29" t="s">
+      <c r="Y6" s="28" t="s">
         <v>22</v>
       </c>
-      <c r="Z6" s="30"/>
-      <c r="AA6" s="30"/>
-      <c r="AB6" s="30"/>
-      <c r="AC6" s="30"/>
-      <c r="AD6" s="30"/>
-      <c r="AE6" s="30"/>
-      <c r="AF6" s="30"/>
-      <c r="AG6" s="31"/>
+      <c r="Z6" s="29"/>
+      <c r="AA6" s="29"/>
+      <c r="AB6" s="29"/>
+      <c r="AC6" s="29"/>
+      <c r="AD6" s="29"/>
+      <c r="AE6" s="29"/>
+      <c r="AF6" s="29"/>
+      <c r="AG6" s="30"/>
     </row>
     <row r="7" spans="1:33">
       <c r="B7" s="8" t="s">
         <v>4</v>
       </c>
-      <c r="C7" s="29" t="s">
+      <c r="C7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="D7" s="32"/>
-      <c r="E7" s="33"/>
-      <c r="F7" s="29" t="s">
+      <c r="D7" s="31"/>
+      <c r="E7" s="32"/>
+      <c r="F7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="G7" s="32"/>
-      <c r="H7" s="33"/>
-      <c r="I7" s="29" t="s">
+      <c r="G7" s="31"/>
+      <c r="H7" s="32"/>
+      <c r="I7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="J7" s="32"/>
-      <c r="K7" s="33"/>
+      <c r="J7" s="31"/>
+      <c r="K7" s="32"/>
       <c r="M7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N7" s="29" t="s">
+      <c r="N7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="O7" s="30"/>
-      <c r="P7" s="31"/>
-      <c r="Q7" s="29" t="s">
+      <c r="O7" s="29"/>
+      <c r="P7" s="30"/>
+      <c r="Q7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="R7" s="30"/>
-      <c r="S7" s="31"/>
-      <c r="T7" s="27" t="s">
+      <c r="R7" s="29"/>
+      <c r="S7" s="30"/>
+      <c r="T7" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="U7" s="27"/>
-      <c r="V7" s="27"/>
+      <c r="U7" s="33"/>
+      <c r="V7" s="33"/>
       <c r="X7" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y7" s="29" t="s">
+      <c r="Y7" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Z7" s="30"/>
-      <c r="AA7" s="31"/>
-      <c r="AB7" s="29" t="s">
+      <c r="Z7" s="29"/>
+      <c r="AA7" s="30"/>
+      <c r="AB7" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AC7" s="30"/>
-      <c r="AD7" s="31"/>
-      <c r="AE7" s="29" t="s">
+      <c r="AC7" s="29"/>
+      <c r="AD7" s="30"/>
+      <c r="AE7" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AF7" s="30"/>
-      <c r="AG7" s="31"/>
+      <c r="AF7" s="29"/>
+      <c r="AG7" s="30"/>
     </row>
     <row r="8" spans="1:33">
       <c r="B8" s="9"/>
@@ -9003,145 +10915,145 @@
       <c r="B13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="C13" s="27" t="s">
+      <c r="C13" s="33" t="s">
         <v>1</v>
       </c>
-      <c r="D13" s="27"/>
-      <c r="E13" s="27"/>
-      <c r="F13" s="27"/>
-      <c r="G13" s="27"/>
-      <c r="H13" s="27"/>
-      <c r="I13" s="27"/>
-      <c r="J13" s="27"/>
-      <c r="K13" s="27"/>
+      <c r="D13" s="33"/>
+      <c r="E13" s="33"/>
+      <c r="F13" s="33"/>
+      <c r="G13" s="33"/>
+      <c r="H13" s="33"/>
+      <c r="I13" s="33"/>
+      <c r="J13" s="33"/>
+      <c r="K13" s="33"/>
       <c r="M13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="N13" s="27" t="s">
+      <c r="N13" s="33" t="s">
         <v>26</v>
       </c>
-      <c r="O13" s="27"/>
-      <c r="P13" s="27"/>
-      <c r="Q13" s="27"/>
-      <c r="R13" s="27"/>
-      <c r="S13" s="27"/>
-      <c r="T13" s="27"/>
-      <c r="U13" s="27"/>
-      <c r="V13" s="27"/>
+      <c r="O13" s="33"/>
+      <c r="P13" s="33"/>
+      <c r="Q13" s="33"/>
+      <c r="R13" s="33"/>
+      <c r="S13" s="33"/>
+      <c r="T13" s="33"/>
+      <c r="U13" s="33"/>
+      <c r="V13" s="33"/>
       <c r="X13" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="Y13" s="29" t="s">
+      <c r="Y13" s="28" t="s">
         <v>28</v>
       </c>
-      <c r="Z13" s="30"/>
-      <c r="AA13" s="30"/>
-      <c r="AB13" s="30"/>
-      <c r="AC13" s="30"/>
-      <c r="AD13" s="30"/>
-      <c r="AE13" s="30"/>
-      <c r="AF13" s="30"/>
-      <c r="AG13" s="31"/>
+      <c r="Z13" s="29"/>
+      <c r="AA13" s="29"/>
+      <c r="AB13" s="29"/>
+      <c r="AC13" s="29"/>
+      <c r="AD13" s="29"/>
+      <c r="AE13" s="29"/>
+      <c r="AF13" s="29"/>
+      <c r="AG13" s="30"/>
     </row>
     <row r="14" spans="1:33">
       <c r="B14" s="1" t="s">
         <v>24</v>
       </c>
-      <c r="C14" s="27" t="s">
+      <c r="C14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="D14" s="27"/>
-      <c r="E14" s="27"/>
-      <c r="F14" s="27"/>
-      <c r="G14" s="27"/>
-      <c r="H14" s="27"/>
-      <c r="I14" s="27"/>
-      <c r="J14" s="27"/>
-      <c r="K14" s="27"/>
+      <c r="D14" s="33"/>
+      <c r="E14" s="33"/>
+      <c r="F14" s="33"/>
+      <c r="G14" s="33"/>
+      <c r="H14" s="33"/>
+      <c r="I14" s="33"/>
+      <c r="J14" s="33"/>
+      <c r="K14" s="33"/>
       <c r="M14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="N14" s="27" t="s">
+      <c r="N14" s="33" t="s">
         <v>3</v>
       </c>
-      <c r="O14" s="27"/>
-      <c r="P14" s="27"/>
-      <c r="Q14" s="27"/>
-      <c r="R14" s="27"/>
-      <c r="S14" s="27"/>
-      <c r="T14" s="27"/>
-      <c r="U14" s="27"/>
-      <c r="V14" s="27"/>
+      <c r="O14" s="33"/>
+      <c r="P14" s="33"/>
+      <c r="Q14" s="33"/>
+      <c r="R14" s="33"/>
+      <c r="S14" s="33"/>
+      <c r="T14" s="33"/>
+      <c r="U14" s="33"/>
+      <c r="V14" s="33"/>
       <c r="X14" s="1" t="s">
         <v>2</v>
       </c>
-      <c r="Y14" s="29" t="s">
+      <c r="Y14" s="28" t="s">
         <v>3</v>
       </c>
-      <c r="Z14" s="30"/>
-      <c r="AA14" s="30"/>
-      <c r="AB14" s="30"/>
-      <c r="AC14" s="30"/>
-      <c r="AD14" s="30"/>
-      <c r="AE14" s="30"/>
-      <c r="AF14" s="30"/>
-      <c r="AG14" s="31"/>
+      <c r="Z14" s="29"/>
+      <c r="AA14" s="29"/>
+      <c r="AB14" s="29"/>
+      <c r="AC14" s="29"/>
+      <c r="AD14" s="29"/>
+      <c r="AE14" s="29"/>
+      <c r="AF14" s="29"/>
+      <c r="AG14" s="30"/>
     </row>
     <row r="15" spans="1:33">
       <c r="B15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="C15" s="27" t="s">
+      <c r="C15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="D15" s="27"/>
-      <c r="E15" s="27"/>
-      <c r="F15" s="27" t="s">
+      <c r="D15" s="33"/>
+      <c r="E15" s="33"/>
+      <c r="F15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="G15" s="27"/>
-      <c r="H15" s="27"/>
-      <c r="I15" s="27" t="s">
+      <c r="G15" s="33"/>
+      <c r="H15" s="33"/>
+      <c r="I15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="J15" s="27"/>
-      <c r="K15" s="27"/>
+      <c r="J15" s="33"/>
+      <c r="K15" s="33"/>
       <c r="M15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="N15" s="27" t="s">
+      <c r="N15" s="33" t="s">
         <v>5</v>
       </c>
-      <c r="O15" s="27"/>
-      <c r="P15" s="27"/>
-      <c r="Q15" s="27" t="s">
+      <c r="O15" s="33"/>
+      <c r="P15" s="33"/>
+      <c r="Q15" s="33" t="s">
         <v>6</v>
       </c>
-      <c r="R15" s="27"/>
-      <c r="S15" s="27"/>
-      <c r="T15" s="27" t="s">
+      <c r="R15" s="33"/>
+      <c r="S15" s="33"/>
+      <c r="T15" s="33" t="s">
         <v>7</v>
       </c>
-      <c r="U15" s="27"/>
-      <c r="V15" s="27"/>
+      <c r="U15" s="33"/>
+      <c r="V15" s="33"/>
       <c r="X15" s="1" t="s">
         <v>4</v>
       </c>
-      <c r="Y15" s="29" t="s">
+      <c r="Y15" s="28" t="s">
         <v>5</v>
       </c>
-      <c r="Z15" s="30"/>
-      <c r="AA15" s="31"/>
-      <c r="AB15" s="29" t="s">
+      <c r="Z15" s="29"/>
+      <c r="AA15" s="30"/>
+      <c r="AB15" s="28" t="s">
         <v>6</v>
       </c>
-      <c r="AC15" s="30"/>
-      <c r="AD15" s="31"/>
-      <c r="AE15" s="29" t="s">
+      <c r="AC15" s="29"/>
+      <c r="AD15" s="30"/>
+      <c r="AE15" s="28" t="s">
         <v>7</v>
       </c>
-      <c r="AF15" s="30"/>
-      <c r="AG15" s="31"/>
+      <c r="AF15" s="29"/>
+      <c r="AG15" s="30"/>
     </row>
     <row r="16" spans="1:33">
       <c r="C16" s="1" t="s">
@@ -10056,7 +11968,7 @@
         <v>273</v>
       </c>
     </row>
-    <row r="26" spans="2:33" ht="15" thickBot="1">
+    <row r="26" spans="2:33" ht="15.75" thickBot="1">
       <c r="B26" s="2" t="s">
         <v>20</v>
       </c>
@@ -10148,7 +12060,7 @@
         <v>277</v>
       </c>
     </row>
-    <row r="27" spans="2:33" ht="15" thickBot="1">
+    <row r="27" spans="2:33" ht="15.75" thickBot="1">
       <c r="B27" s="3" t="s">
         <v>25</v>
       </c>
@@ -11053,7 +12965,7 @@
         <v>40.622500000000002</v>
       </c>
     </row>
-    <row r="40" spans="2:33" ht="15" thickBot="1">
+    <row r="40" spans="2:33" ht="15.75" thickBot="1">
       <c r="D40" s="1">
         <v>1076</v>
       </c>
@@ -11130,7 +13042,7 @@
         <v>40.534999999999997</v>
       </c>
     </row>
-    <row r="41" spans="2:33" ht="15" thickBot="1">
+    <row r="41" spans="2:33" ht="15.75" thickBot="1">
       <c r="D41" s="2">
         <v>1083</v>
       </c>
@@ -11213,7 +13125,7 @@
         <v>39.954999999999998</v>
       </c>
     </row>
-    <row r="42" spans="2:33" ht="15" thickBot="1">
+    <row r="42" spans="2:33" ht="15.75" thickBot="1">
       <c r="D42" s="4">
         <f t="shared" ref="D42" si="25">AVERAGE(D32:D41)</f>
         <v>1014.3</v>
@@ -11297,12 +13209,15 @@
     </row>
   </sheetData>
   <mergeCells count="30">
-    <mergeCell ref="C5:K5"/>
-    <mergeCell ref="N5:V5"/>
-    <mergeCell ref="Y5:AG5"/>
-    <mergeCell ref="C6:K6"/>
-    <mergeCell ref="N6:V6"/>
-    <mergeCell ref="Y6:AG6"/>
+    <mergeCell ref="C15:E15"/>
+    <mergeCell ref="F15:H15"/>
+    <mergeCell ref="AE15:AG15"/>
+    <mergeCell ref="I15:K15"/>
+    <mergeCell ref="N15:P15"/>
+    <mergeCell ref="Q15:S15"/>
+    <mergeCell ref="T15:V15"/>
+    <mergeCell ref="Y15:AA15"/>
+    <mergeCell ref="AB15:AD15"/>
     <mergeCell ref="T7:V7"/>
     <mergeCell ref="Y7:AA7"/>
     <mergeCell ref="AB7:AD7"/>
@@ -11318,15 +13233,12 @@
     <mergeCell ref="C13:K13"/>
     <mergeCell ref="N13:V13"/>
     <mergeCell ref="Y13:AG13"/>
-    <mergeCell ref="C15:E15"/>
-    <mergeCell ref="F15:H15"/>
-    <mergeCell ref="AE15:AG15"/>
-    <mergeCell ref="I15:K15"/>
-    <mergeCell ref="N15:P15"/>
-    <mergeCell ref="Q15:S15"/>
-    <mergeCell ref="T15:V15"/>
-    <mergeCell ref="Y15:AA15"/>
-    <mergeCell ref="AB15:AD15"/>
+    <mergeCell ref="C5:K5"/>
+    <mergeCell ref="N5:V5"/>
+    <mergeCell ref="Y5:AG5"/>
+    <mergeCell ref="C6:K6"/>
+    <mergeCell ref="N6:V6"/>
+    <mergeCell ref="Y6:AG6"/>
   </mergeCells>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
   <pageSetup paperSize="9" orientation="portrait" r:id="rId1"/>
